--- a/需求分析/接口文档/客户/更新说明.xlsx
+++ b/需求分析/接口文档/客户/更新说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22515" windowHeight="10485"/>
+    <workbookView windowWidth="23715" windowHeight="10665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>更新时间</t>
   </si>
@@ -75,13 +75,106 @@
     <t>移交客户</t>
   </si>
   <si>
-    <t>添加接口</t>
-  </si>
-  <si>
     <t>业务员移交客户</t>
   </si>
   <si>
     <t>跟单员移交客户</t>
+  </si>
+  <si>
+    <t>养殖信息(新)</t>
+  </si>
+  <si>
+    <t>所有的接口</t>
+  </si>
+  <si>
+    <t>hadAccount(账号状态)</t>
+  </si>
+  <si>
+    <t>商城接口</t>
+  </si>
+  <si>
+    <t>订单</t>
+  </si>
+  <si>
+    <t>获取运费模板列表(客户)</t>
+  </si>
+  <si>
+    <t>添加商家地址返回</t>
+  </si>
+  <si>
+    <t>客户建账</t>
+  </si>
+  <si>
+    <t>获取审批人列表</t>
+  </si>
+  <si>
+    <t>暂停使用</t>
+  </si>
+  <si>
+    <t>未建账</t>
+  </si>
+  <si>
+    <t>添加融云id返回</t>
+  </si>
+  <si>
+    <t>已建账</t>
+  </si>
+  <si>
+    <t>申请客户建账</t>
+  </si>
+  <si>
+    <t>添加 申请原因 参数</t>
+  </si>
+  <si>
+    <t>账号被冻结</t>
+  </si>
+  <si>
+    <t>冻结客户</t>
+  </si>
+  <si>
+    <t>解冻客户</t>
+  </si>
+  <si>
+    <t>获取客户详情</t>
+  </si>
+  <si>
+    <t>添加 账号冻结 状态</t>
+  </si>
+  <si>
+    <t>商品浏览</t>
+  </si>
+  <si>
+    <t>查看商品详情</t>
+  </si>
+  <si>
+    <t>添加 规格重量 返回</t>
+  </si>
+  <si>
+    <t>购物车</t>
+  </si>
+  <si>
+    <t>获取购物车商品列表</t>
+  </si>
+  <si>
+    <t>获取订单列表</t>
+  </si>
+  <si>
+    <t>添加 订单号 返回</t>
+  </si>
+  <si>
+    <t>获取订单详情</t>
+  </si>
+  <si>
+    <t>筛选订单</t>
+  </si>
+  <si>
+    <t>根据订单号获取订单列表</t>
+  </si>
+  <si>
+    <t>业务订单</t>
+  </si>
+  <si>
+    <t>财务订单</t>
   </si>
 </sst>
 </file>
@@ -125,6 +218,119 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -133,43 +339,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -177,84 +346,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,175 +380,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8064A2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,25 +584,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,17 +613,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,6 +656,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -580,10 +679,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,137 +691,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -740,6 +839,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="39" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="40" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="43" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="40" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1089,17 +1209,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="21.125" customWidth="1"/>
-    <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
     <col min="5" max="5" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1193,7 +1313,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>10</v>
@@ -1208,10 +1328,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>10</v>
@@ -1226,19 +1346,346 @@
         <v>15</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2">
+        <v>42998</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="D15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2">
+        <v>42999</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="9"/>
+      <c r="B29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="9"/>
+      <c r="B30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="9"/>
+      <c r="B31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="10"/>
+      <c r="B32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="10"/>
+      <c r="B33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="11"/>
+      <c r="B34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="G15:I16"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/需求分析/接口文档/客户/更新说明.xlsx
+++ b/需求分析/接口文档/客户/更新说明.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>更新时间</t>
   </si>
@@ -175,6 +175,27 @@
   </si>
   <si>
     <t>财务订单</t>
+  </si>
+  <si>
+    <t>权限角色接口</t>
+  </si>
+  <si>
+    <t>权限角色</t>
+  </si>
+  <si>
+    <t>获取用户角色</t>
+  </si>
+  <si>
+    <t>获取跟单员列表</t>
+  </si>
+  <si>
+    <t>开放使用</t>
+  </si>
+  <si>
+    <t>库存接口</t>
+  </si>
+  <si>
+    <t>申请库存</t>
   </si>
 </sst>
 </file>
@@ -182,9 +203,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -225,6 +246,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -234,7 +315,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,21 +323,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,21 +353,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -294,54 +362,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,25 +419,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,139 +569,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,41 +604,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,17 +639,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,10 +700,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,134 +715,134 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -848,9 +869,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1209,10 +1227,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1422,7 +1440,7 @@
         <v>31</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="I17" s="12">
+      <c r="I17" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1447,7 +1465,7 @@
         <v>33</v>
       </c>
       <c r="H18" s="8"/>
-      <c r="I18" s="12">
+      <c r="I18" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1472,7 +1490,7 @@
         <v>36</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="12">
+      <c r="I19" s="11">
         <v>2</v>
       </c>
     </row>
@@ -1569,7 +1587,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="9"/>
+      <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
         <v>24</v>
       </c>
@@ -1587,7 +1605,7 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="9"/>
+      <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
         <v>24</v>
       </c>
@@ -1605,7 +1623,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="9"/>
+      <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
         <v>24</v>
       </c>
@@ -1623,7 +1641,7 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="10"/>
+      <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
         <v>24</v>
       </c>
@@ -1641,7 +1659,7 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="10"/>
+      <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
         <v>24</v>
       </c>
@@ -1659,7 +1677,7 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="11"/>
+      <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
         <v>24</v>
       </c>
@@ -1676,8 +1694,82 @@
         <v>10</v>
       </c>
     </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2">
+        <v>42999</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="9"/>
+      <c r="B39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="9"/>
+      <c r="B40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="10"/>
+      <c r="B41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
@@ -1685,6 +1777,7 @@
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A15:A22"/>
     <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A38:A41"/>
     <mergeCell ref="G15:I16"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求分析/接口文档/客户/更新说明.xlsx
+++ b/需求分析/接口文档/客户/更新说明.xlsx
@@ -2,21 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23715" windowHeight="10665"/>
+    <workbookView windowWidth="28455" windowHeight="12060"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="当前更新" sheetId="1" r:id="rId1"/>
+    <sheet name="历史更新" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
   <si>
     <t>更新时间</t>
   </si>
@@ -36,6 +35,78 @@
     <t>状态</t>
   </si>
   <si>
+    <t>商城接口</t>
+  </si>
+  <si>
+    <t>更名为 客户商城接口</t>
+  </si>
+  <si>
+    <t>已验证</t>
+  </si>
+  <si>
+    <t>商家商城接口</t>
+  </si>
+  <si>
+    <t>原 商城接口 的拆分</t>
+  </si>
+  <si>
+    <t>运费模板</t>
+  </si>
+  <si>
+    <t>销售点</t>
+  </si>
+  <si>
+    <t>商品编辑</t>
+  </si>
+  <si>
+    <t>商品浏览</t>
+  </si>
+  <si>
+    <t>所有接口</t>
+  </si>
+  <si>
+    <t>新增接口</t>
+  </si>
+  <si>
+    <t>订单接口</t>
+  </si>
+  <si>
+    <t>业务订单(业务)</t>
+  </si>
+  <si>
+    <t>业务订单(业务管理)</t>
+  </si>
+  <si>
+    <t>财务订单(财务)</t>
+  </si>
+  <si>
+    <t>财务订单(财务管理)</t>
+  </si>
+  <si>
+    <t>后勤订单(跟单)</t>
+  </si>
+  <si>
+    <t>库存接口</t>
+  </si>
+  <si>
+    <t>暂停使用</t>
+  </si>
+  <si>
+    <t>已废弃</t>
+  </si>
+  <si>
+    <t>需求接口</t>
+  </si>
+  <si>
+    <t>激活登陆</t>
+  </si>
+  <si>
+    <t>用户登录</t>
+  </si>
+  <si>
+    <t>添加 企业名称 返回</t>
+  </si>
+  <si>
     <t>客户接口</t>
   </si>
   <si>
@@ -48,9 +119,6 @@
     <t>新添加的接口</t>
   </si>
   <si>
-    <t>已验证</t>
-  </si>
-  <si>
     <t>个人信息接口</t>
   </si>
   <si>
@@ -60,9 +128,6 @@
     <t>获取经营单位详情</t>
   </si>
   <si>
-    <t>新增接口</t>
-  </si>
-  <si>
     <t>客户信息</t>
   </si>
   <si>
@@ -90,9 +155,6 @@
     <t>hadAccount(账号状态)</t>
   </si>
   <si>
-    <t>商城接口</t>
-  </si>
-  <si>
     <t>订单</t>
   </si>
   <si>
@@ -108,9 +170,6 @@
     <t>获取审批人列表</t>
   </si>
   <si>
-    <t>暂停使用</t>
-  </si>
-  <si>
     <t>未建账</t>
   </si>
   <si>
@@ -141,9 +200,6 @@
     <t>添加 账号冻结 状态</t>
   </si>
   <si>
-    <t>商品浏览</t>
-  </si>
-  <si>
     <t>查看商品详情</t>
   </si>
   <si>
@@ -190,9 +246,6 @@
   </si>
   <si>
     <t>开放使用</t>
-  </si>
-  <si>
-    <t>库存接口</t>
   </si>
   <si>
     <t>申请库存</t>
@@ -203,9 +256,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -246,39 +299,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,7 +315,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,16 +366,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,39 +406,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,139 +472,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,6 +653,69 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,69 +745,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -700,10 +753,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -715,112 +768,112 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -842,7 +895,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -870,14 +923,17 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="40" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="19" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="35">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="35" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="40" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1227,13 +1283,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="21.125" customWidth="1"/>
@@ -1242,6 +1298,284 @@
   </cols>
   <sheetData>
     <row r="1" ht="20.25" spans="1:6">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>43005</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A15"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.25" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1266,37 +1600,37 @@
         <v>42994</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1304,73 +1638,73 @@
         <v>42996</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1378,22 +1712,22 @@
         <v>42998</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1401,19 +1735,19 @@
     <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -1422,130 +1756,130 @@
     <row r="17" spans="1:9">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="I17" s="11">
+      <c r="I17" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H18" s="8"/>
-      <c r="I18" s="11">
+      <c r="I18" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="11">
+      <c r="I19" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1553,145 +1887,145 @@
         <v>42999</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1699,73 +2033,73 @@
         <v>42999</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="9"/>
+      <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="9"/>
+      <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="10"/>
+      <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1784,38 +2118,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/需求分析/接口文档/客户/更新说明.xlsx
+++ b/需求分析/接口文档/客户/更新说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28455" windowHeight="12060"/>
+    <workbookView windowWidth="28455" windowHeight="12060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="当前更新" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>更新时间</t>
   </si>
@@ -107,6 +107,21 @@
     <t>添加 企业名称 返回</t>
   </si>
   <si>
+    <t>查找分类下的商品</t>
+  </si>
+  <si>
+    <t>查看商品详情</t>
+  </si>
+  <si>
+    <t>搜索商品</t>
+  </si>
+  <si>
+    <t>所有 筛选订单 接口</t>
+  </si>
+  <si>
+    <t>新增 订单总价 返回</t>
+  </si>
+  <si>
     <t>客户接口</t>
   </si>
   <si>
@@ -198,9 +213,6 @@
   </si>
   <si>
     <t>添加 账号冻结 状态</t>
-  </si>
-  <si>
-    <t>查看商品详情</t>
   </si>
   <si>
     <t>添加 规格重量 返回</t>
@@ -256,10 +268,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -299,8 +311,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,21 +328,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,14 +352,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -360,30 +359,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,6 +375,50 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -407,15 +427,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,61 +484,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,24 +634,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -568,73 +646,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,6 +669,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -668,6 +710,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,58 +752,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,149 +765,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -933,6 +945,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="35" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1283,10 +1298,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1551,9 +1566,83 @@
         <v>8</v>
       </c>
     </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>43008</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="13"/>
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A17:A20"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1566,8 +1655,8 @@
   <sheetPr/>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1600,16 +1689,16 @@
         <v>42994</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>8</v>
@@ -1618,13 +1707,13 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>16</v>
@@ -1638,16 +1727,16 @@
         <v>42996</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>8</v>
@@ -1656,13 +1745,13 @@
     <row r="8" spans="1:6">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>16</v>
@@ -1674,13 +1763,13 @@
     <row r="9" spans="1:6">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>16</v>
@@ -1692,13 +1781,13 @@
     <row r="10" spans="1:6">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>16</v>
@@ -1712,13 +1801,13 @@
         <v>42998</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>16</v>
@@ -1727,7 +1816,7 @@
         <v>8</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1738,13 +1827,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>8</v>
@@ -1756,13 +1845,13 @@
     <row r="17" spans="1:9">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>24</v>
@@ -1771,7 +1860,7 @@
         <v>8</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="9">
@@ -1781,22 +1870,22 @@
     <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="9">
@@ -1806,22 +1895,22 @@
     <row r="19" spans="1:9">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="9">
@@ -1831,13 +1920,13 @@
     <row r="20" spans="1:6">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>16</v>
@@ -1849,13 +1938,13 @@
     <row r="21" spans="1:6">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>16</v>
@@ -1867,16 +1956,16 @@
     <row r="22" spans="1:6">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>8</v>
@@ -1893,10 +1982,10 @@
         <v>14</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>8</v>
@@ -1908,13 +1997,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>8</v>
@@ -1926,13 +2015,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>8</v>
@@ -1944,13 +2033,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>8</v>
@@ -1962,13 +2051,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>8</v>
@@ -1980,10 +2069,10 @@
         <v>6</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>16</v>
@@ -1998,10 +2087,10 @@
         <v>6</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>16</v>
@@ -2016,10 +2105,10 @@
         <v>6</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>16</v>
@@ -2033,13 +2122,13 @@
         <v>42999</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>16</v>
@@ -2051,16 +2140,16 @@
     <row r="39" spans="1:6">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>8</v>
@@ -2069,16 +2158,16 @@
     <row r="40" spans="1:6">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>8</v>
@@ -2090,13 +2179,13 @@
         <v>23</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>8</v>

--- a/需求分析/接口文档/客户/更新说明.xlsx
+++ b/需求分析/接口文档/客户/更新说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28455" windowHeight="12060" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="当前更新" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
   <si>
     <t>更新时间</t>
   </si>
@@ -35,18 +35,222 @@
     <t>状态</t>
   </si>
   <si>
+    <t>商家商城接口</t>
+  </si>
+  <si>
+    <t>商品编辑</t>
+  </si>
+  <si>
+    <t>添加商品</t>
+  </si>
+  <si>
+    <t>添加 商品编码 参数</t>
+  </si>
+  <si>
+    <t>已验证</t>
+  </si>
+  <si>
+    <t>修改商品</t>
+  </si>
+  <si>
+    <t>获取商品详情</t>
+  </si>
+  <si>
+    <t>客户接口</t>
+  </si>
+  <si>
+    <t>客户信息</t>
+  </si>
+  <si>
+    <t>客户建档</t>
+  </si>
+  <si>
+    <t>可选参数调整(后台内部调整)</t>
+  </si>
+  <si>
+    <t>订单接口</t>
+  </si>
+  <si>
+    <t>订单凭证</t>
+  </si>
+  <si>
+    <t>所有接口</t>
+  </si>
+  <si>
+    <t>新增凭证接口</t>
+  </si>
+  <si>
+    <t>客户资源</t>
+  </si>
+  <si>
+    <t>获取成员的客户列表</t>
+  </si>
+  <si>
+    <t>调整 部门Id 参数</t>
+  </si>
+  <si>
+    <t>获取部门下的成员列表</t>
+  </si>
+  <si>
+    <t>更新 promoter 参数</t>
+  </si>
+  <si>
+    <t>个人信息</t>
+  </si>
+  <si>
+    <t>获取默认收货地址</t>
+  </si>
+  <si>
+    <t>新添加的接口</t>
+  </si>
+  <si>
+    <t>个人信息接口</t>
+  </si>
+  <si>
+    <t>经营单位</t>
+  </si>
+  <si>
+    <t>获取经营单位详情</t>
+  </si>
+  <si>
+    <t>新增接口</t>
+  </si>
+  <si>
+    <t>获取客户列表</t>
+  </si>
+  <si>
+    <t>添加返回客户头像</t>
+  </si>
+  <si>
+    <t>移交客户</t>
+  </si>
+  <si>
+    <t>业务员移交客户</t>
+  </si>
+  <si>
+    <t>跟单员移交客户</t>
+  </si>
+  <si>
+    <t>养殖信息(新)</t>
+  </si>
+  <si>
+    <t>所有的接口</t>
+  </si>
+  <si>
+    <t>hadAccount(账号状态)</t>
+  </si>
+  <si>
     <t>商城接口</t>
   </si>
   <si>
+    <t>订单</t>
+  </si>
+  <si>
+    <t>获取运费模板列表(客户)</t>
+  </si>
+  <si>
+    <t>添加商家地址返回</t>
+  </si>
+  <si>
+    <t>客户建账</t>
+  </si>
+  <si>
+    <t>获取审批人列表</t>
+  </si>
+  <si>
+    <t>暂停使用</t>
+  </si>
+  <si>
+    <t>未建账</t>
+  </si>
+  <si>
+    <t>添加融云id返回</t>
+  </si>
+  <si>
+    <t>已建账</t>
+  </si>
+  <si>
+    <t>申请客户建账</t>
+  </si>
+  <si>
+    <t>添加 申请原因 参数</t>
+  </si>
+  <si>
+    <t>账号被冻结</t>
+  </si>
+  <si>
+    <t>冻结客户</t>
+  </si>
+  <si>
+    <t>解冻客户</t>
+  </si>
+  <si>
+    <t>获取客户详情</t>
+  </si>
+  <si>
+    <t>添加 账号冻结 状态</t>
+  </si>
+  <si>
+    <t>商品浏览</t>
+  </si>
+  <si>
+    <t>查看商品详情</t>
+  </si>
+  <si>
+    <t>添加 规格重量 返回</t>
+  </si>
+  <si>
+    <t>购物车</t>
+  </si>
+  <si>
+    <t>获取购物车商品列表</t>
+  </si>
+  <si>
+    <t>获取订单列表</t>
+  </si>
+  <si>
+    <t>添加 订单号 返回</t>
+  </si>
+  <si>
+    <t>获取订单详情</t>
+  </si>
+  <si>
+    <t>筛选订单</t>
+  </si>
+  <si>
+    <t>根据订单号获取订单列表</t>
+  </si>
+  <si>
+    <t>业务订单</t>
+  </si>
+  <si>
+    <t>财务订单</t>
+  </si>
+  <si>
+    <t>权限角色接口</t>
+  </si>
+  <si>
+    <t>权限角色</t>
+  </si>
+  <si>
+    <t>获取用户角色</t>
+  </si>
+  <si>
+    <t>获取跟单员列表</t>
+  </si>
+  <si>
+    <t>开放使用</t>
+  </si>
+  <si>
+    <t>库存接口</t>
+  </si>
+  <si>
+    <t>申请库存</t>
+  </si>
+  <si>
     <t>更名为 客户商城接口</t>
   </si>
   <si>
-    <t>已验证</t>
-  </si>
-  <si>
-    <t>商家商城接口</t>
-  </si>
-  <si>
     <t>原 商城接口 的拆分</t>
   </si>
   <si>
@@ -56,21 +260,6 @@
     <t>销售点</t>
   </si>
   <si>
-    <t>商品编辑</t>
-  </si>
-  <si>
-    <t>商品浏览</t>
-  </si>
-  <si>
-    <t>所有接口</t>
-  </si>
-  <si>
-    <t>新增接口</t>
-  </si>
-  <si>
-    <t>订单接口</t>
-  </si>
-  <si>
     <t>业务订单(业务)</t>
   </si>
   <si>
@@ -86,12 +275,6 @@
     <t>后勤订单(跟单)</t>
   </si>
   <si>
-    <t>库存接口</t>
-  </si>
-  <si>
-    <t>暂停使用</t>
-  </si>
-  <si>
     <t>已废弃</t>
   </si>
   <si>
@@ -110,9 +293,6 @@
     <t>查找分类下的商品</t>
   </si>
   <si>
-    <t>查看商品详情</t>
-  </si>
-  <si>
     <t>搜索商品</t>
   </si>
   <si>
@@ -120,147 +300,6 @@
   </si>
   <si>
     <t>新增 订单总价 返回</t>
-  </si>
-  <si>
-    <t>客户接口</t>
-  </si>
-  <si>
-    <t>个人信息</t>
-  </si>
-  <si>
-    <t>获取默认收货地址</t>
-  </si>
-  <si>
-    <t>新添加的接口</t>
-  </si>
-  <si>
-    <t>个人信息接口</t>
-  </si>
-  <si>
-    <t>经营单位</t>
-  </si>
-  <si>
-    <t>获取经营单位详情</t>
-  </si>
-  <si>
-    <t>客户信息</t>
-  </si>
-  <si>
-    <t>获取客户列表</t>
-  </si>
-  <si>
-    <t>添加返回客户头像</t>
-  </si>
-  <si>
-    <t>移交客户</t>
-  </si>
-  <si>
-    <t>业务员移交客户</t>
-  </si>
-  <si>
-    <t>跟单员移交客户</t>
-  </si>
-  <si>
-    <t>养殖信息(新)</t>
-  </si>
-  <si>
-    <t>所有的接口</t>
-  </si>
-  <si>
-    <t>hadAccount(账号状态)</t>
-  </si>
-  <si>
-    <t>订单</t>
-  </si>
-  <si>
-    <t>获取运费模板列表(客户)</t>
-  </si>
-  <si>
-    <t>添加商家地址返回</t>
-  </si>
-  <si>
-    <t>客户建账</t>
-  </si>
-  <si>
-    <t>获取审批人列表</t>
-  </si>
-  <si>
-    <t>未建账</t>
-  </si>
-  <si>
-    <t>添加融云id返回</t>
-  </si>
-  <si>
-    <t>已建账</t>
-  </si>
-  <si>
-    <t>申请客户建账</t>
-  </si>
-  <si>
-    <t>添加 申请原因 参数</t>
-  </si>
-  <si>
-    <t>账号被冻结</t>
-  </si>
-  <si>
-    <t>冻结客户</t>
-  </si>
-  <si>
-    <t>解冻客户</t>
-  </si>
-  <si>
-    <t>获取客户详情</t>
-  </si>
-  <si>
-    <t>添加 账号冻结 状态</t>
-  </si>
-  <si>
-    <t>添加 规格重量 返回</t>
-  </si>
-  <si>
-    <t>购物车</t>
-  </si>
-  <si>
-    <t>获取购物车商品列表</t>
-  </si>
-  <si>
-    <t>获取订单列表</t>
-  </si>
-  <si>
-    <t>添加 订单号 返回</t>
-  </si>
-  <si>
-    <t>获取订单详情</t>
-  </si>
-  <si>
-    <t>筛选订单</t>
-  </si>
-  <si>
-    <t>根据订单号获取订单列表</t>
-  </si>
-  <si>
-    <t>业务订单</t>
-  </si>
-  <si>
-    <t>财务订单</t>
-  </si>
-  <si>
-    <t>权限角色接口</t>
-  </si>
-  <si>
-    <t>权限角色</t>
-  </si>
-  <si>
-    <t>获取用户角色</t>
-  </si>
-  <si>
-    <t>获取跟单员列表</t>
-  </si>
-  <si>
-    <t>开放使用</t>
-  </si>
-  <si>
-    <t>申请库存</t>
   </si>
 </sst>
 </file>
@@ -269,9 +308,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -311,6 +350,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -334,25 +380,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,6 +390,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,9 +412,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -397,8 +434,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,8 +449,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,14 +471,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -484,163 +523,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,6 +719,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,17 +770,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -734,17 +777,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,10 +804,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -777,16 +816,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -795,119 +834,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -935,19 +974,16 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="40" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="19" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="35">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="35" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="40" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="19" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1298,22 +1334,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="21.125" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" spans="1:6">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1339,310 +1375,130 @@
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E5" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E6" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="E8" s="4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2">
-        <v>43008</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="13"/>
-      <c r="B20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A17:A20"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A8"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1653,15 +1509,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="23.625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="24.875" customWidth="1"/>
+    <col min="5" max="5" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" spans="1:6">
@@ -1689,37 +1549,37 @@
         <v>42994</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1727,73 +1587,73 @@
         <v>42996</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1801,22 +1661,22 @@
         <v>42998</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1824,19 +1684,19 @@
     <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -1845,130 +1705,130 @@
     <row r="17" spans="1:9">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="I17" s="9">
+      <c r="I17" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H18" s="8"/>
-      <c r="I18" s="9">
+      <c r="I18" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="9">
+      <c r="I19" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1976,145 +1836,145 @@
         <v>42999</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2122,85 +1982,394 @@
         <v>42999</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2">
+        <v>43005</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2"/>
+      <c r="B48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2"/>
+      <c r="B49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>8</v>
+      <c r="D50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2"/>
+      <c r="B54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2"/>
+      <c r="B55" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2"/>
+      <c r="B56" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2">
+        <v>43008</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2"/>
+      <c r="B59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2"/>
+      <c r="B60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="2"/>
+      <c r="B61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C61:D61"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A15:A22"/>
     <mergeCell ref="A27:A34"/>
     <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A43:A56"/>
+    <mergeCell ref="A58:A61"/>
     <mergeCell ref="G15:I16"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求分析/接口文档/客户/更新说明.xlsx
+++ b/需求分析/接口文档/客户/更新说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="20955" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="当前更新" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
   <si>
     <t>更新时间</t>
   </si>
@@ -35,229 +35,232 @@
     <t>状态</t>
   </si>
   <si>
+    <t>订单接口</t>
+  </si>
+  <si>
+    <t>客户订单</t>
+  </si>
+  <si>
+    <t>生成订单</t>
+  </si>
+  <si>
+    <t>添加 商品不存在 返回值</t>
+  </si>
+  <si>
+    <t>已验证</t>
+  </si>
+  <si>
+    <t>客户接口</t>
+  </si>
+  <si>
+    <t>养殖信息（新）</t>
+  </si>
+  <si>
+    <t>获取养殖信息详情（新）</t>
+  </si>
+  <si>
+    <t>新增接口</t>
+  </si>
+  <si>
+    <t>客户资源</t>
+  </si>
+  <si>
+    <t>获取养殖信息列表</t>
+  </si>
+  <si>
+    <t>添加 json 返回</t>
+  </si>
+  <si>
+    <t>获取养殖信息详情</t>
+  </si>
+  <si>
+    <t>所有订单筛选接口</t>
+  </si>
+  <si>
+    <t>更新 订单状态</t>
+  </si>
+  <si>
+    <t>权限角色接口</t>
+  </si>
+  <si>
+    <t>权限角色</t>
+  </si>
+  <si>
+    <t>获取用户角色</t>
+  </si>
+  <si>
+    <t>添加 角色代码 返回值</t>
+  </si>
+  <si>
+    <t>客户跟进</t>
+  </si>
+  <si>
+    <t>所有接口</t>
+  </si>
+  <si>
+    <t>添加 跟进标题 参数</t>
+  </si>
+  <si>
+    <t>个人信息</t>
+  </si>
+  <si>
+    <t>获取默认收货地址</t>
+  </si>
+  <si>
+    <t>新添加的接口</t>
+  </si>
+  <si>
+    <t>个人信息接口</t>
+  </si>
+  <si>
+    <t>经营单位</t>
+  </si>
+  <si>
+    <t>获取经营单位详情</t>
+  </si>
+  <si>
+    <t>客户信息</t>
+  </si>
+  <si>
+    <t>获取客户列表</t>
+  </si>
+  <si>
+    <t>添加返回客户头像</t>
+  </si>
+  <si>
+    <t>移交客户</t>
+  </si>
+  <si>
+    <t>业务员移交客户</t>
+  </si>
+  <si>
+    <t>跟单员移交客户</t>
+  </si>
+  <si>
+    <t>养殖信息(新)</t>
+  </si>
+  <si>
+    <t>所有的接口</t>
+  </si>
+  <si>
+    <t>hadAccount(账号状态)</t>
+  </si>
+  <si>
+    <t>商城接口</t>
+  </si>
+  <si>
+    <t>订单</t>
+  </si>
+  <si>
+    <t>获取运费模板列表(客户)</t>
+  </si>
+  <si>
+    <t>添加商家地址返回</t>
+  </si>
+  <si>
+    <t>客户建账</t>
+  </si>
+  <si>
+    <t>获取审批人列表</t>
+  </si>
+  <si>
+    <t>暂停使用</t>
+  </si>
+  <si>
+    <t>未建账</t>
+  </si>
+  <si>
+    <t>添加融云id返回</t>
+  </si>
+  <si>
+    <t>已建账</t>
+  </si>
+  <si>
+    <t>申请客户建账</t>
+  </si>
+  <si>
+    <t>添加 申请原因 参数</t>
+  </si>
+  <si>
+    <t>账号被冻结</t>
+  </si>
+  <si>
+    <t>冻结客户</t>
+  </si>
+  <si>
+    <t>解冻客户</t>
+  </si>
+  <si>
+    <t>获取客户详情</t>
+  </si>
+  <si>
+    <t>添加 账号冻结 状态</t>
+  </si>
+  <si>
+    <t>商品浏览</t>
+  </si>
+  <si>
+    <t>查看商品详情</t>
+  </si>
+  <si>
+    <t>添加 规格重量 返回</t>
+  </si>
+  <si>
+    <t>购物车</t>
+  </si>
+  <si>
+    <t>获取购物车商品列表</t>
+  </si>
+  <si>
+    <t>获取订单列表</t>
+  </si>
+  <si>
+    <t>添加 订单号 返回</t>
+  </si>
+  <si>
+    <t>获取订单详情</t>
+  </si>
+  <si>
+    <t>筛选订单</t>
+  </si>
+  <si>
+    <t>根据订单号获取订单列表</t>
+  </si>
+  <si>
+    <t>业务订单</t>
+  </si>
+  <si>
+    <t>财务订单</t>
+  </si>
+  <si>
+    <t>获取跟单员列表</t>
+  </si>
+  <si>
+    <t>开放使用</t>
+  </si>
+  <si>
+    <t>库存接口</t>
+  </si>
+  <si>
+    <t>申请库存</t>
+  </si>
+  <si>
+    <t>更名为 客户商城接口</t>
+  </si>
+  <si>
     <t>商家商城接口</t>
   </si>
   <si>
+    <t>原 商城接口 的拆分</t>
+  </si>
+  <si>
+    <t>运费模板</t>
+  </si>
+  <si>
+    <t>销售点</t>
+  </si>
+  <si>
     <t>商品编辑</t>
-  </si>
-  <si>
-    <t>添加商品</t>
-  </si>
-  <si>
-    <t>添加 商品编码 参数</t>
-  </si>
-  <si>
-    <t>已验证</t>
-  </si>
-  <si>
-    <t>修改商品</t>
-  </si>
-  <si>
-    <t>获取商品详情</t>
-  </si>
-  <si>
-    <t>客户接口</t>
-  </si>
-  <si>
-    <t>客户信息</t>
-  </si>
-  <si>
-    <t>客户建档</t>
-  </si>
-  <si>
-    <t>可选参数调整(后台内部调整)</t>
-  </si>
-  <si>
-    <t>订单接口</t>
-  </si>
-  <si>
-    <t>订单凭证</t>
-  </si>
-  <si>
-    <t>所有接口</t>
-  </si>
-  <si>
-    <t>新增凭证接口</t>
-  </si>
-  <si>
-    <t>客户资源</t>
-  </si>
-  <si>
-    <t>获取成员的客户列表</t>
-  </si>
-  <si>
-    <t>调整 部门Id 参数</t>
-  </si>
-  <si>
-    <t>获取部门下的成员列表</t>
-  </si>
-  <si>
-    <t>更新 promoter 参数</t>
-  </si>
-  <si>
-    <t>个人信息</t>
-  </si>
-  <si>
-    <t>获取默认收货地址</t>
-  </si>
-  <si>
-    <t>新添加的接口</t>
-  </si>
-  <si>
-    <t>个人信息接口</t>
-  </si>
-  <si>
-    <t>经营单位</t>
-  </si>
-  <si>
-    <t>获取经营单位详情</t>
-  </si>
-  <si>
-    <t>新增接口</t>
-  </si>
-  <si>
-    <t>获取客户列表</t>
-  </si>
-  <si>
-    <t>添加返回客户头像</t>
-  </si>
-  <si>
-    <t>移交客户</t>
-  </si>
-  <si>
-    <t>业务员移交客户</t>
-  </si>
-  <si>
-    <t>跟单员移交客户</t>
-  </si>
-  <si>
-    <t>养殖信息(新)</t>
-  </si>
-  <si>
-    <t>所有的接口</t>
-  </si>
-  <si>
-    <t>hadAccount(账号状态)</t>
-  </si>
-  <si>
-    <t>商城接口</t>
-  </si>
-  <si>
-    <t>订单</t>
-  </si>
-  <si>
-    <t>获取运费模板列表(客户)</t>
-  </si>
-  <si>
-    <t>添加商家地址返回</t>
-  </si>
-  <si>
-    <t>客户建账</t>
-  </si>
-  <si>
-    <t>获取审批人列表</t>
-  </si>
-  <si>
-    <t>暂停使用</t>
-  </si>
-  <si>
-    <t>未建账</t>
-  </si>
-  <si>
-    <t>添加融云id返回</t>
-  </si>
-  <si>
-    <t>已建账</t>
-  </si>
-  <si>
-    <t>申请客户建账</t>
-  </si>
-  <si>
-    <t>添加 申请原因 参数</t>
-  </si>
-  <si>
-    <t>账号被冻结</t>
-  </si>
-  <si>
-    <t>冻结客户</t>
-  </si>
-  <si>
-    <t>解冻客户</t>
-  </si>
-  <si>
-    <t>获取客户详情</t>
-  </si>
-  <si>
-    <t>添加 账号冻结 状态</t>
-  </si>
-  <si>
-    <t>商品浏览</t>
-  </si>
-  <si>
-    <t>查看商品详情</t>
-  </si>
-  <si>
-    <t>添加 规格重量 返回</t>
-  </si>
-  <si>
-    <t>购物车</t>
-  </si>
-  <si>
-    <t>获取购物车商品列表</t>
-  </si>
-  <si>
-    <t>获取订单列表</t>
-  </si>
-  <si>
-    <t>添加 订单号 返回</t>
-  </si>
-  <si>
-    <t>获取订单详情</t>
-  </si>
-  <si>
-    <t>筛选订单</t>
-  </si>
-  <si>
-    <t>根据订单号获取订单列表</t>
-  </si>
-  <si>
-    <t>业务订单</t>
-  </si>
-  <si>
-    <t>财务订单</t>
-  </si>
-  <si>
-    <t>权限角色接口</t>
-  </si>
-  <si>
-    <t>权限角色</t>
-  </si>
-  <si>
-    <t>获取用户角色</t>
-  </si>
-  <si>
-    <t>获取跟单员列表</t>
-  </si>
-  <si>
-    <t>开放使用</t>
-  </si>
-  <si>
-    <t>库存接口</t>
-  </si>
-  <si>
-    <t>申请库存</t>
-  </si>
-  <si>
-    <t>更名为 客户商城接口</t>
-  </si>
-  <si>
-    <t>原 商城接口 的拆分</t>
-  </si>
-  <si>
-    <t>运费模板</t>
-  </si>
-  <si>
-    <t>销售点</t>
   </si>
   <si>
     <t>业务订单(业务)</t>
@@ -307,10 +310,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -351,38 +354,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,15 +376,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,9 +413,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,29 +444,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -523,13 +526,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,151 +634,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,17 +711,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,32 +741,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -771,8 +759,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,8 +779,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,10 +807,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -816,137 +819,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -984,6 +987,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1334,13 +1340,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="21.125" customWidth="1"/>
@@ -1370,7 +1376,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>43005</v>
+        <v>43015</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1391,16 +1397,16 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>10</v>
@@ -1409,16 +1415,16 @@
     <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>10</v>
@@ -1427,16 +1433,16 @@
     <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>10</v>
@@ -1445,14 +1451,12 @@
     <row r="6" spans="1:6">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>19</v>
       </c>
+      <c r="D6" s="13"/>
       <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1460,45 +1464,49 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2">
+        <v>43018</v>
+      </c>
       <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A8"/>
+  <mergeCells count="3">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1511,8 +1519,8 @@
   <sheetPr/>
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1549,16 +1557,16 @@
         <v>42994</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>10</v>
@@ -1567,16 +1575,16 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>10</v>
@@ -1587,16 +1595,16 @@
         <v>42996</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>10</v>
@@ -1605,16 +1613,16 @@
     <row r="8" spans="1:6">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>10</v>
@@ -1623,16 +1631,16 @@
     <row r="9" spans="1:6">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>10</v>
@@ -1641,16 +1649,16 @@
     <row r="10" spans="1:6">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>10</v>
@@ -1661,22 +1669,22 @@
         <v>42998</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1684,16 +1692,16 @@
     <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>10</v>
@@ -1705,22 +1713,22 @@
     <row r="17" spans="1:9">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="11">
@@ -1730,22 +1738,22 @@
     <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="11">
@@ -1755,22 +1763,22 @@
     <row r="19" spans="1:9">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="11">
@@ -1780,16 +1788,16 @@
     <row r="20" spans="1:6">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>10</v>
@@ -1798,16 +1806,16 @@
     <row r="21" spans="1:6">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>10</v>
@@ -1816,16 +1824,16 @@
     <row r="22" spans="1:6">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>10</v>
@@ -1836,16 +1844,16 @@
         <v>42999</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>10</v>
@@ -1854,16 +1862,16 @@
     <row r="28" spans="1:6">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>10</v>
@@ -1872,16 +1880,16 @@
     <row r="29" spans="1:6">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>10</v>
@@ -1890,16 +1898,16 @@
     <row r="30" spans="1:6">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>10</v>
@@ -1908,16 +1916,16 @@
     <row r="31" spans="1:6">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>10</v>
@@ -1926,16 +1934,16 @@
     <row r="32" spans="1:6">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>10</v>
@@ -1944,16 +1952,16 @@
     <row r="33" spans="1:6">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>10</v>
@@ -1962,16 +1970,16 @@
     <row r="34" spans="1:6">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="E34" s="4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>10</v>
@@ -1982,16 +1990,16 @@
         <v>42999</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>10</v>
@@ -2000,16 +2008,16 @@
     <row r="39" spans="1:6">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>10</v>
@@ -2018,16 +2026,16 @@
     <row r="40" spans="1:6">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>10</v>
@@ -2036,16 +2044,16 @@
     <row r="41" spans="1:6">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="D41" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>10</v>
@@ -2056,12 +2064,12 @@
         <v>43005</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>10</v>
@@ -2070,7 +2078,7 @@
     <row r="44" spans="1:6">
       <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -2084,7 +2092,7 @@
     <row r="45" spans="1:6">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>79</v>
@@ -2100,7 +2108,7 @@
     <row r="46" spans="1:6">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>80</v>
@@ -2116,10 +2124,10 @@
     <row r="47" spans="1:6">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
@@ -2132,16 +2140,16 @@
     <row r="48" spans="1:6">
       <c r="A48" s="2"/>
       <c r="B48" s="3" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>10</v>
@@ -2150,7 +2158,7 @@
     <row r="49" spans="1:6">
       <c r="A49" s="2"/>
       <c r="B49" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -2164,16 +2172,16 @@
     <row r="50" spans="1:6">
       <c r="A50" s="2"/>
       <c r="B50" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>10</v>
@@ -2182,16 +2190,16 @@
     <row r="51" spans="1:6">
       <c r="A51" s="2"/>
       <c r="B51" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>10</v>
@@ -2200,16 +2208,16 @@
     <row r="52" spans="1:6">
       <c r="A52" s="2"/>
       <c r="B52" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>10</v>
@@ -2218,16 +2226,16 @@
     <row r="53" spans="1:6">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>10</v>
@@ -2236,16 +2244,16 @@
     <row r="54" spans="1:6">
       <c r="A54" s="2"/>
       <c r="B54" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>10</v>
@@ -2254,32 +2262,32 @@
     <row r="55" spans="1:6">
       <c r="A55" s="2"/>
       <c r="B55" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2"/>
       <c r="B56" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>10</v>
@@ -2290,16 +2298,16 @@
         <v>43008</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>10</v>
@@ -2308,16 +2316,16 @@
     <row r="59" spans="1:6">
       <c r="A59" s="2"/>
       <c r="B59" s="3" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>10</v>
@@ -2326,16 +2334,16 @@
     <row r="60" spans="1:6">
       <c r="A60" s="2"/>
       <c r="B60" s="3" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>10</v>
@@ -2344,14 +2352,14 @@
     <row r="61" spans="1:6">
       <c r="A61" s="2"/>
       <c r="B61" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>10</v>

--- a/需求分析/接口文档/客户/更新说明.xlsx
+++ b/需求分析/接口文档/客户/更新说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20955" windowHeight="10365"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="当前更新" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
   <si>
     <t>更新时间</t>
   </si>
@@ -101,6 +101,51 @@
     <t>添加 跟进标题 参数</t>
   </si>
   <si>
+    <t>库存接口</t>
+  </si>
+  <si>
+    <t>查看库存</t>
+  </si>
+  <si>
+    <t>查看销售点库存</t>
+  </si>
+  <si>
+    <t>添加 返回参数</t>
+  </si>
+  <si>
+    <t>查看当前销售点库存</t>
+  </si>
+  <si>
+    <t>查看总部销售点库存</t>
+  </si>
+  <si>
+    <t>盘点库存</t>
+  </si>
+  <si>
+    <t>获取库存盘点记录</t>
+  </si>
+  <si>
+    <t>库存进仓</t>
+  </si>
+  <si>
+    <t>新建进仓单</t>
+  </si>
+  <si>
+    <t>获取进仓单列表</t>
+  </si>
+  <si>
+    <t>获取进仓单详情</t>
+  </si>
+  <si>
+    <t>申请库存</t>
+  </si>
+  <si>
+    <t>申请人获取库存申请列表</t>
+  </si>
+  <si>
+    <t>审批人获取库存审批列表</t>
+  </si>
+  <si>
     <t>个人信息</t>
   </si>
   <si>
@@ -237,12 +282,6 @@
   </si>
   <si>
     <t>开放使用</t>
-  </si>
-  <si>
-    <t>库存接口</t>
-  </si>
-  <si>
-    <t>申请库存</t>
   </si>
   <si>
     <t>更名为 客户商城接口</t>
@@ -353,8 +392,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,22 +452,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,38 +468,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -436,24 +475,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,6 +497,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -526,169 +565,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,6 +751,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -726,17 +789,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,15 +830,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -775,30 +838,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -807,149 +846,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -990,6 +1029,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1340,10 +1391,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E19" sqref="E19:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1502,11 +1553,194 @@
         <v>10</v>
       </c>
     </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>43018</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="14"/>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="14"/>
+      <c r="B17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="15"/>
+      <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="16"/>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="17"/>
+      <c r="B20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A20"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1560,13 +1794,13 @@
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>10</v>
@@ -1575,13 +1809,13 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>14</v>
@@ -1598,13 +1832,13 @@
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>10</v>
@@ -1616,10 +1850,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>14</v>
@@ -1634,10 +1868,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>14</v>
@@ -1652,10 +1886,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>14</v>
@@ -1672,10 +1906,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>14</v>
@@ -1684,7 +1918,7 @@
         <v>10</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1692,16 +1926,16 @@
     <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>10</v>
@@ -1716,19 +1950,19 @@
         <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="11">
@@ -1741,19 +1975,19 @@
         <v>11</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="11">
@@ -1766,19 +2000,19 @@
         <v>11</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="11">
@@ -1791,10 +2025,10 @@
         <v>11</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>14</v>
@@ -1809,10 +2043,10 @@
         <v>11</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>14</v>
@@ -1827,13 +2061,13 @@
         <v>11</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>10</v>
@@ -1844,16 +2078,16 @@
         <v>42999</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>10</v>
@@ -1862,16 +2096,16 @@
     <row r="28" spans="1:6">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>10</v>
@@ -1880,16 +2114,16 @@
     <row r="29" spans="1:6">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>10</v>
@@ -1898,16 +2132,16 @@
     <row r="30" spans="1:6">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>10</v>
@@ -1916,16 +2150,16 @@
     <row r="31" spans="1:6">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>10</v>
@@ -1934,13 +2168,13 @@
     <row r="32" spans="1:6">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>14</v>
@@ -1952,13 +2186,13 @@
     <row r="33" spans="1:6">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>14</v>
@@ -1970,13 +2204,13 @@
     <row r="34" spans="1:6">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>14</v>
@@ -2011,13 +2245,13 @@
         <v>11</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>10</v>
@@ -2029,13 +2263,13 @@
         <v>11</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>10</v>
@@ -2044,16 +2278,16 @@
     <row r="41" spans="1:6">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>10</v>
@@ -2064,12 +2298,12 @@
         <v>43005</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>10</v>
@@ -2078,12 +2312,12 @@
     <row r="44" spans="1:6">
       <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>10</v>
@@ -2092,14 +2326,14 @@
     <row r="45" spans="1:6">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>10</v>
@@ -2108,14 +2342,14 @@
     <row r="46" spans="1:6">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>10</v>
@@ -2124,14 +2358,14 @@
     <row r="47" spans="1:6">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>10</v>
@@ -2140,10 +2374,10 @@
     <row r="48" spans="1:6">
       <c r="A48" s="2"/>
       <c r="B48" s="3" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>26</v>
@@ -2163,7 +2397,7 @@
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>10</v>
@@ -2175,7 +2409,7 @@
         <v>6</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>26</v>
@@ -2193,7 +2427,7 @@
         <v>6</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>26</v>
@@ -2211,7 +2445,7 @@
         <v>6</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>26</v>
@@ -2229,7 +2463,7 @@
         <v>6</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>26</v>
@@ -2247,7 +2481,7 @@
         <v>6</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>26</v>
@@ -2262,32 +2496,32 @@
     <row r="55" spans="1:6">
       <c r="A55" s="2"/>
       <c r="B55" s="3" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2"/>
       <c r="B56" s="3" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>10</v>
@@ -2298,13 +2532,13 @@
         <v>43008</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>14</v>
@@ -2316,13 +2550,13 @@
     <row r="59" spans="1:6">
       <c r="A59" s="2"/>
       <c r="B59" s="3" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>14</v>
@@ -2334,13 +2568,13 @@
     <row r="60" spans="1:6">
       <c r="A60" s="2"/>
       <c r="B60" s="3" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>14</v>
@@ -2355,11 +2589,11 @@
         <v>6</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>10</v>

--- a/需求分析/接口文档/客户/更新说明.xlsx
+++ b/需求分析/接口文档/客户/更新说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView windowWidth="23025" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="当前更新" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121">
   <si>
     <t>更新时间</t>
   </si>
@@ -35,36 +35,318 @@
     <t>状态</t>
   </si>
   <si>
+    <t>库存接口</t>
+  </si>
+  <si>
+    <t>查看库存</t>
+  </si>
+  <si>
+    <t>查看销售点库存</t>
+  </si>
+  <si>
+    <t>添加 商品图片 返回</t>
+  </si>
+  <si>
+    <t>已验证</t>
+  </si>
+  <si>
+    <t>查看当前销售点库存</t>
+  </si>
+  <si>
+    <t>查看总部销售点库存</t>
+  </si>
+  <si>
+    <t>库存盘点</t>
+  </si>
+  <si>
+    <t>获取库存盘点记录</t>
+  </si>
+  <si>
+    <t>添加 时间段筛选 条件</t>
+  </si>
+  <si>
+    <t>获取库存盘点记录详情</t>
+  </si>
+  <si>
+    <t>新增接口</t>
+  </si>
+  <si>
+    <t>申请库存</t>
+  </si>
+  <si>
+    <t>审批人获取库存审批列表</t>
+  </si>
+  <si>
+    <t>添加 筛选 条件</t>
+  </si>
+  <si>
+    <t>申请人获取库存申请列表</t>
+  </si>
+  <si>
+    <t>库存进仓</t>
+  </si>
+  <si>
+    <t>获取进仓单列表</t>
+  </si>
+  <si>
+    <t>获取进仓单详情</t>
+  </si>
+  <si>
+    <t>搜索库存商品</t>
+  </si>
+  <si>
     <t>订单接口</t>
   </si>
   <si>
     <t>客户订单</t>
   </si>
   <si>
+    <t>筛选订单</t>
+  </si>
+  <si>
+    <t>添加 付款状态 返回</t>
+  </si>
+  <si>
+    <t>业务订单(业务)</t>
+  </si>
+  <si>
+    <t>业务订单(业务管理)</t>
+  </si>
+  <si>
+    <t>财务订单(财务)</t>
+  </si>
+  <si>
+    <t>跟单订单(跟单)</t>
+  </si>
+  <si>
+    <t>客户资源</t>
+  </si>
+  <si>
+    <t>获取成员的客户列表</t>
+  </si>
+  <si>
+    <t>添加 用户头像 返回</t>
+  </si>
+  <si>
+    <t>筛选客户列表</t>
+  </si>
+  <si>
+    <t>此接口与(获取成员的客户列表)合并</t>
+  </si>
+  <si>
+    <t>获取客户详情</t>
+  </si>
+  <si>
+    <t>客户接口</t>
+  </si>
+  <si>
+    <t>客户信息</t>
+  </si>
+  <si>
+    <t>个人信息</t>
+  </si>
+  <si>
+    <t>获取默认收货地址</t>
+  </si>
+  <si>
+    <t>新添加的接口</t>
+  </si>
+  <si>
+    <t>个人信息接口</t>
+  </si>
+  <si>
+    <t>经营单位</t>
+  </si>
+  <si>
+    <t>获取经营单位详情</t>
+  </si>
+  <si>
+    <t>获取客户列表</t>
+  </si>
+  <si>
+    <t>添加返回客户头像</t>
+  </si>
+  <si>
+    <t>移交客户</t>
+  </si>
+  <si>
+    <t>业务员移交客户</t>
+  </si>
+  <si>
+    <t>跟单员移交客户</t>
+  </si>
+  <si>
+    <t>养殖信息(新)</t>
+  </si>
+  <si>
+    <t>所有的接口</t>
+  </si>
+  <si>
+    <t>hadAccount(账号状态)</t>
+  </si>
+  <si>
+    <t>商城接口</t>
+  </si>
+  <si>
+    <t>订单</t>
+  </si>
+  <si>
+    <t>获取运费模板列表(客户)</t>
+  </si>
+  <si>
+    <t>添加商家地址返回</t>
+  </si>
+  <si>
+    <t>客户建账</t>
+  </si>
+  <si>
+    <t>获取审批人列表</t>
+  </si>
+  <si>
+    <t>暂停使用</t>
+  </si>
+  <si>
+    <t>未建账</t>
+  </si>
+  <si>
+    <t>添加融云id返回</t>
+  </si>
+  <si>
+    <t>已建账</t>
+  </si>
+  <si>
+    <t>申请客户建账</t>
+  </si>
+  <si>
+    <t>添加 申请原因 参数</t>
+  </si>
+  <si>
+    <t>账号被冻结</t>
+  </si>
+  <si>
+    <t>冻结客户</t>
+  </si>
+  <si>
+    <t>解冻客户</t>
+  </si>
+  <si>
+    <t>添加 账号冻结 状态</t>
+  </si>
+  <si>
+    <t>商品浏览</t>
+  </si>
+  <si>
+    <t>查看商品详情</t>
+  </si>
+  <si>
+    <t>添加 规格重量 返回</t>
+  </si>
+  <si>
+    <t>购物车</t>
+  </si>
+  <si>
+    <t>获取购物车商品列表</t>
+  </si>
+  <si>
+    <t>获取订单列表</t>
+  </si>
+  <si>
+    <t>添加 订单号 返回</t>
+  </si>
+  <si>
+    <t>获取订单详情</t>
+  </si>
+  <si>
+    <t>根据订单号获取订单列表</t>
+  </si>
+  <si>
+    <t>业务订单</t>
+  </si>
+  <si>
+    <t>财务订单</t>
+  </si>
+  <si>
+    <t>权限角色接口</t>
+  </si>
+  <si>
+    <t>权限角色</t>
+  </si>
+  <si>
+    <t>获取用户角色</t>
+  </si>
+  <si>
+    <t>获取跟单员列表</t>
+  </si>
+  <si>
+    <t>开放使用</t>
+  </si>
+  <si>
+    <t>更名为 客户商城接口</t>
+  </si>
+  <si>
+    <t>商家商城接口</t>
+  </si>
+  <si>
+    <t>原 商城接口 的拆分</t>
+  </si>
+  <si>
+    <t>运费模板</t>
+  </si>
+  <si>
+    <t>销售点</t>
+  </si>
+  <si>
+    <t>商品编辑</t>
+  </si>
+  <si>
+    <t>所有接口</t>
+  </si>
+  <si>
+    <t>财务订单(财务管理)</t>
+  </si>
+  <si>
+    <t>后勤订单(跟单)</t>
+  </si>
+  <si>
+    <t>已废弃</t>
+  </si>
+  <si>
+    <t>需求接口</t>
+  </si>
+  <si>
+    <t>激活登陆</t>
+  </si>
+  <si>
+    <t>用户登录</t>
+  </si>
+  <si>
+    <t>添加 企业名称 返回</t>
+  </si>
+  <si>
+    <t>查找分类下的商品</t>
+  </si>
+  <si>
+    <t>搜索商品</t>
+  </si>
+  <si>
+    <t>所有 筛选订单 接口</t>
+  </si>
+  <si>
+    <t>新增 订单总价 返回</t>
+  </si>
+  <si>
     <t>生成订单</t>
   </si>
   <si>
     <t>添加 商品不存在 返回值</t>
   </si>
   <si>
-    <t>已验证</t>
-  </si>
-  <si>
-    <t>客户接口</t>
-  </si>
-  <si>
     <t>养殖信息（新）</t>
   </si>
   <si>
     <t>获取养殖信息详情（新）</t>
   </si>
   <si>
-    <t>新增接口</t>
-  </si>
-  <si>
-    <t>客户资源</t>
-  </si>
-  <si>
     <t>获取养殖信息列表</t>
   </si>
   <si>
@@ -80,268 +362,22 @@
     <t>更新 订单状态</t>
   </si>
   <si>
-    <t>权限角色接口</t>
-  </si>
-  <si>
-    <t>权限角色</t>
-  </si>
-  <si>
-    <t>获取用户角色</t>
-  </si>
-  <si>
     <t>添加 角色代码 返回值</t>
   </si>
   <si>
     <t>客户跟进</t>
   </si>
   <si>
-    <t>所有接口</t>
-  </si>
-  <si>
     <t>添加 跟进标题 参数</t>
   </si>
   <si>
-    <t>库存接口</t>
-  </si>
-  <si>
-    <t>查看库存</t>
-  </si>
-  <si>
-    <t>查看销售点库存</t>
-  </si>
-  <si>
     <t>添加 返回参数</t>
   </si>
   <si>
-    <t>查看当前销售点库存</t>
-  </si>
-  <si>
-    <t>查看总部销售点库存</t>
-  </si>
-  <si>
     <t>盘点库存</t>
   </si>
   <si>
-    <t>获取库存盘点记录</t>
-  </si>
-  <si>
-    <t>库存进仓</t>
-  </si>
-  <si>
     <t>新建进仓单</t>
-  </si>
-  <si>
-    <t>获取进仓单列表</t>
-  </si>
-  <si>
-    <t>获取进仓单详情</t>
-  </si>
-  <si>
-    <t>申请库存</t>
-  </si>
-  <si>
-    <t>申请人获取库存申请列表</t>
-  </si>
-  <si>
-    <t>审批人获取库存审批列表</t>
-  </si>
-  <si>
-    <t>个人信息</t>
-  </si>
-  <si>
-    <t>获取默认收货地址</t>
-  </si>
-  <si>
-    <t>新添加的接口</t>
-  </si>
-  <si>
-    <t>个人信息接口</t>
-  </si>
-  <si>
-    <t>经营单位</t>
-  </si>
-  <si>
-    <t>获取经营单位详情</t>
-  </si>
-  <si>
-    <t>客户信息</t>
-  </si>
-  <si>
-    <t>获取客户列表</t>
-  </si>
-  <si>
-    <t>添加返回客户头像</t>
-  </si>
-  <si>
-    <t>移交客户</t>
-  </si>
-  <si>
-    <t>业务员移交客户</t>
-  </si>
-  <si>
-    <t>跟单员移交客户</t>
-  </si>
-  <si>
-    <t>养殖信息(新)</t>
-  </si>
-  <si>
-    <t>所有的接口</t>
-  </si>
-  <si>
-    <t>hadAccount(账号状态)</t>
-  </si>
-  <si>
-    <t>商城接口</t>
-  </si>
-  <si>
-    <t>订单</t>
-  </si>
-  <si>
-    <t>获取运费模板列表(客户)</t>
-  </si>
-  <si>
-    <t>添加商家地址返回</t>
-  </si>
-  <si>
-    <t>客户建账</t>
-  </si>
-  <si>
-    <t>获取审批人列表</t>
-  </si>
-  <si>
-    <t>暂停使用</t>
-  </si>
-  <si>
-    <t>未建账</t>
-  </si>
-  <si>
-    <t>添加融云id返回</t>
-  </si>
-  <si>
-    <t>已建账</t>
-  </si>
-  <si>
-    <t>申请客户建账</t>
-  </si>
-  <si>
-    <t>添加 申请原因 参数</t>
-  </si>
-  <si>
-    <t>账号被冻结</t>
-  </si>
-  <si>
-    <t>冻结客户</t>
-  </si>
-  <si>
-    <t>解冻客户</t>
-  </si>
-  <si>
-    <t>获取客户详情</t>
-  </si>
-  <si>
-    <t>添加 账号冻结 状态</t>
-  </si>
-  <si>
-    <t>商品浏览</t>
-  </si>
-  <si>
-    <t>查看商品详情</t>
-  </si>
-  <si>
-    <t>添加 规格重量 返回</t>
-  </si>
-  <si>
-    <t>购物车</t>
-  </si>
-  <si>
-    <t>获取购物车商品列表</t>
-  </si>
-  <si>
-    <t>获取订单列表</t>
-  </si>
-  <si>
-    <t>添加 订单号 返回</t>
-  </si>
-  <si>
-    <t>获取订单详情</t>
-  </si>
-  <si>
-    <t>筛选订单</t>
-  </si>
-  <si>
-    <t>根据订单号获取订单列表</t>
-  </si>
-  <si>
-    <t>业务订单</t>
-  </si>
-  <si>
-    <t>财务订单</t>
-  </si>
-  <si>
-    <t>获取跟单员列表</t>
-  </si>
-  <si>
-    <t>开放使用</t>
-  </si>
-  <si>
-    <t>更名为 客户商城接口</t>
-  </si>
-  <si>
-    <t>商家商城接口</t>
-  </si>
-  <si>
-    <t>原 商城接口 的拆分</t>
-  </si>
-  <si>
-    <t>运费模板</t>
-  </si>
-  <si>
-    <t>销售点</t>
-  </si>
-  <si>
-    <t>商品编辑</t>
-  </si>
-  <si>
-    <t>业务订单(业务)</t>
-  </si>
-  <si>
-    <t>业务订单(业务管理)</t>
-  </si>
-  <si>
-    <t>财务订单(财务)</t>
-  </si>
-  <si>
-    <t>财务订单(财务管理)</t>
-  </si>
-  <si>
-    <t>后勤订单(跟单)</t>
-  </si>
-  <si>
-    <t>已废弃</t>
-  </si>
-  <si>
-    <t>需求接口</t>
-  </si>
-  <si>
-    <t>激活登陆</t>
-  </si>
-  <si>
-    <t>用户登录</t>
-  </si>
-  <si>
-    <t>添加 企业名称 返回</t>
-  </si>
-  <si>
-    <t>查找分类下的商品</t>
-  </si>
-  <si>
-    <t>搜索商品</t>
-  </si>
-  <si>
-    <t>所有 筛选订单 接口</t>
-  </si>
-  <si>
-    <t>新增 订单总价 返回</t>
   </si>
 </sst>
 </file>
@@ -349,10 +385,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -393,10 +429,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -408,6 +444,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -416,8 +467,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,47 +535,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,22 +549,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -565,24 +601,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -595,6 +649,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -631,66 +721,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -698,36 +764,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,6 +782,71 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,73 +869,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -846,10 +882,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -858,112 +894,112 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -972,19 +1008,19 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1025,10 +1061,10 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="40" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="19" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1391,10 +1427,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E20"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1406,7 +1442,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="20.25" spans="1:6">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1427,7 +1463,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>43015</v>
+        <v>43020</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1448,16 +1484,16 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>10</v>
@@ -1466,16 +1502,16 @@
     <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>10</v>
@@ -1484,16 +1520,16 @@
     <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>10</v>
@@ -1504,32 +1540,50 @@
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>43018</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>10</v>
@@ -1538,36 +1592,52 @@
     <row r="9" spans="1:6">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="2">
-        <v>43018</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>10</v>
@@ -1576,16 +1646,16 @@
     <row r="12" spans="1:6">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>10</v>
@@ -1594,16 +1664,16 @@
     <row r="13" spans="1:6">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>10</v>
@@ -1612,16 +1682,16 @@
     <row r="14" spans="1:6">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>10</v>
@@ -1630,117 +1700,185 @@
     <row r="15" spans="1:6">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="E15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="14"/>
+      <c r="B20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="14"/>
-      <c r="B16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="D20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="F20" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="15"/>
+      <c r="B21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="14"/>
-      <c r="B17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="E21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="16"/>
+      <c r="B22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="F22" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="17"/>
+      <c r="B23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="15"/>
-      <c r="B18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="F23" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="16"/>
-      <c r="B19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="17"/>
-      <c r="B20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A20"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A23"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1751,10 +1889,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1791,16 +1929,16 @@
         <v>42994</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>10</v>
@@ -1809,16 +1947,16 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>10</v>
@@ -1829,16 +1967,16 @@
         <v>42996</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>10</v>
@@ -1847,16 +1985,16 @@
     <row r="8" spans="1:6">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>10</v>
@@ -1865,16 +2003,16 @@
     <row r="9" spans="1:6">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>10</v>
@@ -1883,16 +2021,16 @@
     <row r="10" spans="1:6">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>10</v>
@@ -1903,22 +2041,22 @@
         <v>42998</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1926,16 +2064,16 @@
     <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>10</v>
@@ -1947,22 +2085,22 @@
     <row r="17" spans="1:9">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="F17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="11">
@@ -1972,22 +2110,22 @@
     <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="11">
@@ -1997,22 +2135,22 @@
     <row r="19" spans="1:9">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="11">
@@ -2022,16 +2160,16 @@
     <row r="20" spans="1:6">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>10</v>
@@ -2040,16 +2178,16 @@
     <row r="21" spans="1:6">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>10</v>
@@ -2058,16 +2196,16 @@
     <row r="22" spans="1:6">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>10</v>
@@ -2078,16 +2216,16 @@
         <v>42999</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>10</v>
@@ -2096,16 +2234,16 @@
     <row r="28" spans="1:6">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>10</v>
@@ -2114,16 +2252,16 @@
     <row r="29" spans="1:6">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>10</v>
@@ -2132,16 +2270,16 @@
     <row r="30" spans="1:6">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>10</v>
@@ -2150,16 +2288,16 @@
     <row r="31" spans="1:6">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>10</v>
@@ -2168,16 +2306,16 @@
     <row r="32" spans="1:6">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>10</v>
@@ -2186,16 +2324,16 @@
     <row r="33" spans="1:6">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>10</v>
@@ -2204,16 +2342,16 @@
     <row r="34" spans="1:6">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>10</v>
@@ -2224,16 +2362,16 @@
         <v>42999</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>10</v>
@@ -2242,16 +2380,16 @@
     <row r="39" spans="1:6">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>10</v>
@@ -2260,16 +2398,16 @@
     <row r="40" spans="1:6">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>10</v>
@@ -2278,16 +2416,16 @@
     <row r="41" spans="1:6">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>10</v>
@@ -2298,12 +2436,12 @@
         <v>43005</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>10</v>
@@ -2312,12 +2450,12 @@
     <row r="44" spans="1:6">
       <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>10</v>
@@ -2326,14 +2464,14 @@
     <row r="45" spans="1:6">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>10</v>
@@ -2342,14 +2480,14 @@
     <row r="46" spans="1:6">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>10</v>
@@ -2358,14 +2496,14 @@
     <row r="47" spans="1:6">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>10</v>
@@ -2374,16 +2512,16 @@
     <row r="48" spans="1:6">
       <c r="A48" s="2"/>
       <c r="B48" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>10</v>
@@ -2392,12 +2530,12 @@
     <row r="49" spans="1:6">
       <c r="A49" s="2"/>
       <c r="B49" s="3" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>10</v>
@@ -2406,16 +2544,16 @@
     <row r="50" spans="1:6">
       <c r="A50" s="2"/>
       <c r="B50" s="3" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>10</v>
@@ -2424,16 +2562,16 @@
     <row r="51" spans="1:6">
       <c r="A51" s="2"/>
       <c r="B51" s="3" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>10</v>
@@ -2442,16 +2580,16 @@
     <row r="52" spans="1:6">
       <c r="A52" s="2"/>
       <c r="B52" s="3" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>10</v>
@@ -2460,16 +2598,16 @@
     <row r="53" spans="1:6">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>10</v>
@@ -2478,16 +2616,16 @@
     <row r="54" spans="1:6">
       <c r="A54" s="2"/>
       <c r="B54" s="3" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>10</v>
@@ -2496,32 +2634,32 @@
     <row r="55" spans="1:6">
       <c r="A55" s="2"/>
       <c r="B55" s="3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="4" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2"/>
       <c r="B56" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>10</v>
@@ -2532,16 +2670,16 @@
         <v>43008</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>10</v>
@@ -2550,16 +2688,16 @@
     <row r="59" spans="1:6">
       <c r="A59" s="2"/>
       <c r="B59" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>10</v>
@@ -2568,16 +2706,16 @@
     <row r="60" spans="1:6">
       <c r="A60" s="2"/>
       <c r="B60" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>10</v>
@@ -2586,25 +2724,336 @@
     <row r="61" spans="1:6">
       <c r="A61" s="2"/>
       <c r="B61" s="3" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="2">
+        <v>43015</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="2"/>
+      <c r="B64" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="D64" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2"/>
+      <c r="B65" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="2"/>
+      <c r="B66" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2"/>
+      <c r="B67" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D67" s="12"/>
+      <c r="E67" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="2">
+        <v>43018</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="2"/>
+      <c r="B70" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="2">
+        <v>43018</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="2"/>
+      <c r="B73" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="2"/>
+      <c r="B74" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="2"/>
+      <c r="B75" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="2"/>
+      <c r="B76" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="2"/>
+      <c r="B77" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="2"/>
+      <c r="B78" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="2"/>
+      <c r="B79" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="2"/>
+      <c r="B80" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="2"/>
+      <c r="B81" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F81" s="5" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="16">
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C67:D67"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A15:A22"/>
@@ -2612,6 +3061,9 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A43:A56"/>
     <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A72:A81"/>
     <mergeCell ref="G15:I16"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求分析/接口文档/客户/更新说明.xlsx
+++ b/需求分析/接口文档/客户/更新说明.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
   <si>
     <t>更新时间</t>
   </si>
@@ -41,87 +41,351 @@
     <t>查看库存</t>
   </si>
   <si>
+    <t>获取总部销售点Id</t>
+  </si>
+  <si>
+    <t>新增接口</t>
+  </si>
+  <si>
+    <t>已验证</t>
+  </si>
+  <si>
+    <t>库存盘点</t>
+  </si>
+  <si>
+    <t>获取库存盘点记录</t>
+  </si>
+  <si>
+    <t>添加 商品编码 返回</t>
+  </si>
+  <si>
+    <t>获取库存盘点记录详情</t>
+  </si>
+  <si>
+    <t>申请库存</t>
+  </si>
+  <si>
+    <t>申请人获取库存申请列表</t>
+  </si>
+  <si>
+    <t>添加 商品编码、申请单号 返回</t>
+  </si>
+  <si>
+    <t>审批人获取库存审批列表</t>
+  </si>
+  <si>
+    <t>库存进仓</t>
+  </si>
+  <si>
+    <t>获取进仓单列表</t>
+  </si>
+  <si>
+    <t>获取进仓单详情</t>
+  </si>
+  <si>
+    <t>组织管理接口</t>
+  </si>
+  <si>
+    <t>组织管理</t>
+  </si>
+  <si>
+    <t>获取可分配的角色列表</t>
+  </si>
+  <si>
+    <t>客户接口</t>
+  </si>
+  <si>
+    <t>个人信息</t>
+  </si>
+  <si>
+    <t>获取默认收货地址</t>
+  </si>
+  <si>
+    <t>新添加的接口</t>
+  </si>
+  <si>
+    <t>个人信息接口</t>
+  </si>
+  <si>
+    <t>经营单位</t>
+  </si>
+  <si>
+    <t>获取经营单位详情</t>
+  </si>
+  <si>
+    <t>客户信息</t>
+  </si>
+  <si>
+    <t>获取客户列表</t>
+  </si>
+  <si>
+    <t>添加返回客户头像</t>
+  </si>
+  <si>
+    <t>移交客户</t>
+  </si>
+  <si>
+    <t>业务员移交客户</t>
+  </si>
+  <si>
+    <t>跟单员移交客户</t>
+  </si>
+  <si>
+    <t>养殖信息(新)</t>
+  </si>
+  <si>
+    <t>所有的接口</t>
+  </si>
+  <si>
+    <t>hadAccount(账号状态)</t>
+  </si>
+  <si>
+    <t>商城接口</t>
+  </si>
+  <si>
+    <t>订单</t>
+  </si>
+  <si>
+    <t>获取运费模板列表(客户)</t>
+  </si>
+  <si>
+    <t>添加商家地址返回</t>
+  </si>
+  <si>
+    <t>客户建账</t>
+  </si>
+  <si>
+    <t>获取审批人列表</t>
+  </si>
+  <si>
+    <t>暂停使用</t>
+  </si>
+  <si>
+    <t>未建账</t>
+  </si>
+  <si>
+    <t>添加融云id返回</t>
+  </si>
+  <si>
+    <t>已建账</t>
+  </si>
+  <si>
+    <t>申请客户建账</t>
+  </si>
+  <si>
+    <t>添加 申请原因 参数</t>
+  </si>
+  <si>
+    <t>账号被冻结</t>
+  </si>
+  <si>
+    <t>冻结客户</t>
+  </si>
+  <si>
+    <t>解冻客户</t>
+  </si>
+  <si>
+    <t>获取客户详情</t>
+  </si>
+  <si>
+    <t>添加 账号冻结 状态</t>
+  </si>
+  <si>
+    <t>商品浏览</t>
+  </si>
+  <si>
+    <t>查看商品详情</t>
+  </si>
+  <si>
+    <t>添加 规格重量 返回</t>
+  </si>
+  <si>
+    <t>购物车</t>
+  </si>
+  <si>
+    <t>获取购物车商品列表</t>
+  </si>
+  <si>
+    <t>获取订单列表</t>
+  </si>
+  <si>
+    <t>添加 订单号 返回</t>
+  </si>
+  <si>
+    <t>获取订单详情</t>
+  </si>
+  <si>
+    <t>筛选订单</t>
+  </si>
+  <si>
+    <t>根据订单号获取订单列表</t>
+  </si>
+  <si>
+    <t>业务订单</t>
+  </si>
+  <si>
+    <t>财务订单</t>
+  </si>
+  <si>
+    <t>权限角色接口</t>
+  </si>
+  <si>
+    <t>权限角色</t>
+  </si>
+  <si>
+    <t>获取用户角色</t>
+  </si>
+  <si>
+    <t>获取跟单员列表</t>
+  </si>
+  <si>
+    <t>开放使用</t>
+  </si>
+  <si>
+    <t>更名为 客户商城接口</t>
+  </si>
+  <si>
+    <t>商家商城接口</t>
+  </si>
+  <si>
+    <t>原 商城接口 的拆分</t>
+  </si>
+  <si>
+    <t>运费模板</t>
+  </si>
+  <si>
+    <t>销售点</t>
+  </si>
+  <si>
+    <t>商品编辑</t>
+  </si>
+  <si>
+    <t>所有接口</t>
+  </si>
+  <si>
+    <t>订单接口</t>
+  </si>
+  <si>
+    <t>业务订单(业务)</t>
+  </si>
+  <si>
+    <t>业务订单(业务管理)</t>
+  </si>
+  <si>
+    <t>财务订单(财务)</t>
+  </si>
+  <si>
+    <t>财务订单(财务管理)</t>
+  </si>
+  <si>
+    <t>后勤订单(跟单)</t>
+  </si>
+  <si>
+    <t>已废弃</t>
+  </si>
+  <si>
+    <t>需求接口</t>
+  </si>
+  <si>
+    <t>激活登陆</t>
+  </si>
+  <si>
+    <t>用户登录</t>
+  </si>
+  <si>
+    <t>添加 企业名称 返回</t>
+  </si>
+  <si>
+    <t>查找分类下的商品</t>
+  </si>
+  <si>
+    <t>搜索商品</t>
+  </si>
+  <si>
+    <t>所有 筛选订单 接口</t>
+  </si>
+  <si>
+    <t>新增 订单总价 返回</t>
+  </si>
+  <si>
+    <t>客户订单</t>
+  </si>
+  <si>
+    <t>生成订单</t>
+  </si>
+  <si>
+    <t>添加 商品不存在 返回值</t>
+  </si>
+  <si>
+    <t>养殖信息（新）</t>
+  </si>
+  <si>
+    <t>获取养殖信息详情（新）</t>
+  </si>
+  <si>
+    <t>客户资源</t>
+  </si>
+  <si>
+    <t>获取养殖信息列表</t>
+  </si>
+  <si>
+    <t>添加 json 返回</t>
+  </si>
+  <si>
+    <t>获取养殖信息详情</t>
+  </si>
+  <si>
+    <t>所有订单筛选接口</t>
+  </si>
+  <si>
+    <t>更新 订单状态</t>
+  </si>
+  <si>
+    <t>添加 角色代码 返回值</t>
+  </si>
+  <si>
+    <t>客户跟进</t>
+  </si>
+  <si>
+    <t>添加 跟进标题 参数</t>
+  </si>
+  <si>
     <t>查看销售点库存</t>
   </si>
   <si>
+    <t>添加 返回参数</t>
+  </si>
+  <si>
+    <t>查看当前销售点库存</t>
+  </si>
+  <si>
+    <t>查看总部销售点库存</t>
+  </si>
+  <si>
+    <t>盘点库存</t>
+  </si>
+  <si>
+    <t>新建进仓单</t>
+  </si>
+  <si>
     <t>添加 商品图片 返回</t>
   </si>
   <si>
-    <t>已验证</t>
-  </si>
-  <si>
-    <t>查看当前销售点库存</t>
-  </si>
-  <si>
-    <t>查看总部销售点库存</t>
-  </si>
-  <si>
-    <t>库存盘点</t>
-  </si>
-  <si>
-    <t>获取库存盘点记录</t>
-  </si>
-  <si>
     <t>添加 时间段筛选 条件</t>
   </si>
   <si>
-    <t>获取库存盘点记录详情</t>
-  </si>
-  <si>
-    <t>新增接口</t>
-  </si>
-  <si>
-    <t>申请库存</t>
-  </si>
-  <si>
-    <t>审批人获取库存审批列表</t>
-  </si>
-  <si>
     <t>添加 筛选 条件</t>
   </si>
   <si>
-    <t>申请人获取库存申请列表</t>
-  </si>
-  <si>
-    <t>库存进仓</t>
-  </si>
-  <si>
-    <t>获取进仓单列表</t>
-  </si>
-  <si>
-    <t>获取进仓单详情</t>
-  </si>
-  <si>
     <t>搜索库存商品</t>
   </si>
   <si>
-    <t>订单接口</t>
-  </si>
-  <si>
-    <t>客户订单</t>
-  </si>
-  <si>
-    <t>筛选订单</t>
-  </si>
-  <si>
     <t>添加 付款状态 返回</t>
   </si>
   <si>
-    <t>业务订单(业务)</t>
-  </si>
-  <si>
-    <t>业务订单(业务管理)</t>
-  </si>
-  <si>
-    <t>财务订单(财务)</t>
-  </si>
-  <si>
     <t>跟单订单(跟单)</t>
   </si>
   <si>
-    <t>客户资源</t>
-  </si>
-  <si>
     <t>获取成员的客户列表</t>
   </si>
   <si>
@@ -132,252 +396,6 @@
   </si>
   <si>
     <t>此接口与(获取成员的客户列表)合并</t>
-  </si>
-  <si>
-    <t>获取客户详情</t>
-  </si>
-  <si>
-    <t>客户接口</t>
-  </si>
-  <si>
-    <t>客户信息</t>
-  </si>
-  <si>
-    <t>个人信息</t>
-  </si>
-  <si>
-    <t>获取默认收货地址</t>
-  </si>
-  <si>
-    <t>新添加的接口</t>
-  </si>
-  <si>
-    <t>个人信息接口</t>
-  </si>
-  <si>
-    <t>经营单位</t>
-  </si>
-  <si>
-    <t>获取经营单位详情</t>
-  </si>
-  <si>
-    <t>获取客户列表</t>
-  </si>
-  <si>
-    <t>添加返回客户头像</t>
-  </si>
-  <si>
-    <t>移交客户</t>
-  </si>
-  <si>
-    <t>业务员移交客户</t>
-  </si>
-  <si>
-    <t>跟单员移交客户</t>
-  </si>
-  <si>
-    <t>养殖信息(新)</t>
-  </si>
-  <si>
-    <t>所有的接口</t>
-  </si>
-  <si>
-    <t>hadAccount(账号状态)</t>
-  </si>
-  <si>
-    <t>商城接口</t>
-  </si>
-  <si>
-    <t>订单</t>
-  </si>
-  <si>
-    <t>获取运费模板列表(客户)</t>
-  </si>
-  <si>
-    <t>添加商家地址返回</t>
-  </si>
-  <si>
-    <t>客户建账</t>
-  </si>
-  <si>
-    <t>获取审批人列表</t>
-  </si>
-  <si>
-    <t>暂停使用</t>
-  </si>
-  <si>
-    <t>未建账</t>
-  </si>
-  <si>
-    <t>添加融云id返回</t>
-  </si>
-  <si>
-    <t>已建账</t>
-  </si>
-  <si>
-    <t>申请客户建账</t>
-  </si>
-  <si>
-    <t>添加 申请原因 参数</t>
-  </si>
-  <si>
-    <t>账号被冻结</t>
-  </si>
-  <si>
-    <t>冻结客户</t>
-  </si>
-  <si>
-    <t>解冻客户</t>
-  </si>
-  <si>
-    <t>添加 账号冻结 状态</t>
-  </si>
-  <si>
-    <t>商品浏览</t>
-  </si>
-  <si>
-    <t>查看商品详情</t>
-  </si>
-  <si>
-    <t>添加 规格重量 返回</t>
-  </si>
-  <si>
-    <t>购物车</t>
-  </si>
-  <si>
-    <t>获取购物车商品列表</t>
-  </si>
-  <si>
-    <t>获取订单列表</t>
-  </si>
-  <si>
-    <t>添加 订单号 返回</t>
-  </si>
-  <si>
-    <t>获取订单详情</t>
-  </si>
-  <si>
-    <t>根据订单号获取订单列表</t>
-  </si>
-  <si>
-    <t>业务订单</t>
-  </si>
-  <si>
-    <t>财务订单</t>
-  </si>
-  <si>
-    <t>权限角色接口</t>
-  </si>
-  <si>
-    <t>权限角色</t>
-  </si>
-  <si>
-    <t>获取用户角色</t>
-  </si>
-  <si>
-    <t>获取跟单员列表</t>
-  </si>
-  <si>
-    <t>开放使用</t>
-  </si>
-  <si>
-    <t>更名为 客户商城接口</t>
-  </si>
-  <si>
-    <t>商家商城接口</t>
-  </si>
-  <si>
-    <t>原 商城接口 的拆分</t>
-  </si>
-  <si>
-    <t>运费模板</t>
-  </si>
-  <si>
-    <t>销售点</t>
-  </si>
-  <si>
-    <t>商品编辑</t>
-  </si>
-  <si>
-    <t>所有接口</t>
-  </si>
-  <si>
-    <t>财务订单(财务管理)</t>
-  </si>
-  <si>
-    <t>后勤订单(跟单)</t>
-  </si>
-  <si>
-    <t>已废弃</t>
-  </si>
-  <si>
-    <t>需求接口</t>
-  </si>
-  <si>
-    <t>激活登陆</t>
-  </si>
-  <si>
-    <t>用户登录</t>
-  </si>
-  <si>
-    <t>添加 企业名称 返回</t>
-  </si>
-  <si>
-    <t>查找分类下的商品</t>
-  </si>
-  <si>
-    <t>搜索商品</t>
-  </si>
-  <si>
-    <t>所有 筛选订单 接口</t>
-  </si>
-  <si>
-    <t>新增 订单总价 返回</t>
-  </si>
-  <si>
-    <t>生成订单</t>
-  </si>
-  <si>
-    <t>添加 商品不存在 返回值</t>
-  </si>
-  <si>
-    <t>养殖信息（新）</t>
-  </si>
-  <si>
-    <t>获取养殖信息详情（新）</t>
-  </si>
-  <si>
-    <t>获取养殖信息列表</t>
-  </si>
-  <si>
-    <t>添加 json 返回</t>
-  </si>
-  <si>
-    <t>获取养殖信息详情</t>
-  </si>
-  <si>
-    <t>所有订单筛选接口</t>
-  </si>
-  <si>
-    <t>更新 订单状态</t>
-  </si>
-  <si>
-    <t>添加 角色代码 返回值</t>
-  </si>
-  <si>
-    <t>客户跟进</t>
-  </si>
-  <si>
-    <t>添加 跟进标题 参数</t>
-  </si>
-  <si>
-    <t>添加 返回参数</t>
-  </si>
-  <si>
-    <t>盘点库存</t>
-  </si>
-  <si>
-    <t>新建进仓单</t>
   </si>
 </sst>
 </file>
@@ -385,10 +403,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -428,22 +446,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -451,64 +453,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,8 +474,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,7 +539,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,169 +619,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,6 +804,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -801,32 +849,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,25 +879,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,10 +900,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -894,137 +912,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1067,16 +1085,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="19" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1427,10 +1436,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1463,7 +1472,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>43020</v>
+        <v>43021</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1487,13 +1496,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>10</v>
@@ -1505,13 +1514,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>10</v>
@@ -1523,13 +1532,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>10</v>
@@ -1541,13 +1550,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>10</v>
@@ -1559,13 +1568,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>10</v>
@@ -1577,308 +1586,37 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="14"/>
-      <c r="B20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="15"/>
-      <c r="B21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="16"/>
-      <c r="B22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="17"/>
-      <c r="B23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="F9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="A2:A8"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1889,10 +1627,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:F81"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1929,16 +1667,16 @@
         <v>42994</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>10</v>
@@ -1947,16 +1685,16 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>10</v>
@@ -1967,16 +1705,16 @@
         <v>42996</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>10</v>
@@ -1985,16 +1723,16 @@
     <row r="8" spans="1:6">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>10</v>
@@ -2003,16 +1741,16 @@
     <row r="9" spans="1:6">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>10</v>
@@ -2021,16 +1759,16 @@
     <row r="10" spans="1:6">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>10</v>
@@ -2041,22 +1779,22 @@
         <v>42998</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -2064,16 +1802,16 @@
     <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>10</v>
@@ -2085,22 +1823,22 @@
     <row r="17" spans="1:9">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="11">
@@ -2110,22 +1848,22 @@
     <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="11">
@@ -2135,22 +1873,22 @@
     <row r="19" spans="1:9">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="11">
@@ -2160,16 +1898,16 @@
     <row r="20" spans="1:6">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>10</v>
@@ -2178,16 +1916,16 @@
     <row r="21" spans="1:6">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>10</v>
@@ -2196,16 +1934,16 @@
     <row r="22" spans="1:6">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>10</v>
@@ -2216,16 +1954,16 @@
         <v>42999</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>10</v>
@@ -2234,16 +1972,16 @@
     <row r="28" spans="1:6">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>10</v>
@@ -2252,16 +1990,16 @@
     <row r="29" spans="1:6">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>10</v>
@@ -2270,16 +2008,16 @@
     <row r="30" spans="1:6">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>10</v>
@@ -2288,16 +2026,16 @@
     <row r="31" spans="1:6">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>10</v>
@@ -2306,16 +2044,16 @@
     <row r="32" spans="1:6">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>10</v>
@@ -2324,16 +2062,16 @@
     <row r="33" spans="1:6">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>10</v>
@@ -2342,16 +2080,16 @@
     <row r="34" spans="1:6">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>10</v>
@@ -2362,16 +2100,16 @@
         <v>42999</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>10</v>
@@ -2380,16 +2118,16 @@
     <row r="39" spans="1:6">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>10</v>
@@ -2398,16 +2136,16 @@
     <row r="40" spans="1:6">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>10</v>
@@ -2419,13 +2157,13 @@
         <v>6</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>10</v>
@@ -2436,12 +2174,12 @@
         <v>43005</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>10</v>
@@ -2450,12 +2188,12 @@
     <row r="44" spans="1:6">
       <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>10</v>
@@ -2464,14 +2202,14 @@
     <row r="45" spans="1:6">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>10</v>
@@ -2480,14 +2218,14 @@
     <row r="46" spans="1:6">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>10</v>
@@ -2496,14 +2234,14 @@
     <row r="47" spans="1:6">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>10</v>
@@ -2512,16 +2250,16 @@
     <row r="48" spans="1:6">
       <c r="A48" s="2"/>
       <c r="B48" s="3" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>10</v>
@@ -2530,12 +2268,12 @@
     <row r="49" spans="1:6">
       <c r="A49" s="2"/>
       <c r="B49" s="3" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>10</v>
@@ -2544,16 +2282,16 @@
     <row r="50" spans="1:6">
       <c r="A50" s="2"/>
       <c r="B50" s="3" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>10</v>
@@ -2562,16 +2300,16 @@
     <row r="51" spans="1:6">
       <c r="A51" s="2"/>
       <c r="B51" s="3" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>10</v>
@@ -2580,16 +2318,16 @@
     <row r="52" spans="1:6">
       <c r="A52" s="2"/>
       <c r="B52" s="3" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>10</v>
@@ -2598,16 +2336,16 @@
     <row r="53" spans="1:6">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>10</v>
@@ -2616,16 +2354,16 @@
     <row r="54" spans="1:6">
       <c r="A54" s="2"/>
       <c r="B54" s="3" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>10</v>
@@ -2638,28 +2376,28 @@
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="4" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2"/>
       <c r="B56" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>10</v>
@@ -2670,16 +2408,16 @@
         <v>43008</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>10</v>
@@ -2688,16 +2426,16 @@
     <row r="59" spans="1:6">
       <c r="A59" s="2"/>
       <c r="B59" s="3" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>10</v>
@@ -2706,16 +2444,16 @@
     <row r="60" spans="1:6">
       <c r="A60" s="2"/>
       <c r="B60" s="3" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>10</v>
@@ -2724,14 +2462,14 @@
     <row r="61" spans="1:6">
       <c r="A61" s="2"/>
       <c r="B61" s="3" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>10</v>
@@ -2742,16 +2480,16 @@
         <v>43015</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>10</v>
@@ -2760,16 +2498,16 @@
     <row r="64" spans="1:6">
       <c r="A64" s="2"/>
       <c r="B64" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>10</v>
@@ -2778,16 +2516,16 @@
     <row r="65" spans="1:6">
       <c r="A65" s="2"/>
       <c r="B65" s="3" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>10</v>
@@ -2796,16 +2534,16 @@
     <row r="66" spans="1:6">
       <c r="A66" s="2"/>
       <c r="B66" s="3" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>10</v>
@@ -2814,14 +2552,14 @@
     <row r="67" spans="1:6">
       <c r="A67" s="2"/>
       <c r="B67" s="3" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>10</v>
@@ -2832,16 +2570,16 @@
         <v>43018</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>10</v>
@@ -2850,16 +2588,16 @@
     <row r="70" spans="1:6">
       <c r="A70" s="2"/>
       <c r="B70" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>10</v>
@@ -2876,10 +2614,10 @@
         <v>7</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>10</v>
@@ -2894,10 +2632,10 @@
         <v>7</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>10</v>
@@ -2912,10 +2650,10 @@
         <v>7</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>10</v>
@@ -2927,13 +2665,13 @@
         <v>6</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>10</v>
@@ -2945,13 +2683,13 @@
         <v>6</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>10</v>
@@ -2963,13 +2701,13 @@
         <v>6</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>10</v>
@@ -2981,13 +2719,13 @@
         <v>6</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>10</v>
@@ -2999,13 +2737,13 @@
         <v>6</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>10</v>
@@ -3017,13 +2755,13 @@
         <v>6</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>10</v>
@@ -3035,20 +2773,436 @@
         <v>6</v>
       </c>
       <c r="C81" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="E81" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="2">
+        <v>43020</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="2"/>
+      <c r="B84" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="2"/>
+      <c r="B85" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="2"/>
+      <c r="B86" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="2"/>
+      <c r="B87" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="2"/>
+      <c r="B88" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="2"/>
+      <c r="B89" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="2"/>
+      <c r="B90" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="2"/>
+      <c r="B91" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="2"/>
+      <c r="B92" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="D92" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E92" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="F92" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="2"/>
+      <c r="B93" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="2"/>
+      <c r="B94" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="2"/>
+      <c r="B95" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="2"/>
+      <c r="B96" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="2"/>
+      <c r="B97" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="2"/>
+      <c r="B98" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="2"/>
+      <c r="B99" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="2"/>
+      <c r="B100" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="2"/>
+      <c r="B101" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="2"/>
+      <c r="B102" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="2"/>
+      <c r="B103" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="2"/>
+      <c r="B104" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="2"/>
+      <c r="B105" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F105" s="5" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
@@ -3064,6 +3218,7 @@
     <mergeCell ref="A63:A67"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="A72:A81"/>
+    <mergeCell ref="A83:A105"/>
     <mergeCell ref="G15:I16"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求分析/接口文档/客户/更新说明.xlsx
+++ b/需求分析/接口文档/客户/更新说明.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129">
   <si>
     <t>更新时间</t>
   </si>
@@ -35,54 +35,366 @@
     <t>状态</t>
   </si>
   <si>
+    <t>商家商城接口</t>
+  </si>
+  <si>
+    <t>商品编辑</t>
+  </si>
+  <si>
+    <t>搜索商品</t>
+  </si>
+  <si>
+    <t>添加 商品编码 返回</t>
+  </si>
+  <si>
+    <t>已验证</t>
+  </si>
+  <si>
+    <t>获取商品列表</t>
+  </si>
+  <si>
+    <t>添加 商品规格Id 返回</t>
+  </si>
+  <si>
+    <t>客户接口</t>
+  </si>
+  <si>
+    <t>个人信息</t>
+  </si>
+  <si>
+    <t>获取默认收货地址</t>
+  </si>
+  <si>
+    <t>新添加的接口</t>
+  </si>
+  <si>
+    <t>个人信息接口</t>
+  </si>
+  <si>
+    <t>经营单位</t>
+  </si>
+  <si>
+    <t>获取经营单位详情</t>
+  </si>
+  <si>
+    <t>新增接口</t>
+  </si>
+  <si>
+    <t>客户信息</t>
+  </si>
+  <si>
+    <t>获取客户列表</t>
+  </si>
+  <si>
+    <t>添加返回客户头像</t>
+  </si>
+  <si>
+    <t>移交客户</t>
+  </si>
+  <si>
+    <t>业务员移交客户</t>
+  </si>
+  <si>
+    <t>跟单员移交客户</t>
+  </si>
+  <si>
+    <t>养殖信息(新)</t>
+  </si>
+  <si>
+    <t>所有的接口</t>
+  </si>
+  <si>
+    <t>hadAccount(账号状态)</t>
+  </si>
+  <si>
+    <t>商城接口</t>
+  </si>
+  <si>
+    <t>订单</t>
+  </si>
+  <si>
+    <t>获取运费模板列表(客户)</t>
+  </si>
+  <si>
+    <t>添加商家地址返回</t>
+  </si>
+  <si>
+    <t>客户建账</t>
+  </si>
+  <si>
+    <t>获取审批人列表</t>
+  </si>
+  <si>
+    <t>暂停使用</t>
+  </si>
+  <si>
+    <t>未建账</t>
+  </si>
+  <si>
+    <t>添加融云id返回</t>
+  </si>
+  <si>
+    <t>已建账</t>
+  </si>
+  <si>
+    <t>申请客户建账</t>
+  </si>
+  <si>
+    <t>添加 申请原因 参数</t>
+  </si>
+  <si>
+    <t>账号被冻结</t>
+  </si>
+  <si>
+    <t>冻结客户</t>
+  </si>
+  <si>
+    <t>解冻客户</t>
+  </si>
+  <si>
+    <t>获取客户详情</t>
+  </si>
+  <si>
+    <t>添加 账号冻结 状态</t>
+  </si>
+  <si>
+    <t>商品浏览</t>
+  </si>
+  <si>
+    <t>查看商品详情</t>
+  </si>
+  <si>
+    <t>添加 规格重量 返回</t>
+  </si>
+  <si>
+    <t>购物车</t>
+  </si>
+  <si>
+    <t>获取购物车商品列表</t>
+  </si>
+  <si>
+    <t>获取订单列表</t>
+  </si>
+  <si>
+    <t>添加 订单号 返回</t>
+  </si>
+  <si>
+    <t>获取订单详情</t>
+  </si>
+  <si>
+    <t>筛选订单</t>
+  </si>
+  <si>
+    <t>根据订单号获取订单列表</t>
+  </si>
+  <si>
+    <t>业务订单</t>
+  </si>
+  <si>
+    <t>财务订单</t>
+  </si>
+  <si>
+    <t>权限角色接口</t>
+  </si>
+  <si>
+    <t>权限角色</t>
+  </si>
+  <si>
+    <t>获取用户角色</t>
+  </si>
+  <si>
+    <t>获取跟单员列表</t>
+  </si>
+  <si>
+    <t>开放使用</t>
+  </si>
+  <si>
     <t>库存接口</t>
   </si>
   <si>
+    <t>申请库存</t>
+  </si>
+  <si>
+    <t>更名为 客户商城接口</t>
+  </si>
+  <si>
+    <t>原 商城接口 的拆分</t>
+  </si>
+  <si>
+    <t>运费模板</t>
+  </si>
+  <si>
+    <t>销售点</t>
+  </si>
+  <si>
+    <t>所有接口</t>
+  </si>
+  <si>
+    <t>订单接口</t>
+  </si>
+  <si>
+    <t>业务订单(业务)</t>
+  </si>
+  <si>
+    <t>业务订单(业务管理)</t>
+  </si>
+  <si>
+    <t>财务订单(财务)</t>
+  </si>
+  <si>
+    <t>财务订单(财务管理)</t>
+  </si>
+  <si>
+    <t>后勤订单(跟单)</t>
+  </si>
+  <si>
+    <t>已废弃</t>
+  </si>
+  <si>
+    <t>需求接口</t>
+  </si>
+  <si>
+    <t>激活登陆</t>
+  </si>
+  <si>
+    <t>用户登录</t>
+  </si>
+  <si>
+    <t>添加 企业名称 返回</t>
+  </si>
+  <si>
+    <t>查找分类下的商品</t>
+  </si>
+  <si>
+    <t>所有 筛选订单 接口</t>
+  </si>
+  <si>
+    <t>新增 订单总价 返回</t>
+  </si>
+  <si>
+    <t>客户订单</t>
+  </si>
+  <si>
+    <t>生成订单</t>
+  </si>
+  <si>
+    <t>添加 商品不存在 返回值</t>
+  </si>
+  <si>
+    <t>养殖信息（新）</t>
+  </si>
+  <si>
+    <t>获取养殖信息详情（新）</t>
+  </si>
+  <si>
+    <t>客户资源</t>
+  </si>
+  <si>
+    <t>获取养殖信息列表</t>
+  </si>
+  <si>
+    <t>添加 json 返回</t>
+  </si>
+  <si>
+    <t>获取养殖信息详情</t>
+  </si>
+  <si>
+    <t>所有订单筛选接口</t>
+  </si>
+  <si>
+    <t>更新 订单状态</t>
+  </si>
+  <si>
+    <t>添加 角色代码 返回值</t>
+  </si>
+  <si>
+    <t>客户跟进</t>
+  </si>
+  <si>
+    <t>添加 跟进标题 参数</t>
+  </si>
+  <si>
     <t>查看库存</t>
   </si>
   <si>
+    <t>查看销售点库存</t>
+  </si>
+  <si>
+    <t>添加 返回参数</t>
+  </si>
+  <si>
+    <t>查看当前销售点库存</t>
+  </si>
+  <si>
+    <t>查看总部销售点库存</t>
+  </si>
+  <si>
+    <t>盘点库存</t>
+  </si>
+  <si>
+    <t>获取库存盘点记录</t>
+  </si>
+  <si>
+    <t>库存进仓</t>
+  </si>
+  <si>
+    <t>新建进仓单</t>
+  </si>
+  <si>
+    <t>获取进仓单列表</t>
+  </si>
+  <si>
+    <t>获取进仓单详情</t>
+  </si>
+  <si>
+    <t>申请人获取库存申请列表</t>
+  </si>
+  <si>
+    <t>审批人获取库存审批列表</t>
+  </si>
+  <si>
+    <t>添加 商品图片 返回</t>
+  </si>
+  <si>
+    <t>库存盘点</t>
+  </si>
+  <si>
+    <t>添加 时间段筛选 条件</t>
+  </si>
+  <si>
+    <t>获取库存盘点记录详情</t>
+  </si>
+  <si>
+    <t>添加 筛选 条件</t>
+  </si>
+  <si>
+    <t>搜索库存商品</t>
+  </si>
+  <si>
+    <t>添加 付款状态 返回</t>
+  </si>
+  <si>
+    <t>跟单订单(跟单)</t>
+  </si>
+  <si>
+    <t>获取成员的客户列表</t>
+  </si>
+  <si>
+    <t>添加 用户头像 返回</t>
+  </si>
+  <si>
+    <t>筛选客户列表</t>
+  </si>
+  <si>
+    <t>此接口与(获取成员的客户列表)合并</t>
+  </si>
+  <si>
     <t>获取总部销售点Id</t>
   </si>
   <si>
-    <t>新增接口</t>
-  </si>
-  <si>
-    <t>已验证</t>
-  </si>
-  <si>
-    <t>库存盘点</t>
-  </si>
-  <si>
-    <t>获取库存盘点记录</t>
-  </si>
-  <si>
-    <t>添加 商品编码 返回</t>
-  </si>
-  <si>
-    <t>获取库存盘点记录详情</t>
-  </si>
-  <si>
-    <t>申请库存</t>
-  </si>
-  <si>
-    <t>申请人获取库存申请列表</t>
-  </si>
-  <si>
     <t>添加 商品编码、申请单号 返回</t>
   </si>
   <si>
-    <t>审批人获取库存审批列表</t>
-  </si>
-  <si>
-    <t>库存进仓</t>
-  </si>
-  <si>
-    <t>获取进仓单列表</t>
-  </si>
-  <si>
-    <t>获取进仓单详情</t>
-  </si>
-  <si>
     <t>组织管理接口</t>
   </si>
   <si>
@@ -90,312 +402,6 @@
   </si>
   <si>
     <t>获取可分配的角色列表</t>
-  </si>
-  <si>
-    <t>客户接口</t>
-  </si>
-  <si>
-    <t>个人信息</t>
-  </si>
-  <si>
-    <t>获取默认收货地址</t>
-  </si>
-  <si>
-    <t>新添加的接口</t>
-  </si>
-  <si>
-    <t>个人信息接口</t>
-  </si>
-  <si>
-    <t>经营单位</t>
-  </si>
-  <si>
-    <t>获取经营单位详情</t>
-  </si>
-  <si>
-    <t>客户信息</t>
-  </si>
-  <si>
-    <t>获取客户列表</t>
-  </si>
-  <si>
-    <t>添加返回客户头像</t>
-  </si>
-  <si>
-    <t>移交客户</t>
-  </si>
-  <si>
-    <t>业务员移交客户</t>
-  </si>
-  <si>
-    <t>跟单员移交客户</t>
-  </si>
-  <si>
-    <t>养殖信息(新)</t>
-  </si>
-  <si>
-    <t>所有的接口</t>
-  </si>
-  <si>
-    <t>hadAccount(账号状态)</t>
-  </si>
-  <si>
-    <t>商城接口</t>
-  </si>
-  <si>
-    <t>订单</t>
-  </si>
-  <si>
-    <t>获取运费模板列表(客户)</t>
-  </si>
-  <si>
-    <t>添加商家地址返回</t>
-  </si>
-  <si>
-    <t>客户建账</t>
-  </si>
-  <si>
-    <t>获取审批人列表</t>
-  </si>
-  <si>
-    <t>暂停使用</t>
-  </si>
-  <si>
-    <t>未建账</t>
-  </si>
-  <si>
-    <t>添加融云id返回</t>
-  </si>
-  <si>
-    <t>已建账</t>
-  </si>
-  <si>
-    <t>申请客户建账</t>
-  </si>
-  <si>
-    <t>添加 申请原因 参数</t>
-  </si>
-  <si>
-    <t>账号被冻结</t>
-  </si>
-  <si>
-    <t>冻结客户</t>
-  </si>
-  <si>
-    <t>解冻客户</t>
-  </si>
-  <si>
-    <t>获取客户详情</t>
-  </si>
-  <si>
-    <t>添加 账号冻结 状态</t>
-  </si>
-  <si>
-    <t>商品浏览</t>
-  </si>
-  <si>
-    <t>查看商品详情</t>
-  </si>
-  <si>
-    <t>添加 规格重量 返回</t>
-  </si>
-  <si>
-    <t>购物车</t>
-  </si>
-  <si>
-    <t>获取购物车商品列表</t>
-  </si>
-  <si>
-    <t>获取订单列表</t>
-  </si>
-  <si>
-    <t>添加 订单号 返回</t>
-  </si>
-  <si>
-    <t>获取订单详情</t>
-  </si>
-  <si>
-    <t>筛选订单</t>
-  </si>
-  <si>
-    <t>根据订单号获取订单列表</t>
-  </si>
-  <si>
-    <t>业务订单</t>
-  </si>
-  <si>
-    <t>财务订单</t>
-  </si>
-  <si>
-    <t>权限角色接口</t>
-  </si>
-  <si>
-    <t>权限角色</t>
-  </si>
-  <si>
-    <t>获取用户角色</t>
-  </si>
-  <si>
-    <t>获取跟单员列表</t>
-  </si>
-  <si>
-    <t>开放使用</t>
-  </si>
-  <si>
-    <t>更名为 客户商城接口</t>
-  </si>
-  <si>
-    <t>商家商城接口</t>
-  </si>
-  <si>
-    <t>原 商城接口 的拆分</t>
-  </si>
-  <si>
-    <t>运费模板</t>
-  </si>
-  <si>
-    <t>销售点</t>
-  </si>
-  <si>
-    <t>商品编辑</t>
-  </si>
-  <si>
-    <t>所有接口</t>
-  </si>
-  <si>
-    <t>订单接口</t>
-  </si>
-  <si>
-    <t>业务订单(业务)</t>
-  </si>
-  <si>
-    <t>业务订单(业务管理)</t>
-  </si>
-  <si>
-    <t>财务订单(财务)</t>
-  </si>
-  <si>
-    <t>财务订单(财务管理)</t>
-  </si>
-  <si>
-    <t>后勤订单(跟单)</t>
-  </si>
-  <si>
-    <t>已废弃</t>
-  </si>
-  <si>
-    <t>需求接口</t>
-  </si>
-  <si>
-    <t>激活登陆</t>
-  </si>
-  <si>
-    <t>用户登录</t>
-  </si>
-  <si>
-    <t>添加 企业名称 返回</t>
-  </si>
-  <si>
-    <t>查找分类下的商品</t>
-  </si>
-  <si>
-    <t>搜索商品</t>
-  </si>
-  <si>
-    <t>所有 筛选订单 接口</t>
-  </si>
-  <si>
-    <t>新增 订单总价 返回</t>
-  </si>
-  <si>
-    <t>客户订单</t>
-  </si>
-  <si>
-    <t>生成订单</t>
-  </si>
-  <si>
-    <t>添加 商品不存在 返回值</t>
-  </si>
-  <si>
-    <t>养殖信息（新）</t>
-  </si>
-  <si>
-    <t>获取养殖信息详情（新）</t>
-  </si>
-  <si>
-    <t>客户资源</t>
-  </si>
-  <si>
-    <t>获取养殖信息列表</t>
-  </si>
-  <si>
-    <t>添加 json 返回</t>
-  </si>
-  <si>
-    <t>获取养殖信息详情</t>
-  </si>
-  <si>
-    <t>所有订单筛选接口</t>
-  </si>
-  <si>
-    <t>更新 订单状态</t>
-  </si>
-  <si>
-    <t>添加 角色代码 返回值</t>
-  </si>
-  <si>
-    <t>客户跟进</t>
-  </si>
-  <si>
-    <t>添加 跟进标题 参数</t>
-  </si>
-  <si>
-    <t>查看销售点库存</t>
-  </si>
-  <si>
-    <t>添加 返回参数</t>
-  </si>
-  <si>
-    <t>查看当前销售点库存</t>
-  </si>
-  <si>
-    <t>查看总部销售点库存</t>
-  </si>
-  <si>
-    <t>盘点库存</t>
-  </si>
-  <si>
-    <t>新建进仓单</t>
-  </si>
-  <si>
-    <t>添加 商品图片 返回</t>
-  </si>
-  <si>
-    <t>添加 时间段筛选 条件</t>
-  </si>
-  <si>
-    <t>添加 筛选 条件</t>
-  </si>
-  <si>
-    <t>搜索库存商品</t>
-  </si>
-  <si>
-    <t>添加 付款状态 返回</t>
-  </si>
-  <si>
-    <t>跟单订单(跟单)</t>
-  </si>
-  <si>
-    <t>获取成员的客户列表</t>
-  </si>
-  <si>
-    <t>添加 用户头像 返回</t>
-  </si>
-  <si>
-    <t>筛选客户列表</t>
-  </si>
-  <si>
-    <t>此接口与(获取成员的客户列表)合并</t>
   </si>
 </sst>
 </file>
@@ -446,8 +452,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,8 +534,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,38 +547,6 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -530,39 +566,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,37 +625,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,115 +781,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,17 +810,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,41 +832,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -892,6 +859,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -900,10 +906,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -912,137 +918,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1082,10 +1088,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="19" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1436,13 +1445,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="21.125" customWidth="1"/>
@@ -1451,7 +1460,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="20.25" spans="1:6">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1472,7 +1481,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>43021</v>
+        <v>43022</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1496,127 +1505,39 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="14"/>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1627,10 +1548,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:F105"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107:F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1667,16 +1588,16 @@
         <v>42994</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>10</v>
@@ -1685,16 +1606,16 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>10</v>
@@ -1705,16 +1626,16 @@
         <v>42996</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>10</v>
@@ -1723,16 +1644,16 @@
     <row r="8" spans="1:6">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>10</v>
@@ -1741,16 +1662,16 @@
     <row r="9" spans="1:6">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>10</v>
@@ -1759,16 +1680,16 @@
     <row r="10" spans="1:6">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>10</v>
@@ -1779,22 +1700,22 @@
         <v>42998</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1802,16 +1723,16 @@
     <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>10</v>
@@ -1823,22 +1744,22 @@
     <row r="17" spans="1:9">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="11">
@@ -1848,22 +1769,22 @@
     <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="11">
@@ -1873,22 +1794,22 @@
     <row r="19" spans="1:9">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="11">
@@ -1898,16 +1819,16 @@
     <row r="20" spans="1:6">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>10</v>
@@ -1916,16 +1837,16 @@
     <row r="21" spans="1:6">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>10</v>
@@ -1934,16 +1855,16 @@
     <row r="22" spans="1:6">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>10</v>
@@ -1954,16 +1875,16 @@
         <v>42999</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>10</v>
@@ -1972,16 +1893,16 @@
     <row r="28" spans="1:6">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>10</v>
@@ -1990,16 +1911,16 @@
     <row r="29" spans="1:6">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>10</v>
@@ -2008,16 +1929,16 @@
     <row r="30" spans="1:6">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>10</v>
@@ -2026,16 +1947,16 @@
     <row r="31" spans="1:6">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>10</v>
@@ -2044,16 +1965,16 @@
     <row r="32" spans="1:6">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>10</v>
@@ -2062,16 +1983,16 @@
     <row r="33" spans="1:6">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>10</v>
@@ -2080,16 +2001,16 @@
     <row r="34" spans="1:6">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>10</v>
@@ -2100,16 +2021,16 @@
         <v>42999</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>10</v>
@@ -2118,16 +2039,16 @@
     <row r="39" spans="1:6">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>10</v>
@@ -2136,16 +2057,16 @@
     <row r="40" spans="1:6">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>10</v>
@@ -2154,16 +2075,16 @@
     <row r="41" spans="1:6">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>10</v>
@@ -2174,12 +2095,12 @@
         <v>43005</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>10</v>
@@ -2188,12 +2109,12 @@
     <row r="44" spans="1:6">
       <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>10</v>
@@ -2202,14 +2123,14 @@
     <row r="45" spans="1:6">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>10</v>
@@ -2218,14 +2139,14 @@
     <row r="46" spans="1:6">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>10</v>
@@ -2234,14 +2155,14 @@
     <row r="47" spans="1:6">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>10</v>
@@ -2250,16 +2171,16 @@
     <row r="48" spans="1:6">
       <c r="A48" s="2"/>
       <c r="B48" s="3" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>10</v>
@@ -2268,12 +2189,12 @@
     <row r="49" spans="1:6">
       <c r="A49" s="2"/>
       <c r="B49" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>10</v>
@@ -2282,16 +2203,16 @@
     <row r="50" spans="1:6">
       <c r="A50" s="2"/>
       <c r="B50" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>10</v>
@@ -2300,16 +2221,16 @@
     <row r="51" spans="1:6">
       <c r="A51" s="2"/>
       <c r="B51" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>10</v>
@@ -2318,16 +2239,16 @@
     <row r="52" spans="1:6">
       <c r="A52" s="2"/>
       <c r="B52" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>10</v>
@@ -2336,16 +2257,16 @@
     <row r="53" spans="1:6">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>10</v>
@@ -2354,16 +2275,16 @@
     <row r="54" spans="1:6">
       <c r="A54" s="2"/>
       <c r="B54" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>10</v>
@@ -2372,32 +2293,32 @@
     <row r="55" spans="1:6">
       <c r="A55" s="2"/>
       <c r="B55" s="3" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2"/>
       <c r="B56" s="3" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>10</v>
@@ -2408,16 +2329,16 @@
         <v>43008</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>10</v>
@@ -2426,16 +2347,16 @@
     <row r="59" spans="1:6">
       <c r="A59" s="2"/>
       <c r="B59" s="3" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>10</v>
@@ -2444,16 +2365,16 @@
     <row r="60" spans="1:6">
       <c r="A60" s="2"/>
       <c r="B60" s="3" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>10</v>
@@ -2462,14 +2383,14 @@
     <row r="61" spans="1:6">
       <c r="A61" s="2"/>
       <c r="B61" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>10</v>
@@ -2480,16 +2401,16 @@
         <v>43015</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>10</v>
@@ -2498,16 +2419,16 @@
     <row r="64" spans="1:6">
       <c r="A64" s="2"/>
       <c r="B64" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>10</v>
@@ -2516,16 +2437,16 @@
     <row r="65" spans="1:6">
       <c r="A65" s="2"/>
       <c r="B65" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>10</v>
@@ -2534,16 +2455,16 @@
     <row r="66" spans="1:6">
       <c r="A66" s="2"/>
       <c r="B66" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>10</v>
@@ -2552,14 +2473,14 @@
     <row r="67" spans="1:6">
       <c r="A67" s="2"/>
       <c r="B67" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>10</v>
@@ -2570,16 +2491,16 @@
         <v>43018</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>10</v>
@@ -2588,16 +2509,16 @@
     <row r="70" spans="1:6">
       <c r="A70" s="2"/>
       <c r="B70" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>10</v>
@@ -2608,16 +2529,16 @@
         <v>43018</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>10</v>
@@ -2626,16 +2547,16 @@
     <row r="73" spans="1:6">
       <c r="A73" s="2"/>
       <c r="B73" s="3" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>10</v>
@@ -2644,16 +2565,16 @@
     <row r="74" spans="1:6">
       <c r="A74" s="2"/>
       <c r="B74" s="3" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>10</v>
@@ -2662,16 +2583,16 @@
     <row r="75" spans="1:6">
       <c r="A75" s="2"/>
       <c r="B75" s="3" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>10</v>
@@ -2680,16 +2601,16 @@
     <row r="76" spans="1:6">
       <c r="A76" s="2"/>
       <c r="B76" s="3" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>10</v>
@@ -2698,16 +2619,16 @@
     <row r="77" spans="1:6">
       <c r="A77" s="2"/>
       <c r="B77" s="3" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>10</v>
@@ -2716,16 +2637,16 @@
     <row r="78" spans="1:6">
       <c r="A78" s="2"/>
       <c r="B78" s="3" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="D78" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E78" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>10</v>
@@ -2734,16 +2655,16 @@
     <row r="79" spans="1:6">
       <c r="A79" s="2"/>
       <c r="B79" s="3" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>10</v>
@@ -2752,16 +2673,16 @@
     <row r="80" spans="1:6">
       <c r="A80" s="2"/>
       <c r="B80" s="3" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>10</v>
@@ -2770,16 +2691,16 @@
     <row r="81" spans="1:6">
       <c r="A81" s="2"/>
       <c r="B81" s="3" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>10</v>
@@ -2790,16 +2711,16 @@
         <v>43020</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>10</v>
@@ -2808,16 +2729,16 @@
     <row r="84" spans="1:6">
       <c r="A84" s="2"/>
       <c r="B84" s="3" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>10</v>
@@ -2826,16 +2747,16 @@
     <row r="85" spans="1:6">
       <c r="A85" s="2"/>
       <c r="B85" s="3" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>10</v>
@@ -2844,16 +2765,16 @@
     <row r="86" spans="1:6">
       <c r="A86" s="2"/>
       <c r="B86" s="3" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>10</v>
@@ -2862,16 +2783,16 @@
     <row r="87" spans="1:6">
       <c r="A87" s="2"/>
       <c r="B87" s="3" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>10</v>
@@ -2880,16 +2801,16 @@
     <row r="88" spans="1:6">
       <c r="A88" s="2"/>
       <c r="B88" s="3" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>10</v>
@@ -2898,16 +2819,16 @@
     <row r="89" spans="1:6">
       <c r="A89" s="2"/>
       <c r="B89" s="3" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>10</v>
@@ -2916,16 +2837,16 @@
     <row r="90" spans="1:6">
       <c r="A90" s="2"/>
       <c r="B90" s="3" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>10</v>
@@ -2934,16 +2855,16 @@
     <row r="91" spans="1:6">
       <c r="A91" s="2"/>
       <c r="B91" s="3" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>10</v>
@@ -2952,16 +2873,16 @@
     <row r="92" spans="1:6">
       <c r="A92" s="2"/>
       <c r="B92" s="3" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>10</v>
@@ -2970,16 +2891,16 @@
     <row r="93" spans="1:6">
       <c r="A93" s="2"/>
       <c r="B93" s="3" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>10</v>
@@ -2988,16 +2909,16 @@
     <row r="94" spans="1:6">
       <c r="A94" s="2"/>
       <c r="B94" s="3" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>10</v>
@@ -3006,16 +2927,16 @@
     <row r="95" spans="1:6">
       <c r="A95" s="2"/>
       <c r="B95" s="3" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>10</v>
@@ -3024,16 +2945,16 @@
     <row r="96" spans="1:6">
       <c r="A96" s="2"/>
       <c r="B96" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>10</v>
@@ -3042,16 +2963,16 @@
     <row r="97" spans="1:6">
       <c r="A97" s="2"/>
       <c r="B97" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>10</v>
@@ -3060,16 +2981,16 @@
     <row r="98" spans="1:6">
       <c r="A98" s="2"/>
       <c r="B98" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>10</v>
@@ -3078,16 +2999,16 @@
     <row r="99" spans="1:6">
       <c r="A99" s="2"/>
       <c r="B99" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>10</v>
@@ -3096,16 +3017,16 @@
     <row r="100" spans="1:6">
       <c r="A100" s="2"/>
       <c r="B100" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>10</v>
@@ -3114,16 +3035,16 @@
     <row r="101" spans="1:6">
       <c r="A101" s="2"/>
       <c r="B101" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>10</v>
@@ -3132,16 +3053,16 @@
     <row r="102" spans="1:6">
       <c r="A102" s="2"/>
       <c r="B102" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>10</v>
@@ -3150,16 +3071,16 @@
     <row r="103" spans="1:6">
       <c r="A103" s="2"/>
       <c r="B103" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>10</v>
@@ -3168,16 +3089,16 @@
     <row r="104" spans="1:6">
       <c r="A104" s="2"/>
       <c r="B104" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>10</v>
@@ -3186,23 +3107,167 @@
     <row r="105" spans="1:6">
       <c r="A105" s="2"/>
       <c r="B105" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E105" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="2">
+        <v>43021</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D107" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F105" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="E107" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="2"/>
+      <c r="B108" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="2"/>
+      <c r="B109" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="2"/>
+      <c r="B110" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="2"/>
+      <c r="B111" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="2"/>
+      <c r="B112" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="2"/>
+      <c r="B113" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="13"/>
+      <c r="B114" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F114" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
@@ -3219,6 +3284,7 @@
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="A72:A81"/>
     <mergeCell ref="A83:A105"/>
+    <mergeCell ref="A107:A113"/>
     <mergeCell ref="G15:I16"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求分析/接口文档/客户/更新说明.xlsx
+++ b/需求分析/接口文档/客户/更新说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23025" windowHeight="9360"/>
+    <workbookView windowWidth="26415" windowHeight="8850"/>
   </bookViews>
   <sheets>
     <sheet name="当前更新" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
   <si>
     <t>更新时间</t>
   </si>
@@ -35,19 +35,400 @@
     <t>状态</t>
   </si>
   <si>
+    <t>客户接口</t>
+  </si>
+  <si>
+    <t>客户建账</t>
+  </si>
+  <si>
+    <t>申请客户建账</t>
+  </si>
+  <si>
+    <t>添加 该账号已存在 状态码</t>
+  </si>
+  <si>
+    <t>已验证</t>
+  </si>
+  <si>
+    <t>库存接口</t>
+  </si>
+  <si>
+    <t>库存盘点</t>
+  </si>
+  <si>
+    <t>获取库存盘点记录详情</t>
+  </si>
+  <si>
+    <t>添加 商品分类 返回</t>
+  </si>
+  <si>
+    <t>获取库存盘点记录</t>
+  </si>
+  <si>
+    <t>申请库存</t>
+  </si>
+  <si>
+    <t>申请人获取库存申请列表</t>
+  </si>
+  <si>
+    <t>审批人获取库存审批列表</t>
+  </si>
+  <si>
+    <t>库存进仓</t>
+  </si>
+  <si>
+    <t>获取进仓单详情</t>
+  </si>
+  <si>
+    <t>获取进仓单列表</t>
+  </si>
+  <si>
+    <t>需求接口</t>
+  </si>
+  <si>
+    <t>登陆激活</t>
+  </si>
+  <si>
+    <t>用户登录(浏览器)</t>
+  </si>
+  <si>
+    <t>新增接口</t>
+  </si>
+  <si>
+    <t>获取当前销售点进仓单列表</t>
+  </si>
+  <si>
+    <t>获取当销售点前库存盘点记录</t>
+  </si>
+  <si>
+    <t>更新 branchId(销售点Id) 为选填</t>
+  </si>
+  <si>
+    <t>获取跟单员列表</t>
+  </si>
+  <si>
+    <t>添加 头像 返回</t>
+  </si>
+  <si>
+    <t>获取审批人列表</t>
+  </si>
+  <si>
+    <t>团队接口</t>
+  </si>
+  <si>
+    <t>团队</t>
+  </si>
+  <si>
+    <t>获取团队内所有成员</t>
+  </si>
+  <si>
+    <t>个人信息</t>
+  </si>
+  <si>
+    <t>获取默认收货地址</t>
+  </si>
+  <si>
+    <t>新添加的接口</t>
+  </si>
+  <si>
+    <t>个人信息接口</t>
+  </si>
+  <si>
+    <t>经营单位</t>
+  </si>
+  <si>
+    <t>获取经营单位详情</t>
+  </si>
+  <si>
+    <t>客户信息</t>
+  </si>
+  <si>
+    <t>获取客户列表</t>
+  </si>
+  <si>
+    <t>添加返回客户头像</t>
+  </si>
+  <si>
+    <t>移交客户</t>
+  </si>
+  <si>
+    <t>业务员移交客户</t>
+  </si>
+  <si>
+    <t>跟单员移交客户</t>
+  </si>
+  <si>
+    <t>养殖信息(新)</t>
+  </si>
+  <si>
+    <t>所有的接口</t>
+  </si>
+  <si>
+    <t>hadAccount(账号状态)</t>
+  </si>
+  <si>
+    <t>商城接口</t>
+  </si>
+  <si>
+    <t>订单</t>
+  </si>
+  <si>
+    <t>获取运费模板列表(客户)</t>
+  </si>
+  <si>
+    <t>添加商家地址返回</t>
+  </si>
+  <si>
+    <t>暂停使用</t>
+  </si>
+  <si>
+    <t>未建账</t>
+  </si>
+  <si>
+    <t>添加融云id返回</t>
+  </si>
+  <si>
+    <t>已建账</t>
+  </si>
+  <si>
+    <t>添加 申请原因 参数</t>
+  </si>
+  <si>
+    <t>账号被冻结</t>
+  </si>
+  <si>
+    <t>冻结客户</t>
+  </si>
+  <si>
+    <t>解冻客户</t>
+  </si>
+  <si>
+    <t>获取客户详情</t>
+  </si>
+  <si>
+    <t>添加 账号冻结 状态</t>
+  </si>
+  <si>
+    <t>商品浏览</t>
+  </si>
+  <si>
+    <t>查看商品详情</t>
+  </si>
+  <si>
+    <t>添加 规格重量 返回</t>
+  </si>
+  <si>
+    <t>购物车</t>
+  </si>
+  <si>
+    <t>获取购物车商品列表</t>
+  </si>
+  <si>
+    <t>获取订单列表</t>
+  </si>
+  <si>
+    <t>添加 订单号 返回</t>
+  </si>
+  <si>
+    <t>获取订单详情</t>
+  </si>
+  <si>
+    <t>筛选订单</t>
+  </si>
+  <si>
+    <t>根据订单号获取订单列表</t>
+  </si>
+  <si>
+    <t>业务订单</t>
+  </si>
+  <si>
+    <t>财务订单</t>
+  </si>
+  <si>
+    <t>权限角色接口</t>
+  </si>
+  <si>
+    <t>权限角色</t>
+  </si>
+  <si>
+    <t>获取用户角色</t>
+  </si>
+  <si>
+    <t>开放使用</t>
+  </si>
+  <si>
+    <t>更名为 客户商城接口</t>
+  </si>
+  <si>
     <t>商家商城接口</t>
   </si>
   <si>
+    <t>原 商城接口 的拆分</t>
+  </si>
+  <si>
+    <t>运费模板</t>
+  </si>
+  <si>
+    <t>销售点</t>
+  </si>
+  <si>
     <t>商品编辑</t>
   </si>
   <si>
+    <t>所有接口</t>
+  </si>
+  <si>
+    <t>订单接口</t>
+  </si>
+  <si>
+    <t>业务订单(业务)</t>
+  </si>
+  <si>
+    <t>业务订单(业务管理)</t>
+  </si>
+  <si>
+    <t>财务订单(财务)</t>
+  </si>
+  <si>
+    <t>财务订单(财务管理)</t>
+  </si>
+  <si>
+    <t>后勤订单(跟单)</t>
+  </si>
+  <si>
+    <t>已废弃</t>
+  </si>
+  <si>
+    <t>激活登陆</t>
+  </si>
+  <si>
+    <t>用户登录</t>
+  </si>
+  <si>
+    <t>添加 企业名称 返回</t>
+  </si>
+  <si>
+    <t>查找分类下的商品</t>
+  </si>
+  <si>
     <t>搜索商品</t>
   </si>
   <si>
+    <t>所有 筛选订单 接口</t>
+  </si>
+  <si>
+    <t>新增 订单总价 返回</t>
+  </si>
+  <si>
+    <t>客户订单</t>
+  </si>
+  <si>
+    <t>生成订单</t>
+  </si>
+  <si>
+    <t>添加 商品不存在 返回值</t>
+  </si>
+  <si>
+    <t>养殖信息（新）</t>
+  </si>
+  <si>
+    <t>获取养殖信息详情（新）</t>
+  </si>
+  <si>
+    <t>客户资源</t>
+  </si>
+  <si>
+    <t>获取养殖信息列表</t>
+  </si>
+  <si>
+    <t>添加 json 返回</t>
+  </si>
+  <si>
+    <t>获取养殖信息详情</t>
+  </si>
+  <si>
+    <t>所有订单筛选接口</t>
+  </si>
+  <si>
+    <t>更新 订单状态</t>
+  </si>
+  <si>
+    <t>添加 角色代码 返回值</t>
+  </si>
+  <si>
+    <t>客户跟进</t>
+  </si>
+  <si>
+    <t>添加 跟进标题 参数</t>
+  </si>
+  <si>
+    <t>查看库存</t>
+  </si>
+  <si>
+    <t>查看销售点库存</t>
+  </si>
+  <si>
+    <t>添加 返回参数</t>
+  </si>
+  <si>
+    <t>查看当前销售点库存</t>
+  </si>
+  <si>
+    <t>查看总部销售点库存</t>
+  </si>
+  <si>
+    <t>盘点库存</t>
+  </si>
+  <si>
+    <t>新建进仓单</t>
+  </si>
+  <si>
+    <t>添加 商品图片 返回</t>
+  </si>
+  <si>
+    <t>添加 时间段筛选 条件</t>
+  </si>
+  <si>
+    <t>添加 筛选 条件</t>
+  </si>
+  <si>
+    <t>搜索库存商品</t>
+  </si>
+  <si>
+    <t>添加 付款状态 返回</t>
+  </si>
+  <si>
+    <t>跟单订单(跟单)</t>
+  </si>
+  <si>
+    <t>获取成员的客户列表</t>
+  </si>
+  <si>
+    <t>添加 用户头像 返回</t>
+  </si>
+  <si>
+    <t>筛选客户列表</t>
+  </si>
+  <si>
+    <t>此接口与(获取成员的客户列表)合并</t>
+  </si>
+  <si>
+    <t>获取总部销售点Id</t>
+  </si>
+  <si>
     <t>添加 商品编码 返回</t>
   </si>
   <si>
-    <t>已验证</t>
+    <t>添加 商品编码、申请单号 返回</t>
+  </si>
+  <si>
+    <t>组织管理接口</t>
+  </si>
+  <si>
+    <t>组织管理</t>
+  </si>
+  <si>
+    <t>获取可分配的角色列表</t>
   </si>
   <si>
     <t>获取商品列表</t>
@@ -56,352 +437,10 @@
     <t>添加 商品规格Id 返回</t>
   </si>
   <si>
-    <t>客户接口</t>
-  </si>
-  <si>
-    <t>个人信息</t>
-  </si>
-  <si>
-    <t>获取默认收货地址</t>
-  </si>
-  <si>
-    <t>新添加的接口</t>
-  </si>
-  <si>
-    <t>个人信息接口</t>
-  </si>
-  <si>
-    <t>经营单位</t>
-  </si>
-  <si>
-    <t>获取经营单位详情</t>
-  </si>
-  <si>
-    <t>新增接口</t>
-  </si>
-  <si>
-    <t>客户信息</t>
-  </si>
-  <si>
-    <t>获取客户列表</t>
-  </si>
-  <si>
-    <t>添加返回客户头像</t>
-  </si>
-  <si>
-    <t>移交客户</t>
-  </si>
-  <si>
-    <t>业务员移交客户</t>
-  </si>
-  <si>
-    <t>跟单员移交客户</t>
-  </si>
-  <si>
-    <t>养殖信息(新)</t>
-  </si>
-  <si>
-    <t>所有的接口</t>
-  </si>
-  <si>
-    <t>hadAccount(账号状态)</t>
-  </si>
-  <si>
-    <t>商城接口</t>
-  </si>
-  <si>
-    <t>订单</t>
-  </si>
-  <si>
-    <t>获取运费模板列表(客户)</t>
-  </si>
-  <si>
-    <t>添加商家地址返回</t>
-  </si>
-  <si>
-    <t>客户建账</t>
-  </si>
-  <si>
-    <t>获取审批人列表</t>
-  </si>
-  <si>
-    <t>暂停使用</t>
-  </si>
-  <si>
-    <t>未建账</t>
-  </si>
-  <si>
-    <t>添加融云id返回</t>
-  </si>
-  <si>
-    <t>已建账</t>
-  </si>
-  <si>
-    <t>申请客户建账</t>
-  </si>
-  <si>
-    <t>添加 申请原因 参数</t>
-  </si>
-  <si>
-    <t>账号被冻结</t>
-  </si>
-  <si>
-    <t>冻结客户</t>
-  </si>
-  <si>
-    <t>解冻客户</t>
-  </si>
-  <si>
-    <t>获取客户详情</t>
-  </si>
-  <si>
-    <t>添加 账号冻结 状态</t>
-  </si>
-  <si>
-    <t>商品浏览</t>
-  </si>
-  <si>
-    <t>查看商品详情</t>
-  </si>
-  <si>
-    <t>添加 规格重量 返回</t>
-  </si>
-  <si>
-    <t>购物车</t>
-  </si>
-  <si>
-    <t>获取购物车商品列表</t>
-  </si>
-  <si>
-    <t>获取订单列表</t>
-  </si>
-  <si>
-    <t>添加 订单号 返回</t>
-  </si>
-  <si>
-    <t>获取订单详情</t>
-  </si>
-  <si>
-    <t>筛选订单</t>
-  </si>
-  <si>
-    <t>根据订单号获取订单列表</t>
-  </si>
-  <si>
-    <t>业务订单</t>
-  </si>
-  <si>
-    <t>财务订单</t>
-  </si>
-  <si>
-    <t>权限角色接口</t>
-  </si>
-  <si>
-    <t>权限角色</t>
-  </si>
-  <si>
-    <t>获取用户角色</t>
-  </si>
-  <si>
-    <t>获取跟单员列表</t>
-  </si>
-  <si>
-    <t>开放使用</t>
-  </si>
-  <si>
-    <t>库存接口</t>
-  </si>
-  <si>
-    <t>申请库存</t>
-  </si>
-  <si>
-    <t>更名为 客户商城接口</t>
-  </si>
-  <si>
-    <t>原 商城接口 的拆分</t>
-  </si>
-  <si>
-    <t>运费模板</t>
-  </si>
-  <si>
-    <t>销售点</t>
-  </si>
-  <si>
-    <t>所有接口</t>
-  </si>
-  <si>
-    <t>订单接口</t>
-  </si>
-  <si>
-    <t>业务订单(业务)</t>
-  </si>
-  <si>
-    <t>业务订单(业务管理)</t>
-  </si>
-  <si>
-    <t>财务订单(财务)</t>
-  </si>
-  <si>
-    <t>财务订单(财务管理)</t>
-  </si>
-  <si>
-    <t>后勤订单(跟单)</t>
-  </si>
-  <si>
-    <t>已废弃</t>
-  </si>
-  <si>
-    <t>需求接口</t>
-  </si>
-  <si>
-    <t>激活登陆</t>
-  </si>
-  <si>
-    <t>用户登录</t>
-  </si>
-  <si>
-    <t>添加 企业名称 返回</t>
-  </si>
-  <si>
-    <t>查找分类下的商品</t>
-  </si>
-  <si>
-    <t>所有 筛选订单 接口</t>
-  </si>
-  <si>
-    <t>新增 订单总价 返回</t>
-  </si>
-  <si>
-    <t>客户订单</t>
-  </si>
-  <si>
-    <t>生成订单</t>
-  </si>
-  <si>
-    <t>添加 商品不存在 返回值</t>
-  </si>
-  <si>
-    <t>养殖信息（新）</t>
-  </si>
-  <si>
-    <t>获取养殖信息详情（新）</t>
-  </si>
-  <si>
-    <t>客户资源</t>
-  </si>
-  <si>
-    <t>获取养殖信息列表</t>
-  </si>
-  <si>
-    <t>添加 json 返回</t>
-  </si>
-  <si>
-    <t>获取养殖信息详情</t>
-  </si>
-  <si>
-    <t>所有订单筛选接口</t>
-  </si>
-  <si>
-    <t>更新 订单状态</t>
-  </si>
-  <si>
-    <t>添加 角色代码 返回值</t>
-  </si>
-  <si>
-    <t>客户跟进</t>
-  </si>
-  <si>
-    <t>添加 跟进标题 参数</t>
-  </si>
-  <si>
-    <t>查看库存</t>
-  </si>
-  <si>
-    <t>查看销售点库存</t>
-  </si>
-  <si>
-    <t>添加 返回参数</t>
-  </si>
-  <si>
-    <t>查看当前销售点库存</t>
-  </si>
-  <si>
-    <t>查看总部销售点库存</t>
-  </si>
-  <si>
-    <t>盘点库存</t>
-  </si>
-  <si>
-    <t>获取库存盘点记录</t>
-  </si>
-  <si>
-    <t>库存进仓</t>
-  </si>
-  <si>
-    <t>新建进仓单</t>
-  </si>
-  <si>
-    <t>获取进仓单列表</t>
-  </si>
-  <si>
-    <t>获取进仓单详情</t>
-  </si>
-  <si>
-    <t>申请人获取库存申请列表</t>
-  </si>
-  <si>
-    <t>审批人获取库存审批列表</t>
-  </si>
-  <si>
-    <t>添加 商品图片 返回</t>
-  </si>
-  <si>
-    <t>库存盘点</t>
-  </si>
-  <si>
-    <t>添加 时间段筛选 条件</t>
-  </si>
-  <si>
-    <t>获取库存盘点记录详情</t>
-  </si>
-  <si>
-    <t>添加 筛选 条件</t>
-  </si>
-  <si>
-    <t>搜索库存商品</t>
-  </si>
-  <si>
-    <t>添加 付款状态 返回</t>
-  </si>
-  <si>
-    <t>跟单订单(跟单)</t>
-  </si>
-  <si>
-    <t>获取成员的客户列表</t>
-  </si>
-  <si>
-    <t>添加 用户头像 返回</t>
-  </si>
-  <si>
-    <t>筛选客户列表</t>
-  </si>
-  <si>
-    <t>此接口与(获取成员的客户列表)合并</t>
-  </si>
-  <si>
-    <t>获取总部销售点Id</t>
-  </si>
-  <si>
-    <t>添加 商品编码、申请单号 返回</t>
-  </si>
-  <si>
-    <t>组织管理接口</t>
-  </si>
-  <si>
-    <t>组织管理</t>
-  </si>
-  <si>
-    <t>获取可分配的角色列表</t>
+    <t>参数 recordList 替换为 incomeList</t>
+  </si>
+  <si>
+    <t>添加 总部当前库存 返回</t>
   </si>
 </sst>
 </file>
@@ -475,6 +514,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -490,14 +559,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -508,27 +569,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,17 +598,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,6 +664,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -643,37 +694,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,19 +742,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,13 +766,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,13 +820,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,6 +899,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -883,21 +937,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -909,7 +948,7 @@
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -918,137 +957,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1092,9 +1131,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="19" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1445,18 +1481,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="21.125" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="5" max="5" width="31.25" customWidth="1"/>
+    <col min="4" max="4" width="26.875" customWidth="1"/>
+    <col min="5" max="5" width="38.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" spans="1:6">
@@ -1481,7 +1517,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>43022</v>
+        <v>43025</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1502,42 +1538,260 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="15"/>
-      <c r="B4" s="3" t="s">
+      <c r="D14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="D15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>43025</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A2:A15"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1548,10 +1802,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107:F114"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1588,16 +1842,16 @@
         <v>42994</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>10</v>
@@ -1606,16 +1860,16 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>10</v>
@@ -1626,16 +1880,16 @@
         <v>42996</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>10</v>
@@ -1644,16 +1898,16 @@
     <row r="8" spans="1:6">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>10</v>
@@ -1662,16 +1916,16 @@
     <row r="9" spans="1:6">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>10</v>
@@ -1680,16 +1934,16 @@
     <row r="10" spans="1:6">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>10</v>
@@ -1700,22 +1954,22 @@
         <v>42998</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1723,16 +1977,16 @@
     <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>10</v>
@@ -1744,22 +1998,22 @@
     <row r="17" spans="1:9">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="11">
@@ -1769,22 +2023,22 @@
     <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="11">
@@ -1794,22 +2048,22 @@
     <row r="19" spans="1:9">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="11">
@@ -1819,16 +2073,16 @@
     <row r="20" spans="1:6">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>10</v>
@@ -1837,16 +2091,16 @@
     <row r="21" spans="1:6">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>10</v>
@@ -1855,16 +2109,16 @@
     <row r="22" spans="1:6">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>10</v>
@@ -1875,16 +2129,16 @@
         <v>42999</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>10</v>
@@ -1893,16 +2147,16 @@
     <row r="28" spans="1:6">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>10</v>
@@ -1911,16 +2165,16 @@
     <row r="29" spans="1:6">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>10</v>
@@ -1929,16 +2183,16 @@
     <row r="30" spans="1:6">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>10</v>
@@ -1947,16 +2201,16 @@
     <row r="31" spans="1:6">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>10</v>
@@ -1965,16 +2219,16 @@
     <row r="32" spans="1:6">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>10</v>
@@ -1983,16 +2237,16 @@
     <row r="33" spans="1:6">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>10</v>
@@ -2001,16 +2255,16 @@
     <row r="34" spans="1:6">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>10</v>
@@ -2021,16 +2275,16 @@
         <v>42999</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>10</v>
@@ -2039,16 +2293,16 @@
     <row r="39" spans="1:6">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>10</v>
@@ -2057,16 +2311,16 @@
     <row r="40" spans="1:6">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>10</v>
@@ -2075,16 +2329,16 @@
     <row r="41" spans="1:6">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>10</v>
@@ -2095,12 +2349,12 @@
         <v>43005</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>10</v>
@@ -2109,12 +2363,12 @@
     <row r="44" spans="1:6">
       <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>10</v>
@@ -2123,14 +2377,14 @@
     <row r="45" spans="1:6">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>10</v>
@@ -2139,14 +2393,14 @@
     <row r="46" spans="1:6">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>10</v>
@@ -2155,14 +2409,14 @@
     <row r="47" spans="1:6">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>10</v>
@@ -2171,16 +2425,16 @@
     <row r="48" spans="1:6">
       <c r="A48" s="2"/>
       <c r="B48" s="3" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>10</v>
@@ -2189,12 +2443,12 @@
     <row r="49" spans="1:6">
       <c r="A49" s="2"/>
       <c r="B49" s="3" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>10</v>
@@ -2203,16 +2457,16 @@
     <row r="50" spans="1:6">
       <c r="A50" s="2"/>
       <c r="B50" s="3" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>10</v>
@@ -2221,16 +2475,16 @@
     <row r="51" spans="1:6">
       <c r="A51" s="2"/>
       <c r="B51" s="3" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>10</v>
@@ -2239,16 +2493,16 @@
     <row r="52" spans="1:6">
       <c r="A52" s="2"/>
       <c r="B52" s="3" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>10</v>
@@ -2257,16 +2511,16 @@
     <row r="53" spans="1:6">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>10</v>
@@ -2275,16 +2529,16 @@
     <row r="54" spans="1:6">
       <c r="A54" s="2"/>
       <c r="B54" s="3" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>10</v>
@@ -2293,32 +2547,32 @@
     <row r="55" spans="1:6">
       <c r="A55" s="2"/>
       <c r="B55" s="3" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="4" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2"/>
       <c r="B56" s="3" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>10</v>
@@ -2329,16 +2583,16 @@
         <v>43008</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>10</v>
@@ -2347,16 +2601,16 @@
     <row r="59" spans="1:6">
       <c r="A59" s="2"/>
       <c r="B59" s="3" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>10</v>
@@ -2365,16 +2619,16 @@
     <row r="60" spans="1:6">
       <c r="A60" s="2"/>
       <c r="B60" s="3" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>10</v>
@@ -2383,14 +2637,14 @@
     <row r="61" spans="1:6">
       <c r="A61" s="2"/>
       <c r="B61" s="3" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>10</v>
@@ -2401,16 +2655,16 @@
         <v>43015</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>10</v>
@@ -2419,16 +2673,16 @@
     <row r="64" spans="1:6">
       <c r="A64" s="2"/>
       <c r="B64" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>10</v>
@@ -2437,16 +2691,16 @@
     <row r="65" spans="1:6">
       <c r="A65" s="2"/>
       <c r="B65" s="3" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>10</v>
@@ -2455,16 +2709,16 @@
     <row r="66" spans="1:6">
       <c r="A66" s="2"/>
       <c r="B66" s="3" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>10</v>
@@ -2473,14 +2727,14 @@
     <row r="67" spans="1:6">
       <c r="A67" s="2"/>
       <c r="B67" s="3" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="4" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>10</v>
@@ -2491,16 +2745,16 @@
         <v>43018</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>10</v>
@@ -2509,16 +2763,16 @@
     <row r="70" spans="1:6">
       <c r="A70" s="2"/>
       <c r="B70" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>10</v>
@@ -2529,16 +2783,16 @@
         <v>43018</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>10</v>
@@ -2547,16 +2801,16 @@
     <row r="73" spans="1:6">
       <c r="A73" s="2"/>
       <c r="B73" s="3" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>10</v>
@@ -2565,16 +2819,16 @@
     <row r="74" spans="1:6">
       <c r="A74" s="2"/>
       <c r="B74" s="3" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>10</v>
@@ -2583,16 +2837,16 @@
     <row r="75" spans="1:6">
       <c r="A75" s="2"/>
       <c r="B75" s="3" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>10</v>
@@ -2601,16 +2855,16 @@
     <row r="76" spans="1:6">
       <c r="A76" s="2"/>
       <c r="B76" s="3" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>10</v>
@@ -2619,16 +2873,16 @@
     <row r="77" spans="1:6">
       <c r="A77" s="2"/>
       <c r="B77" s="3" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>10</v>
@@ -2637,16 +2891,16 @@
     <row r="78" spans="1:6">
       <c r="A78" s="2"/>
       <c r="B78" s="3" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>10</v>
@@ -2655,16 +2909,16 @@
     <row r="79" spans="1:6">
       <c r="A79" s="2"/>
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>10</v>
@@ -2673,16 +2927,16 @@
     <row r="80" spans="1:6">
       <c r="A80" s="2"/>
       <c r="B80" s="3" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>10</v>
@@ -2691,16 +2945,16 @@
     <row r="81" spans="1:6">
       <c r="A81" s="2"/>
       <c r="B81" s="3" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>10</v>
@@ -2711,16 +2965,16 @@
         <v>43020</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>10</v>
@@ -2729,16 +2983,16 @@
     <row r="84" spans="1:6">
       <c r="A84" s="2"/>
       <c r="B84" s="3" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>10</v>
@@ -2747,16 +3001,16 @@
     <row r="85" spans="1:6">
       <c r="A85" s="2"/>
       <c r="B85" s="3" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>10</v>
@@ -2765,16 +3019,16 @@
     <row r="86" spans="1:6">
       <c r="A86" s="2"/>
       <c r="B86" s="3" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>10</v>
@@ -2783,16 +3037,16 @@
     <row r="87" spans="1:6">
       <c r="A87" s="2"/>
       <c r="B87" s="3" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>10</v>
@@ -2801,16 +3055,16 @@
     <row r="88" spans="1:6">
       <c r="A88" s="2"/>
       <c r="B88" s="3" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>10</v>
@@ -2819,16 +3073,16 @@
     <row r="89" spans="1:6">
       <c r="A89" s="2"/>
       <c r="B89" s="3" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>10</v>
@@ -2837,16 +3091,16 @@
     <row r="90" spans="1:6">
       <c r="A90" s="2"/>
       <c r="B90" s="3" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>10</v>
@@ -2855,16 +3109,16 @@
     <row r="91" spans="1:6">
       <c r="A91" s="2"/>
       <c r="B91" s="3" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>10</v>
@@ -2873,16 +3127,16 @@
     <row r="92" spans="1:6">
       <c r="A92" s="2"/>
       <c r="B92" s="3" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>10</v>
@@ -2891,16 +3145,16 @@
     <row r="93" spans="1:6">
       <c r="A93" s="2"/>
       <c r="B93" s="3" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>10</v>
@@ -2909,16 +3163,16 @@
     <row r="94" spans="1:6">
       <c r="A94" s="2"/>
       <c r="B94" s="3" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>10</v>
@@ -2927,16 +3181,16 @@
     <row r="95" spans="1:6">
       <c r="A95" s="2"/>
       <c r="B95" s="3" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>10</v>
@@ -2945,16 +3199,16 @@
     <row r="96" spans="1:6">
       <c r="A96" s="2"/>
       <c r="B96" s="3" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>10</v>
@@ -2963,16 +3217,16 @@
     <row r="97" spans="1:6">
       <c r="A97" s="2"/>
       <c r="B97" s="3" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C97" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="E97" s="4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>10</v>
@@ -2981,16 +3235,16 @@
     <row r="98" spans="1:6">
       <c r="A98" s="2"/>
       <c r="B98" s="3" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>10</v>
@@ -2999,16 +3253,16 @@
     <row r="99" spans="1:6">
       <c r="A99" s="2"/>
       <c r="B99" s="3" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>10</v>
@@ -3017,16 +3271,16 @@
     <row r="100" spans="1:6">
       <c r="A100" s="2"/>
       <c r="B100" s="3" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>10</v>
@@ -3035,16 +3289,16 @@
     <row r="101" spans="1:6">
       <c r="A101" s="2"/>
       <c r="B101" s="3" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>10</v>
@@ -3053,16 +3307,16 @@
     <row r="102" spans="1:6">
       <c r="A102" s="2"/>
       <c r="B102" s="3" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>10</v>
@@ -3071,16 +3325,16 @@
     <row r="103" spans="1:6">
       <c r="A103" s="2"/>
       <c r="B103" s="3" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>10</v>
@@ -3089,16 +3343,16 @@
     <row r="104" spans="1:6">
       <c r="A104" s="2"/>
       <c r="B104" s="3" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>10</v>
@@ -3107,16 +3361,16 @@
     <row r="105" spans="1:6">
       <c r="A105" s="2"/>
       <c r="B105" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>10</v>
@@ -3127,16 +3381,16 @@
         <v>43021</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>10</v>
@@ -3145,16 +3399,16 @@
     <row r="108" spans="1:6">
       <c r="A108" s="2"/>
       <c r="B108" s="3" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>10</v>
@@ -3163,16 +3417,16 @@
     <row r="109" spans="1:6">
       <c r="A109" s="2"/>
       <c r="B109" s="3" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>10</v>
@@ -3181,16 +3435,16 @@
     <row r="110" spans="1:6">
       <c r="A110" s="2"/>
       <c r="B110" s="3" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>10</v>
@@ -3199,16 +3453,16 @@
     <row r="111" spans="1:6">
       <c r="A111" s="2"/>
       <c r="B111" s="3" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>10</v>
@@ -3217,16 +3471,16 @@
     <row r="112" spans="1:6">
       <c r="A112" s="2"/>
       <c r="B112" s="3" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>10</v>
@@ -3235,16 +3489,16 @@
     <row r="113" spans="1:6">
       <c r="A113" s="2"/>
       <c r="B113" s="3" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>10</v>
@@ -3253,21 +3507,223 @@
     <row r="114" spans="1:6">
       <c r="A114" s="13"/>
       <c r="B114" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E114" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F114" s="5"/>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="2">
+        <v>43022</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="2"/>
+      <c r="B117" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="2"/>
+      <c r="B118" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="2">
+        <v>43024</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="2"/>
+      <c r="B121" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D121" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F114" s="5"/>
+      <c r="E121" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="2"/>
+      <c r="B122" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="2"/>
+      <c r="B123" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="2"/>
+      <c r="B124" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="2"/>
+      <c r="B125" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="2"/>
+      <c r="B126" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="2"/>
+      <c r="B127" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
@@ -3285,6 +3741,8 @@
     <mergeCell ref="A72:A81"/>
     <mergeCell ref="A83:A105"/>
     <mergeCell ref="A107:A113"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="A120:A127"/>
     <mergeCell ref="G15:I16"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求分析/接口文档/客户/更新说明.xlsx
+++ b/需求分析/接口文档/客户/更新说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="26415" windowHeight="8850"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="当前更新" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145">
   <si>
     <t>更新时间</t>
   </si>
@@ -35,66 +35,402 @@
     <t>状态</t>
   </si>
   <si>
+    <t>库存接口</t>
+  </si>
+  <si>
+    <t>申请库存</t>
+  </si>
+  <si>
+    <t>获取库存审批详情</t>
+  </si>
+  <si>
+    <t>新增接口</t>
+  </si>
+  <si>
+    <t>已验证</t>
+  </si>
+  <si>
+    <t>客户资源</t>
+  </si>
+  <si>
+    <t>获取当前部门下的成员列表</t>
+  </si>
+  <si>
+    <t>获取当前部门下的客户列表</t>
+  </si>
+  <si>
     <t>客户接口</t>
   </si>
   <si>
+    <t>个人信息</t>
+  </si>
+  <si>
+    <t>获取默认收货地址</t>
+  </si>
+  <si>
+    <t>新添加的接口</t>
+  </si>
+  <si>
+    <t>个人信息接口</t>
+  </si>
+  <si>
+    <t>经营单位</t>
+  </si>
+  <si>
+    <t>获取经营单位详情</t>
+  </si>
+  <si>
+    <t>客户信息</t>
+  </si>
+  <si>
+    <t>获取客户列表</t>
+  </si>
+  <si>
+    <t>添加返回客户头像</t>
+  </si>
+  <si>
+    <t>移交客户</t>
+  </si>
+  <si>
+    <t>业务员移交客户</t>
+  </si>
+  <si>
+    <t>跟单员移交客户</t>
+  </si>
+  <si>
+    <t>养殖信息(新)</t>
+  </si>
+  <si>
+    <t>所有的接口</t>
+  </si>
+  <si>
+    <t>hadAccount(账号状态)</t>
+  </si>
+  <si>
+    <t>商城接口</t>
+  </si>
+  <si>
+    <t>订单</t>
+  </si>
+  <si>
+    <t>获取运费模板列表(客户)</t>
+  </si>
+  <si>
+    <t>添加商家地址返回</t>
+  </si>
+  <si>
     <t>客户建账</t>
   </si>
   <si>
+    <t>获取审批人列表</t>
+  </si>
+  <si>
+    <t>暂停使用</t>
+  </si>
+  <si>
+    <t>未建账</t>
+  </si>
+  <si>
+    <t>添加融云id返回</t>
+  </si>
+  <si>
+    <t>已建账</t>
+  </si>
+  <si>
     <t>申请客户建账</t>
   </si>
   <si>
+    <t>添加 申请原因 参数</t>
+  </si>
+  <si>
+    <t>账号被冻结</t>
+  </si>
+  <si>
+    <t>冻结客户</t>
+  </si>
+  <si>
+    <t>解冻客户</t>
+  </si>
+  <si>
+    <t>获取客户详情</t>
+  </si>
+  <si>
+    <t>添加 账号冻结 状态</t>
+  </si>
+  <si>
+    <t>商品浏览</t>
+  </si>
+  <si>
+    <t>查看商品详情</t>
+  </si>
+  <si>
+    <t>添加 规格重量 返回</t>
+  </si>
+  <si>
+    <t>购物车</t>
+  </si>
+  <si>
+    <t>获取购物车商品列表</t>
+  </si>
+  <si>
+    <t>获取订单列表</t>
+  </si>
+  <si>
+    <t>添加 订单号 返回</t>
+  </si>
+  <si>
+    <t>获取订单详情</t>
+  </si>
+  <si>
+    <t>筛选订单</t>
+  </si>
+  <si>
+    <t>根据订单号获取订单列表</t>
+  </si>
+  <si>
+    <t>业务订单</t>
+  </si>
+  <si>
+    <t>财务订单</t>
+  </si>
+  <si>
+    <t>权限角色接口</t>
+  </si>
+  <si>
+    <t>权限角色</t>
+  </si>
+  <si>
+    <t>获取用户角色</t>
+  </si>
+  <si>
+    <t>获取跟单员列表</t>
+  </si>
+  <si>
+    <t>开放使用</t>
+  </si>
+  <si>
+    <t>更名为 客户商城接口</t>
+  </si>
+  <si>
+    <t>商家商城接口</t>
+  </si>
+  <si>
+    <t>原 商城接口 的拆分</t>
+  </si>
+  <si>
+    <t>运费模板</t>
+  </si>
+  <si>
+    <t>销售点</t>
+  </si>
+  <si>
+    <t>商品编辑</t>
+  </si>
+  <si>
+    <t>所有接口</t>
+  </si>
+  <si>
+    <t>订单接口</t>
+  </si>
+  <si>
+    <t>业务订单(业务)</t>
+  </si>
+  <si>
+    <t>业务订单(业务管理)</t>
+  </si>
+  <si>
+    <t>财务订单(财务)</t>
+  </si>
+  <si>
+    <t>财务订单(财务管理)</t>
+  </si>
+  <si>
+    <t>后勤订单(跟单)</t>
+  </si>
+  <si>
+    <t>已废弃</t>
+  </si>
+  <si>
+    <t>需求接口</t>
+  </si>
+  <si>
+    <t>激活登陆</t>
+  </si>
+  <si>
+    <t>用户登录</t>
+  </si>
+  <si>
+    <t>添加 企业名称 返回</t>
+  </si>
+  <si>
+    <t>查找分类下的商品</t>
+  </si>
+  <si>
+    <t>搜索商品</t>
+  </si>
+  <si>
+    <t>所有 筛选订单 接口</t>
+  </si>
+  <si>
+    <t>新增 订单总价 返回</t>
+  </si>
+  <si>
+    <t>客户订单</t>
+  </si>
+  <si>
+    <t>生成订单</t>
+  </si>
+  <si>
+    <t>添加 商品不存在 返回值</t>
+  </si>
+  <si>
+    <t>养殖信息（新）</t>
+  </si>
+  <si>
+    <t>获取养殖信息详情（新）</t>
+  </si>
+  <si>
+    <t>获取养殖信息列表</t>
+  </si>
+  <si>
+    <t>添加 json 返回</t>
+  </si>
+  <si>
+    <t>获取养殖信息详情</t>
+  </si>
+  <si>
+    <t>所有订单筛选接口</t>
+  </si>
+  <si>
+    <t>更新 订单状态</t>
+  </si>
+  <si>
+    <t>添加 角色代码 返回值</t>
+  </si>
+  <si>
+    <t>客户跟进</t>
+  </si>
+  <si>
+    <t>添加 跟进标题 参数</t>
+  </si>
+  <si>
+    <t>查看库存</t>
+  </si>
+  <si>
+    <t>查看销售点库存</t>
+  </si>
+  <si>
+    <t>添加 返回参数</t>
+  </si>
+  <si>
+    <t>查看当前销售点库存</t>
+  </si>
+  <si>
+    <t>查看总部销售点库存</t>
+  </si>
+  <si>
+    <t>盘点库存</t>
+  </si>
+  <si>
+    <t>获取库存盘点记录</t>
+  </si>
+  <si>
+    <t>库存进仓</t>
+  </si>
+  <si>
+    <t>新建进仓单</t>
+  </si>
+  <si>
+    <t>获取进仓单列表</t>
+  </si>
+  <si>
+    <t>获取进仓单详情</t>
+  </si>
+  <si>
+    <t>申请人获取库存申请列表</t>
+  </si>
+  <si>
+    <t>审批人获取库存审批列表</t>
+  </si>
+  <si>
+    <t>添加 商品图片 返回</t>
+  </si>
+  <si>
+    <t>库存盘点</t>
+  </si>
+  <si>
+    <t>添加 时间段筛选 条件</t>
+  </si>
+  <si>
+    <t>获取库存盘点记录详情</t>
+  </si>
+  <si>
+    <t>添加 筛选 条件</t>
+  </si>
+  <si>
+    <t>搜索库存商品</t>
+  </si>
+  <si>
+    <t>添加 付款状态 返回</t>
+  </si>
+  <si>
+    <t>跟单订单(跟单)</t>
+  </si>
+  <si>
+    <t>获取成员的客户列表</t>
+  </si>
+  <si>
+    <t>添加 用户头像 返回</t>
+  </si>
+  <si>
+    <t>筛选客户列表</t>
+  </si>
+  <si>
+    <t>此接口与(获取成员的客户列表)合并</t>
+  </si>
+  <si>
+    <t>获取总部销售点Id</t>
+  </si>
+  <si>
+    <t>添加 商品编码 返回</t>
+  </si>
+  <si>
+    <t>添加 商品编码、申请单号 返回</t>
+  </si>
+  <si>
+    <t>组织管理接口</t>
+  </si>
+  <si>
+    <t>组织管理</t>
+  </si>
+  <si>
+    <t>获取可分配的角色列表</t>
+  </si>
+  <si>
+    <t>获取商品列表</t>
+  </si>
+  <si>
+    <t>添加 商品规格Id 返回</t>
+  </si>
+  <si>
+    <t>参数 recordList 替换为 incomeList</t>
+  </si>
+  <si>
+    <t>添加 总部当前库存 返回</t>
+  </si>
+  <si>
     <t>添加 该账号已存在 状态码</t>
   </si>
   <si>
-    <t>已验证</t>
-  </si>
-  <si>
-    <t>库存接口</t>
-  </si>
-  <si>
-    <t>库存盘点</t>
-  </si>
-  <si>
-    <t>获取库存盘点记录详情</t>
-  </si>
-  <si>
     <t>添加 商品分类 返回</t>
   </si>
   <si>
-    <t>获取库存盘点记录</t>
-  </si>
-  <si>
-    <t>申请库存</t>
-  </si>
-  <si>
-    <t>申请人获取库存申请列表</t>
-  </si>
-  <si>
-    <t>审批人获取库存审批列表</t>
-  </si>
-  <si>
-    <t>库存进仓</t>
-  </si>
-  <si>
-    <t>获取进仓单详情</t>
-  </si>
-  <si>
-    <t>获取进仓单列表</t>
-  </si>
-  <si>
-    <t>需求接口</t>
-  </si>
-  <si>
     <t>登陆激活</t>
   </si>
   <si>
     <t>用户登录(浏览器)</t>
   </si>
   <si>
-    <t>新增接口</t>
-  </si>
-  <si>
     <t>获取当前销售点进仓单列表</t>
   </si>
   <si>
@@ -104,15 +440,9 @@
     <t>更新 branchId(销售点Id) 为选填</t>
   </si>
   <si>
-    <t>获取跟单员列表</t>
-  </si>
-  <si>
     <t>添加 头像 返回</t>
   </si>
   <si>
-    <t>获取审批人列表</t>
-  </si>
-  <si>
     <t>团队接口</t>
   </si>
   <si>
@@ -120,327 +450,6 @@
   </si>
   <si>
     <t>获取团队内所有成员</t>
-  </si>
-  <si>
-    <t>个人信息</t>
-  </si>
-  <si>
-    <t>获取默认收货地址</t>
-  </si>
-  <si>
-    <t>新添加的接口</t>
-  </si>
-  <si>
-    <t>个人信息接口</t>
-  </si>
-  <si>
-    <t>经营单位</t>
-  </si>
-  <si>
-    <t>获取经营单位详情</t>
-  </si>
-  <si>
-    <t>客户信息</t>
-  </si>
-  <si>
-    <t>获取客户列表</t>
-  </si>
-  <si>
-    <t>添加返回客户头像</t>
-  </si>
-  <si>
-    <t>移交客户</t>
-  </si>
-  <si>
-    <t>业务员移交客户</t>
-  </si>
-  <si>
-    <t>跟单员移交客户</t>
-  </si>
-  <si>
-    <t>养殖信息(新)</t>
-  </si>
-  <si>
-    <t>所有的接口</t>
-  </si>
-  <si>
-    <t>hadAccount(账号状态)</t>
-  </si>
-  <si>
-    <t>商城接口</t>
-  </si>
-  <si>
-    <t>订单</t>
-  </si>
-  <si>
-    <t>获取运费模板列表(客户)</t>
-  </si>
-  <si>
-    <t>添加商家地址返回</t>
-  </si>
-  <si>
-    <t>暂停使用</t>
-  </si>
-  <si>
-    <t>未建账</t>
-  </si>
-  <si>
-    <t>添加融云id返回</t>
-  </si>
-  <si>
-    <t>已建账</t>
-  </si>
-  <si>
-    <t>添加 申请原因 参数</t>
-  </si>
-  <si>
-    <t>账号被冻结</t>
-  </si>
-  <si>
-    <t>冻结客户</t>
-  </si>
-  <si>
-    <t>解冻客户</t>
-  </si>
-  <si>
-    <t>获取客户详情</t>
-  </si>
-  <si>
-    <t>添加 账号冻结 状态</t>
-  </si>
-  <si>
-    <t>商品浏览</t>
-  </si>
-  <si>
-    <t>查看商品详情</t>
-  </si>
-  <si>
-    <t>添加 规格重量 返回</t>
-  </si>
-  <si>
-    <t>购物车</t>
-  </si>
-  <si>
-    <t>获取购物车商品列表</t>
-  </si>
-  <si>
-    <t>获取订单列表</t>
-  </si>
-  <si>
-    <t>添加 订单号 返回</t>
-  </si>
-  <si>
-    <t>获取订单详情</t>
-  </si>
-  <si>
-    <t>筛选订单</t>
-  </si>
-  <si>
-    <t>根据订单号获取订单列表</t>
-  </si>
-  <si>
-    <t>业务订单</t>
-  </si>
-  <si>
-    <t>财务订单</t>
-  </si>
-  <si>
-    <t>权限角色接口</t>
-  </si>
-  <si>
-    <t>权限角色</t>
-  </si>
-  <si>
-    <t>获取用户角色</t>
-  </si>
-  <si>
-    <t>开放使用</t>
-  </si>
-  <si>
-    <t>更名为 客户商城接口</t>
-  </si>
-  <si>
-    <t>商家商城接口</t>
-  </si>
-  <si>
-    <t>原 商城接口 的拆分</t>
-  </si>
-  <si>
-    <t>运费模板</t>
-  </si>
-  <si>
-    <t>销售点</t>
-  </si>
-  <si>
-    <t>商品编辑</t>
-  </si>
-  <si>
-    <t>所有接口</t>
-  </si>
-  <si>
-    <t>订单接口</t>
-  </si>
-  <si>
-    <t>业务订单(业务)</t>
-  </si>
-  <si>
-    <t>业务订单(业务管理)</t>
-  </si>
-  <si>
-    <t>财务订单(财务)</t>
-  </si>
-  <si>
-    <t>财务订单(财务管理)</t>
-  </si>
-  <si>
-    <t>后勤订单(跟单)</t>
-  </si>
-  <si>
-    <t>已废弃</t>
-  </si>
-  <si>
-    <t>激活登陆</t>
-  </si>
-  <si>
-    <t>用户登录</t>
-  </si>
-  <si>
-    <t>添加 企业名称 返回</t>
-  </si>
-  <si>
-    <t>查找分类下的商品</t>
-  </si>
-  <si>
-    <t>搜索商品</t>
-  </si>
-  <si>
-    <t>所有 筛选订单 接口</t>
-  </si>
-  <si>
-    <t>新增 订单总价 返回</t>
-  </si>
-  <si>
-    <t>客户订单</t>
-  </si>
-  <si>
-    <t>生成订单</t>
-  </si>
-  <si>
-    <t>添加 商品不存在 返回值</t>
-  </si>
-  <si>
-    <t>养殖信息（新）</t>
-  </si>
-  <si>
-    <t>获取养殖信息详情（新）</t>
-  </si>
-  <si>
-    <t>客户资源</t>
-  </si>
-  <si>
-    <t>获取养殖信息列表</t>
-  </si>
-  <si>
-    <t>添加 json 返回</t>
-  </si>
-  <si>
-    <t>获取养殖信息详情</t>
-  </si>
-  <si>
-    <t>所有订单筛选接口</t>
-  </si>
-  <si>
-    <t>更新 订单状态</t>
-  </si>
-  <si>
-    <t>添加 角色代码 返回值</t>
-  </si>
-  <si>
-    <t>客户跟进</t>
-  </si>
-  <si>
-    <t>添加 跟进标题 参数</t>
-  </si>
-  <si>
-    <t>查看库存</t>
-  </si>
-  <si>
-    <t>查看销售点库存</t>
-  </si>
-  <si>
-    <t>添加 返回参数</t>
-  </si>
-  <si>
-    <t>查看当前销售点库存</t>
-  </si>
-  <si>
-    <t>查看总部销售点库存</t>
-  </si>
-  <si>
-    <t>盘点库存</t>
-  </si>
-  <si>
-    <t>新建进仓单</t>
-  </si>
-  <si>
-    <t>添加 商品图片 返回</t>
-  </si>
-  <si>
-    <t>添加 时间段筛选 条件</t>
-  </si>
-  <si>
-    <t>添加 筛选 条件</t>
-  </si>
-  <si>
-    <t>搜索库存商品</t>
-  </si>
-  <si>
-    <t>添加 付款状态 返回</t>
-  </si>
-  <si>
-    <t>跟单订单(跟单)</t>
-  </si>
-  <si>
-    <t>获取成员的客户列表</t>
-  </si>
-  <si>
-    <t>添加 用户头像 返回</t>
-  </si>
-  <si>
-    <t>筛选客户列表</t>
-  </si>
-  <si>
-    <t>此接口与(获取成员的客户列表)合并</t>
-  </si>
-  <si>
-    <t>获取总部销售点Id</t>
-  </si>
-  <si>
-    <t>添加 商品编码 返回</t>
-  </si>
-  <si>
-    <t>添加 商品编码、申请单号 返回</t>
-  </si>
-  <si>
-    <t>组织管理接口</t>
-  </si>
-  <si>
-    <t>组织管理</t>
-  </si>
-  <si>
-    <t>获取可分配的角色列表</t>
-  </si>
-  <si>
-    <t>获取商品列表</t>
-  </si>
-  <si>
-    <t>添加 商品规格Id 返回</t>
-  </si>
-  <si>
-    <t>参数 recordList 替换为 incomeList</t>
-  </si>
-  <si>
-    <t>添加 总部当前库存 返回</t>
   </si>
 </sst>
 </file>
@@ -449,9 +458,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -492,6 +501,29 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -499,24 +531,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,22 +546,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,14 +593,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -574,17 +600,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,14 +610,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,7 +673,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,19 +799,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,37 +817,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,91 +829,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,17 +858,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -877,9 +875,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,21 +946,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -945,145 +954,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1481,13 +1490,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="21.125" customWidth="1"/>
@@ -1517,7 +1526,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>43025</v>
+        <v>43028</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1536,263 +1545,46 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2">
+        <v>43029</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2">
+        <v>43030</v>
+      </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2">
-        <v>43025</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A15"/>
-  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1802,10 +1594,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144:F144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1842,16 +1634,16 @@
         <v>42994</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>10</v>
@@ -1860,16 +1652,16 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>10</v>
@@ -1880,16 +1672,16 @@
         <v>42996</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>10</v>
@@ -1898,16 +1690,16 @@
     <row r="8" spans="1:6">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>10</v>
@@ -1916,16 +1708,16 @@
     <row r="9" spans="1:6">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>10</v>
@@ -1934,16 +1726,16 @@
     <row r="10" spans="1:6">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>10</v>
@@ -1954,22 +1746,22 @@
         <v>42998</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1977,16 +1769,16 @@
     <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>10</v>
@@ -1998,22 +1790,22 @@
     <row r="17" spans="1:9">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="11">
@@ -2023,22 +1815,22 @@
     <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="11">
@@ -2048,22 +1840,22 @@
     <row r="19" spans="1:9">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="11">
@@ -2073,16 +1865,16 @@
     <row r="20" spans="1:6">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>10</v>
@@ -2091,16 +1883,16 @@
     <row r="21" spans="1:6">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>10</v>
@@ -2109,16 +1901,16 @@
     <row r="22" spans="1:6">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>10</v>
@@ -2129,16 +1921,16 @@
         <v>42999</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>10</v>
@@ -2147,16 +1939,16 @@
     <row r="28" spans="1:6">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>10</v>
@@ -2165,16 +1957,16 @@
     <row r="29" spans="1:6">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>10</v>
@@ -2183,16 +1975,16 @@
     <row r="30" spans="1:6">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>10</v>
@@ -2201,16 +1993,16 @@
     <row r="31" spans="1:6">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>10</v>
@@ -2219,16 +2011,16 @@
     <row r="32" spans="1:6">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>10</v>
@@ -2237,16 +2029,16 @@
     <row r="33" spans="1:6">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>10</v>
@@ -2255,16 +2047,16 @@
     <row r="34" spans="1:6">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>10</v>
@@ -2275,16 +2067,16 @@
         <v>42999</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>10</v>
@@ -2293,16 +2085,16 @@
     <row r="39" spans="1:6">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>10</v>
@@ -2311,16 +2103,16 @@
     <row r="40" spans="1:6">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>10</v>
@@ -2329,16 +2121,16 @@
     <row r="41" spans="1:6">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>10</v>
@@ -2349,12 +2141,12 @@
         <v>43005</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>10</v>
@@ -2363,12 +2155,12 @@
     <row r="44" spans="1:6">
       <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>10</v>
@@ -2377,14 +2169,14 @@
     <row r="45" spans="1:6">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>10</v>
@@ -2393,14 +2185,14 @@
     <row r="46" spans="1:6">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>10</v>
@@ -2409,14 +2201,14 @@
     <row r="47" spans="1:6">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>10</v>
@@ -2425,16 +2217,16 @@
     <row r="48" spans="1:6">
       <c r="A48" s="2"/>
       <c r="B48" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>10</v>
@@ -2443,12 +2235,12 @@
     <row r="49" spans="1:6">
       <c r="A49" s="2"/>
       <c r="B49" s="3" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>10</v>
@@ -2457,16 +2249,16 @@
     <row r="50" spans="1:6">
       <c r="A50" s="2"/>
       <c r="B50" s="3" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>10</v>
@@ -2475,16 +2267,16 @@
     <row r="51" spans="1:6">
       <c r="A51" s="2"/>
       <c r="B51" s="3" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>10</v>
@@ -2493,16 +2285,16 @@
     <row r="52" spans="1:6">
       <c r="A52" s="2"/>
       <c r="B52" s="3" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>10</v>
@@ -2511,16 +2303,16 @@
     <row r="53" spans="1:6">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>10</v>
@@ -2529,16 +2321,16 @@
     <row r="54" spans="1:6">
       <c r="A54" s="2"/>
       <c r="B54" s="3" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>10</v>
@@ -2547,32 +2339,32 @@
     <row r="55" spans="1:6">
       <c r="A55" s="2"/>
       <c r="B55" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="4" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2"/>
       <c r="B56" s="3" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>10</v>
@@ -2583,16 +2375,16 @@
         <v>43008</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>10</v>
@@ -2601,16 +2393,16 @@
     <row r="59" spans="1:6">
       <c r="A59" s="2"/>
       <c r="B59" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>10</v>
@@ -2619,16 +2411,16 @@
     <row r="60" spans="1:6">
       <c r="A60" s="2"/>
       <c r="B60" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>10</v>
@@ -2637,14 +2429,14 @@
     <row r="61" spans="1:6">
       <c r="A61" s="2"/>
       <c r="B61" s="3" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>10</v>
@@ -2655,16 +2447,16 @@
         <v>43015</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="E63" s="4" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>10</v>
@@ -2673,16 +2465,16 @@
     <row r="64" spans="1:6">
       <c r="A64" s="2"/>
       <c r="B64" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>10</v>
@@ -2691,16 +2483,16 @@
     <row r="65" spans="1:6">
       <c r="A65" s="2"/>
       <c r="B65" s="3" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>10</v>
@@ -2709,16 +2501,16 @@
     <row r="66" spans="1:6">
       <c r="A66" s="2"/>
       <c r="B66" s="3" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>10</v>
@@ -2727,14 +2519,14 @@
     <row r="67" spans="1:6">
       <c r="A67" s="2"/>
       <c r="B67" s="3" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>10</v>
@@ -2745,16 +2537,16 @@
         <v>43018</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>10</v>
@@ -2763,16 +2555,16 @@
     <row r="70" spans="1:6">
       <c r="A70" s="2"/>
       <c r="B70" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>10</v>
@@ -2783,16 +2575,16 @@
         <v>43018</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>10</v>
@@ -2801,16 +2593,16 @@
     <row r="73" spans="1:6">
       <c r="A73" s="2"/>
       <c r="B73" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>10</v>
@@ -2819,16 +2611,16 @@
     <row r="74" spans="1:6">
       <c r="A74" s="2"/>
       <c r="B74" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>10</v>
@@ -2837,16 +2629,16 @@
     <row r="75" spans="1:6">
       <c r="A75" s="2"/>
       <c r="B75" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>10</v>
@@ -2855,16 +2647,16 @@
     <row r="76" spans="1:6">
       <c r="A76" s="2"/>
       <c r="B76" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>10</v>
@@ -2873,16 +2665,16 @@
     <row r="77" spans="1:6">
       <c r="A77" s="2"/>
       <c r="B77" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>10</v>
@@ -2891,16 +2683,16 @@
     <row r="78" spans="1:6">
       <c r="A78" s="2"/>
       <c r="B78" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>10</v>
@@ -2909,16 +2701,16 @@
     <row r="79" spans="1:6">
       <c r="A79" s="2"/>
       <c r="B79" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>10</v>
@@ -2927,16 +2719,16 @@
     <row r="80" spans="1:6">
       <c r="A80" s="2"/>
       <c r="B80" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>10</v>
@@ -2945,16 +2737,16 @@
     <row r="81" spans="1:6">
       <c r="A81" s="2"/>
       <c r="B81" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>10</v>
@@ -2965,16 +2757,16 @@
         <v>43020</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>10</v>
@@ -2983,16 +2775,16 @@
     <row r="84" spans="1:6">
       <c r="A84" s="2"/>
       <c r="B84" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>10</v>
@@ -3001,16 +2793,16 @@
     <row r="85" spans="1:6">
       <c r="A85" s="2"/>
       <c r="B85" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>10</v>
@@ -3019,16 +2811,16 @@
     <row r="86" spans="1:6">
       <c r="A86" s="2"/>
       <c r="B86" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>10</v>
@@ -3037,16 +2829,16 @@
     <row r="87" spans="1:6">
       <c r="A87" s="2"/>
       <c r="B87" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>10</v>
@@ -3055,16 +2847,16 @@
     <row r="88" spans="1:6">
       <c r="A88" s="2"/>
       <c r="B88" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>10</v>
@@ -3073,16 +2865,16 @@
     <row r="89" spans="1:6">
       <c r="A89" s="2"/>
       <c r="B89" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>10</v>
@@ -3091,16 +2883,16 @@
     <row r="90" spans="1:6">
       <c r="A90" s="2"/>
       <c r="B90" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>10</v>
@@ -3109,16 +2901,16 @@
     <row r="91" spans="1:6">
       <c r="A91" s="2"/>
       <c r="B91" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>10</v>
@@ -3127,16 +2919,16 @@
     <row r="92" spans="1:6">
       <c r="A92" s="2"/>
       <c r="B92" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>10</v>
@@ -3145,16 +2937,16 @@
     <row r="93" spans="1:6">
       <c r="A93" s="2"/>
       <c r="B93" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>10</v>
@@ -3163,16 +2955,16 @@
     <row r="94" spans="1:6">
       <c r="A94" s="2"/>
       <c r="B94" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>10</v>
@@ -3181,16 +2973,16 @@
     <row r="95" spans="1:6">
       <c r="A95" s="2"/>
       <c r="B95" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>10</v>
@@ -3199,16 +2991,16 @@
     <row r="96" spans="1:6">
       <c r="A96" s="2"/>
       <c r="B96" s="3" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>10</v>
@@ -3217,16 +3009,16 @@
     <row r="97" spans="1:6">
       <c r="A97" s="2"/>
       <c r="B97" s="3" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>10</v>
@@ -3235,16 +3027,16 @@
     <row r="98" spans="1:6">
       <c r="A98" s="2"/>
       <c r="B98" s="3" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>10</v>
@@ -3253,16 +3045,16 @@
     <row r="99" spans="1:6">
       <c r="A99" s="2"/>
       <c r="B99" s="3" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>10</v>
@@ -3271,16 +3063,16 @@
     <row r="100" spans="1:6">
       <c r="A100" s="2"/>
       <c r="B100" s="3" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>10</v>
@@ -3289,16 +3081,16 @@
     <row r="101" spans="1:6">
       <c r="A101" s="2"/>
       <c r="B101" s="3" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>10</v>
@@ -3307,16 +3099,16 @@
     <row r="102" spans="1:6">
       <c r="A102" s="2"/>
       <c r="B102" s="3" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>10</v>
@@ -3325,16 +3117,16 @@
     <row r="103" spans="1:6">
       <c r="A103" s="2"/>
       <c r="B103" s="3" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>10</v>
@@ -3343,16 +3135,16 @@
     <row r="104" spans="1:6">
       <c r="A104" s="2"/>
       <c r="B104" s="3" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>10</v>
@@ -3361,16 +3153,16 @@
     <row r="105" spans="1:6">
       <c r="A105" s="2"/>
       <c r="B105" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>10</v>
@@ -3381,16 +3173,16 @@
         <v>43021</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>10</v>
@@ -3399,16 +3191,16 @@
     <row r="108" spans="1:6">
       <c r="A108" s="2"/>
       <c r="B108" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>10</v>
@@ -3417,16 +3209,16 @@
     <row r="109" spans="1:6">
       <c r="A109" s="2"/>
       <c r="B109" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>10</v>
@@ -3435,16 +3227,16 @@
     <row r="110" spans="1:6">
       <c r="A110" s="2"/>
       <c r="B110" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>10</v>
@@ -3453,16 +3245,16 @@
     <row r="111" spans="1:6">
       <c r="A111" s="2"/>
       <c r="B111" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>10</v>
@@ -3471,16 +3263,16 @@
     <row r="112" spans="1:6">
       <c r="A112" s="2"/>
       <c r="B112" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>10</v>
@@ -3489,16 +3281,16 @@
     <row r="113" spans="1:6">
       <c r="A113" s="2"/>
       <c r="B113" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>10</v>
@@ -3507,16 +3299,16 @@
     <row r="114" spans="1:6">
       <c r="A114" s="13"/>
       <c r="B114" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F114" s="5"/>
     </row>
@@ -3525,16 +3317,16 @@
         <v>43022</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>10</v>
@@ -3543,16 +3335,16 @@
     <row r="117" spans="1:6">
       <c r="A117" s="2"/>
       <c r="B117" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>10</v>
@@ -3561,16 +3353,16 @@
     <row r="118" spans="1:6">
       <c r="A118" s="2"/>
       <c r="B118" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>10</v>
@@ -3581,16 +3373,16 @@
         <v>43024</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>10</v>
@@ -3599,16 +3391,16 @@
     <row r="121" spans="1:6">
       <c r="A121" s="2"/>
       <c r="B121" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>10</v>
@@ -3617,16 +3409,16 @@
     <row r="122" spans="1:6">
       <c r="A122" s="2"/>
       <c r="B122" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>10</v>
@@ -3635,16 +3427,16 @@
     <row r="123" spans="1:6">
       <c r="A123" s="2"/>
       <c r="B123" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>10</v>
@@ -3653,16 +3445,16 @@
     <row r="124" spans="1:6">
       <c r="A124" s="2"/>
       <c r="B124" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>10</v>
@@ -3671,16 +3463,16 @@
     <row r="125" spans="1:6">
       <c r="A125" s="2"/>
       <c r="B125" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>10</v>
@@ -3689,16 +3481,16 @@
     <row r="126" spans="1:6">
       <c r="A126" s="2"/>
       <c r="B126" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>10</v>
@@ -3707,23 +3499,297 @@
     <row r="127" spans="1:6">
       <c r="A127" s="2"/>
       <c r="B127" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="E127" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="2">
+        <v>43025</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="2"/>
+      <c r="B130" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="2"/>
+      <c r="B131" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="2"/>
+      <c r="B132" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="2"/>
+      <c r="B133" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="2"/>
+      <c r="B134" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="2"/>
+      <c r="B135" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="2"/>
+      <c r="B136" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="2"/>
+      <c r="B137" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="2"/>
+      <c r="B138" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="2"/>
+      <c r="B139" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="2"/>
+      <c r="B140" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="2"/>
+      <c r="B141" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E141" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F127" s="5" t="s">
+      <c r="F141" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="2"/>
+      <c r="B142" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="2">
+        <v>43025</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144" s="5" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
@@ -3743,6 +3809,7 @@
     <mergeCell ref="A107:A113"/>
     <mergeCell ref="A116:A118"/>
     <mergeCell ref="A120:A127"/>
+    <mergeCell ref="A129:A142"/>
     <mergeCell ref="G15:I16"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求分析/接口文档/客户/更新说明.xlsx
+++ b/需求分析/接口文档/客户/更新说明.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150">
   <si>
     <t>更新时间</t>
   </si>
@@ -35,421 +35,436 @@
     <t>状态</t>
   </si>
   <si>
+    <t>客户接口</t>
+  </si>
+  <si>
+    <t>申请协助</t>
+  </si>
+  <si>
+    <t>协助者获取协助列表</t>
+  </si>
+  <si>
+    <t>新增 status(审批状态) 筛选</t>
+  </si>
+  <si>
+    <t>已验证</t>
+  </si>
+  <si>
+    <t>获取申请详情</t>
+  </si>
+  <si>
+    <t>新增 status(审批状态) 返回</t>
+  </si>
+  <si>
+    <t>个人信息</t>
+  </si>
+  <si>
+    <t>获取默认收货地址</t>
+  </si>
+  <si>
+    <t>新添加的接口</t>
+  </si>
+  <si>
+    <t>个人信息接口</t>
+  </si>
+  <si>
+    <t>经营单位</t>
+  </si>
+  <si>
+    <t>获取经营单位详情</t>
+  </si>
+  <si>
+    <t>新增接口</t>
+  </si>
+  <si>
+    <t>客户信息</t>
+  </si>
+  <si>
+    <t>获取客户列表</t>
+  </si>
+  <si>
+    <t>添加返回客户头像</t>
+  </si>
+  <si>
+    <t>移交客户</t>
+  </si>
+  <si>
+    <t>业务员移交客户</t>
+  </si>
+  <si>
+    <t>跟单员移交客户</t>
+  </si>
+  <si>
+    <t>养殖信息(新)</t>
+  </si>
+  <si>
+    <t>所有的接口</t>
+  </si>
+  <si>
+    <t>hadAccount(账号状态)</t>
+  </si>
+  <si>
+    <t>商城接口</t>
+  </si>
+  <si>
+    <t>订单</t>
+  </si>
+  <si>
+    <t>获取运费模板列表(客户)</t>
+  </si>
+  <si>
+    <t>添加商家地址返回</t>
+  </si>
+  <si>
+    <t>客户建账</t>
+  </si>
+  <si>
+    <t>获取审批人列表</t>
+  </si>
+  <si>
+    <t>暂停使用</t>
+  </si>
+  <si>
+    <t>未建账</t>
+  </si>
+  <si>
+    <t>添加融云id返回</t>
+  </si>
+  <si>
+    <t>已建账</t>
+  </si>
+  <si>
+    <t>申请客户建账</t>
+  </si>
+  <si>
+    <t>添加 申请原因 参数</t>
+  </si>
+  <si>
+    <t>账号被冻结</t>
+  </si>
+  <si>
+    <t>冻结客户</t>
+  </si>
+  <si>
+    <t>解冻客户</t>
+  </si>
+  <si>
+    <t>获取客户详情</t>
+  </si>
+  <si>
+    <t>添加 账号冻结 状态</t>
+  </si>
+  <si>
+    <t>商品浏览</t>
+  </si>
+  <si>
+    <t>查看商品详情</t>
+  </si>
+  <si>
+    <t>添加 规格重量 返回</t>
+  </si>
+  <si>
+    <t>购物车</t>
+  </si>
+  <si>
+    <t>获取购物车商品列表</t>
+  </si>
+  <si>
+    <t>获取订单列表</t>
+  </si>
+  <si>
+    <t>添加 订单号 返回</t>
+  </si>
+  <si>
+    <t>获取订单详情</t>
+  </si>
+  <si>
+    <t>筛选订单</t>
+  </si>
+  <si>
+    <t>根据订单号获取订单列表</t>
+  </si>
+  <si>
+    <t>业务订单</t>
+  </si>
+  <si>
+    <t>财务订单</t>
+  </si>
+  <si>
+    <t>权限角色接口</t>
+  </si>
+  <si>
+    <t>权限角色</t>
+  </si>
+  <si>
+    <t>获取用户角色</t>
+  </si>
+  <si>
+    <t>获取跟单员列表</t>
+  </si>
+  <si>
+    <t>开放使用</t>
+  </si>
+  <si>
     <t>库存接口</t>
   </si>
   <si>
     <t>申请库存</t>
   </si>
   <si>
+    <t>更名为 客户商城接口</t>
+  </si>
+  <si>
+    <t>商家商城接口</t>
+  </si>
+  <si>
+    <t>原 商城接口 的拆分</t>
+  </si>
+  <si>
+    <t>运费模板</t>
+  </si>
+  <si>
+    <t>销售点</t>
+  </si>
+  <si>
+    <t>商品编辑</t>
+  </si>
+  <si>
+    <t>所有接口</t>
+  </si>
+  <si>
+    <t>订单接口</t>
+  </si>
+  <si>
+    <t>业务订单(业务)</t>
+  </si>
+  <si>
+    <t>业务订单(业务管理)</t>
+  </si>
+  <si>
+    <t>财务订单(财务)</t>
+  </si>
+  <si>
+    <t>财务订单(财务管理)</t>
+  </si>
+  <si>
+    <t>后勤订单(跟单)</t>
+  </si>
+  <si>
+    <t>已废弃</t>
+  </si>
+  <si>
+    <t>需求接口</t>
+  </si>
+  <si>
+    <t>激活登陆</t>
+  </si>
+  <si>
+    <t>用户登录</t>
+  </si>
+  <si>
+    <t>添加 企业名称 返回</t>
+  </si>
+  <si>
+    <t>查找分类下的商品</t>
+  </si>
+  <si>
+    <t>搜索商品</t>
+  </si>
+  <si>
+    <t>所有 筛选订单 接口</t>
+  </si>
+  <si>
+    <t>新增 订单总价 返回</t>
+  </si>
+  <si>
+    <t>客户订单</t>
+  </si>
+  <si>
+    <t>生成订单</t>
+  </si>
+  <si>
+    <t>添加 商品不存在 返回值</t>
+  </si>
+  <si>
+    <t>养殖信息（新）</t>
+  </si>
+  <si>
+    <t>获取养殖信息详情（新）</t>
+  </si>
+  <si>
+    <t>客户资源</t>
+  </si>
+  <si>
+    <t>获取养殖信息列表</t>
+  </si>
+  <si>
+    <t>添加 json 返回</t>
+  </si>
+  <si>
+    <t>获取养殖信息详情</t>
+  </si>
+  <si>
+    <t>所有订单筛选接口</t>
+  </si>
+  <si>
+    <t>更新 订单状态</t>
+  </si>
+  <si>
+    <t>添加 角色代码 返回值</t>
+  </si>
+  <si>
+    <t>客户跟进</t>
+  </si>
+  <si>
+    <t>添加 跟进标题 参数</t>
+  </si>
+  <si>
+    <t>查看库存</t>
+  </si>
+  <si>
+    <t>查看销售点库存</t>
+  </si>
+  <si>
+    <t>添加 返回参数</t>
+  </si>
+  <si>
+    <t>查看当前销售点库存</t>
+  </si>
+  <si>
+    <t>查看总部销售点库存</t>
+  </si>
+  <si>
+    <t>盘点库存</t>
+  </si>
+  <si>
+    <t>获取库存盘点记录</t>
+  </si>
+  <si>
+    <t>库存进仓</t>
+  </si>
+  <si>
+    <t>新建进仓单</t>
+  </si>
+  <si>
+    <t>获取进仓单列表</t>
+  </si>
+  <si>
+    <t>获取进仓单详情</t>
+  </si>
+  <si>
+    <t>申请人获取库存申请列表</t>
+  </si>
+  <si>
+    <t>审批人获取库存审批列表</t>
+  </si>
+  <si>
+    <t>添加 商品图片 返回</t>
+  </si>
+  <si>
+    <t>库存盘点</t>
+  </si>
+  <si>
+    <t>添加 时间段筛选 条件</t>
+  </si>
+  <si>
+    <t>获取库存盘点记录详情</t>
+  </si>
+  <si>
+    <t>添加 筛选 条件</t>
+  </si>
+  <si>
+    <t>搜索库存商品</t>
+  </si>
+  <si>
+    <t>添加 付款状态 返回</t>
+  </si>
+  <si>
+    <t>跟单订单(跟单)</t>
+  </si>
+  <si>
+    <t>获取成员的客户列表</t>
+  </si>
+  <si>
+    <t>添加 用户头像 返回</t>
+  </si>
+  <si>
+    <t>筛选客户列表</t>
+  </si>
+  <si>
+    <t>此接口与(获取成员的客户列表)合并</t>
+  </si>
+  <si>
+    <t>获取总部销售点Id</t>
+  </si>
+  <si>
+    <t>添加 商品编码 返回</t>
+  </si>
+  <si>
+    <t>添加 商品编码、申请单号 返回</t>
+  </si>
+  <si>
+    <t>组织管理接口</t>
+  </si>
+  <si>
+    <t>组织管理</t>
+  </si>
+  <si>
+    <t>获取可分配的角色列表</t>
+  </si>
+  <si>
+    <t>获取商品列表</t>
+  </si>
+  <si>
+    <t>添加 商品规格Id 返回</t>
+  </si>
+  <si>
+    <t>参数 recordList 替换为 incomeList</t>
+  </si>
+  <si>
+    <t>添加 总部当前库存 返回</t>
+  </si>
+  <si>
+    <t>添加 该账号已存在 状态码</t>
+  </si>
+  <si>
+    <t>添加 商品分类 返回</t>
+  </si>
+  <si>
+    <t>登陆激活</t>
+  </si>
+  <si>
+    <t>用户登录(浏览器)</t>
+  </si>
+  <si>
+    <t>获取当前销售点进仓单列表</t>
+  </si>
+  <si>
+    <t>获取当销售点前库存盘点记录</t>
+  </si>
+  <si>
+    <t>更新 branchId(销售点Id) 为选填</t>
+  </si>
+  <si>
+    <t>添加 头像 返回</t>
+  </si>
+  <si>
+    <t>团队接口</t>
+  </si>
+  <si>
+    <t>团队</t>
+  </si>
+  <si>
+    <t>获取团队内所有成员</t>
+  </si>
+  <si>
     <t>获取库存审批详情</t>
   </si>
   <si>
-    <t>新增接口</t>
-  </si>
-  <si>
-    <t>已验证</t>
-  </si>
-  <si>
-    <t>客户资源</t>
-  </si>
-  <si>
     <t>获取当前部门下的成员列表</t>
   </si>
   <si>
     <t>获取当前部门下的客户列表</t>
-  </si>
-  <si>
-    <t>客户接口</t>
-  </si>
-  <si>
-    <t>个人信息</t>
-  </si>
-  <si>
-    <t>获取默认收货地址</t>
-  </si>
-  <si>
-    <t>新添加的接口</t>
-  </si>
-  <si>
-    <t>个人信息接口</t>
-  </si>
-  <si>
-    <t>经营单位</t>
-  </si>
-  <si>
-    <t>获取经营单位详情</t>
-  </si>
-  <si>
-    <t>客户信息</t>
-  </si>
-  <si>
-    <t>获取客户列表</t>
-  </si>
-  <si>
-    <t>添加返回客户头像</t>
-  </si>
-  <si>
-    <t>移交客户</t>
-  </si>
-  <si>
-    <t>业务员移交客户</t>
-  </si>
-  <si>
-    <t>跟单员移交客户</t>
-  </si>
-  <si>
-    <t>养殖信息(新)</t>
-  </si>
-  <si>
-    <t>所有的接口</t>
-  </si>
-  <si>
-    <t>hadAccount(账号状态)</t>
-  </si>
-  <si>
-    <t>商城接口</t>
-  </si>
-  <si>
-    <t>订单</t>
-  </si>
-  <si>
-    <t>获取运费模板列表(客户)</t>
-  </si>
-  <si>
-    <t>添加商家地址返回</t>
-  </si>
-  <si>
-    <t>客户建账</t>
-  </si>
-  <si>
-    <t>获取审批人列表</t>
-  </si>
-  <si>
-    <t>暂停使用</t>
-  </si>
-  <si>
-    <t>未建账</t>
-  </si>
-  <si>
-    <t>添加融云id返回</t>
-  </si>
-  <si>
-    <t>已建账</t>
-  </si>
-  <si>
-    <t>申请客户建账</t>
-  </si>
-  <si>
-    <t>添加 申请原因 参数</t>
-  </si>
-  <si>
-    <t>账号被冻结</t>
-  </si>
-  <si>
-    <t>冻结客户</t>
-  </si>
-  <si>
-    <t>解冻客户</t>
-  </si>
-  <si>
-    <t>获取客户详情</t>
-  </si>
-  <si>
-    <t>添加 账号冻结 状态</t>
-  </si>
-  <si>
-    <t>商品浏览</t>
-  </si>
-  <si>
-    <t>查看商品详情</t>
-  </si>
-  <si>
-    <t>添加 规格重量 返回</t>
-  </si>
-  <si>
-    <t>购物车</t>
-  </si>
-  <si>
-    <t>获取购物车商品列表</t>
-  </si>
-  <si>
-    <t>获取订单列表</t>
-  </si>
-  <si>
-    <t>添加 订单号 返回</t>
-  </si>
-  <si>
-    <t>获取订单详情</t>
-  </si>
-  <si>
-    <t>筛选订单</t>
-  </si>
-  <si>
-    <t>根据订单号获取订单列表</t>
-  </si>
-  <si>
-    <t>业务订单</t>
-  </si>
-  <si>
-    <t>财务订单</t>
-  </si>
-  <si>
-    <t>权限角色接口</t>
-  </si>
-  <si>
-    <t>权限角色</t>
-  </si>
-  <si>
-    <t>获取用户角色</t>
-  </si>
-  <si>
-    <t>获取跟单员列表</t>
-  </si>
-  <si>
-    <t>开放使用</t>
-  </si>
-  <si>
-    <t>更名为 客户商城接口</t>
-  </si>
-  <si>
-    <t>商家商城接口</t>
-  </si>
-  <si>
-    <t>原 商城接口 的拆分</t>
-  </si>
-  <si>
-    <t>运费模板</t>
-  </si>
-  <si>
-    <t>销售点</t>
-  </si>
-  <si>
-    <t>商品编辑</t>
-  </si>
-  <si>
-    <t>所有接口</t>
-  </si>
-  <si>
-    <t>订单接口</t>
-  </si>
-  <si>
-    <t>业务订单(业务)</t>
-  </si>
-  <si>
-    <t>业务订单(业务管理)</t>
-  </si>
-  <si>
-    <t>财务订单(财务)</t>
-  </si>
-  <si>
-    <t>财务订单(财务管理)</t>
-  </si>
-  <si>
-    <t>后勤订单(跟单)</t>
-  </si>
-  <si>
-    <t>已废弃</t>
-  </si>
-  <si>
-    <t>需求接口</t>
-  </si>
-  <si>
-    <t>激活登陆</t>
-  </si>
-  <si>
-    <t>用户登录</t>
-  </si>
-  <si>
-    <t>添加 企业名称 返回</t>
-  </si>
-  <si>
-    <t>查找分类下的商品</t>
-  </si>
-  <si>
-    <t>搜索商品</t>
-  </si>
-  <si>
-    <t>所有 筛选订单 接口</t>
-  </si>
-  <si>
-    <t>新增 订单总价 返回</t>
-  </si>
-  <si>
-    <t>客户订单</t>
-  </si>
-  <si>
-    <t>生成订单</t>
-  </si>
-  <si>
-    <t>添加 商品不存在 返回值</t>
-  </si>
-  <si>
-    <t>养殖信息（新）</t>
-  </si>
-  <si>
-    <t>获取养殖信息详情（新）</t>
-  </si>
-  <si>
-    <t>获取养殖信息列表</t>
-  </si>
-  <si>
-    <t>添加 json 返回</t>
-  </si>
-  <si>
-    <t>获取养殖信息详情</t>
-  </si>
-  <si>
-    <t>所有订单筛选接口</t>
-  </si>
-  <si>
-    <t>更新 订单状态</t>
-  </si>
-  <si>
-    <t>添加 角色代码 返回值</t>
-  </si>
-  <si>
-    <t>客户跟进</t>
-  </si>
-  <si>
-    <t>添加 跟进标题 参数</t>
-  </si>
-  <si>
-    <t>查看库存</t>
-  </si>
-  <si>
-    <t>查看销售点库存</t>
-  </si>
-  <si>
-    <t>添加 返回参数</t>
-  </si>
-  <si>
-    <t>查看当前销售点库存</t>
-  </si>
-  <si>
-    <t>查看总部销售点库存</t>
-  </si>
-  <si>
-    <t>盘点库存</t>
-  </si>
-  <si>
-    <t>获取库存盘点记录</t>
-  </si>
-  <si>
-    <t>库存进仓</t>
-  </si>
-  <si>
-    <t>新建进仓单</t>
-  </si>
-  <si>
-    <t>获取进仓单列表</t>
-  </si>
-  <si>
-    <t>获取进仓单详情</t>
-  </si>
-  <si>
-    <t>申请人获取库存申请列表</t>
-  </si>
-  <si>
-    <t>审批人获取库存审批列表</t>
-  </si>
-  <si>
-    <t>添加 商品图片 返回</t>
-  </si>
-  <si>
-    <t>库存盘点</t>
-  </si>
-  <si>
-    <t>添加 时间段筛选 条件</t>
-  </si>
-  <si>
-    <t>获取库存盘点记录详情</t>
-  </si>
-  <si>
-    <t>添加 筛选 条件</t>
-  </si>
-  <si>
-    <t>搜索库存商品</t>
-  </si>
-  <si>
-    <t>添加 付款状态 返回</t>
-  </si>
-  <si>
-    <t>跟单订单(跟单)</t>
-  </si>
-  <si>
-    <t>获取成员的客户列表</t>
-  </si>
-  <si>
-    <t>添加 用户头像 返回</t>
-  </si>
-  <si>
-    <t>筛选客户列表</t>
-  </si>
-  <si>
-    <t>此接口与(获取成员的客户列表)合并</t>
-  </si>
-  <si>
-    <t>获取总部销售点Id</t>
-  </si>
-  <si>
-    <t>添加 商品编码 返回</t>
-  </si>
-  <si>
-    <t>添加 商品编码、申请单号 返回</t>
-  </si>
-  <si>
-    <t>组织管理接口</t>
-  </si>
-  <si>
-    <t>组织管理</t>
-  </si>
-  <si>
-    <t>获取可分配的角色列表</t>
-  </si>
-  <si>
-    <t>获取商品列表</t>
-  </si>
-  <si>
-    <t>添加 商品规格Id 返回</t>
-  </si>
-  <si>
-    <t>参数 recordList 替换为 incomeList</t>
-  </si>
-  <si>
-    <t>添加 总部当前库存 返回</t>
-  </si>
-  <si>
-    <t>添加 该账号已存在 状态码</t>
-  </si>
-  <si>
-    <t>添加 商品分类 返回</t>
-  </si>
-  <si>
-    <t>登陆激活</t>
-  </si>
-  <si>
-    <t>用户登录(浏览器)</t>
-  </si>
-  <si>
-    <t>获取当前销售点进仓单列表</t>
-  </si>
-  <si>
-    <t>获取当销售点前库存盘点记录</t>
-  </si>
-  <si>
-    <t>更新 branchId(销售点Id) 为选填</t>
-  </si>
-  <si>
-    <t>添加 头像 返回</t>
-  </si>
-  <si>
-    <t>团队接口</t>
-  </si>
-  <si>
-    <t>团队</t>
-  </si>
-  <si>
-    <t>获取团队内所有成员</t>
   </si>
 </sst>
 </file>
@@ -458,9 +473,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -500,68 +515,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -577,11 +530,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -600,8 +614,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,7 +631,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,19 +688,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,25 +712,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,13 +742,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,13 +760,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,37 +772,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,25 +838,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,6 +874,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -869,6 +899,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -889,21 +928,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -937,15 +961,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -957,7 +972,7 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -969,130 +984,130 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1490,13 +1505,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="21.125" customWidth="1"/>
@@ -1526,7 +1541,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>43028</v>
+        <v>43032</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1545,46 +1560,27 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>43029</v>
-      </c>
+      <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>43030</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1594,9 +1590,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I144"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
+    <sheetView topLeftCell="A142" workbookViewId="0">
       <selection activeCell="A144" sqref="A144:F144"/>
     </sheetView>
   </sheetViews>
@@ -1634,16 +1630,16 @@
         <v>42994</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>10</v>
@@ -1652,16 +1648,16 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>10</v>
@@ -1672,16 +1668,16 @@
         <v>42996</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>10</v>
@@ -1690,16 +1686,16 @@
     <row r="8" spans="1:6">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>10</v>
@@ -1708,16 +1704,16 @@
     <row r="9" spans="1:6">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>10</v>
@@ -1726,16 +1722,16 @@
     <row r="10" spans="1:6">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>10</v>
@@ -1746,22 +1742,22 @@
         <v>42998</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1769,16 +1765,16 @@
     <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>10</v>
@@ -1790,22 +1786,22 @@
     <row r="17" spans="1:9">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="11">
@@ -1815,22 +1811,22 @@
     <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="11">
@@ -1840,22 +1836,22 @@
     <row r="19" spans="1:9">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="11">
@@ -1865,16 +1861,16 @@
     <row r="20" spans="1:6">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>10</v>
@@ -1883,16 +1879,16 @@
     <row r="21" spans="1:6">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>10</v>
@@ -1901,16 +1897,16 @@
     <row r="22" spans="1:6">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>10</v>
@@ -1921,16 +1917,16 @@
         <v>42999</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>10</v>
@@ -1939,16 +1935,16 @@
     <row r="28" spans="1:6">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="E28" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>10</v>
@@ -1957,16 +1953,16 @@
     <row r="29" spans="1:6">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="D29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>10</v>
@@ -1975,16 +1971,16 @@
     <row r="30" spans="1:6">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>10</v>
@@ -1993,16 +1989,16 @@
     <row r="31" spans="1:6">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>10</v>
@@ -2011,16 +2007,16 @@
     <row r="32" spans="1:6">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>10</v>
@@ -2029,16 +2025,16 @@
     <row r="33" spans="1:6">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>10</v>
@@ -2047,16 +2043,16 @@
     <row r="34" spans="1:6">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>10</v>
@@ -2067,16 +2063,16 @@
         <v>42999</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="E38" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>10</v>
@@ -2085,16 +2081,16 @@
     <row r="39" spans="1:6">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>10</v>
@@ -2103,16 +2099,16 @@
     <row r="40" spans="1:6">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="E40" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>10</v>
@@ -2121,16 +2117,16 @@
     <row r="41" spans="1:6">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>10</v>
@@ -2141,12 +2137,12 @@
         <v>43005</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>10</v>
@@ -2155,12 +2151,12 @@
     <row r="44" spans="1:6">
       <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>10</v>
@@ -2169,14 +2165,14 @@
     <row r="45" spans="1:6">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>10</v>
@@ -2185,14 +2181,14 @@
     <row r="46" spans="1:6">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>10</v>
@@ -2201,14 +2197,14 @@
     <row r="47" spans="1:6">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>10</v>
@@ -2217,16 +2213,16 @@
     <row r="48" spans="1:6">
       <c r="A48" s="2"/>
       <c r="B48" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>10</v>
@@ -2235,12 +2231,12 @@
     <row r="49" spans="1:6">
       <c r="A49" s="2"/>
       <c r="B49" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>10</v>
@@ -2249,16 +2245,16 @@
     <row r="50" spans="1:6">
       <c r="A50" s="2"/>
       <c r="B50" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="E50" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>10</v>
@@ -2267,16 +2263,16 @@
     <row r="51" spans="1:6">
       <c r="A51" s="2"/>
       <c r="B51" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="E51" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>10</v>
@@ -2285,16 +2281,16 @@
     <row r="52" spans="1:6">
       <c r="A52" s="2"/>
       <c r="B52" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="E52" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>10</v>
@@ -2303,16 +2299,16 @@
     <row r="53" spans="1:6">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="E53" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>10</v>
@@ -2321,16 +2317,16 @@
     <row r="54" spans="1:6">
       <c r="A54" s="2"/>
       <c r="B54" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="E54" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>10</v>
@@ -2339,32 +2335,32 @@
     <row r="55" spans="1:6">
       <c r="A55" s="2"/>
       <c r="B55" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2"/>
       <c r="B56" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>10</v>
@@ -2375,16 +2371,16 @@
         <v>43008</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>10</v>
@@ -2393,16 +2389,16 @@
     <row r="59" spans="1:6">
       <c r="A59" s="2"/>
       <c r="B59" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="E59" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>10</v>
@@ -2411,16 +2407,16 @@
     <row r="60" spans="1:6">
       <c r="A60" s="2"/>
       <c r="B60" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>10</v>
@@ -2429,14 +2425,14 @@
     <row r="61" spans="1:6">
       <c r="A61" s="2"/>
       <c r="B61" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>10</v>
@@ -2447,16 +2443,16 @@
         <v>43015</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>10</v>
@@ -2465,16 +2461,16 @@
     <row r="64" spans="1:6">
       <c r="A64" s="2"/>
       <c r="B64" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>10</v>
@@ -2483,16 +2479,16 @@
     <row r="65" spans="1:6">
       <c r="A65" s="2"/>
       <c r="B65" s="3" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>10</v>
@@ -2501,16 +2497,16 @@
     <row r="66" spans="1:6">
       <c r="A66" s="2"/>
       <c r="B66" s="3" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>10</v>
@@ -2519,14 +2515,14 @@
     <row r="67" spans="1:6">
       <c r="A67" s="2"/>
       <c r="B67" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>10</v>
@@ -2537,16 +2533,16 @@
         <v>43018</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="D69" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="E69" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>10</v>
@@ -2555,16 +2551,16 @@
     <row r="70" spans="1:6">
       <c r="A70" s="2"/>
       <c r="B70" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>10</v>
@@ -2575,16 +2571,16 @@
         <v>43018</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>10</v>
@@ -2593,16 +2589,16 @@
     <row r="73" spans="1:6">
       <c r="A73" s="2"/>
       <c r="B73" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>10</v>
@@ -2611,16 +2607,16 @@
     <row r="74" spans="1:6">
       <c r="A74" s="2"/>
       <c r="B74" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>10</v>
@@ -2629,16 +2625,16 @@
     <row r="75" spans="1:6">
       <c r="A75" s="2"/>
       <c r="B75" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>10</v>
@@ -2647,16 +2643,16 @@
     <row r="76" spans="1:6">
       <c r="A76" s="2"/>
       <c r="B76" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>10</v>
@@ -2665,16 +2661,16 @@
     <row r="77" spans="1:6">
       <c r="A77" s="2"/>
       <c r="B77" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>10</v>
@@ -2683,16 +2679,16 @@
     <row r="78" spans="1:6">
       <c r="A78" s="2"/>
       <c r="B78" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>10</v>
@@ -2701,16 +2697,16 @@
     <row r="79" spans="1:6">
       <c r="A79" s="2"/>
       <c r="B79" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>10</v>
@@ -2719,16 +2715,16 @@
     <row r="80" spans="1:6">
       <c r="A80" s="2"/>
       <c r="B80" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>10</v>
@@ -2737,16 +2733,16 @@
     <row r="81" spans="1:6">
       <c r="A81" s="2"/>
       <c r="B81" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>10</v>
@@ -2757,16 +2753,16 @@
         <v>43020</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>10</v>
@@ -2775,16 +2771,16 @@
     <row r="84" spans="1:6">
       <c r="A84" s="2"/>
       <c r="B84" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>10</v>
@@ -2793,16 +2789,16 @@
     <row r="85" spans="1:6">
       <c r="A85" s="2"/>
       <c r="B85" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>10</v>
@@ -2811,16 +2807,16 @@
     <row r="86" spans="1:6">
       <c r="A86" s="2"/>
       <c r="B86" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>10</v>
@@ -2829,16 +2825,16 @@
     <row r="87" spans="1:6">
       <c r="A87" s="2"/>
       <c r="B87" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>10</v>
@@ -2847,16 +2843,16 @@
     <row r="88" spans="1:6">
       <c r="A88" s="2"/>
       <c r="B88" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>10</v>
@@ -2865,16 +2861,16 @@
     <row r="89" spans="1:6">
       <c r="A89" s="2"/>
       <c r="B89" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>10</v>
@@ -2883,16 +2879,16 @@
     <row r="90" spans="1:6">
       <c r="A90" s="2"/>
       <c r="B90" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>10</v>
@@ -2901,16 +2897,16 @@
     <row r="91" spans="1:6">
       <c r="A91" s="2"/>
       <c r="B91" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>10</v>
@@ -2919,16 +2915,16 @@
     <row r="92" spans="1:6">
       <c r="A92" s="2"/>
       <c r="B92" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>10</v>
@@ -2937,16 +2933,16 @@
     <row r="93" spans="1:6">
       <c r="A93" s="2"/>
       <c r="B93" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>10</v>
@@ -2955,16 +2951,16 @@
     <row r="94" spans="1:6">
       <c r="A94" s="2"/>
       <c r="B94" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>10</v>
@@ -2973,16 +2969,16 @@
     <row r="95" spans="1:6">
       <c r="A95" s="2"/>
       <c r="B95" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>10</v>
@@ -2991,16 +2987,16 @@
     <row r="96" spans="1:6">
       <c r="A96" s="2"/>
       <c r="B96" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>10</v>
@@ -3009,16 +3005,16 @@
     <row r="97" spans="1:6">
       <c r="A97" s="2"/>
       <c r="B97" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>10</v>
@@ -3027,16 +3023,16 @@
     <row r="98" spans="1:6">
       <c r="A98" s="2"/>
       <c r="B98" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>10</v>
@@ -3045,16 +3041,16 @@
     <row r="99" spans="1:6">
       <c r="A99" s="2"/>
       <c r="B99" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>10</v>
@@ -3063,16 +3059,16 @@
     <row r="100" spans="1:6">
       <c r="A100" s="2"/>
       <c r="B100" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>10</v>
@@ -3081,16 +3077,16 @@
     <row r="101" spans="1:6">
       <c r="A101" s="2"/>
       <c r="B101" s="3" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>10</v>
@@ -3099,16 +3095,16 @@
     <row r="102" spans="1:6">
       <c r="A102" s="2"/>
       <c r="B102" s="3" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>10</v>
@@ -3117,16 +3113,16 @@
     <row r="103" spans="1:6">
       <c r="A103" s="2"/>
       <c r="B103" s="3" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>10</v>
@@ -3135,16 +3131,16 @@
     <row r="104" spans="1:6">
       <c r="A104" s="2"/>
       <c r="B104" s="3" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>10</v>
@@ -3153,16 +3149,16 @@
     <row r="105" spans="1:6">
       <c r="A105" s="2"/>
       <c r="B105" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>10</v>
@@ -3173,16 +3169,16 @@
         <v>43021</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>10</v>
@@ -3191,16 +3187,16 @@
     <row r="108" spans="1:6">
       <c r="A108" s="2"/>
       <c r="B108" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>10</v>
@@ -3209,16 +3205,16 @@
     <row r="109" spans="1:6">
       <c r="A109" s="2"/>
       <c r="B109" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>10</v>
@@ -3227,16 +3223,16 @@
     <row r="110" spans="1:6">
       <c r="A110" s="2"/>
       <c r="B110" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>10</v>
@@ -3245,16 +3241,16 @@
     <row r="111" spans="1:6">
       <c r="A111" s="2"/>
       <c r="B111" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>10</v>
@@ -3263,16 +3259,16 @@
     <row r="112" spans="1:6">
       <c r="A112" s="2"/>
       <c r="B112" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>10</v>
@@ -3281,16 +3277,16 @@
     <row r="113" spans="1:6">
       <c r="A113" s="2"/>
       <c r="B113" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>10</v>
@@ -3299,16 +3295,16 @@
     <row r="114" spans="1:6">
       <c r="A114" s="13"/>
       <c r="B114" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F114" s="5"/>
     </row>
@@ -3317,16 +3313,16 @@
         <v>43022</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>10</v>
@@ -3335,16 +3331,16 @@
     <row r="117" spans="1:6">
       <c r="A117" s="2"/>
       <c r="B117" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>10</v>
@@ -3353,16 +3349,16 @@
     <row r="118" spans="1:6">
       <c r="A118" s="2"/>
       <c r="B118" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>10</v>
@@ -3373,16 +3369,16 @@
         <v>43024</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>10</v>
@@ -3391,16 +3387,16 @@
     <row r="121" spans="1:6">
       <c r="A121" s="2"/>
       <c r="B121" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>10</v>
@@ -3409,16 +3405,16 @@
     <row r="122" spans="1:6">
       <c r="A122" s="2"/>
       <c r="B122" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>10</v>
@@ -3427,16 +3423,16 @@
     <row r="123" spans="1:6">
       <c r="A123" s="2"/>
       <c r="B123" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>10</v>
@@ -3445,16 +3441,16 @@
     <row r="124" spans="1:6">
       <c r="A124" s="2"/>
       <c r="B124" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>10</v>
@@ -3463,16 +3459,16 @@
     <row r="125" spans="1:6">
       <c r="A125" s="2"/>
       <c r="B125" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>10</v>
@@ -3481,16 +3477,16 @@
     <row r="126" spans="1:6">
       <c r="A126" s="2"/>
       <c r="B126" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>10</v>
@@ -3499,16 +3495,16 @@
     <row r="127" spans="1:6">
       <c r="A127" s="2"/>
       <c r="B127" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>10</v>
@@ -3519,16 +3515,16 @@
         <v>43025</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>10</v>
@@ -3537,16 +3533,16 @@
     <row r="130" spans="1:6">
       <c r="A130" s="2"/>
       <c r="B130" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>10</v>
@@ -3555,16 +3551,16 @@
     <row r="131" spans="1:6">
       <c r="A131" s="2"/>
       <c r="B131" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>10</v>
@@ -3573,16 +3569,16 @@
     <row r="132" spans="1:6">
       <c r="A132" s="2"/>
       <c r="B132" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>10</v>
@@ -3591,16 +3587,16 @@
     <row r="133" spans="1:6">
       <c r="A133" s="2"/>
       <c r="B133" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>10</v>
@@ -3609,16 +3605,16 @@
     <row r="134" spans="1:6">
       <c r="A134" s="2"/>
       <c r="B134" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>10</v>
@@ -3627,16 +3623,16 @@
     <row r="135" spans="1:6">
       <c r="A135" s="2"/>
       <c r="B135" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>10</v>
@@ -3645,16 +3641,16 @@
     <row r="136" spans="1:6">
       <c r="A136" s="2"/>
       <c r="B136" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>10</v>
@@ -3663,16 +3659,16 @@
     <row r="137" spans="1:6">
       <c r="A137" s="2"/>
       <c r="B137" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>10</v>
@@ -3681,16 +3677,16 @@
     <row r="138" spans="1:6">
       <c r="A138" s="2"/>
       <c r="B138" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>10</v>
@@ -3699,16 +3695,16 @@
     <row r="139" spans="1:6">
       <c r="A139" s="2"/>
       <c r="B139" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>10</v>
@@ -3717,16 +3713,16 @@
     <row r="140" spans="1:6">
       <c r="A140" s="2"/>
       <c r="B140" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>10</v>
@@ -3735,16 +3731,16 @@
     <row r="141" spans="1:6">
       <c r="A141" s="2"/>
       <c r="B141" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>10</v>
@@ -3753,16 +3749,16 @@
     <row r="142" spans="1:6">
       <c r="A142" s="2"/>
       <c r="B142" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C142" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D142" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D142" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="E142" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>10</v>
@@ -3773,23 +3769,79 @@
         <v>43025</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="2">
+        <v>43028</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="2"/>
+      <c r="B147" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="2"/>
+      <c r="B148" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
@@ -3810,6 +3862,7 @@
     <mergeCell ref="A116:A118"/>
     <mergeCell ref="A120:A127"/>
     <mergeCell ref="A129:A142"/>
+    <mergeCell ref="A146:A148"/>
     <mergeCell ref="G15:I16"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求分析/接口文档/客户/更新说明.xlsx
+++ b/需求分析/接口文档/客户/更新说明.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162">
   <si>
     <t>更新时间</t>
   </si>
@@ -38,6 +38,456 @@
     <t>客户接口</t>
   </si>
   <si>
+    <t>客户信息</t>
+  </si>
+  <si>
+    <t>获取库存等级</t>
+  </si>
+  <si>
+    <t>新增接口</t>
+  </si>
+  <si>
+    <t>已验证</t>
+  </si>
+  <si>
+    <t>个人信息接口</t>
+  </si>
+  <si>
+    <t>个人信息</t>
+  </si>
+  <si>
+    <t>获取头像图片</t>
+  </si>
+  <si>
+    <t>获取客户列表</t>
+  </si>
+  <si>
+    <t>新增 是否建账 筛选</t>
+  </si>
+  <si>
+    <t>订单接口</t>
+  </si>
+  <si>
+    <t>财务订单(财务管理)</t>
+  </si>
+  <si>
+    <t>财务A审批通过</t>
+  </si>
+  <si>
+    <t>删除接口</t>
+  </si>
+  <si>
+    <t>财务A审批拒绝</t>
+  </si>
+  <si>
+    <t>财务B审批通过</t>
+  </si>
+  <si>
+    <t>财务B审批拒绝</t>
+  </si>
+  <si>
+    <t>财务审核通过</t>
+  </si>
+  <si>
+    <t>财务审核不通过</t>
+  </si>
+  <si>
+    <t>所有标签</t>
+  </si>
+  <si>
+    <t>所有接口</t>
+  </si>
+  <si>
+    <t>更新订单状态</t>
+  </si>
+  <si>
+    <t>获取默认收货地址</t>
+  </si>
+  <si>
+    <t>新添加的接口</t>
+  </si>
+  <si>
+    <t>经营单位</t>
+  </si>
+  <si>
+    <t>获取经营单位详情</t>
+  </si>
+  <si>
+    <t>添加返回客户头像</t>
+  </si>
+  <si>
+    <t>移交客户</t>
+  </si>
+  <si>
+    <t>业务员移交客户</t>
+  </si>
+  <si>
+    <t>跟单员移交客户</t>
+  </si>
+  <si>
+    <t>养殖信息(新)</t>
+  </si>
+  <si>
+    <t>所有的接口</t>
+  </si>
+  <si>
+    <t>hadAccount(账号状态)</t>
+  </si>
+  <si>
+    <t>商城接口</t>
+  </si>
+  <si>
+    <t>订单</t>
+  </si>
+  <si>
+    <t>获取运费模板列表(客户)</t>
+  </si>
+  <si>
+    <t>添加商家地址返回</t>
+  </si>
+  <si>
+    <t>客户建账</t>
+  </si>
+  <si>
+    <t>获取审批人列表</t>
+  </si>
+  <si>
+    <t>暂停使用</t>
+  </si>
+  <si>
+    <t>未建账</t>
+  </si>
+  <si>
+    <t>添加融云id返回</t>
+  </si>
+  <si>
+    <t>已建账</t>
+  </si>
+  <si>
+    <t>申请客户建账</t>
+  </si>
+  <si>
+    <t>添加 申请原因 参数</t>
+  </si>
+  <si>
+    <t>账号被冻结</t>
+  </si>
+  <si>
+    <t>冻结客户</t>
+  </si>
+  <si>
+    <t>解冻客户</t>
+  </si>
+  <si>
+    <t>获取客户详情</t>
+  </si>
+  <si>
+    <t>添加 账号冻结 状态</t>
+  </si>
+  <si>
+    <t>商品浏览</t>
+  </si>
+  <si>
+    <t>查看商品详情</t>
+  </si>
+  <si>
+    <t>添加 规格重量 返回</t>
+  </si>
+  <si>
+    <t>购物车</t>
+  </si>
+  <si>
+    <t>获取购物车商品列表</t>
+  </si>
+  <si>
+    <t>获取订单列表</t>
+  </si>
+  <si>
+    <t>添加 订单号 返回</t>
+  </si>
+  <si>
+    <t>获取订单详情</t>
+  </si>
+  <si>
+    <t>筛选订单</t>
+  </si>
+  <si>
+    <t>根据订单号获取订单列表</t>
+  </si>
+  <si>
+    <t>业务订单</t>
+  </si>
+  <si>
+    <t>财务订单</t>
+  </si>
+  <si>
+    <t>权限角色接口</t>
+  </si>
+  <si>
+    <t>权限角色</t>
+  </si>
+  <si>
+    <t>获取用户角色</t>
+  </si>
+  <si>
+    <t>获取跟单员列表</t>
+  </si>
+  <si>
+    <t>开放使用</t>
+  </si>
+  <si>
+    <t>库存接口</t>
+  </si>
+  <si>
+    <t>申请库存</t>
+  </si>
+  <si>
+    <t>更名为 客户商城接口</t>
+  </si>
+  <si>
+    <t>商家商城接口</t>
+  </si>
+  <si>
+    <t>原 商城接口 的拆分</t>
+  </si>
+  <si>
+    <t>运费模板</t>
+  </si>
+  <si>
+    <t>销售点</t>
+  </si>
+  <si>
+    <t>商品编辑</t>
+  </si>
+  <si>
+    <t>业务订单(业务)</t>
+  </si>
+  <si>
+    <t>业务订单(业务管理)</t>
+  </si>
+  <si>
+    <t>财务订单(财务)</t>
+  </si>
+  <si>
+    <t>后勤订单(跟单)</t>
+  </si>
+  <si>
+    <t>已废弃</t>
+  </si>
+  <si>
+    <t>需求接口</t>
+  </si>
+  <si>
+    <t>激活登陆</t>
+  </si>
+  <si>
+    <t>用户登录</t>
+  </si>
+  <si>
+    <t>添加 企业名称 返回</t>
+  </si>
+  <si>
+    <t>查找分类下的商品</t>
+  </si>
+  <si>
+    <t>搜索商品</t>
+  </si>
+  <si>
+    <t>所有 筛选订单 接口</t>
+  </si>
+  <si>
+    <t>新增 订单总价 返回</t>
+  </si>
+  <si>
+    <t>客户订单</t>
+  </si>
+  <si>
+    <t>生成订单</t>
+  </si>
+  <si>
+    <t>添加 商品不存在 返回值</t>
+  </si>
+  <si>
+    <t>养殖信息（新）</t>
+  </si>
+  <si>
+    <t>获取养殖信息详情（新）</t>
+  </si>
+  <si>
+    <t>客户资源</t>
+  </si>
+  <si>
+    <t>获取养殖信息列表</t>
+  </si>
+  <si>
+    <t>添加 json 返回</t>
+  </si>
+  <si>
+    <t>获取养殖信息详情</t>
+  </si>
+  <si>
+    <t>所有订单筛选接口</t>
+  </si>
+  <si>
+    <t>更新 订单状态</t>
+  </si>
+  <si>
+    <t>添加 角色代码 返回值</t>
+  </si>
+  <si>
+    <t>客户跟进</t>
+  </si>
+  <si>
+    <t>添加 跟进标题 参数</t>
+  </si>
+  <si>
+    <t>查看库存</t>
+  </si>
+  <si>
+    <t>查看销售点库存</t>
+  </si>
+  <si>
+    <t>添加 返回参数</t>
+  </si>
+  <si>
+    <t>查看当前销售点库存</t>
+  </si>
+  <si>
+    <t>查看总部销售点库存</t>
+  </si>
+  <si>
+    <t>盘点库存</t>
+  </si>
+  <si>
+    <t>获取库存盘点记录</t>
+  </si>
+  <si>
+    <t>库存进仓</t>
+  </si>
+  <si>
+    <t>新建进仓单</t>
+  </si>
+  <si>
+    <t>获取进仓单列表</t>
+  </si>
+  <si>
+    <t>获取进仓单详情</t>
+  </si>
+  <si>
+    <t>申请人获取库存申请列表</t>
+  </si>
+  <si>
+    <t>审批人获取库存审批列表</t>
+  </si>
+  <si>
+    <t>添加 商品图片 返回</t>
+  </si>
+  <si>
+    <t>库存盘点</t>
+  </si>
+  <si>
+    <t>添加 时间段筛选 条件</t>
+  </si>
+  <si>
+    <t>获取库存盘点记录详情</t>
+  </si>
+  <si>
+    <t>添加 筛选 条件</t>
+  </si>
+  <si>
+    <t>搜索库存商品</t>
+  </si>
+  <si>
+    <t>添加 付款状态 返回</t>
+  </si>
+  <si>
+    <t>跟单订单(跟单)</t>
+  </si>
+  <si>
+    <t>获取成员的客户列表</t>
+  </si>
+  <si>
+    <t>添加 用户头像 返回</t>
+  </si>
+  <si>
+    <t>筛选客户列表</t>
+  </si>
+  <si>
+    <t>此接口与(获取成员的客户列表)合并</t>
+  </si>
+  <si>
+    <t>获取总部销售点Id</t>
+  </si>
+  <si>
+    <t>添加 商品编码 返回</t>
+  </si>
+  <si>
+    <t>添加 商品编码、申请单号 返回</t>
+  </si>
+  <si>
+    <t>组织管理接口</t>
+  </si>
+  <si>
+    <t>组织管理</t>
+  </si>
+  <si>
+    <t>获取可分配的角色列表</t>
+  </si>
+  <si>
+    <t>获取商品列表</t>
+  </si>
+  <si>
+    <t>添加 商品规格Id 返回</t>
+  </si>
+  <si>
+    <t>参数 recordList 替换为 incomeList</t>
+  </si>
+  <si>
+    <t>添加 总部当前库存 返回</t>
+  </si>
+  <si>
+    <t>添加 该账号已存在 状态码</t>
+  </si>
+  <si>
+    <t>添加 商品分类 返回</t>
+  </si>
+  <si>
+    <t>登陆激活</t>
+  </si>
+  <si>
+    <t>用户登录(浏览器)</t>
+  </si>
+  <si>
+    <t>获取当前销售点进仓单列表</t>
+  </si>
+  <si>
+    <t>获取当销售点前库存盘点记录</t>
+  </si>
+  <si>
+    <t>更新 branchId(销售点Id) 为选填</t>
+  </si>
+  <si>
+    <t>添加 头像 返回</t>
+  </si>
+  <si>
+    <t>团队接口</t>
+  </si>
+  <si>
+    <t>团队</t>
+  </si>
+  <si>
+    <t>获取团队内所有成员</t>
+  </si>
+  <si>
+    <t>获取库存审批详情</t>
+  </si>
+  <si>
+    <t>获取当前部门下的成员列表</t>
+  </si>
+  <si>
+    <t>获取当前部门下的客户列表</t>
+  </si>
+  <si>
     <t>申请协助</t>
   </si>
   <si>
@@ -47,424 +497,10 @@
     <t>新增 status(审批状态) 筛选</t>
   </si>
   <si>
-    <t>已验证</t>
-  </si>
-  <si>
     <t>获取申请详情</t>
   </si>
   <si>
     <t>新增 status(审批状态) 返回</t>
-  </si>
-  <si>
-    <t>个人信息</t>
-  </si>
-  <si>
-    <t>获取默认收货地址</t>
-  </si>
-  <si>
-    <t>新添加的接口</t>
-  </si>
-  <si>
-    <t>个人信息接口</t>
-  </si>
-  <si>
-    <t>经营单位</t>
-  </si>
-  <si>
-    <t>获取经营单位详情</t>
-  </si>
-  <si>
-    <t>新增接口</t>
-  </si>
-  <si>
-    <t>客户信息</t>
-  </si>
-  <si>
-    <t>获取客户列表</t>
-  </si>
-  <si>
-    <t>添加返回客户头像</t>
-  </si>
-  <si>
-    <t>移交客户</t>
-  </si>
-  <si>
-    <t>业务员移交客户</t>
-  </si>
-  <si>
-    <t>跟单员移交客户</t>
-  </si>
-  <si>
-    <t>养殖信息(新)</t>
-  </si>
-  <si>
-    <t>所有的接口</t>
-  </si>
-  <si>
-    <t>hadAccount(账号状态)</t>
-  </si>
-  <si>
-    <t>商城接口</t>
-  </si>
-  <si>
-    <t>订单</t>
-  </si>
-  <si>
-    <t>获取运费模板列表(客户)</t>
-  </si>
-  <si>
-    <t>添加商家地址返回</t>
-  </si>
-  <si>
-    <t>客户建账</t>
-  </si>
-  <si>
-    <t>获取审批人列表</t>
-  </si>
-  <si>
-    <t>暂停使用</t>
-  </si>
-  <si>
-    <t>未建账</t>
-  </si>
-  <si>
-    <t>添加融云id返回</t>
-  </si>
-  <si>
-    <t>已建账</t>
-  </si>
-  <si>
-    <t>申请客户建账</t>
-  </si>
-  <si>
-    <t>添加 申请原因 参数</t>
-  </si>
-  <si>
-    <t>账号被冻结</t>
-  </si>
-  <si>
-    <t>冻结客户</t>
-  </si>
-  <si>
-    <t>解冻客户</t>
-  </si>
-  <si>
-    <t>获取客户详情</t>
-  </si>
-  <si>
-    <t>添加 账号冻结 状态</t>
-  </si>
-  <si>
-    <t>商品浏览</t>
-  </si>
-  <si>
-    <t>查看商品详情</t>
-  </si>
-  <si>
-    <t>添加 规格重量 返回</t>
-  </si>
-  <si>
-    <t>购物车</t>
-  </si>
-  <si>
-    <t>获取购物车商品列表</t>
-  </si>
-  <si>
-    <t>获取订单列表</t>
-  </si>
-  <si>
-    <t>添加 订单号 返回</t>
-  </si>
-  <si>
-    <t>获取订单详情</t>
-  </si>
-  <si>
-    <t>筛选订单</t>
-  </si>
-  <si>
-    <t>根据订单号获取订单列表</t>
-  </si>
-  <si>
-    <t>业务订单</t>
-  </si>
-  <si>
-    <t>财务订单</t>
-  </si>
-  <si>
-    <t>权限角色接口</t>
-  </si>
-  <si>
-    <t>权限角色</t>
-  </si>
-  <si>
-    <t>获取用户角色</t>
-  </si>
-  <si>
-    <t>获取跟单员列表</t>
-  </si>
-  <si>
-    <t>开放使用</t>
-  </si>
-  <si>
-    <t>库存接口</t>
-  </si>
-  <si>
-    <t>申请库存</t>
-  </si>
-  <si>
-    <t>更名为 客户商城接口</t>
-  </si>
-  <si>
-    <t>商家商城接口</t>
-  </si>
-  <si>
-    <t>原 商城接口 的拆分</t>
-  </si>
-  <si>
-    <t>运费模板</t>
-  </si>
-  <si>
-    <t>销售点</t>
-  </si>
-  <si>
-    <t>商品编辑</t>
-  </si>
-  <si>
-    <t>所有接口</t>
-  </si>
-  <si>
-    <t>订单接口</t>
-  </si>
-  <si>
-    <t>业务订单(业务)</t>
-  </si>
-  <si>
-    <t>业务订单(业务管理)</t>
-  </si>
-  <si>
-    <t>财务订单(财务)</t>
-  </si>
-  <si>
-    <t>财务订单(财务管理)</t>
-  </si>
-  <si>
-    <t>后勤订单(跟单)</t>
-  </si>
-  <si>
-    <t>已废弃</t>
-  </si>
-  <si>
-    <t>需求接口</t>
-  </si>
-  <si>
-    <t>激活登陆</t>
-  </si>
-  <si>
-    <t>用户登录</t>
-  </si>
-  <si>
-    <t>添加 企业名称 返回</t>
-  </si>
-  <si>
-    <t>查找分类下的商品</t>
-  </si>
-  <si>
-    <t>搜索商品</t>
-  </si>
-  <si>
-    <t>所有 筛选订单 接口</t>
-  </si>
-  <si>
-    <t>新增 订单总价 返回</t>
-  </si>
-  <si>
-    <t>客户订单</t>
-  </si>
-  <si>
-    <t>生成订单</t>
-  </si>
-  <si>
-    <t>添加 商品不存在 返回值</t>
-  </si>
-  <si>
-    <t>养殖信息（新）</t>
-  </si>
-  <si>
-    <t>获取养殖信息详情（新）</t>
-  </si>
-  <si>
-    <t>客户资源</t>
-  </si>
-  <si>
-    <t>获取养殖信息列表</t>
-  </si>
-  <si>
-    <t>添加 json 返回</t>
-  </si>
-  <si>
-    <t>获取养殖信息详情</t>
-  </si>
-  <si>
-    <t>所有订单筛选接口</t>
-  </si>
-  <si>
-    <t>更新 订单状态</t>
-  </si>
-  <si>
-    <t>添加 角色代码 返回值</t>
-  </si>
-  <si>
-    <t>客户跟进</t>
-  </si>
-  <si>
-    <t>添加 跟进标题 参数</t>
-  </si>
-  <si>
-    <t>查看库存</t>
-  </si>
-  <si>
-    <t>查看销售点库存</t>
-  </si>
-  <si>
-    <t>添加 返回参数</t>
-  </si>
-  <si>
-    <t>查看当前销售点库存</t>
-  </si>
-  <si>
-    <t>查看总部销售点库存</t>
-  </si>
-  <si>
-    <t>盘点库存</t>
-  </si>
-  <si>
-    <t>获取库存盘点记录</t>
-  </si>
-  <si>
-    <t>库存进仓</t>
-  </si>
-  <si>
-    <t>新建进仓单</t>
-  </si>
-  <si>
-    <t>获取进仓单列表</t>
-  </si>
-  <si>
-    <t>获取进仓单详情</t>
-  </si>
-  <si>
-    <t>申请人获取库存申请列表</t>
-  </si>
-  <si>
-    <t>审批人获取库存审批列表</t>
-  </si>
-  <si>
-    <t>添加 商品图片 返回</t>
-  </si>
-  <si>
-    <t>库存盘点</t>
-  </si>
-  <si>
-    <t>添加 时间段筛选 条件</t>
-  </si>
-  <si>
-    <t>获取库存盘点记录详情</t>
-  </si>
-  <si>
-    <t>添加 筛选 条件</t>
-  </si>
-  <si>
-    <t>搜索库存商品</t>
-  </si>
-  <si>
-    <t>添加 付款状态 返回</t>
-  </si>
-  <si>
-    <t>跟单订单(跟单)</t>
-  </si>
-  <si>
-    <t>获取成员的客户列表</t>
-  </si>
-  <si>
-    <t>添加 用户头像 返回</t>
-  </si>
-  <si>
-    <t>筛选客户列表</t>
-  </si>
-  <si>
-    <t>此接口与(获取成员的客户列表)合并</t>
-  </si>
-  <si>
-    <t>获取总部销售点Id</t>
-  </si>
-  <si>
-    <t>添加 商品编码 返回</t>
-  </si>
-  <si>
-    <t>添加 商品编码、申请单号 返回</t>
-  </si>
-  <si>
-    <t>组织管理接口</t>
-  </si>
-  <si>
-    <t>组织管理</t>
-  </si>
-  <si>
-    <t>获取可分配的角色列表</t>
-  </si>
-  <si>
-    <t>获取商品列表</t>
-  </si>
-  <si>
-    <t>添加 商品规格Id 返回</t>
-  </si>
-  <si>
-    <t>参数 recordList 替换为 incomeList</t>
-  </si>
-  <si>
-    <t>添加 总部当前库存 返回</t>
-  </si>
-  <si>
-    <t>添加 该账号已存在 状态码</t>
-  </si>
-  <si>
-    <t>添加 商品分类 返回</t>
-  </si>
-  <si>
-    <t>登陆激活</t>
-  </si>
-  <si>
-    <t>用户登录(浏览器)</t>
-  </si>
-  <si>
-    <t>获取当前销售点进仓单列表</t>
-  </si>
-  <si>
-    <t>获取当销售点前库存盘点记录</t>
-  </si>
-  <si>
-    <t>更新 branchId(销售点Id) 为选填</t>
-  </si>
-  <si>
-    <t>添加 头像 返回</t>
-  </si>
-  <si>
-    <t>团队接口</t>
-  </si>
-  <si>
-    <t>团队</t>
-  </si>
-  <si>
-    <t>获取团队内所有成员</t>
-  </si>
-  <si>
-    <t>获取库存审批详情</t>
-  </si>
-  <si>
-    <t>获取当前部门下的成员列表</t>
-  </si>
-  <si>
-    <t>获取当前部门下的客户列表</t>
   </si>
 </sst>
 </file>
@@ -472,9 +508,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -523,18 +559,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -552,17 +588,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,9 +620,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -599,13 +657,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -617,21 +668,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,7 +730,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,13 +814,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,109 +868,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,19 +886,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,6 +924,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -899,6 +950,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -923,15 +983,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -946,21 +997,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -969,10 +1005,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -981,10 +1017,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -993,13 +1029,13 @@
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1008,73 +1044,100 @@
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1083,35 +1146,8 @@
     <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1155,6 +1191,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1505,13 +1544,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="21.125" customWidth="1"/>
@@ -1541,7 +1580,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>43032</v>
+        <v>43033</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1562,24 +1601,168 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="13"/>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="13"/>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="13"/>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13"/>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="13"/>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="13"/>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="15"/>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A2:A11"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1590,10 +1773,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:I151"/>
   <sheetViews>
     <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144:F144"/>
+      <selection activeCell="A150" sqref="A150:F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1633,13 +1816,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>10</v>
@@ -1648,16 +1831,16 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>10</v>
@@ -1671,13 +1854,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>10</v>
@@ -1689,13 +1872,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>10</v>
@@ -1707,13 +1890,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>10</v>
@@ -1725,13 +1908,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>10</v>
@@ -1745,19 +1928,19 @@
         <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1765,16 +1948,16 @@
     <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>10</v>
@@ -1789,19 +1972,19 @@
         <v>6</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="11">
@@ -1814,19 +1997,19 @@
         <v>6</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="11">
@@ -1839,19 +2022,19 @@
         <v>6</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="11">
@@ -1864,13 +2047,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>10</v>
@@ -1882,13 +2065,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>10</v>
@@ -1900,13 +2083,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>10</v>
@@ -1917,16 +2100,16 @@
         <v>42999</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>10</v>
@@ -1935,16 +2118,16 @@
     <row r="28" spans="1:6">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>10</v>
@@ -1953,16 +2136,16 @@
     <row r="29" spans="1:6">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>10</v>
@@ -1971,16 +2154,16 @@
     <row r="30" spans="1:6">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>10</v>
@@ -1989,16 +2172,16 @@
     <row r="31" spans="1:6">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>10</v>
@@ -2007,16 +2190,16 @@
     <row r="32" spans="1:6">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>10</v>
@@ -2025,16 +2208,16 @@
     <row r="33" spans="1:6">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>10</v>
@@ -2043,16 +2226,16 @@
     <row r="34" spans="1:6">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>10</v>
@@ -2063,16 +2246,16 @@
         <v>42999</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>10</v>
@@ -2084,13 +2267,13 @@
         <v>6</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>10</v>
@@ -2102,13 +2285,13 @@
         <v>6</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>10</v>
@@ -2117,16 +2300,16 @@
     <row r="41" spans="1:6">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>10</v>
@@ -2137,12 +2320,12 @@
         <v>43005</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>10</v>
@@ -2151,12 +2334,12 @@
     <row r="44" spans="1:6">
       <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>10</v>
@@ -2165,14 +2348,14 @@
     <row r="45" spans="1:6">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>10</v>
@@ -2181,14 +2364,14 @@
     <row r="46" spans="1:6">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>10</v>
@@ -2197,14 +2380,14 @@
     <row r="47" spans="1:6">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>10</v>
@@ -2213,16 +2396,16 @@
     <row r="48" spans="1:6">
       <c r="A48" s="2"/>
       <c r="B48" s="3" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>10</v>
@@ -2231,12 +2414,12 @@
     <row r="49" spans="1:6">
       <c r="A49" s="2"/>
       <c r="B49" s="3" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>10</v>
@@ -2245,16 +2428,16 @@
     <row r="50" spans="1:6">
       <c r="A50" s="2"/>
       <c r="B50" s="3" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>10</v>
@@ -2263,16 +2446,16 @@
     <row r="51" spans="1:6">
       <c r="A51" s="2"/>
       <c r="B51" s="3" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>10</v>
@@ -2281,16 +2464,16 @@
     <row r="52" spans="1:6">
       <c r="A52" s="2"/>
       <c r="B52" s="3" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>10</v>
@@ -2299,16 +2482,16 @@
     <row r="53" spans="1:6">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>10</v>
@@ -2317,16 +2500,16 @@
     <row r="54" spans="1:6">
       <c r="A54" s="2"/>
       <c r="B54" s="3" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>10</v>
@@ -2335,32 +2518,32 @@
     <row r="55" spans="1:6">
       <c r="A55" s="2"/>
       <c r="B55" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="4" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2"/>
       <c r="B56" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>10</v>
@@ -2371,16 +2554,16 @@
         <v>43008</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>10</v>
@@ -2389,16 +2572,16 @@
     <row r="59" spans="1:6">
       <c r="A59" s="2"/>
       <c r="B59" s="3" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>10</v>
@@ -2407,16 +2590,16 @@
     <row r="60" spans="1:6">
       <c r="A60" s="2"/>
       <c r="B60" s="3" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>10</v>
@@ -2425,14 +2608,14 @@
     <row r="61" spans="1:6">
       <c r="A61" s="2"/>
       <c r="B61" s="3" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>10</v>
@@ -2443,16 +2626,16 @@
         <v>43015</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>10</v>
@@ -2464,13 +2647,13 @@
         <v>6</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>10</v>
@@ -2479,16 +2662,16 @@
     <row r="65" spans="1:6">
       <c r="A65" s="2"/>
       <c r="B65" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>10</v>
@@ -2497,16 +2680,16 @@
     <row r="66" spans="1:6">
       <c r="A66" s="2"/>
       <c r="B66" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>10</v>
@@ -2515,14 +2698,14 @@
     <row r="67" spans="1:6">
       <c r="A67" s="2"/>
       <c r="B67" s="3" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>10</v>
@@ -2533,16 +2716,16 @@
         <v>43018</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>10</v>
@@ -2554,13 +2737,13 @@
         <v>6</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>10</v>
@@ -2571,16 +2754,16 @@
         <v>43018</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>10</v>
@@ -2589,16 +2772,16 @@
     <row r="73" spans="1:6">
       <c r="A73" s="2"/>
       <c r="B73" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>10</v>
@@ -2607,16 +2790,16 @@
     <row r="74" spans="1:6">
       <c r="A74" s="2"/>
       <c r="B74" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>10</v>
@@ -2625,16 +2808,16 @@
     <row r="75" spans="1:6">
       <c r="A75" s="2"/>
       <c r="B75" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>10</v>
@@ -2643,16 +2826,16 @@
     <row r="76" spans="1:6">
       <c r="A76" s="2"/>
       <c r="B76" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>10</v>
@@ -2661,16 +2844,16 @@
     <row r="77" spans="1:6">
       <c r="A77" s="2"/>
       <c r="B77" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>10</v>
@@ -2679,16 +2862,16 @@
     <row r="78" spans="1:6">
       <c r="A78" s="2"/>
       <c r="B78" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>10</v>
@@ -2697,16 +2880,16 @@
     <row r="79" spans="1:6">
       <c r="A79" s="2"/>
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>10</v>
@@ -2715,16 +2898,16 @@
     <row r="80" spans="1:6">
       <c r="A80" s="2"/>
       <c r="B80" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>10</v>
@@ -2733,16 +2916,16 @@
     <row r="81" spans="1:6">
       <c r="A81" s="2"/>
       <c r="B81" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>10</v>
@@ -2753,16 +2936,16 @@
         <v>43020</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>10</v>
@@ -2771,16 +2954,16 @@
     <row r="84" spans="1:6">
       <c r="A84" s="2"/>
       <c r="B84" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>10</v>
@@ -2789,16 +2972,16 @@
     <row r="85" spans="1:6">
       <c r="A85" s="2"/>
       <c r="B85" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>10</v>
@@ -2807,16 +2990,16 @@
     <row r="86" spans="1:6">
       <c r="A86" s="2"/>
       <c r="B86" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>10</v>
@@ -2825,16 +3008,16 @@
     <row r="87" spans="1:6">
       <c r="A87" s="2"/>
       <c r="B87" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>10</v>
@@ -2843,16 +3026,16 @@
     <row r="88" spans="1:6">
       <c r="A88" s="2"/>
       <c r="B88" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>10</v>
@@ -2861,16 +3044,16 @@
     <row r="89" spans="1:6">
       <c r="A89" s="2"/>
       <c r="B89" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>10</v>
@@ -2879,16 +3062,16 @@
     <row r="90" spans="1:6">
       <c r="A90" s="2"/>
       <c r="B90" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>10</v>
@@ -2897,16 +3080,16 @@
     <row r="91" spans="1:6">
       <c r="A91" s="2"/>
       <c r="B91" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>10</v>
@@ -2915,16 +3098,16 @@
     <row r="92" spans="1:6">
       <c r="A92" s="2"/>
       <c r="B92" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>10</v>
@@ -2933,16 +3116,16 @@
     <row r="93" spans="1:6">
       <c r="A93" s="2"/>
       <c r="B93" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>10</v>
@@ -2951,16 +3134,16 @@
     <row r="94" spans="1:6">
       <c r="A94" s="2"/>
       <c r="B94" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>10</v>
@@ -2969,16 +3152,16 @@
     <row r="95" spans="1:6">
       <c r="A95" s="2"/>
       <c r="B95" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>10</v>
@@ -2987,16 +3170,16 @@
     <row r="96" spans="1:6">
       <c r="A96" s="2"/>
       <c r="B96" s="3" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>10</v>
@@ -3005,16 +3188,16 @@
     <row r="97" spans="1:6">
       <c r="A97" s="2"/>
       <c r="B97" s="3" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>10</v>
@@ -3023,16 +3206,16 @@
     <row r="98" spans="1:6">
       <c r="A98" s="2"/>
       <c r="B98" s="3" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>10</v>
@@ -3041,16 +3224,16 @@
     <row r="99" spans="1:6">
       <c r="A99" s="2"/>
       <c r="B99" s="3" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>10</v>
@@ -3059,16 +3242,16 @@
     <row r="100" spans="1:6">
       <c r="A100" s="2"/>
       <c r="B100" s="3" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>10</v>
@@ -3077,16 +3260,16 @@
     <row r="101" spans="1:6">
       <c r="A101" s="2"/>
       <c r="B101" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>10</v>
@@ -3095,16 +3278,16 @@
     <row r="102" spans="1:6">
       <c r="A102" s="2"/>
       <c r="B102" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>10</v>
@@ -3113,16 +3296,16 @@
     <row r="103" spans="1:6">
       <c r="A103" s="2"/>
       <c r="B103" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>10</v>
@@ -3131,16 +3314,16 @@
     <row r="104" spans="1:6">
       <c r="A104" s="2"/>
       <c r="B104" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>10</v>
@@ -3152,13 +3335,13 @@
         <v>6</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>10</v>
@@ -3169,16 +3352,16 @@
         <v>43021</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>10</v>
@@ -3187,16 +3370,16 @@
     <row r="108" spans="1:6">
       <c r="A108" s="2"/>
       <c r="B108" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>10</v>
@@ -3205,16 +3388,16 @@
     <row r="109" spans="1:6">
       <c r="A109" s="2"/>
       <c r="B109" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>10</v>
@@ -3223,16 +3406,16 @@
     <row r="110" spans="1:6">
       <c r="A110" s="2"/>
       <c r="B110" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>10</v>
@@ -3241,16 +3424,16 @@
     <row r="111" spans="1:6">
       <c r="A111" s="2"/>
       <c r="B111" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>10</v>
@@ -3259,16 +3442,16 @@
     <row r="112" spans="1:6">
       <c r="A112" s="2"/>
       <c r="B112" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>10</v>
@@ -3277,16 +3460,16 @@
     <row r="113" spans="1:6">
       <c r="A113" s="2"/>
       <c r="B113" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>10</v>
@@ -3295,16 +3478,16 @@
     <row r="114" spans="1:6">
       <c r="A114" s="13"/>
       <c r="B114" s="3" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F114" s="5"/>
     </row>
@@ -3313,16 +3496,16 @@
         <v>43022</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>10</v>
@@ -3331,16 +3514,16 @@
     <row r="117" spans="1:6">
       <c r="A117" s="2"/>
       <c r="B117" s="3" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>10</v>
@@ -3349,16 +3532,16 @@
     <row r="118" spans="1:6">
       <c r="A118" s="2"/>
       <c r="B118" s="3" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>10</v>
@@ -3369,16 +3552,16 @@
         <v>43024</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>10</v>
@@ -3387,16 +3570,16 @@
     <row r="121" spans="1:6">
       <c r="A121" s="2"/>
       <c r="B121" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>10</v>
@@ -3405,16 +3588,16 @@
     <row r="122" spans="1:6">
       <c r="A122" s="2"/>
       <c r="B122" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>10</v>
@@ -3423,16 +3606,16 @@
     <row r="123" spans="1:6">
       <c r="A123" s="2"/>
       <c r="B123" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>10</v>
@@ -3441,16 +3624,16 @@
     <row r="124" spans="1:6">
       <c r="A124" s="2"/>
       <c r="B124" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>10</v>
@@ -3459,16 +3642,16 @@
     <row r="125" spans="1:6">
       <c r="A125" s="2"/>
       <c r="B125" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>10</v>
@@ -3477,16 +3660,16 @@
     <row r="126" spans="1:6">
       <c r="A126" s="2"/>
       <c r="B126" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>10</v>
@@ -3495,16 +3678,16 @@
     <row r="127" spans="1:6">
       <c r="A127" s="2"/>
       <c r="B127" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>10</v>
@@ -3518,13 +3701,13 @@
         <v>6</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>10</v>
@@ -3533,16 +3716,16 @@
     <row r="130" spans="1:6">
       <c r="A130" s="2"/>
       <c r="B130" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>10</v>
@@ -3551,16 +3734,16 @@
     <row r="131" spans="1:6">
       <c r="A131" s="2"/>
       <c r="B131" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>10</v>
@@ -3569,16 +3752,16 @@
     <row r="132" spans="1:6">
       <c r="A132" s="2"/>
       <c r="B132" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>10</v>
@@ -3587,16 +3770,16 @@
     <row r="133" spans="1:6">
       <c r="A133" s="2"/>
       <c r="B133" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>10</v>
@@ -3605,16 +3788,16 @@
     <row r="134" spans="1:6">
       <c r="A134" s="2"/>
       <c r="B134" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>10</v>
@@ -3623,16 +3806,16 @@
     <row r="135" spans="1:6">
       <c r="A135" s="2"/>
       <c r="B135" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>10</v>
@@ -3641,16 +3824,16 @@
     <row r="136" spans="1:6">
       <c r="A136" s="2"/>
       <c r="B136" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>10</v>
@@ -3659,16 +3842,16 @@
     <row r="137" spans="1:6">
       <c r="A137" s="2"/>
       <c r="B137" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>10</v>
@@ -3677,16 +3860,16 @@
     <row r="138" spans="1:6">
       <c r="A138" s="2"/>
       <c r="B138" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>10</v>
@@ -3695,16 +3878,16 @@
     <row r="139" spans="1:6">
       <c r="A139" s="2"/>
       <c r="B139" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>10</v>
@@ -3713,16 +3896,16 @@
     <row r="140" spans="1:6">
       <c r="A140" s="2"/>
       <c r="B140" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>10</v>
@@ -3734,13 +3917,13 @@
         <v>6</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>10</v>
@@ -3752,13 +3935,13 @@
         <v>6</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>10</v>
@@ -3769,16 +3952,16 @@
         <v>43025</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>10</v>
@@ -3789,16 +3972,16 @@
         <v>43028</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F146" s="5" t="s">
         <v>10</v>
@@ -3807,16 +3990,16 @@
     <row r="147" spans="1:6">
       <c r="A147" s="2"/>
       <c r="B147" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>10</v>
@@ -3825,23 +4008,61 @@
     <row r="148" spans="1:6">
       <c r="A148" s="2"/>
       <c r="B148" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="2">
+        <v>43032</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="2"/>
+      <c r="B151" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
@@ -3863,6 +4084,7 @@
     <mergeCell ref="A120:A127"/>
     <mergeCell ref="A129:A142"/>
     <mergeCell ref="A146:A148"/>
+    <mergeCell ref="A150:A151"/>
     <mergeCell ref="G15:I16"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求分析/接口文档/客户/更新说明.xlsx
+++ b/需求分析/接口文档/客户/更新说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="22290" windowHeight="9135"/>
   </bookViews>
   <sheets>
     <sheet name="当前更新" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176">
   <si>
     <t>更新时间</t>
   </si>
@@ -35,42 +35,489 @@
     <t>状态</t>
   </si>
   <si>
+    <t>通用申请接口</t>
+  </si>
+  <si>
+    <t>通用申请</t>
+  </si>
+  <si>
+    <t>发起人获取申请列表</t>
+  </si>
+  <si>
+    <t>新增 applyResult(申请状态) 筛选</t>
+  </si>
+  <si>
+    <t>已验证</t>
+  </si>
+  <si>
+    <t>审批人获取申请列表</t>
+  </si>
+  <si>
     <t>客户接口</t>
   </si>
   <si>
+    <t>客户建账</t>
+  </si>
+  <si>
+    <t>审批员获取建账申请列表</t>
+  </si>
+  <si>
+    <t>新增 requestStatus(申请状态)、userImage(头像) 返回</t>
+  </si>
+  <si>
+    <t>新增 分页 参数</t>
+  </si>
+  <si>
+    <t>新增 requestStatus(申请状态) 筛选</t>
+  </si>
+  <si>
+    <t>申请人获取建账申请列表</t>
+  </si>
+  <si>
+    <t>新增 userImage(头像) 返回</t>
+  </si>
+  <si>
+    <t>新增 已审批 筛选状态</t>
+  </si>
+  <si>
+    <t>申请协助</t>
+  </si>
+  <si>
+    <t>申请者获取协助列表</t>
+  </si>
+  <si>
+    <t>协助者获取协助列表</t>
+  </si>
+  <si>
+    <t>新增 createDate(申请时间) 返回</t>
+  </si>
+  <si>
+    <t>个人信息</t>
+  </si>
+  <si>
+    <t>获取默认收货地址</t>
+  </si>
+  <si>
+    <t>新添加的接口</t>
+  </si>
+  <si>
+    <t>个人信息接口</t>
+  </si>
+  <si>
+    <t>经营单位</t>
+  </si>
+  <si>
+    <t>获取经营单位详情</t>
+  </si>
+  <si>
+    <t>新增接口</t>
+  </si>
+  <si>
     <t>客户信息</t>
   </si>
   <si>
+    <t>获取客户列表</t>
+  </si>
+  <si>
+    <t>添加返回客户头像</t>
+  </si>
+  <si>
+    <t>移交客户</t>
+  </si>
+  <si>
+    <t>业务员移交客户</t>
+  </si>
+  <si>
+    <t>跟单员移交客户</t>
+  </si>
+  <si>
+    <t>养殖信息(新)</t>
+  </si>
+  <si>
+    <t>所有的接口</t>
+  </si>
+  <si>
+    <t>hadAccount(账号状态)</t>
+  </si>
+  <si>
+    <t>商城接口</t>
+  </si>
+  <si>
+    <t>订单</t>
+  </si>
+  <si>
+    <t>获取运费模板列表(客户)</t>
+  </si>
+  <si>
+    <t>添加商家地址返回</t>
+  </si>
+  <si>
+    <t>获取审批人列表</t>
+  </si>
+  <si>
+    <t>暂停使用</t>
+  </si>
+  <si>
+    <t>未建账</t>
+  </si>
+  <si>
+    <t>添加融云id返回</t>
+  </si>
+  <si>
+    <t>已建账</t>
+  </si>
+  <si>
+    <t>申请客户建账</t>
+  </si>
+  <si>
+    <t>添加 申请原因 参数</t>
+  </si>
+  <si>
+    <t>账号被冻结</t>
+  </si>
+  <si>
+    <t>冻结客户</t>
+  </si>
+  <si>
+    <t>解冻客户</t>
+  </si>
+  <si>
+    <t>获取客户详情</t>
+  </si>
+  <si>
+    <t>添加 账号冻结 状态</t>
+  </si>
+  <si>
+    <t>商品浏览</t>
+  </si>
+  <si>
+    <t>查看商品详情</t>
+  </si>
+  <si>
+    <t>添加 规格重量 返回</t>
+  </si>
+  <si>
+    <t>购物车</t>
+  </si>
+  <si>
+    <t>获取购物车商品列表</t>
+  </si>
+  <si>
+    <t>获取订单列表</t>
+  </si>
+  <si>
+    <t>添加 订单号 返回</t>
+  </si>
+  <si>
+    <t>获取订单详情</t>
+  </si>
+  <si>
+    <t>筛选订单</t>
+  </si>
+  <si>
+    <t>根据订单号获取订单列表</t>
+  </si>
+  <si>
+    <t>业务订单</t>
+  </si>
+  <si>
+    <t>财务订单</t>
+  </si>
+  <si>
+    <t>权限角色接口</t>
+  </si>
+  <si>
+    <t>权限角色</t>
+  </si>
+  <si>
+    <t>获取用户角色</t>
+  </si>
+  <si>
+    <t>获取跟单员列表</t>
+  </si>
+  <si>
+    <t>开放使用</t>
+  </si>
+  <si>
+    <t>库存接口</t>
+  </si>
+  <si>
+    <t>申请库存</t>
+  </si>
+  <si>
+    <t>更名为 客户商城接口</t>
+  </si>
+  <si>
+    <t>商家商城接口</t>
+  </si>
+  <si>
+    <t>原 商城接口 的拆分</t>
+  </si>
+  <si>
+    <t>运费模板</t>
+  </si>
+  <si>
+    <t>销售点</t>
+  </si>
+  <si>
+    <t>商品编辑</t>
+  </si>
+  <si>
+    <t>所有接口</t>
+  </si>
+  <si>
+    <t>订单接口</t>
+  </si>
+  <si>
+    <t>业务订单(业务)</t>
+  </si>
+  <si>
+    <t>业务订单(业务管理)</t>
+  </si>
+  <si>
+    <t>财务订单(财务)</t>
+  </si>
+  <si>
+    <t>财务订单(财务管理)</t>
+  </si>
+  <si>
+    <t>后勤订单(跟单)</t>
+  </si>
+  <si>
+    <t>已废弃</t>
+  </si>
+  <si>
+    <t>需求接口</t>
+  </si>
+  <si>
+    <t>激活登陆</t>
+  </si>
+  <si>
+    <t>用户登录</t>
+  </si>
+  <si>
+    <t>添加 企业名称 返回</t>
+  </si>
+  <si>
+    <t>查找分类下的商品</t>
+  </si>
+  <si>
+    <t>搜索商品</t>
+  </si>
+  <si>
+    <t>所有 筛选订单 接口</t>
+  </si>
+  <si>
+    <t>新增 订单总价 返回</t>
+  </si>
+  <si>
+    <t>客户订单</t>
+  </si>
+  <si>
+    <t>生成订单</t>
+  </si>
+  <si>
+    <t>添加 商品不存在 返回值</t>
+  </si>
+  <si>
+    <t>养殖信息（新）</t>
+  </si>
+  <si>
+    <t>获取养殖信息详情（新）</t>
+  </si>
+  <si>
+    <t>客户资源</t>
+  </si>
+  <si>
+    <t>获取养殖信息列表</t>
+  </si>
+  <si>
+    <t>添加 json 返回</t>
+  </si>
+  <si>
+    <t>获取养殖信息详情</t>
+  </si>
+  <si>
+    <t>所有订单筛选接口</t>
+  </si>
+  <si>
+    <t>更新 订单状态</t>
+  </si>
+  <si>
+    <t>添加 角色代码 返回值</t>
+  </si>
+  <si>
+    <t>客户跟进</t>
+  </si>
+  <si>
+    <t>添加 跟进标题 参数</t>
+  </si>
+  <si>
+    <t>查看库存</t>
+  </si>
+  <si>
+    <t>查看销售点库存</t>
+  </si>
+  <si>
+    <t>添加 返回参数</t>
+  </si>
+  <si>
+    <t>查看当前销售点库存</t>
+  </si>
+  <si>
+    <t>查看总部销售点库存</t>
+  </si>
+  <si>
+    <t>盘点库存</t>
+  </si>
+  <si>
+    <t>获取库存盘点记录</t>
+  </si>
+  <si>
+    <t>库存进仓</t>
+  </si>
+  <si>
+    <t>新建进仓单</t>
+  </si>
+  <si>
+    <t>获取进仓单列表</t>
+  </si>
+  <si>
+    <t>获取进仓单详情</t>
+  </si>
+  <si>
+    <t>申请人获取库存申请列表</t>
+  </si>
+  <si>
+    <t>审批人获取库存审批列表</t>
+  </si>
+  <si>
+    <t>添加 商品图片 返回</t>
+  </si>
+  <si>
+    <t>库存盘点</t>
+  </si>
+  <si>
+    <t>添加 时间段筛选 条件</t>
+  </si>
+  <si>
+    <t>获取库存盘点记录详情</t>
+  </si>
+  <si>
+    <t>添加 筛选 条件</t>
+  </si>
+  <si>
+    <t>搜索库存商品</t>
+  </si>
+  <si>
+    <t>添加 付款状态 返回</t>
+  </si>
+  <si>
+    <t>跟单订单(跟单)</t>
+  </si>
+  <si>
+    <t>获取成员的客户列表</t>
+  </si>
+  <si>
+    <t>添加 用户头像 返回</t>
+  </si>
+  <si>
+    <t>筛选客户列表</t>
+  </si>
+  <si>
+    <t>此接口与(获取成员的客户列表)合并</t>
+  </si>
+  <si>
+    <t>获取总部销售点Id</t>
+  </si>
+  <si>
+    <t>添加 商品编码 返回</t>
+  </si>
+  <si>
+    <t>添加 商品编码、申请单号 返回</t>
+  </si>
+  <si>
+    <t>组织管理接口</t>
+  </si>
+  <si>
+    <t>组织管理</t>
+  </si>
+  <si>
+    <t>获取可分配的角色列表</t>
+  </si>
+  <si>
+    <t>获取商品列表</t>
+  </si>
+  <si>
+    <t>添加 商品规格Id 返回</t>
+  </si>
+  <si>
+    <t>参数 recordList 替换为 incomeList</t>
+  </si>
+  <si>
+    <t>添加 总部当前库存 返回</t>
+  </si>
+  <si>
+    <t>添加 该账号已存在 状态码</t>
+  </si>
+  <si>
+    <t>添加 商品分类 返回</t>
+  </si>
+  <si>
+    <t>登陆激活</t>
+  </si>
+  <si>
+    <t>用户登录(浏览器)</t>
+  </si>
+  <si>
+    <t>获取当前销售点进仓单列表</t>
+  </si>
+  <si>
+    <t>获取当销售点前库存盘点记录</t>
+  </si>
+  <si>
+    <t>更新 branchId(销售点Id) 为选填</t>
+  </si>
+  <si>
+    <t>添加 头像 返回</t>
+  </si>
+  <si>
+    <t>团队接口</t>
+  </si>
+  <si>
+    <t>团队</t>
+  </si>
+  <si>
+    <t>获取团队内所有成员</t>
+  </si>
+  <si>
+    <t>获取库存审批详情</t>
+  </si>
+  <si>
+    <t>获取当前部门下的成员列表</t>
+  </si>
+  <si>
+    <t>获取当前部门下的客户列表</t>
+  </si>
+  <si>
+    <t>新增 status(审批状态) 筛选</t>
+  </si>
+  <si>
+    <t>获取申请详情</t>
+  </si>
+  <si>
+    <t>新增 status(审批状态) 返回</t>
+  </si>
+  <si>
     <t>获取库存等级</t>
   </si>
   <si>
-    <t>新增接口</t>
-  </si>
-  <si>
-    <t>已验证</t>
-  </si>
-  <si>
-    <t>个人信息接口</t>
-  </si>
-  <si>
-    <t>个人信息</t>
-  </si>
-  <si>
     <t>获取头像图片</t>
   </si>
   <si>
-    <t>获取客户列表</t>
-  </si>
-  <si>
     <t>新增 是否建账 筛选</t>
   </si>
   <si>
-    <t>订单接口</t>
-  </si>
-  <si>
-    <t>财务订单(财务管理)</t>
-  </si>
-  <si>
     <t>财务A审批通过</t>
   </si>
   <si>
@@ -95,412 +542,7 @@
     <t>所有标签</t>
   </si>
   <si>
-    <t>所有接口</t>
-  </si>
-  <si>
     <t>更新订单状态</t>
-  </si>
-  <si>
-    <t>获取默认收货地址</t>
-  </si>
-  <si>
-    <t>新添加的接口</t>
-  </si>
-  <si>
-    <t>经营单位</t>
-  </si>
-  <si>
-    <t>获取经营单位详情</t>
-  </si>
-  <si>
-    <t>添加返回客户头像</t>
-  </si>
-  <si>
-    <t>移交客户</t>
-  </si>
-  <si>
-    <t>业务员移交客户</t>
-  </si>
-  <si>
-    <t>跟单员移交客户</t>
-  </si>
-  <si>
-    <t>养殖信息(新)</t>
-  </si>
-  <si>
-    <t>所有的接口</t>
-  </si>
-  <si>
-    <t>hadAccount(账号状态)</t>
-  </si>
-  <si>
-    <t>商城接口</t>
-  </si>
-  <si>
-    <t>订单</t>
-  </si>
-  <si>
-    <t>获取运费模板列表(客户)</t>
-  </si>
-  <si>
-    <t>添加商家地址返回</t>
-  </si>
-  <si>
-    <t>客户建账</t>
-  </si>
-  <si>
-    <t>获取审批人列表</t>
-  </si>
-  <si>
-    <t>暂停使用</t>
-  </si>
-  <si>
-    <t>未建账</t>
-  </si>
-  <si>
-    <t>添加融云id返回</t>
-  </si>
-  <si>
-    <t>已建账</t>
-  </si>
-  <si>
-    <t>申请客户建账</t>
-  </si>
-  <si>
-    <t>添加 申请原因 参数</t>
-  </si>
-  <si>
-    <t>账号被冻结</t>
-  </si>
-  <si>
-    <t>冻结客户</t>
-  </si>
-  <si>
-    <t>解冻客户</t>
-  </si>
-  <si>
-    <t>获取客户详情</t>
-  </si>
-  <si>
-    <t>添加 账号冻结 状态</t>
-  </si>
-  <si>
-    <t>商品浏览</t>
-  </si>
-  <si>
-    <t>查看商品详情</t>
-  </si>
-  <si>
-    <t>添加 规格重量 返回</t>
-  </si>
-  <si>
-    <t>购物车</t>
-  </si>
-  <si>
-    <t>获取购物车商品列表</t>
-  </si>
-  <si>
-    <t>获取订单列表</t>
-  </si>
-  <si>
-    <t>添加 订单号 返回</t>
-  </si>
-  <si>
-    <t>获取订单详情</t>
-  </si>
-  <si>
-    <t>筛选订单</t>
-  </si>
-  <si>
-    <t>根据订单号获取订单列表</t>
-  </si>
-  <si>
-    <t>业务订单</t>
-  </si>
-  <si>
-    <t>财务订单</t>
-  </si>
-  <si>
-    <t>权限角色接口</t>
-  </si>
-  <si>
-    <t>权限角色</t>
-  </si>
-  <si>
-    <t>获取用户角色</t>
-  </si>
-  <si>
-    <t>获取跟单员列表</t>
-  </si>
-  <si>
-    <t>开放使用</t>
-  </si>
-  <si>
-    <t>库存接口</t>
-  </si>
-  <si>
-    <t>申请库存</t>
-  </si>
-  <si>
-    <t>更名为 客户商城接口</t>
-  </si>
-  <si>
-    <t>商家商城接口</t>
-  </si>
-  <si>
-    <t>原 商城接口 的拆分</t>
-  </si>
-  <si>
-    <t>运费模板</t>
-  </si>
-  <si>
-    <t>销售点</t>
-  </si>
-  <si>
-    <t>商品编辑</t>
-  </si>
-  <si>
-    <t>业务订单(业务)</t>
-  </si>
-  <si>
-    <t>业务订单(业务管理)</t>
-  </si>
-  <si>
-    <t>财务订单(财务)</t>
-  </si>
-  <si>
-    <t>后勤订单(跟单)</t>
-  </si>
-  <si>
-    <t>已废弃</t>
-  </si>
-  <si>
-    <t>需求接口</t>
-  </si>
-  <si>
-    <t>激活登陆</t>
-  </si>
-  <si>
-    <t>用户登录</t>
-  </si>
-  <si>
-    <t>添加 企业名称 返回</t>
-  </si>
-  <si>
-    <t>查找分类下的商品</t>
-  </si>
-  <si>
-    <t>搜索商品</t>
-  </si>
-  <si>
-    <t>所有 筛选订单 接口</t>
-  </si>
-  <si>
-    <t>新增 订单总价 返回</t>
-  </si>
-  <si>
-    <t>客户订单</t>
-  </si>
-  <si>
-    <t>生成订单</t>
-  </si>
-  <si>
-    <t>添加 商品不存在 返回值</t>
-  </si>
-  <si>
-    <t>养殖信息（新）</t>
-  </si>
-  <si>
-    <t>获取养殖信息详情（新）</t>
-  </si>
-  <si>
-    <t>客户资源</t>
-  </si>
-  <si>
-    <t>获取养殖信息列表</t>
-  </si>
-  <si>
-    <t>添加 json 返回</t>
-  </si>
-  <si>
-    <t>获取养殖信息详情</t>
-  </si>
-  <si>
-    <t>所有订单筛选接口</t>
-  </si>
-  <si>
-    <t>更新 订单状态</t>
-  </si>
-  <si>
-    <t>添加 角色代码 返回值</t>
-  </si>
-  <si>
-    <t>客户跟进</t>
-  </si>
-  <si>
-    <t>添加 跟进标题 参数</t>
-  </si>
-  <si>
-    <t>查看库存</t>
-  </si>
-  <si>
-    <t>查看销售点库存</t>
-  </si>
-  <si>
-    <t>添加 返回参数</t>
-  </si>
-  <si>
-    <t>查看当前销售点库存</t>
-  </si>
-  <si>
-    <t>查看总部销售点库存</t>
-  </si>
-  <si>
-    <t>盘点库存</t>
-  </si>
-  <si>
-    <t>获取库存盘点记录</t>
-  </si>
-  <si>
-    <t>库存进仓</t>
-  </si>
-  <si>
-    <t>新建进仓单</t>
-  </si>
-  <si>
-    <t>获取进仓单列表</t>
-  </si>
-  <si>
-    <t>获取进仓单详情</t>
-  </si>
-  <si>
-    <t>申请人获取库存申请列表</t>
-  </si>
-  <si>
-    <t>审批人获取库存审批列表</t>
-  </si>
-  <si>
-    <t>添加 商品图片 返回</t>
-  </si>
-  <si>
-    <t>库存盘点</t>
-  </si>
-  <si>
-    <t>添加 时间段筛选 条件</t>
-  </si>
-  <si>
-    <t>获取库存盘点记录详情</t>
-  </si>
-  <si>
-    <t>添加 筛选 条件</t>
-  </si>
-  <si>
-    <t>搜索库存商品</t>
-  </si>
-  <si>
-    <t>添加 付款状态 返回</t>
-  </si>
-  <si>
-    <t>跟单订单(跟单)</t>
-  </si>
-  <si>
-    <t>获取成员的客户列表</t>
-  </si>
-  <si>
-    <t>添加 用户头像 返回</t>
-  </si>
-  <si>
-    <t>筛选客户列表</t>
-  </si>
-  <si>
-    <t>此接口与(获取成员的客户列表)合并</t>
-  </si>
-  <si>
-    <t>获取总部销售点Id</t>
-  </si>
-  <si>
-    <t>添加 商品编码 返回</t>
-  </si>
-  <si>
-    <t>添加 商品编码、申请单号 返回</t>
-  </si>
-  <si>
-    <t>组织管理接口</t>
-  </si>
-  <si>
-    <t>组织管理</t>
-  </si>
-  <si>
-    <t>获取可分配的角色列表</t>
-  </si>
-  <si>
-    <t>获取商品列表</t>
-  </si>
-  <si>
-    <t>添加 商品规格Id 返回</t>
-  </si>
-  <si>
-    <t>参数 recordList 替换为 incomeList</t>
-  </si>
-  <si>
-    <t>添加 总部当前库存 返回</t>
-  </si>
-  <si>
-    <t>添加 该账号已存在 状态码</t>
-  </si>
-  <si>
-    <t>添加 商品分类 返回</t>
-  </si>
-  <si>
-    <t>登陆激活</t>
-  </si>
-  <si>
-    <t>用户登录(浏览器)</t>
-  </si>
-  <si>
-    <t>获取当前销售点进仓单列表</t>
-  </si>
-  <si>
-    <t>获取当销售点前库存盘点记录</t>
-  </si>
-  <si>
-    <t>更新 branchId(销售点Id) 为选填</t>
-  </si>
-  <si>
-    <t>添加 头像 返回</t>
-  </si>
-  <si>
-    <t>团队接口</t>
-  </si>
-  <si>
-    <t>团队</t>
-  </si>
-  <si>
-    <t>获取团队内所有成员</t>
-  </si>
-  <si>
-    <t>获取库存审批详情</t>
-  </si>
-  <si>
-    <t>获取当前部门下的成员列表</t>
-  </si>
-  <si>
-    <t>获取当前部门下的客户列表</t>
-  </si>
-  <si>
-    <t>申请协助</t>
-  </si>
-  <si>
-    <t>协助者获取协助列表</t>
-  </si>
-  <si>
-    <t>新增 status(审批状态) 筛选</t>
-  </si>
-  <si>
-    <t>获取申请详情</t>
-  </si>
-  <si>
-    <t>新增 status(审批状态) 返回</t>
   </si>
 </sst>
 </file>
@@ -508,8 +550,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -552,43 +594,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -597,53 +602,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,7 +626,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -667,7 +649,67 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,7 +766,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,49 +826,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,6 +850,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -808,13 +880,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,13 +904,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,31 +916,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,30 +952,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -956,6 +983,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -972,28 +1025,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1005,10 +1047,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1017,127 +1059,127 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1147,7 +1189,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1191,6 +1233,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1544,18 +1595,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
     <col min="4" max="4" width="26.875" customWidth="1"/>
-    <col min="5" max="5" width="38.125" customWidth="1"/>
+    <col min="5" max="5" width="55.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" spans="1:6">
@@ -1580,7 +1631,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>43033</v>
+        <v>43036</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1601,13 +1652,13 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>9</v>
@@ -1619,10 +1670,10 @@
     <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>14</v>
@@ -1635,134 +1686,278 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="13"/>
+      <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F6" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="13"/>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="F10" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F12" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="15"/>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="15"/>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="13"/>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="F14" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="15"/>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="D15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="13"/>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="13"/>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="13"/>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="F15" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="15"/>
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="15"/>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="F16" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="16"/>
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="17"/>
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="18"/>
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A2:A19"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1773,10 +1968,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I151"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
     <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150:F151"/>
+      <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1813,16 +2008,16 @@
         <v>42994</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>10</v>
@@ -1831,16 +2026,16 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>10</v>
@@ -1851,16 +2046,16 @@
         <v>42996</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>10</v>
@@ -1869,16 +2064,16 @@
     <row r="8" spans="1:6">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>10</v>
@@ -1887,16 +2082,16 @@
     <row r="9" spans="1:6">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>10</v>
@@ -1905,16 +2100,16 @@
     <row r="10" spans="1:6">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>10</v>
@@ -1925,22 +2120,22 @@
         <v>42998</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1948,16 +2143,16 @@
     <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>10</v>
@@ -1969,22 +2164,22 @@
     <row r="17" spans="1:9">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="11">
@@ -1994,22 +2189,22 @@
     <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="11">
@@ -2019,22 +2214,22 @@
     <row r="19" spans="1:9">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="11">
@@ -2044,16 +2239,16 @@
     <row r="20" spans="1:6">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>10</v>
@@ -2062,16 +2257,16 @@
     <row r="21" spans="1:6">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>10</v>
@@ -2080,16 +2275,16 @@
     <row r="22" spans="1:6">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>10</v>
@@ -2100,16 +2295,16 @@
         <v>42999</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>10</v>
@@ -2118,16 +2313,16 @@
     <row r="28" spans="1:6">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>10</v>
@@ -2136,16 +2331,16 @@
     <row r="29" spans="1:6">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>10</v>
@@ -2154,16 +2349,16 @@
     <row r="30" spans="1:6">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>10</v>
@@ -2172,16 +2367,16 @@
     <row r="31" spans="1:6">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>10</v>
@@ -2190,16 +2385,16 @@
     <row r="32" spans="1:6">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>10</v>
@@ -2208,16 +2403,16 @@
     <row r="33" spans="1:6">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="E33" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>10</v>
@@ -2226,16 +2421,16 @@
     <row r="34" spans="1:6">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>10</v>
@@ -2246,16 +2441,16 @@
         <v>42999</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>10</v>
@@ -2264,16 +2459,16 @@
     <row r="39" spans="1:6">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>10</v>
@@ -2282,16 +2477,16 @@
     <row r="40" spans="1:6">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>10</v>
@@ -2300,16 +2495,16 @@
     <row r="41" spans="1:6">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>10</v>
@@ -2320,12 +2515,12 @@
         <v>43005</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>10</v>
@@ -2334,12 +2529,12 @@
     <row r="44" spans="1:6">
       <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>10</v>
@@ -2348,14 +2543,14 @@
     <row r="45" spans="1:6">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>10</v>
@@ -2364,14 +2559,14 @@
     <row r="46" spans="1:6">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>10</v>
@@ -2380,14 +2575,14 @@
     <row r="47" spans="1:6">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>10</v>
@@ -2396,16 +2591,16 @@
     <row r="48" spans="1:6">
       <c r="A48" s="2"/>
       <c r="B48" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>10</v>
@@ -2414,12 +2609,12 @@
     <row r="49" spans="1:6">
       <c r="A49" s="2"/>
       <c r="B49" s="3" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>10</v>
@@ -2428,16 +2623,16 @@
     <row r="50" spans="1:6">
       <c r="A50" s="2"/>
       <c r="B50" s="3" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>10</v>
@@ -2446,16 +2641,16 @@
     <row r="51" spans="1:6">
       <c r="A51" s="2"/>
       <c r="B51" s="3" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="C51" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="E51" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>10</v>
@@ -2464,16 +2659,16 @@
     <row r="52" spans="1:6">
       <c r="A52" s="2"/>
       <c r="B52" s="3" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>10</v>
@@ -2482,16 +2677,16 @@
     <row r="53" spans="1:6">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>10</v>
@@ -2500,16 +2695,16 @@
     <row r="54" spans="1:6">
       <c r="A54" s="2"/>
       <c r="B54" s="3" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>10</v>
@@ -2518,32 +2713,32 @@
     <row r="55" spans="1:6">
       <c r="A55" s="2"/>
       <c r="B55" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="4" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2"/>
       <c r="B56" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>10</v>
@@ -2554,16 +2749,16 @@
         <v>43008</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>10</v>
@@ -2572,16 +2767,16 @@
     <row r="59" spans="1:6">
       <c r="A59" s="2"/>
       <c r="B59" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>10</v>
@@ -2590,16 +2785,16 @@
     <row r="60" spans="1:6">
       <c r="A60" s="2"/>
       <c r="B60" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>10</v>
@@ -2608,14 +2803,14 @@
     <row r="61" spans="1:6">
       <c r="A61" s="2"/>
       <c r="B61" s="3" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>10</v>
@@ -2626,16 +2821,16 @@
         <v>43015</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>10</v>
@@ -2644,16 +2839,16 @@
     <row r="64" spans="1:6">
       <c r="A64" s="2"/>
       <c r="B64" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>10</v>
@@ -2662,16 +2857,16 @@
     <row r="65" spans="1:6">
       <c r="A65" s="2"/>
       <c r="B65" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>10</v>
@@ -2680,16 +2875,16 @@
     <row r="66" spans="1:6">
       <c r="A66" s="2"/>
       <c r="B66" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>10</v>
@@ -2698,14 +2893,14 @@
     <row r="67" spans="1:6">
       <c r="A67" s="2"/>
       <c r="B67" s="3" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>10</v>
@@ -2716,16 +2911,16 @@
         <v>43018</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>10</v>
@@ -2734,16 +2929,16 @@
     <row r="70" spans="1:6">
       <c r="A70" s="2"/>
       <c r="B70" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>10</v>
@@ -2754,16 +2949,16 @@
         <v>43018</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>10</v>
@@ -2772,16 +2967,16 @@
     <row r="73" spans="1:6">
       <c r="A73" s="2"/>
       <c r="B73" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>10</v>
@@ -2790,16 +2985,16 @@
     <row r="74" spans="1:6">
       <c r="A74" s="2"/>
       <c r="B74" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>10</v>
@@ -2808,16 +3003,16 @@
     <row r="75" spans="1:6">
       <c r="A75" s="2"/>
       <c r="B75" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>10</v>
@@ -2826,16 +3021,16 @@
     <row r="76" spans="1:6">
       <c r="A76" s="2"/>
       <c r="B76" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>10</v>
@@ -2844,16 +3039,16 @@
     <row r="77" spans="1:6">
       <c r="A77" s="2"/>
       <c r="B77" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>10</v>
@@ -2862,16 +3057,16 @@
     <row r="78" spans="1:6">
       <c r="A78" s="2"/>
       <c r="B78" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>10</v>
@@ -2880,16 +3075,16 @@
     <row r="79" spans="1:6">
       <c r="A79" s="2"/>
       <c r="B79" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>10</v>
@@ -2898,16 +3093,16 @@
     <row r="80" spans="1:6">
       <c r="A80" s="2"/>
       <c r="B80" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>10</v>
@@ -2916,16 +3111,16 @@
     <row r="81" spans="1:6">
       <c r="A81" s="2"/>
       <c r="B81" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>10</v>
@@ -2936,16 +3131,16 @@
         <v>43020</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>10</v>
@@ -2954,16 +3149,16 @@
     <row r="84" spans="1:6">
       <c r="A84" s="2"/>
       <c r="B84" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>10</v>
@@ -2972,16 +3167,16 @@
     <row r="85" spans="1:6">
       <c r="A85" s="2"/>
       <c r="B85" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>10</v>
@@ -2990,16 +3185,16 @@
     <row r="86" spans="1:6">
       <c r="A86" s="2"/>
       <c r="B86" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>10</v>
@@ -3008,16 +3203,16 @@
     <row r="87" spans="1:6">
       <c r="A87" s="2"/>
       <c r="B87" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>10</v>
@@ -3026,16 +3221,16 @@
     <row r="88" spans="1:6">
       <c r="A88" s="2"/>
       <c r="B88" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>10</v>
@@ -3044,16 +3239,16 @@
     <row r="89" spans="1:6">
       <c r="A89" s="2"/>
       <c r="B89" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>10</v>
@@ -3062,16 +3257,16 @@
     <row r="90" spans="1:6">
       <c r="A90" s="2"/>
       <c r="B90" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>10</v>
@@ -3080,16 +3275,16 @@
     <row r="91" spans="1:6">
       <c r="A91" s="2"/>
       <c r="B91" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>10</v>
@@ -3098,16 +3293,16 @@
     <row r="92" spans="1:6">
       <c r="A92" s="2"/>
       <c r="B92" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>10</v>
@@ -3116,16 +3311,16 @@
     <row r="93" spans="1:6">
       <c r="A93" s="2"/>
       <c r="B93" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>10</v>
@@ -3134,16 +3329,16 @@
     <row r="94" spans="1:6">
       <c r="A94" s="2"/>
       <c r="B94" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>10</v>
@@ -3152,16 +3347,16 @@
     <row r="95" spans="1:6">
       <c r="A95" s="2"/>
       <c r="B95" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>10</v>
@@ -3170,16 +3365,16 @@
     <row r="96" spans="1:6">
       <c r="A96" s="2"/>
       <c r="B96" s="3" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>10</v>
@@ -3188,16 +3383,16 @@
     <row r="97" spans="1:6">
       <c r="A97" s="2"/>
       <c r="B97" s="3" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>10</v>
@@ -3206,16 +3401,16 @@
     <row r="98" spans="1:6">
       <c r="A98" s="2"/>
       <c r="B98" s="3" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>10</v>
@@ -3224,16 +3419,16 @@
     <row r="99" spans="1:6">
       <c r="A99" s="2"/>
       <c r="B99" s="3" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>10</v>
@@ -3242,16 +3437,16 @@
     <row r="100" spans="1:6">
       <c r="A100" s="2"/>
       <c r="B100" s="3" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>10</v>
@@ -3260,16 +3455,16 @@
     <row r="101" spans="1:6">
       <c r="A101" s="2"/>
       <c r="B101" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>10</v>
@@ -3278,16 +3473,16 @@
     <row r="102" spans="1:6">
       <c r="A102" s="2"/>
       <c r="B102" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>10</v>
@@ -3296,16 +3491,16 @@
     <row r="103" spans="1:6">
       <c r="A103" s="2"/>
       <c r="B103" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>10</v>
@@ -3314,16 +3509,16 @@
     <row r="104" spans="1:6">
       <c r="A104" s="2"/>
       <c r="B104" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>10</v>
@@ -3332,16 +3527,16 @@
     <row r="105" spans="1:6">
       <c r="A105" s="2"/>
       <c r="B105" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>10</v>
@@ -3352,16 +3547,16 @@
         <v>43021</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>10</v>
@@ -3370,16 +3565,16 @@
     <row r="108" spans="1:6">
       <c r="A108" s="2"/>
       <c r="B108" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>10</v>
@@ -3388,16 +3583,16 @@
     <row r="109" spans="1:6">
       <c r="A109" s="2"/>
       <c r="B109" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>10</v>
@@ -3406,16 +3601,16 @@
     <row r="110" spans="1:6">
       <c r="A110" s="2"/>
       <c r="B110" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>10</v>
@@ -3424,16 +3619,16 @@
     <row r="111" spans="1:6">
       <c r="A111" s="2"/>
       <c r="B111" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>10</v>
@@ -3442,16 +3637,16 @@
     <row r="112" spans="1:6">
       <c r="A112" s="2"/>
       <c r="B112" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>10</v>
@@ -3460,16 +3655,16 @@
     <row r="113" spans="1:6">
       <c r="A113" s="2"/>
       <c r="B113" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>10</v>
@@ -3478,16 +3673,16 @@
     <row r="114" spans="1:6">
       <c r="A114" s="13"/>
       <c r="B114" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F114" s="5"/>
     </row>
@@ -3496,16 +3691,16 @@
         <v>43022</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>10</v>
@@ -3514,16 +3709,16 @@
     <row r="117" spans="1:6">
       <c r="A117" s="2"/>
       <c r="B117" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>10</v>
@@ -3532,16 +3727,16 @@
     <row r="118" spans="1:6">
       <c r="A118" s="2"/>
       <c r="B118" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>10</v>
@@ -3552,16 +3747,16 @@
         <v>43024</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>10</v>
@@ -3570,16 +3765,16 @@
     <row r="121" spans="1:6">
       <c r="A121" s="2"/>
       <c r="B121" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>10</v>
@@ -3588,16 +3783,16 @@
     <row r="122" spans="1:6">
       <c r="A122" s="2"/>
       <c r="B122" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>10</v>
@@ -3606,16 +3801,16 @@
     <row r="123" spans="1:6">
       <c r="A123" s="2"/>
       <c r="B123" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>10</v>
@@ -3624,16 +3819,16 @@
     <row r="124" spans="1:6">
       <c r="A124" s="2"/>
       <c r="B124" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>10</v>
@@ -3642,16 +3837,16 @@
     <row r="125" spans="1:6">
       <c r="A125" s="2"/>
       <c r="B125" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>10</v>
@@ -3660,16 +3855,16 @@
     <row r="126" spans="1:6">
       <c r="A126" s="2"/>
       <c r="B126" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>10</v>
@@ -3678,16 +3873,16 @@
     <row r="127" spans="1:6">
       <c r="A127" s="2"/>
       <c r="B127" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>10</v>
@@ -3698,16 +3893,16 @@
         <v>43025</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>10</v>
@@ -3716,16 +3911,16 @@
     <row r="130" spans="1:6">
       <c r="A130" s="2"/>
       <c r="B130" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>10</v>
@@ -3734,16 +3929,16 @@
     <row r="131" spans="1:6">
       <c r="A131" s="2"/>
       <c r="B131" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>10</v>
@@ -3752,16 +3947,16 @@
     <row r="132" spans="1:6">
       <c r="A132" s="2"/>
       <c r="B132" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>10</v>
@@ -3770,16 +3965,16 @@
     <row r="133" spans="1:6">
       <c r="A133" s="2"/>
       <c r="B133" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>10</v>
@@ -3788,16 +3983,16 @@
     <row r="134" spans="1:6">
       <c r="A134" s="2"/>
       <c r="B134" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>10</v>
@@ -3806,16 +4001,16 @@
     <row r="135" spans="1:6">
       <c r="A135" s="2"/>
       <c r="B135" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>10</v>
@@ -3824,16 +4019,16 @@
     <row r="136" spans="1:6">
       <c r="A136" s="2"/>
       <c r="B136" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>10</v>
@@ -3842,16 +4037,16 @@
     <row r="137" spans="1:6">
       <c r="A137" s="2"/>
       <c r="B137" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>10</v>
@@ -3860,16 +4055,16 @@
     <row r="138" spans="1:6">
       <c r="A138" s="2"/>
       <c r="B138" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>10</v>
@@ -3878,16 +4073,16 @@
     <row r="139" spans="1:6">
       <c r="A139" s="2"/>
       <c r="B139" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>10</v>
@@ -3896,16 +4091,16 @@
     <row r="140" spans="1:6">
       <c r="A140" s="2"/>
       <c r="B140" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>10</v>
@@ -3914,16 +4109,16 @@
     <row r="141" spans="1:6">
       <c r="A141" s="2"/>
       <c r="B141" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>10</v>
@@ -3932,16 +4127,16 @@
     <row r="142" spans="1:6">
       <c r="A142" s="2"/>
       <c r="B142" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>10</v>
@@ -3952,16 +4147,16 @@
         <v>43025</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>10</v>
@@ -3972,16 +4167,16 @@
         <v>43028</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F146" s="5" t="s">
         <v>10</v>
@@ -3990,16 +4185,16 @@
     <row r="147" spans="1:6">
       <c r="A147" s="2"/>
       <c r="B147" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>10</v>
@@ -4008,16 +4203,16 @@
     <row r="148" spans="1:6">
       <c r="A148" s="2"/>
       <c r="B148" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>10</v>
@@ -4028,16 +4223,16 @@
         <v>43032</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F150" s="5" t="s">
         <v>10</v>
@@ -4046,23 +4241,205 @@
     <row r="151" spans="1:6">
       <c r="A151" s="2"/>
       <c r="B151" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F151" s="5" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="2">
+        <v>43033</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="2"/>
+      <c r="B154" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="2"/>
+      <c r="B155" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="13"/>
+      <c r="B156" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="13"/>
+      <c r="B157" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="13"/>
+      <c r="B158" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="13"/>
+      <c r="B159" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="13"/>
+      <c r="B160" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="13"/>
+      <c r="B161" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="2"/>
+      <c r="B162" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
@@ -4085,6 +4462,7 @@
     <mergeCell ref="A129:A142"/>
     <mergeCell ref="A146:A148"/>
     <mergeCell ref="A150:A151"/>
+    <mergeCell ref="A153:A162"/>
     <mergeCell ref="G15:I16"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求分析/接口文档/客户/更新说明.xlsx
+++ b/需求分析/接口文档/客户/更新说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22290" windowHeight="9135"/>
+    <workbookView windowWidth="22050" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="当前更新" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193">
   <si>
     <t>更新时间</t>
   </si>
@@ -41,24 +41,489 @@
     <t>通用申请</t>
   </si>
   <si>
+    <t>获取申请详情</t>
+  </si>
+  <si>
+    <t>新增 能否审批 返回</t>
+  </si>
+  <si>
+    <t>已验证</t>
+  </si>
+  <si>
+    <t>接口测试数据登陆:http://112.74.32.113/backend/pages/index/index.html</t>
+  </si>
+  <si>
+    <t>客户接口</t>
+  </si>
+  <si>
+    <t>个人信息</t>
+  </si>
+  <si>
+    <t>获取默认收货地址</t>
+  </si>
+  <si>
+    <t>新添加的接口</t>
+  </si>
+  <si>
+    <t>个人信息接口</t>
+  </si>
+  <si>
+    <t>经营单位</t>
+  </si>
+  <si>
+    <t>获取经营单位详情</t>
+  </si>
+  <si>
+    <t>新增接口</t>
+  </si>
+  <si>
+    <t>客户信息</t>
+  </si>
+  <si>
+    <t>获取客户列表</t>
+  </si>
+  <si>
+    <t>添加返回客户头像</t>
+  </si>
+  <si>
+    <t>移交客户</t>
+  </si>
+  <si>
+    <t>业务员移交客户</t>
+  </si>
+  <si>
+    <t>跟单员移交客户</t>
+  </si>
+  <si>
+    <t>养殖信息(新)</t>
+  </si>
+  <si>
+    <t>所有的接口</t>
+  </si>
+  <si>
+    <t>hadAccount(账号状态)</t>
+  </si>
+  <si>
+    <t>商城接口</t>
+  </si>
+  <si>
+    <t>订单</t>
+  </si>
+  <si>
+    <t>获取运费模板列表(客户)</t>
+  </si>
+  <si>
+    <t>添加商家地址返回</t>
+  </si>
+  <si>
+    <t>客户建账</t>
+  </si>
+  <si>
+    <t>获取审批人列表</t>
+  </si>
+  <si>
+    <t>暂停使用</t>
+  </si>
+  <si>
+    <t>未建账</t>
+  </si>
+  <si>
+    <t>添加融云id返回</t>
+  </si>
+  <si>
+    <t>已建账</t>
+  </si>
+  <si>
+    <t>申请客户建账</t>
+  </si>
+  <si>
+    <t>添加 申请原因 参数</t>
+  </si>
+  <si>
+    <t>账号被冻结</t>
+  </si>
+  <si>
+    <t>冻结客户</t>
+  </si>
+  <si>
+    <t>解冻客户</t>
+  </si>
+  <si>
+    <t>获取客户详情</t>
+  </si>
+  <si>
+    <t>添加 账号冻结 状态</t>
+  </si>
+  <si>
+    <t>商品浏览</t>
+  </si>
+  <si>
+    <t>查看商品详情</t>
+  </si>
+  <si>
+    <t>添加 规格重量 返回</t>
+  </si>
+  <si>
+    <t>购物车</t>
+  </si>
+  <si>
+    <t>获取购物车商品列表</t>
+  </si>
+  <si>
+    <t>获取订单列表</t>
+  </si>
+  <si>
+    <t>添加 订单号 返回</t>
+  </si>
+  <si>
+    <t>获取订单详情</t>
+  </si>
+  <si>
+    <t>筛选订单</t>
+  </si>
+  <si>
+    <t>根据订单号获取订单列表</t>
+  </si>
+  <si>
+    <t>业务订单</t>
+  </si>
+  <si>
+    <t>财务订单</t>
+  </si>
+  <si>
+    <t>权限角色接口</t>
+  </si>
+  <si>
+    <t>权限角色</t>
+  </si>
+  <si>
+    <t>获取用户角色</t>
+  </si>
+  <si>
+    <t>获取跟单员列表</t>
+  </si>
+  <si>
+    <t>开放使用</t>
+  </si>
+  <si>
+    <t>库存接口</t>
+  </si>
+  <si>
+    <t>申请库存</t>
+  </si>
+  <si>
+    <t>更名为 客户商城接口</t>
+  </si>
+  <si>
+    <t>商家商城接口</t>
+  </si>
+  <si>
+    <t>原 商城接口 的拆分</t>
+  </si>
+  <si>
+    <t>运费模板</t>
+  </si>
+  <si>
+    <t>销售点</t>
+  </si>
+  <si>
+    <t>商品编辑</t>
+  </si>
+  <si>
+    <t>所有接口</t>
+  </si>
+  <si>
+    <t>订单接口</t>
+  </si>
+  <si>
+    <t>业务订单(业务)</t>
+  </si>
+  <si>
+    <t>业务订单(业务管理)</t>
+  </si>
+  <si>
+    <t>财务订单(财务)</t>
+  </si>
+  <si>
+    <t>财务订单(财务管理)</t>
+  </si>
+  <si>
+    <t>后勤订单(跟单)</t>
+  </si>
+  <si>
+    <t>已废弃</t>
+  </si>
+  <si>
+    <t>需求接口</t>
+  </si>
+  <si>
+    <t>激活登陆</t>
+  </si>
+  <si>
+    <t>用户登录</t>
+  </si>
+  <si>
+    <t>添加 企业名称 返回</t>
+  </si>
+  <si>
+    <t>查找分类下的商品</t>
+  </si>
+  <si>
+    <t>搜索商品</t>
+  </si>
+  <si>
+    <t>所有 筛选订单 接口</t>
+  </si>
+  <si>
+    <t>新增 订单总价 返回</t>
+  </si>
+  <si>
+    <t>客户订单</t>
+  </si>
+  <si>
+    <t>生成订单</t>
+  </si>
+  <si>
+    <t>添加 商品不存在 返回值</t>
+  </si>
+  <si>
+    <t>养殖信息（新）</t>
+  </si>
+  <si>
+    <t>获取养殖信息详情（新）</t>
+  </si>
+  <si>
+    <t>客户资源</t>
+  </si>
+  <si>
+    <t>获取养殖信息列表</t>
+  </si>
+  <si>
+    <t>添加 json 返回</t>
+  </si>
+  <si>
+    <t>获取养殖信息详情</t>
+  </si>
+  <si>
+    <t>所有订单筛选接口</t>
+  </si>
+  <si>
+    <t>更新 订单状态</t>
+  </si>
+  <si>
+    <t>添加 角色代码 返回值</t>
+  </si>
+  <si>
+    <t>客户跟进</t>
+  </si>
+  <si>
+    <t>添加 跟进标题 参数</t>
+  </si>
+  <si>
+    <t>查看库存</t>
+  </si>
+  <si>
+    <t>查看销售点库存</t>
+  </si>
+  <si>
+    <t>添加 返回参数</t>
+  </si>
+  <si>
+    <t>查看当前销售点库存</t>
+  </si>
+  <si>
+    <t>查看总部销售点库存</t>
+  </si>
+  <si>
+    <t>盘点库存</t>
+  </si>
+  <si>
+    <t>获取库存盘点记录</t>
+  </si>
+  <si>
+    <t>库存进仓</t>
+  </si>
+  <si>
+    <t>新建进仓单</t>
+  </si>
+  <si>
+    <t>获取进仓单列表</t>
+  </si>
+  <si>
+    <t>获取进仓单详情</t>
+  </si>
+  <si>
+    <t>申请人获取库存申请列表</t>
+  </si>
+  <si>
+    <t>审批人获取库存审批列表</t>
+  </si>
+  <si>
+    <t>添加 商品图片 返回</t>
+  </si>
+  <si>
+    <t>库存盘点</t>
+  </si>
+  <si>
+    <t>添加 时间段筛选 条件</t>
+  </si>
+  <si>
+    <t>获取库存盘点记录详情</t>
+  </si>
+  <si>
+    <t>添加 筛选 条件</t>
+  </si>
+  <si>
+    <t>搜索库存商品</t>
+  </si>
+  <si>
+    <t>添加 付款状态 返回</t>
+  </si>
+  <si>
+    <t>跟单订单(跟单)</t>
+  </si>
+  <si>
+    <t>获取成员的客户列表</t>
+  </si>
+  <si>
+    <t>添加 用户头像 返回</t>
+  </si>
+  <si>
+    <t>筛选客户列表</t>
+  </si>
+  <si>
+    <t>此接口与(获取成员的客户列表)合并</t>
+  </si>
+  <si>
+    <t>获取总部销售点Id</t>
+  </si>
+  <si>
+    <t>添加 商品编码 返回</t>
+  </si>
+  <si>
+    <t>添加 商品编码、申请单号 返回</t>
+  </si>
+  <si>
+    <t>组织管理接口</t>
+  </si>
+  <si>
+    <t>组织管理</t>
+  </si>
+  <si>
+    <t>获取可分配的角色列表</t>
+  </si>
+  <si>
+    <t>获取商品列表</t>
+  </si>
+  <si>
+    <t>添加 商品规格Id 返回</t>
+  </si>
+  <si>
+    <t>参数 recordList 替换为 incomeList</t>
+  </si>
+  <si>
+    <t>添加 总部当前库存 返回</t>
+  </si>
+  <si>
+    <t>添加 该账号已存在 状态码</t>
+  </si>
+  <si>
+    <t>添加 商品分类 返回</t>
+  </si>
+  <si>
+    <t>登陆激活</t>
+  </si>
+  <si>
+    <t>用户登录(浏览器)</t>
+  </si>
+  <si>
+    <t>获取当前销售点进仓单列表</t>
+  </si>
+  <si>
+    <t>获取当销售点前库存盘点记录</t>
+  </si>
+  <si>
+    <t>更新 branchId(销售点Id) 为选填</t>
+  </si>
+  <si>
+    <t>添加 头像 返回</t>
+  </si>
+  <si>
+    <t>团队接口</t>
+  </si>
+  <si>
+    <t>团队</t>
+  </si>
+  <si>
+    <t>获取团队内所有成员</t>
+  </si>
+  <si>
+    <t>获取库存审批详情</t>
+  </si>
+  <si>
+    <t>获取当前部门下的成员列表</t>
+  </si>
+  <si>
+    <t>获取当前部门下的客户列表</t>
+  </si>
+  <si>
+    <t>申请协助</t>
+  </si>
+  <si>
+    <t>协助者获取协助列表</t>
+  </si>
+  <si>
+    <t>新增 status(审批状态) 筛选</t>
+  </si>
+  <si>
+    <t>新增 status(审批状态) 返回</t>
+  </si>
+  <si>
+    <t>获取库存等级</t>
+  </si>
+  <si>
+    <t>获取头像图片</t>
+  </si>
+  <si>
+    <t>新增 是否建账 筛选</t>
+  </si>
+  <si>
+    <t>财务A审批通过</t>
+  </si>
+  <si>
+    <t>删除接口</t>
+  </si>
+  <si>
+    <t>财务A审批拒绝</t>
+  </si>
+  <si>
+    <t>财务B审批通过</t>
+  </si>
+  <si>
+    <t>财务B审批拒绝</t>
+  </si>
+  <si>
+    <t>财务审核通过</t>
+  </si>
+  <si>
+    <t>财务审核不通过</t>
+  </si>
+  <si>
+    <t>所有标签</t>
+  </si>
+  <si>
+    <t>更新订单状态</t>
+  </si>
+  <si>
     <t>发起人获取申请列表</t>
   </si>
   <si>
     <t>新增 applyResult(申请状态) 筛选</t>
   </si>
   <si>
-    <t>已验证</t>
-  </si>
-  <si>
     <t>审批人获取申请列表</t>
   </si>
   <si>
-    <t>客户接口</t>
-  </si>
-  <si>
-    <t>客户建账</t>
-  </si>
-  <si>
     <t>审批员获取建账申请列表</t>
   </si>
   <si>
@@ -80,469 +545,55 @@
     <t>新增 已审批 筛选状态</t>
   </si>
   <si>
-    <t>申请协助</t>
-  </si>
-  <si>
     <t>申请者获取协助列表</t>
   </si>
   <si>
-    <t>协助者获取协助列表</t>
-  </si>
-  <si>
     <t>新增 createDate(申请时间) 返回</t>
   </si>
   <si>
-    <t>个人信息</t>
-  </si>
-  <si>
-    <t>获取默认收货地址</t>
-  </si>
-  <si>
-    <t>新添加的接口</t>
-  </si>
-  <si>
-    <t>个人信息接口</t>
-  </si>
-  <si>
-    <t>经营单位</t>
-  </si>
-  <si>
-    <t>获取经营单位详情</t>
-  </si>
-  <si>
-    <t>新增接口</t>
-  </si>
-  <si>
-    <t>客户信息</t>
-  </si>
-  <si>
-    <t>获取客户列表</t>
-  </si>
-  <si>
-    <t>添加返回客户头像</t>
-  </si>
-  <si>
-    <t>移交客户</t>
-  </si>
-  <si>
-    <t>业务员移交客户</t>
-  </si>
-  <si>
-    <t>跟单员移交客户</t>
-  </si>
-  <si>
-    <t>养殖信息(新)</t>
-  </si>
-  <si>
-    <t>所有的接口</t>
-  </si>
-  <si>
-    <t>hadAccount(账号状态)</t>
-  </si>
-  <si>
-    <t>商城接口</t>
-  </si>
-  <si>
-    <t>订单</t>
-  </si>
-  <si>
-    <t>获取运费模板列表(客户)</t>
-  </si>
-  <si>
-    <t>添加商家地址返回</t>
-  </si>
-  <si>
-    <t>获取审批人列表</t>
-  </si>
-  <si>
-    <t>暂停使用</t>
-  </si>
-  <si>
-    <t>未建账</t>
-  </si>
-  <si>
-    <t>添加融云id返回</t>
-  </si>
-  <si>
-    <t>已建账</t>
-  </si>
-  <si>
-    <t>申请客户建账</t>
-  </si>
-  <si>
-    <t>添加 申请原因 参数</t>
-  </si>
-  <si>
-    <t>账号被冻结</t>
-  </si>
-  <si>
-    <t>冻结客户</t>
-  </si>
-  <si>
-    <t>解冻客户</t>
-  </si>
-  <si>
-    <t>获取客户详情</t>
-  </si>
-  <si>
-    <t>添加 账号冻结 状态</t>
-  </si>
-  <si>
-    <t>商品浏览</t>
-  </si>
-  <si>
-    <t>查看商品详情</t>
-  </si>
-  <si>
-    <t>添加 规格重量 返回</t>
-  </si>
-  <si>
-    <t>购物车</t>
-  </si>
-  <si>
-    <t>获取购物车商品列表</t>
-  </si>
-  <si>
-    <t>获取订单列表</t>
-  </si>
-  <si>
-    <t>添加 订单号 返回</t>
-  </si>
-  <si>
-    <t>获取订单详情</t>
-  </si>
-  <si>
-    <t>筛选订单</t>
-  </si>
-  <si>
-    <t>根据订单号获取订单列表</t>
-  </si>
-  <si>
-    <t>业务订单</t>
-  </si>
-  <si>
-    <t>财务订单</t>
-  </si>
-  <si>
-    <t>权限角色接口</t>
-  </si>
-  <si>
-    <t>权限角色</t>
-  </si>
-  <si>
-    <t>获取用户角色</t>
-  </si>
-  <si>
-    <t>获取跟单员列表</t>
-  </si>
-  <si>
-    <t>开放使用</t>
-  </si>
-  <si>
-    <t>库存接口</t>
-  </si>
-  <si>
-    <t>申请库存</t>
-  </si>
-  <si>
-    <t>更名为 客户商城接口</t>
-  </si>
-  <si>
-    <t>商家商城接口</t>
-  </si>
-  <si>
-    <t>原 商城接口 的拆分</t>
-  </si>
-  <si>
-    <t>运费模板</t>
-  </si>
-  <si>
-    <t>销售点</t>
-  </si>
-  <si>
-    <t>商品编辑</t>
-  </si>
-  <si>
-    <t>所有接口</t>
-  </si>
-  <si>
-    <t>订单接口</t>
-  </si>
-  <si>
-    <t>业务订单(业务)</t>
-  </si>
-  <si>
-    <t>业务订单(业务管理)</t>
-  </si>
-  <si>
-    <t>财务订单(财务)</t>
-  </si>
-  <si>
-    <t>财务订单(财务管理)</t>
-  </si>
-  <si>
-    <t>后勤订单(跟单)</t>
-  </si>
-  <si>
-    <t>已废弃</t>
-  </si>
-  <si>
-    <t>需求接口</t>
-  </si>
-  <si>
-    <t>激活登陆</t>
-  </si>
-  <si>
-    <t>用户登录</t>
-  </si>
-  <si>
-    <t>添加 企业名称 返回</t>
-  </si>
-  <si>
-    <t>查找分类下的商品</t>
-  </si>
-  <si>
-    <t>搜索商品</t>
-  </si>
-  <si>
-    <t>所有 筛选订单 接口</t>
-  </si>
-  <si>
-    <t>新增 订单总价 返回</t>
-  </si>
-  <si>
-    <t>客户订单</t>
-  </si>
-  <si>
-    <t>生成订单</t>
-  </si>
-  <si>
-    <t>添加 商品不存在 返回值</t>
-  </si>
-  <si>
-    <t>养殖信息（新）</t>
-  </si>
-  <si>
-    <t>获取养殖信息详情（新）</t>
-  </si>
-  <si>
-    <t>客户资源</t>
-  </si>
-  <si>
-    <t>获取养殖信息列表</t>
-  </si>
-  <si>
-    <t>添加 json 返回</t>
-  </si>
-  <si>
-    <t>获取养殖信息详情</t>
-  </si>
-  <si>
-    <t>所有订单筛选接口</t>
-  </si>
-  <si>
-    <t>更新 订单状态</t>
-  </si>
-  <si>
-    <t>添加 角色代码 返回值</t>
-  </si>
-  <si>
-    <t>客户跟进</t>
-  </si>
-  <si>
-    <t>添加 跟进标题 参数</t>
-  </si>
-  <si>
-    <t>查看库存</t>
-  </si>
-  <si>
-    <t>查看销售点库存</t>
-  </si>
-  <si>
-    <t>添加 返回参数</t>
-  </si>
-  <si>
-    <t>查看当前销售点库存</t>
-  </si>
-  <si>
-    <t>查看总部销售点库存</t>
-  </si>
-  <si>
-    <t>盘点库存</t>
-  </si>
-  <si>
-    <t>获取库存盘点记录</t>
-  </si>
-  <si>
-    <t>库存进仓</t>
-  </si>
-  <si>
-    <t>新建进仓单</t>
-  </si>
-  <si>
-    <t>获取进仓单列表</t>
-  </si>
-  <si>
-    <t>获取进仓单详情</t>
-  </si>
-  <si>
-    <t>申请人获取库存申请列表</t>
-  </si>
-  <si>
-    <t>审批人获取库存审批列表</t>
-  </si>
-  <si>
-    <t>添加 商品图片 返回</t>
-  </si>
-  <si>
-    <t>库存盘点</t>
-  </si>
-  <si>
-    <t>添加 时间段筛选 条件</t>
-  </si>
-  <si>
-    <t>获取库存盘点记录详情</t>
-  </si>
-  <si>
-    <t>添加 筛选 条件</t>
-  </si>
-  <si>
-    <t>搜索库存商品</t>
-  </si>
-  <si>
-    <t>添加 付款状态 返回</t>
-  </si>
-  <si>
-    <t>跟单订单(跟单)</t>
-  </si>
-  <si>
-    <t>获取成员的客户列表</t>
-  </si>
-  <si>
-    <t>添加 用户头像 返回</t>
-  </si>
-  <si>
-    <t>筛选客户列表</t>
-  </si>
-  <si>
-    <t>此接口与(获取成员的客户列表)合并</t>
-  </si>
-  <si>
-    <t>获取总部销售点Id</t>
-  </si>
-  <si>
-    <t>添加 商品编码 返回</t>
-  </si>
-  <si>
-    <t>添加 商品编码、申请单号 返回</t>
-  </si>
-  <si>
-    <t>组织管理接口</t>
-  </si>
-  <si>
-    <t>组织管理</t>
-  </si>
-  <si>
-    <t>获取可分配的角色列表</t>
-  </si>
-  <si>
-    <t>获取商品列表</t>
-  </si>
-  <si>
-    <t>添加 商品规格Id 返回</t>
-  </si>
-  <si>
-    <t>参数 recordList 替换为 incomeList</t>
-  </si>
-  <si>
-    <t>添加 总部当前库存 返回</t>
-  </si>
-  <si>
-    <t>添加 该账号已存在 状态码</t>
-  </si>
-  <si>
-    <t>添加 商品分类 返回</t>
-  </si>
-  <si>
-    <t>登陆激活</t>
-  </si>
-  <si>
-    <t>用户登录(浏览器)</t>
-  </si>
-  <si>
-    <t>获取当前销售点进仓单列表</t>
-  </si>
-  <si>
-    <t>获取当销售点前库存盘点记录</t>
-  </si>
-  <si>
-    <t>更新 branchId(销售点Id) 为选填</t>
-  </si>
-  <si>
-    <t>添加 头像 返回</t>
-  </si>
-  <si>
-    <t>团队接口</t>
-  </si>
-  <si>
-    <t>团队</t>
-  </si>
-  <si>
-    <t>获取团队内所有成员</t>
-  </si>
-  <si>
-    <t>获取库存审批详情</t>
-  </si>
-  <si>
-    <t>获取当前部门下的成员列表</t>
-  </si>
-  <si>
-    <t>获取当前部门下的客户列表</t>
-  </si>
-  <si>
-    <t>新增 status(审批状态) 筛选</t>
-  </si>
-  <si>
-    <t>获取申请详情</t>
-  </si>
-  <si>
-    <t>新增 status(审批状态) 返回</t>
-  </si>
-  <si>
-    <t>获取库存等级</t>
-  </si>
-  <si>
-    <t>获取头像图片</t>
-  </si>
-  <si>
-    <t>新增 是否建账 筛选</t>
-  </si>
-  <si>
-    <t>财务A审批通过</t>
-  </si>
-  <si>
-    <t>删除接口</t>
-  </si>
-  <si>
-    <t>财务A审批拒绝</t>
-  </si>
-  <si>
-    <t>财务B审批通过</t>
-  </si>
-  <si>
-    <t>财务B审批拒绝</t>
-  </si>
-  <si>
-    <t>财务审核通过</t>
-  </si>
-  <si>
-    <t>财务审核不通过</t>
-  </si>
-  <si>
-    <t>所有标签</t>
-  </si>
-  <si>
-    <t>更新订单状态</t>
+    <t>搜索客户</t>
+  </si>
+  <si>
+    <t>搜索当前部门下的客户</t>
+  </si>
+  <si>
+    <t>冻结成员</t>
+  </si>
+  <si>
+    <t>解冻成员</t>
+  </si>
+  <si>
+    <t>搜索部门成员</t>
+  </si>
+  <si>
+    <t>获取部门成员列表</t>
+  </si>
+  <si>
+    <t>获取建账申请详情</t>
+  </si>
+  <si>
+    <t>新增 头像 返回</t>
+  </si>
+  <si>
+    <t>新增 协助者头像 返回</t>
+  </si>
+  <si>
+    <t>新增 审批人头像 返回</t>
+  </si>
+  <si>
+    <t>新增 申请状态 返回</t>
+  </si>
+  <si>
+    <t>新增 部门名称 返回</t>
+  </si>
+  <si>
+    <t>调货申请</t>
+  </si>
+  <si>
+    <t>添加 签收时间 返回值</t>
+  </si>
+  <si>
+    <t>添加 部门 返回值</t>
   </si>
 </sst>
 </file>
@@ -551,8 +602,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -594,9 +645,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -608,9 +711,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,89 +761,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -772,7 +823,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,7 +913,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,121 +955,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,16 +1003,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -983,11 +1034,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1018,24 +1082,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1047,10 +1098,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1059,115 +1110,115 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1176,7 +1227,7 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1189,7 +1240,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1235,16 +1286,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="19" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1595,18 +1637,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="20.125" customWidth="1"/>
     <col min="4" max="4" width="26.875" customWidth="1"/>
-    <col min="5" max="5" width="55.875" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" spans="1:6">
@@ -1631,12 +1673,12 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>43036</v>
+        <v>43041</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1649,315 +1691,96 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
+    <row r="5" spans="8:12">
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="8:12">
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7" spans="8:12">
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="8:12">
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="8:12">
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="8:12">
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="8:12">
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="8:12">
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="15"/>
-      <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="15"/>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="15"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="15"/>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="16"/>
-      <c r="B17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="17"/>
-      <c r="B18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="18"/>
-      <c r="B19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A19"/>
+  <mergeCells count="2">
+    <mergeCell ref="H5:L12"/>
+    <mergeCell ref="A20:E23"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1968,10 +1791,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:I202"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="C163" sqref="C163"/>
+    <sheetView topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="A199" sqref="A199:F202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2011,13 +1834,13 @@
         <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>10</v>
@@ -2026,16 +1849,16 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>10</v>
@@ -2049,13 +1872,13 @@
         <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>10</v>
@@ -2067,13 +1890,13 @@
         <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>10</v>
@@ -2085,13 +1908,13 @@
         <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>10</v>
@@ -2103,13 +1926,13 @@
         <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>10</v>
@@ -2123,19 +1946,19 @@
         <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -2143,16 +1966,16 @@
     <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>10</v>
@@ -2167,19 +1990,19 @@
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="11">
@@ -2192,19 +2015,19 @@
         <v>12</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="11">
@@ -2217,19 +2040,19 @@
         <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="11">
@@ -2242,13 +2065,13 @@
         <v>12</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>10</v>
@@ -2260,13 +2083,13 @@
         <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>10</v>
@@ -2278,13 +2101,13 @@
         <v>12</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>10</v>
@@ -2295,16 +2118,16 @@
         <v>42999</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>10</v>
@@ -2313,16 +2136,16 @@
     <row r="28" spans="1:6">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>10</v>
@@ -2331,16 +2154,16 @@
     <row r="29" spans="1:6">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>10</v>
@@ -2349,16 +2172,16 @@
     <row r="30" spans="1:6">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>10</v>
@@ -2367,16 +2190,16 @@
     <row r="31" spans="1:6">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>10</v>
@@ -2385,16 +2208,16 @@
     <row r="32" spans="1:6">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>10</v>
@@ -2403,16 +2226,16 @@
     <row r="33" spans="1:6">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>10</v>
@@ -2421,16 +2244,16 @@
     <row r="34" spans="1:6">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>10</v>
@@ -2441,16 +2264,16 @@
         <v>42999</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>10</v>
@@ -2462,13 +2285,13 @@
         <v>12</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>10</v>
@@ -2480,13 +2303,13 @@
         <v>12</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>10</v>
@@ -2495,16 +2318,16 @@
     <row r="41" spans="1:6">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>10</v>
@@ -2515,12 +2338,12 @@
         <v>43005</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>10</v>
@@ -2529,12 +2352,12 @@
     <row r="44" spans="1:6">
       <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>10</v>
@@ -2543,14 +2366,14 @@
     <row r="45" spans="1:6">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>10</v>
@@ -2559,14 +2382,14 @@
     <row r="46" spans="1:6">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>10</v>
@@ -2575,14 +2398,14 @@
     <row r="47" spans="1:6">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>10</v>
@@ -2591,16 +2414,16 @@
     <row r="48" spans="1:6">
       <c r="A48" s="2"/>
       <c r="B48" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>10</v>
@@ -2609,12 +2432,12 @@
     <row r="49" spans="1:6">
       <c r="A49" s="2"/>
       <c r="B49" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>10</v>
@@ -2623,16 +2446,16 @@
     <row r="50" spans="1:6">
       <c r="A50" s="2"/>
       <c r="B50" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>10</v>
@@ -2641,16 +2464,16 @@
     <row r="51" spans="1:6">
       <c r="A51" s="2"/>
       <c r="B51" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>10</v>
@@ -2659,16 +2482,16 @@
     <row r="52" spans="1:6">
       <c r="A52" s="2"/>
       <c r="B52" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>10</v>
@@ -2677,16 +2500,16 @@
     <row r="53" spans="1:6">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>10</v>
@@ -2695,16 +2518,16 @@
     <row r="54" spans="1:6">
       <c r="A54" s="2"/>
       <c r="B54" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>10</v>
@@ -2713,32 +2536,32 @@
     <row r="55" spans="1:6">
       <c r="A55" s="2"/>
       <c r="B55" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2"/>
       <c r="B56" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>10</v>
@@ -2749,16 +2572,16 @@
         <v>43008</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>10</v>
@@ -2767,16 +2590,16 @@
     <row r="59" spans="1:6">
       <c r="A59" s="2"/>
       <c r="B59" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>10</v>
@@ -2785,16 +2608,16 @@
     <row r="60" spans="1:6">
       <c r="A60" s="2"/>
       <c r="B60" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>10</v>
@@ -2803,14 +2626,14 @@
     <row r="61" spans="1:6">
       <c r="A61" s="2"/>
       <c r="B61" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>10</v>
@@ -2821,16 +2644,16 @@
         <v>43015</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>10</v>
@@ -2842,13 +2665,13 @@
         <v>12</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>10</v>
@@ -2857,16 +2680,16 @@
     <row r="65" spans="1:6">
       <c r="A65" s="2"/>
       <c r="B65" s="3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>10</v>
@@ -2875,16 +2698,16 @@
     <row r="66" spans="1:6">
       <c r="A66" s="2"/>
       <c r="B66" s="3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>10</v>
@@ -2893,14 +2716,14 @@
     <row r="67" spans="1:6">
       <c r="A67" s="2"/>
       <c r="B67" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="4" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>10</v>
@@ -2911,16 +2734,16 @@
         <v>43018</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>10</v>
@@ -2932,13 +2755,13 @@
         <v>12</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>10</v>
@@ -2949,16 +2772,16 @@
         <v>43018</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>10</v>
@@ -2967,16 +2790,16 @@
     <row r="73" spans="1:6">
       <c r="A73" s="2"/>
       <c r="B73" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>10</v>
@@ -2985,16 +2808,16 @@
     <row r="74" spans="1:6">
       <c r="A74" s="2"/>
       <c r="B74" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>10</v>
@@ -3003,16 +2826,16 @@
     <row r="75" spans="1:6">
       <c r="A75" s="2"/>
       <c r="B75" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>10</v>
@@ -3021,16 +2844,16 @@
     <row r="76" spans="1:6">
       <c r="A76" s="2"/>
       <c r="B76" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>10</v>
@@ -3039,16 +2862,16 @@
     <row r="77" spans="1:6">
       <c r="A77" s="2"/>
       <c r="B77" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>10</v>
@@ -3057,16 +2880,16 @@
     <row r="78" spans="1:6">
       <c r="A78" s="2"/>
       <c r="B78" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>10</v>
@@ -3075,16 +2898,16 @@
     <row r="79" spans="1:6">
       <c r="A79" s="2"/>
       <c r="B79" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>10</v>
@@ -3093,16 +2916,16 @@
     <row r="80" spans="1:6">
       <c r="A80" s="2"/>
       <c r="B80" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>10</v>
@@ -3111,16 +2934,16 @@
     <row r="81" spans="1:6">
       <c r="A81" s="2"/>
       <c r="B81" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>10</v>
@@ -3131,16 +2954,16 @@
         <v>43020</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>10</v>
@@ -3149,16 +2972,16 @@
     <row r="84" spans="1:6">
       <c r="A84" s="2"/>
       <c r="B84" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>10</v>
@@ -3167,16 +2990,16 @@
     <row r="85" spans="1:6">
       <c r="A85" s="2"/>
       <c r="B85" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>10</v>
@@ -3185,16 +3008,16 @@
     <row r="86" spans="1:6">
       <c r="A86" s="2"/>
       <c r="B86" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>10</v>
@@ -3203,16 +3026,16 @@
     <row r="87" spans="1:6">
       <c r="A87" s="2"/>
       <c r="B87" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>10</v>
@@ -3221,16 +3044,16 @@
     <row r="88" spans="1:6">
       <c r="A88" s="2"/>
       <c r="B88" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>10</v>
@@ -3239,16 +3062,16 @@
     <row r="89" spans="1:6">
       <c r="A89" s="2"/>
       <c r="B89" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>10</v>
@@ -3257,16 +3080,16 @@
     <row r="90" spans="1:6">
       <c r="A90" s="2"/>
       <c r="B90" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>10</v>
@@ -3275,16 +3098,16 @@
     <row r="91" spans="1:6">
       <c r="A91" s="2"/>
       <c r="B91" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>10</v>
@@ -3293,16 +3116,16 @@
     <row r="92" spans="1:6">
       <c r="A92" s="2"/>
       <c r="B92" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>10</v>
@@ -3311,16 +3134,16 @@
     <row r="93" spans="1:6">
       <c r="A93" s="2"/>
       <c r="B93" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>10</v>
@@ -3329,16 +3152,16 @@
     <row r="94" spans="1:6">
       <c r="A94" s="2"/>
       <c r="B94" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>10</v>
@@ -3347,16 +3170,16 @@
     <row r="95" spans="1:6">
       <c r="A95" s="2"/>
       <c r="B95" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>10</v>
@@ -3365,16 +3188,16 @@
     <row r="96" spans="1:6">
       <c r="A96" s="2"/>
       <c r="B96" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>10</v>
@@ -3383,16 +3206,16 @@
     <row r="97" spans="1:6">
       <c r="A97" s="2"/>
       <c r="B97" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>10</v>
@@ -3401,16 +3224,16 @@
     <row r="98" spans="1:6">
       <c r="A98" s="2"/>
       <c r="B98" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>10</v>
@@ -3419,16 +3242,16 @@
     <row r="99" spans="1:6">
       <c r="A99" s="2"/>
       <c r="B99" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>10</v>
@@ -3437,16 +3260,16 @@
     <row r="100" spans="1:6">
       <c r="A100" s="2"/>
       <c r="B100" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>10</v>
@@ -3455,16 +3278,16 @@
     <row r="101" spans="1:6">
       <c r="A101" s="2"/>
       <c r="B101" s="3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>10</v>
@@ -3473,16 +3296,16 @@
     <row r="102" spans="1:6">
       <c r="A102" s="2"/>
       <c r="B102" s="3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>10</v>
@@ -3491,16 +3314,16 @@
     <row r="103" spans="1:6">
       <c r="A103" s="2"/>
       <c r="B103" s="3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>10</v>
@@ -3509,16 +3332,16 @@
     <row r="104" spans="1:6">
       <c r="A104" s="2"/>
       <c r="B104" s="3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>10</v>
@@ -3530,13 +3353,13 @@
         <v>12</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>10</v>
@@ -3547,16 +3370,16 @@
         <v>43021</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>10</v>
@@ -3565,16 +3388,16 @@
     <row r="108" spans="1:6">
       <c r="A108" s="2"/>
       <c r="B108" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>10</v>
@@ -3583,16 +3406,16 @@
     <row r="109" spans="1:6">
       <c r="A109" s="2"/>
       <c r="B109" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>10</v>
@@ -3601,16 +3424,16 @@
     <row r="110" spans="1:6">
       <c r="A110" s="2"/>
       <c r="B110" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>10</v>
@@ -3619,16 +3442,16 @@
     <row r="111" spans="1:6">
       <c r="A111" s="2"/>
       <c r="B111" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>10</v>
@@ -3637,16 +3460,16 @@
     <row r="112" spans="1:6">
       <c r="A112" s="2"/>
       <c r="B112" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>10</v>
@@ -3655,16 +3478,16 @@
     <row r="113" spans="1:6">
       <c r="A113" s="2"/>
       <c r="B113" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>10</v>
@@ -3673,16 +3496,16 @@
     <row r="114" spans="1:6">
       <c r="A114" s="13"/>
       <c r="B114" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F114" s="5"/>
     </row>
@@ -3691,16 +3514,16 @@
         <v>43022</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>10</v>
@@ -3709,16 +3532,16 @@
     <row r="117" spans="1:6">
       <c r="A117" s="2"/>
       <c r="B117" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>10</v>
@@ -3727,16 +3550,16 @@
     <row r="118" spans="1:6">
       <c r="A118" s="2"/>
       <c r="B118" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>10</v>
@@ -3747,16 +3570,16 @@
         <v>43024</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>10</v>
@@ -3765,16 +3588,16 @@
     <row r="121" spans="1:6">
       <c r="A121" s="2"/>
       <c r="B121" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>10</v>
@@ -3783,16 +3606,16 @@
     <row r="122" spans="1:6">
       <c r="A122" s="2"/>
       <c r="B122" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>10</v>
@@ -3801,16 +3624,16 @@
     <row r="123" spans="1:6">
       <c r="A123" s="2"/>
       <c r="B123" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>10</v>
@@ -3819,16 +3642,16 @@
     <row r="124" spans="1:6">
       <c r="A124" s="2"/>
       <c r="B124" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>10</v>
@@ -3837,16 +3660,16 @@
     <row r="125" spans="1:6">
       <c r="A125" s="2"/>
       <c r="B125" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>10</v>
@@ -3855,16 +3678,16 @@
     <row r="126" spans="1:6">
       <c r="A126" s="2"/>
       <c r="B126" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>10</v>
@@ -3873,16 +3696,16 @@
     <row r="127" spans="1:6">
       <c r="A127" s="2"/>
       <c r="B127" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>10</v>
@@ -3896,13 +3719,13 @@
         <v>12</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>10</v>
@@ -3911,16 +3734,16 @@
     <row r="130" spans="1:6">
       <c r="A130" s="2"/>
       <c r="B130" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>10</v>
@@ -3929,16 +3752,16 @@
     <row r="131" spans="1:6">
       <c r="A131" s="2"/>
       <c r="B131" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>10</v>
@@ -3947,16 +3770,16 @@
     <row r="132" spans="1:6">
       <c r="A132" s="2"/>
       <c r="B132" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>10</v>
@@ -3965,16 +3788,16 @@
     <row r="133" spans="1:6">
       <c r="A133" s="2"/>
       <c r="B133" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>10</v>
@@ -3983,16 +3806,16 @@
     <row r="134" spans="1:6">
       <c r="A134" s="2"/>
       <c r="B134" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>10</v>
@@ -4001,16 +3824,16 @@
     <row r="135" spans="1:6">
       <c r="A135" s="2"/>
       <c r="B135" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>10</v>
@@ -4019,16 +3842,16 @@
     <row r="136" spans="1:6">
       <c r="A136" s="2"/>
       <c r="B136" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>10</v>
@@ -4037,16 +3860,16 @@
     <row r="137" spans="1:6">
       <c r="A137" s="2"/>
       <c r="B137" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>10</v>
@@ -4055,16 +3878,16 @@
     <row r="138" spans="1:6">
       <c r="A138" s="2"/>
       <c r="B138" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>10</v>
@@ -4073,16 +3896,16 @@
     <row r="139" spans="1:6">
       <c r="A139" s="2"/>
       <c r="B139" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>10</v>
@@ -4091,16 +3914,16 @@
     <row r="140" spans="1:6">
       <c r="A140" s="2"/>
       <c r="B140" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>10</v>
@@ -4112,13 +3935,13 @@
         <v>12</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>10</v>
@@ -4130,13 +3953,13 @@
         <v>12</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>10</v>
@@ -4147,16 +3970,16 @@
         <v>43025</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>10</v>
@@ -4167,16 +3990,16 @@
         <v>43028</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F146" s="5" t="s">
         <v>10</v>
@@ -4185,16 +4008,16 @@
     <row r="147" spans="1:6">
       <c r="A147" s="2"/>
       <c r="B147" s="3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>10</v>
@@ -4203,16 +4026,16 @@
     <row r="148" spans="1:6">
       <c r="A148" s="2"/>
       <c r="B148" s="3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>10</v>
@@ -4226,13 +4049,13 @@
         <v>12</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F150" s="5" t="s">
         <v>10</v>
@@ -4244,13 +4067,13 @@
         <v>12</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F151" s="5" t="s">
         <v>10</v>
@@ -4264,13 +4087,13 @@
         <v>12</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F153" s="5" t="s">
         <v>10</v>
@@ -4279,16 +4102,16 @@
     <row r="154" spans="1:6">
       <c r="A154" s="2"/>
       <c r="B154" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F154" s="5" t="s">
         <v>10</v>
@@ -4300,13 +4123,13 @@
         <v>12</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>10</v>
@@ -4315,16 +4138,16 @@
     <row r="156" spans="1:6">
       <c r="A156" s="13"/>
       <c r="B156" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>10</v>
@@ -4333,16 +4156,16 @@
     <row r="157" spans="1:6">
       <c r="A157" s="13"/>
       <c r="B157" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>10</v>
@@ -4351,16 +4174,16 @@
     <row r="158" spans="1:6">
       <c r="A158" s="13"/>
       <c r="B158" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F158" s="5" t="s">
         <v>10</v>
@@ -4369,16 +4192,16 @@
     <row r="159" spans="1:6">
       <c r="A159" s="13"/>
       <c r="B159" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F159" s="5" t="s">
         <v>10</v>
@@ -4387,16 +4210,16 @@
     <row r="160" spans="1:6">
       <c r="A160" s="13"/>
       <c r="B160" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F160" s="5" t="s">
         <v>10</v>
@@ -4405,16 +4228,16 @@
     <row r="161" spans="1:6">
       <c r="A161" s="13"/>
       <c r="B161" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>10</v>
@@ -4423,23 +4246,679 @@
     <row r="162" spans="1:6">
       <c r="A162" s="2"/>
       <c r="B162" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C162" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="2">
+        <v>43036</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="2"/>
+      <c r="B165" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="2"/>
+      <c r="B166" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="2"/>
+      <c r="B167" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="2"/>
+      <c r="B168" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="2"/>
+      <c r="B169" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="2"/>
+      <c r="B170" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="2"/>
+      <c r="B171" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="2"/>
+      <c r="B172" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E172" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D162" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E162" s="4" t="s">
+      <c r="F172" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="2"/>
+      <c r="B173" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="2"/>
+      <c r="B174" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E174" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="F162" s="5" t="s">
+      <c r="F174" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="2"/>
+      <c r="B175" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="2"/>
+      <c r="B176" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="2"/>
+      <c r="B177" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="2"/>
+      <c r="B178" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="2"/>
+      <c r="B179" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="2"/>
+      <c r="B180" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="2"/>
+      <c r="B181" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="2">
+        <v>43038</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="2"/>
+      <c r="B184" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="2"/>
+      <c r="B185" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="2"/>
+      <c r="B186" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="2"/>
+      <c r="B187" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F187" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="2"/>
+      <c r="B188" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="2"/>
+      <c r="B189" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="2"/>
+      <c r="B190" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="2"/>
+      <c r="B191" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="2"/>
+      <c r="B192" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="2"/>
+      <c r="B193" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="2"/>
+      <c r="B194" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="2">
+        <v>43039</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="2"/>
+      <c r="B197" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="2">
+        <v>43040</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="2"/>
+      <c r="B200" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="2"/>
+      <c r="B201" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="2"/>
+      <c r="B202" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F202" s="5" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="28">
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
@@ -4463,6 +4942,10 @@
     <mergeCell ref="A146:A148"/>
     <mergeCell ref="A150:A151"/>
     <mergeCell ref="A153:A162"/>
+    <mergeCell ref="A164:A181"/>
+    <mergeCell ref="A183:A194"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="A199:A202"/>
     <mergeCell ref="G15:I16"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求分析/接口文档/客户/更新说明.xlsx
+++ b/需求分析/接口文档/客户/更新说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22050" windowHeight="9120"/>
+    <workbookView windowWidth="21435" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="当前更新" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203">
   <si>
     <t>更新时间</t>
   </si>
@@ -35,565 +35,595 @@
     <t>状态</t>
   </si>
   <si>
+    <t>订单接口</t>
+  </si>
+  <si>
+    <t>所有标签</t>
+  </si>
+  <si>
+    <t>所有接口</t>
+  </si>
+  <si>
+    <t>新增 退货时间 返回</t>
+  </si>
+  <si>
+    <t>已验证</t>
+  </si>
+  <si>
+    <t>客户订单</t>
+  </si>
+  <si>
+    <t>生成订单</t>
+  </si>
+  <si>
+    <t>新增 收货地址 规则</t>
+  </si>
+  <si>
+    <t>跟单订单</t>
+  </si>
+  <si>
+    <t>筛选订单</t>
+  </si>
+  <si>
+    <t>新增接口</t>
+  </si>
+  <si>
+    <t>获取订单详情</t>
+  </si>
+  <si>
+    <t>财务订单</t>
+  </si>
+  <si>
+    <t>搜索订单(财务主管通用)</t>
+  </si>
+  <si>
+    <t>获取订单详情(财务主管通用)</t>
+  </si>
+  <si>
+    <t>业务订单</t>
+  </si>
+  <si>
+    <t>搜索订单(业务主管通用)</t>
+  </si>
+  <si>
+    <t>获取订单详情(业务主管通用)</t>
+  </si>
+  <si>
+    <t>需求接口</t>
+  </si>
+  <si>
+    <t>找回密码</t>
+  </si>
+  <si>
+    <t>验证密码</t>
+  </si>
+  <si>
+    <t>激活登陆</t>
+  </si>
+  <si>
+    <t>用户登出(浏览器)</t>
+  </si>
+  <si>
+    <t>接口测试数据登陆:http://112.74.32.113/backend/pages/index/index.html</t>
+  </si>
+  <si>
+    <t>客户接口</t>
+  </si>
+  <si>
+    <t>个人信息</t>
+  </si>
+  <si>
+    <t>获取默认收货地址</t>
+  </si>
+  <si>
+    <t>新添加的接口</t>
+  </si>
+  <si>
+    <t>个人信息接口</t>
+  </si>
+  <si>
+    <t>经营单位</t>
+  </si>
+  <si>
+    <t>获取经营单位详情</t>
+  </si>
+  <si>
+    <t>客户信息</t>
+  </si>
+  <si>
+    <t>获取客户列表</t>
+  </si>
+  <si>
+    <t>添加返回客户头像</t>
+  </si>
+  <si>
+    <t>移交客户</t>
+  </si>
+  <si>
+    <t>业务员移交客户</t>
+  </si>
+  <si>
+    <t>跟单员移交客户</t>
+  </si>
+  <si>
+    <t>养殖信息(新)</t>
+  </si>
+  <si>
+    <t>所有的接口</t>
+  </si>
+  <si>
+    <t>hadAccount(账号状态)</t>
+  </si>
+  <si>
+    <t>商城接口</t>
+  </si>
+  <si>
+    <t>订单</t>
+  </si>
+  <si>
+    <t>获取运费模板列表(客户)</t>
+  </si>
+  <si>
+    <t>添加商家地址返回</t>
+  </si>
+  <si>
+    <t>客户建账</t>
+  </si>
+  <si>
+    <t>获取审批人列表</t>
+  </si>
+  <si>
+    <t>暂停使用</t>
+  </si>
+  <si>
+    <t>未建账</t>
+  </si>
+  <si>
+    <t>添加融云id返回</t>
+  </si>
+  <si>
+    <t>已建账</t>
+  </si>
+  <si>
+    <t>申请客户建账</t>
+  </si>
+  <si>
+    <t>添加 申请原因 参数</t>
+  </si>
+  <si>
+    <t>账号被冻结</t>
+  </si>
+  <si>
+    <t>冻结客户</t>
+  </si>
+  <si>
+    <t>解冻客户</t>
+  </si>
+  <si>
+    <t>获取客户详情</t>
+  </si>
+  <si>
+    <t>添加 账号冻结 状态</t>
+  </si>
+  <si>
+    <t>商品浏览</t>
+  </si>
+  <si>
+    <t>查看商品详情</t>
+  </si>
+  <si>
+    <t>添加 规格重量 返回</t>
+  </si>
+  <si>
+    <t>购物车</t>
+  </si>
+  <si>
+    <t>获取购物车商品列表</t>
+  </si>
+  <si>
+    <t>获取订单列表</t>
+  </si>
+  <si>
+    <t>添加 订单号 返回</t>
+  </si>
+  <si>
+    <t>根据订单号获取订单列表</t>
+  </si>
+  <si>
+    <t>权限角色接口</t>
+  </si>
+  <si>
+    <t>权限角色</t>
+  </si>
+  <si>
+    <t>获取用户角色</t>
+  </si>
+  <si>
+    <t>获取跟单员列表</t>
+  </si>
+  <si>
+    <t>开放使用</t>
+  </si>
+  <si>
+    <t>库存接口</t>
+  </si>
+  <si>
+    <t>申请库存</t>
+  </si>
+  <si>
+    <t>更名为 客户商城接口</t>
+  </si>
+  <si>
+    <t>商家商城接口</t>
+  </si>
+  <si>
+    <t>原 商城接口 的拆分</t>
+  </si>
+  <si>
+    <t>运费模板</t>
+  </si>
+  <si>
+    <t>销售点</t>
+  </si>
+  <si>
+    <t>商品编辑</t>
+  </si>
+  <si>
+    <t>业务订单(业务)</t>
+  </si>
+  <si>
+    <t>业务订单(业务管理)</t>
+  </si>
+  <si>
+    <t>财务订单(财务)</t>
+  </si>
+  <si>
+    <t>财务订单(财务管理)</t>
+  </si>
+  <si>
+    <t>后勤订单(跟单)</t>
+  </si>
+  <si>
+    <t>已废弃</t>
+  </si>
+  <si>
+    <t>用户登录</t>
+  </si>
+  <si>
+    <t>添加 企业名称 返回</t>
+  </si>
+  <si>
+    <t>查找分类下的商品</t>
+  </si>
+  <si>
+    <t>搜索商品</t>
+  </si>
+  <si>
+    <t>所有 筛选订单 接口</t>
+  </si>
+  <si>
+    <t>新增 订单总价 返回</t>
+  </si>
+  <si>
+    <t>添加 商品不存在 返回值</t>
+  </si>
+  <si>
+    <t>养殖信息（新）</t>
+  </si>
+  <si>
+    <t>获取养殖信息详情（新）</t>
+  </si>
+  <si>
+    <t>客户资源</t>
+  </si>
+  <si>
+    <t>获取养殖信息列表</t>
+  </si>
+  <si>
+    <t>添加 json 返回</t>
+  </si>
+  <si>
+    <t>获取养殖信息详情</t>
+  </si>
+  <si>
+    <t>所有订单筛选接口</t>
+  </si>
+  <si>
+    <t>更新 订单状态</t>
+  </si>
+  <si>
+    <t>添加 角色代码 返回值</t>
+  </si>
+  <si>
+    <t>客户跟进</t>
+  </si>
+  <si>
+    <t>添加 跟进标题 参数</t>
+  </si>
+  <si>
+    <t>查看库存</t>
+  </si>
+  <si>
+    <t>查看销售点库存</t>
+  </si>
+  <si>
+    <t>添加 返回参数</t>
+  </si>
+  <si>
+    <t>查看当前销售点库存</t>
+  </si>
+  <si>
+    <t>查看总部销售点库存</t>
+  </si>
+  <si>
+    <t>盘点库存</t>
+  </si>
+  <si>
+    <t>获取库存盘点记录</t>
+  </si>
+  <si>
+    <t>库存进仓</t>
+  </si>
+  <si>
+    <t>新建进仓单</t>
+  </si>
+  <si>
+    <t>获取进仓单列表</t>
+  </si>
+  <si>
+    <t>获取进仓单详情</t>
+  </si>
+  <si>
+    <t>申请人获取库存申请列表</t>
+  </si>
+  <si>
+    <t>审批人获取库存审批列表</t>
+  </si>
+  <si>
+    <t>添加 商品图片 返回</t>
+  </si>
+  <si>
+    <t>库存盘点</t>
+  </si>
+  <si>
+    <t>添加 时间段筛选 条件</t>
+  </si>
+  <si>
+    <t>获取库存盘点记录详情</t>
+  </si>
+  <si>
+    <t>添加 筛选 条件</t>
+  </si>
+  <si>
+    <t>搜索库存商品</t>
+  </si>
+  <si>
+    <t>添加 付款状态 返回</t>
+  </si>
+  <si>
+    <t>跟单订单(跟单)</t>
+  </si>
+  <si>
+    <t>获取成员的客户列表</t>
+  </si>
+  <si>
+    <t>添加 用户头像 返回</t>
+  </si>
+  <si>
+    <t>筛选客户列表</t>
+  </si>
+  <si>
+    <t>此接口与(获取成员的客户列表)合并</t>
+  </si>
+  <si>
+    <t>获取总部销售点Id</t>
+  </si>
+  <si>
+    <t>添加 商品编码 返回</t>
+  </si>
+  <si>
+    <t>添加 商品编码、申请单号 返回</t>
+  </si>
+  <si>
+    <t>组织管理接口</t>
+  </si>
+  <si>
+    <t>组织管理</t>
+  </si>
+  <si>
+    <t>获取可分配的角色列表</t>
+  </si>
+  <si>
+    <t>获取商品列表</t>
+  </si>
+  <si>
+    <t>添加 商品规格Id 返回</t>
+  </si>
+  <si>
+    <t>参数 recordList 替换为 incomeList</t>
+  </si>
+  <si>
+    <t>添加 总部当前库存 返回</t>
+  </si>
+  <si>
+    <t>添加 该账号已存在 状态码</t>
+  </si>
+  <si>
+    <t>添加 商品分类 返回</t>
+  </si>
+  <si>
+    <t>登陆激活</t>
+  </si>
+  <si>
+    <t>用户登录(浏览器)</t>
+  </si>
+  <si>
+    <t>获取当前销售点进仓单列表</t>
+  </si>
+  <si>
+    <t>获取当销售点前库存盘点记录</t>
+  </si>
+  <si>
+    <t>更新 branchId(销售点Id) 为选填</t>
+  </si>
+  <si>
+    <t>添加 头像 返回</t>
+  </si>
+  <si>
+    <t>团队接口</t>
+  </si>
+  <si>
+    <t>团队</t>
+  </si>
+  <si>
+    <t>获取团队内所有成员</t>
+  </si>
+  <si>
+    <t>获取库存审批详情</t>
+  </si>
+  <si>
+    <t>获取当前部门下的成员列表</t>
+  </si>
+  <si>
+    <t>获取当前部门下的客户列表</t>
+  </si>
+  <si>
+    <t>申请协助</t>
+  </si>
+  <si>
+    <t>协助者获取协助列表</t>
+  </si>
+  <si>
+    <t>新增 status(审批状态) 筛选</t>
+  </si>
+  <si>
+    <t>获取申请详情</t>
+  </si>
+  <si>
+    <t>新增 status(审批状态) 返回</t>
+  </si>
+  <si>
+    <t>获取库存等级</t>
+  </si>
+  <si>
+    <t>获取头像图片</t>
+  </si>
+  <si>
+    <t>新增 是否建账 筛选</t>
+  </si>
+  <si>
+    <t>财务A审批通过</t>
+  </si>
+  <si>
+    <t>删除接口</t>
+  </si>
+  <si>
+    <t>财务A审批拒绝</t>
+  </si>
+  <si>
+    <t>财务B审批通过</t>
+  </si>
+  <si>
+    <t>财务B审批拒绝</t>
+  </si>
+  <si>
+    <t>财务审核通过</t>
+  </si>
+  <si>
+    <t>财务审核不通过</t>
+  </si>
+  <si>
+    <t>更新订单状态</t>
+  </si>
+  <si>
     <t>通用申请接口</t>
   </si>
   <si>
     <t>通用申请</t>
   </si>
   <si>
-    <t>获取申请详情</t>
+    <t>发起人获取申请列表</t>
+  </si>
+  <si>
+    <t>新增 applyResult(申请状态) 筛选</t>
+  </si>
+  <si>
+    <t>审批人获取申请列表</t>
+  </si>
+  <si>
+    <t>审批员获取建账申请列表</t>
+  </si>
+  <si>
+    <t>新增 requestStatus(申请状态)、userImage(头像) 返回</t>
+  </si>
+  <si>
+    <t>新增 分页 参数</t>
+  </si>
+  <si>
+    <t>新增 requestStatus(申请状态) 筛选</t>
+  </si>
+  <si>
+    <t>申请人获取建账申请列表</t>
+  </si>
+  <si>
+    <t>新增 userImage(头像) 返回</t>
+  </si>
+  <si>
+    <t>新增 已审批 筛选状态</t>
+  </si>
+  <si>
+    <t>申请者获取协助列表</t>
+  </si>
+  <si>
+    <t>新增 createDate(申请时间) 返回</t>
+  </si>
+  <si>
+    <t>搜索客户</t>
+  </si>
+  <si>
+    <t>搜索当前部门下的客户</t>
+  </si>
+  <si>
+    <t>冻结成员</t>
+  </si>
+  <si>
+    <t>解冻成员</t>
+  </si>
+  <si>
+    <t>搜索部门成员</t>
+  </si>
+  <si>
+    <t>获取部门成员列表</t>
+  </si>
+  <si>
+    <t>获取建账申请详情</t>
+  </si>
+  <si>
+    <t>新增 头像 返回</t>
+  </si>
+  <si>
+    <t>新增 协助者头像 返回</t>
+  </si>
+  <si>
+    <t>新增 审批人头像 返回</t>
+  </si>
+  <si>
+    <t>新增 申请状态 返回</t>
+  </si>
+  <si>
+    <t>新增 部门名称 返回</t>
+  </si>
+  <si>
+    <t>调货申请</t>
+  </si>
+  <si>
+    <t>添加 签收时间 返回值</t>
+  </si>
+  <si>
+    <t>添加 部门 返回值</t>
   </si>
   <si>
     <t>新增 能否审批 返回</t>
-  </si>
-  <si>
-    <t>已验证</t>
-  </si>
-  <si>
-    <t>接口测试数据登陆:http://112.74.32.113/backend/pages/index/index.html</t>
-  </si>
-  <si>
-    <t>客户接口</t>
-  </si>
-  <si>
-    <t>个人信息</t>
-  </si>
-  <si>
-    <t>获取默认收货地址</t>
-  </si>
-  <si>
-    <t>新添加的接口</t>
-  </si>
-  <si>
-    <t>个人信息接口</t>
-  </si>
-  <si>
-    <t>经营单位</t>
-  </si>
-  <si>
-    <t>获取经营单位详情</t>
-  </si>
-  <si>
-    <t>新增接口</t>
-  </si>
-  <si>
-    <t>客户信息</t>
-  </si>
-  <si>
-    <t>获取客户列表</t>
-  </si>
-  <si>
-    <t>添加返回客户头像</t>
-  </si>
-  <si>
-    <t>移交客户</t>
-  </si>
-  <si>
-    <t>业务员移交客户</t>
-  </si>
-  <si>
-    <t>跟单员移交客户</t>
-  </si>
-  <si>
-    <t>养殖信息(新)</t>
-  </si>
-  <si>
-    <t>所有的接口</t>
-  </si>
-  <si>
-    <t>hadAccount(账号状态)</t>
-  </si>
-  <si>
-    <t>商城接口</t>
-  </si>
-  <si>
-    <t>订单</t>
-  </si>
-  <si>
-    <t>获取运费模板列表(客户)</t>
-  </si>
-  <si>
-    <t>添加商家地址返回</t>
-  </si>
-  <si>
-    <t>客户建账</t>
-  </si>
-  <si>
-    <t>获取审批人列表</t>
-  </si>
-  <si>
-    <t>暂停使用</t>
-  </si>
-  <si>
-    <t>未建账</t>
-  </si>
-  <si>
-    <t>添加融云id返回</t>
-  </si>
-  <si>
-    <t>已建账</t>
-  </si>
-  <si>
-    <t>申请客户建账</t>
-  </si>
-  <si>
-    <t>添加 申请原因 参数</t>
-  </si>
-  <si>
-    <t>账号被冻结</t>
-  </si>
-  <si>
-    <t>冻结客户</t>
-  </si>
-  <si>
-    <t>解冻客户</t>
-  </si>
-  <si>
-    <t>获取客户详情</t>
-  </si>
-  <si>
-    <t>添加 账号冻结 状态</t>
-  </si>
-  <si>
-    <t>商品浏览</t>
-  </si>
-  <si>
-    <t>查看商品详情</t>
-  </si>
-  <si>
-    <t>添加 规格重量 返回</t>
-  </si>
-  <si>
-    <t>购物车</t>
-  </si>
-  <si>
-    <t>获取购物车商品列表</t>
-  </si>
-  <si>
-    <t>获取订单列表</t>
-  </si>
-  <si>
-    <t>添加 订单号 返回</t>
-  </si>
-  <si>
-    <t>获取订单详情</t>
-  </si>
-  <si>
-    <t>筛选订单</t>
-  </si>
-  <si>
-    <t>根据订单号获取订单列表</t>
-  </si>
-  <si>
-    <t>业务订单</t>
-  </si>
-  <si>
-    <t>财务订单</t>
-  </si>
-  <si>
-    <t>权限角色接口</t>
-  </si>
-  <si>
-    <t>权限角色</t>
-  </si>
-  <si>
-    <t>获取用户角色</t>
-  </si>
-  <si>
-    <t>获取跟单员列表</t>
-  </si>
-  <si>
-    <t>开放使用</t>
-  </si>
-  <si>
-    <t>库存接口</t>
-  </si>
-  <si>
-    <t>申请库存</t>
-  </si>
-  <si>
-    <t>更名为 客户商城接口</t>
-  </si>
-  <si>
-    <t>商家商城接口</t>
-  </si>
-  <si>
-    <t>原 商城接口 的拆分</t>
-  </si>
-  <si>
-    <t>运费模板</t>
-  </si>
-  <si>
-    <t>销售点</t>
-  </si>
-  <si>
-    <t>商品编辑</t>
-  </si>
-  <si>
-    <t>所有接口</t>
-  </si>
-  <si>
-    <t>订单接口</t>
-  </si>
-  <si>
-    <t>业务订单(业务)</t>
-  </si>
-  <si>
-    <t>业务订单(业务管理)</t>
-  </si>
-  <si>
-    <t>财务订单(财务)</t>
-  </si>
-  <si>
-    <t>财务订单(财务管理)</t>
-  </si>
-  <si>
-    <t>后勤订单(跟单)</t>
-  </si>
-  <si>
-    <t>已废弃</t>
-  </si>
-  <si>
-    <t>需求接口</t>
-  </si>
-  <si>
-    <t>激活登陆</t>
-  </si>
-  <si>
-    <t>用户登录</t>
-  </si>
-  <si>
-    <t>添加 企业名称 返回</t>
-  </si>
-  <si>
-    <t>查找分类下的商品</t>
-  </si>
-  <si>
-    <t>搜索商品</t>
-  </si>
-  <si>
-    <t>所有 筛选订单 接口</t>
-  </si>
-  <si>
-    <t>新增 订单总价 返回</t>
-  </si>
-  <si>
-    <t>客户订单</t>
-  </si>
-  <si>
-    <t>生成订单</t>
-  </si>
-  <si>
-    <t>添加 商品不存在 返回值</t>
-  </si>
-  <si>
-    <t>养殖信息（新）</t>
-  </si>
-  <si>
-    <t>获取养殖信息详情（新）</t>
-  </si>
-  <si>
-    <t>客户资源</t>
-  </si>
-  <si>
-    <t>获取养殖信息列表</t>
-  </si>
-  <si>
-    <t>添加 json 返回</t>
-  </si>
-  <si>
-    <t>获取养殖信息详情</t>
-  </si>
-  <si>
-    <t>所有订单筛选接口</t>
-  </si>
-  <si>
-    <t>更新 订单状态</t>
-  </si>
-  <si>
-    <t>添加 角色代码 返回值</t>
-  </si>
-  <si>
-    <t>客户跟进</t>
-  </si>
-  <si>
-    <t>添加 跟进标题 参数</t>
-  </si>
-  <si>
-    <t>查看库存</t>
-  </si>
-  <si>
-    <t>查看销售点库存</t>
-  </si>
-  <si>
-    <t>添加 返回参数</t>
-  </si>
-  <si>
-    <t>查看当前销售点库存</t>
-  </si>
-  <si>
-    <t>查看总部销售点库存</t>
-  </si>
-  <si>
-    <t>盘点库存</t>
-  </si>
-  <si>
-    <t>获取库存盘点记录</t>
-  </si>
-  <si>
-    <t>库存进仓</t>
-  </si>
-  <si>
-    <t>新建进仓单</t>
-  </si>
-  <si>
-    <t>获取进仓单列表</t>
-  </si>
-  <si>
-    <t>获取进仓单详情</t>
-  </si>
-  <si>
-    <t>申请人获取库存申请列表</t>
-  </si>
-  <si>
-    <t>审批人获取库存审批列表</t>
-  </si>
-  <si>
-    <t>添加 商品图片 返回</t>
-  </si>
-  <si>
-    <t>库存盘点</t>
-  </si>
-  <si>
-    <t>添加 时间段筛选 条件</t>
-  </si>
-  <si>
-    <t>获取库存盘点记录详情</t>
-  </si>
-  <si>
-    <t>添加 筛选 条件</t>
-  </si>
-  <si>
-    <t>搜索库存商品</t>
-  </si>
-  <si>
-    <t>添加 付款状态 返回</t>
-  </si>
-  <si>
-    <t>跟单订单(跟单)</t>
-  </si>
-  <si>
-    <t>获取成员的客户列表</t>
-  </si>
-  <si>
-    <t>添加 用户头像 返回</t>
-  </si>
-  <si>
-    <t>筛选客户列表</t>
-  </si>
-  <si>
-    <t>此接口与(获取成员的客户列表)合并</t>
-  </si>
-  <si>
-    <t>获取总部销售点Id</t>
-  </si>
-  <si>
-    <t>添加 商品编码 返回</t>
-  </si>
-  <si>
-    <t>添加 商品编码、申请单号 返回</t>
-  </si>
-  <si>
-    <t>组织管理接口</t>
-  </si>
-  <si>
-    <t>组织管理</t>
-  </si>
-  <si>
-    <t>获取可分配的角色列表</t>
-  </si>
-  <si>
-    <t>获取商品列表</t>
-  </si>
-  <si>
-    <t>添加 商品规格Id 返回</t>
-  </si>
-  <si>
-    <t>参数 recordList 替换为 incomeList</t>
-  </si>
-  <si>
-    <t>添加 总部当前库存 返回</t>
-  </si>
-  <si>
-    <t>添加 该账号已存在 状态码</t>
-  </si>
-  <si>
-    <t>添加 商品分类 返回</t>
-  </si>
-  <si>
-    <t>登陆激活</t>
-  </si>
-  <si>
-    <t>用户登录(浏览器)</t>
-  </si>
-  <si>
-    <t>获取当前销售点进仓单列表</t>
-  </si>
-  <si>
-    <t>获取当销售点前库存盘点记录</t>
-  </si>
-  <si>
-    <t>更新 branchId(销售点Id) 为选填</t>
-  </si>
-  <si>
-    <t>添加 头像 返回</t>
-  </si>
-  <si>
-    <t>团队接口</t>
-  </si>
-  <si>
-    <t>团队</t>
-  </si>
-  <si>
-    <t>获取团队内所有成员</t>
-  </si>
-  <si>
-    <t>获取库存审批详情</t>
-  </si>
-  <si>
-    <t>获取当前部门下的成员列表</t>
-  </si>
-  <si>
-    <t>获取当前部门下的客户列表</t>
-  </si>
-  <si>
-    <t>申请协助</t>
-  </si>
-  <si>
-    <t>协助者获取协助列表</t>
-  </si>
-  <si>
-    <t>新增 status(审批状态) 筛选</t>
-  </si>
-  <si>
-    <t>新增 status(审批状态) 返回</t>
-  </si>
-  <si>
-    <t>获取库存等级</t>
-  </si>
-  <si>
-    <t>获取头像图片</t>
-  </si>
-  <si>
-    <t>新增 是否建账 筛选</t>
-  </si>
-  <si>
-    <t>财务A审批通过</t>
-  </si>
-  <si>
-    <t>删除接口</t>
-  </si>
-  <si>
-    <t>财务A审批拒绝</t>
-  </si>
-  <si>
-    <t>财务B审批通过</t>
-  </si>
-  <si>
-    <t>财务B审批拒绝</t>
-  </si>
-  <si>
-    <t>财务审核通过</t>
-  </si>
-  <si>
-    <t>财务审核不通过</t>
-  </si>
-  <si>
-    <t>所有标签</t>
-  </si>
-  <si>
-    <t>更新订单状态</t>
-  </si>
-  <si>
-    <t>发起人获取申请列表</t>
-  </si>
-  <si>
-    <t>新增 applyResult(申请状态) 筛选</t>
-  </si>
-  <si>
-    <t>审批人获取申请列表</t>
-  </si>
-  <si>
-    <t>审批员获取建账申请列表</t>
-  </si>
-  <si>
-    <t>新增 requestStatus(申请状态)、userImage(头像) 返回</t>
-  </si>
-  <si>
-    <t>新增 分页 参数</t>
-  </si>
-  <si>
-    <t>新增 requestStatus(申请状态) 筛选</t>
-  </si>
-  <si>
-    <t>申请人获取建账申请列表</t>
-  </si>
-  <si>
-    <t>新增 userImage(头像) 返回</t>
-  </si>
-  <si>
-    <t>新增 已审批 筛选状态</t>
-  </si>
-  <si>
-    <t>申请者获取协助列表</t>
-  </si>
-  <si>
-    <t>新增 createDate(申请时间) 返回</t>
-  </si>
-  <si>
-    <t>搜索客户</t>
-  </si>
-  <si>
-    <t>搜索当前部门下的客户</t>
-  </si>
-  <si>
-    <t>冻结成员</t>
-  </si>
-  <si>
-    <t>解冻成员</t>
-  </si>
-  <si>
-    <t>搜索部门成员</t>
-  </si>
-  <si>
-    <t>获取部门成员列表</t>
-  </si>
-  <si>
-    <t>获取建账申请详情</t>
-  </si>
-  <si>
-    <t>新增 头像 返回</t>
-  </si>
-  <si>
-    <t>新增 协助者头像 返回</t>
-  </si>
-  <si>
-    <t>新增 审批人头像 返回</t>
-  </si>
-  <si>
-    <t>新增 申请状态 返回</t>
-  </si>
-  <si>
-    <t>新增 部门名称 返回</t>
-  </si>
-  <si>
-    <t>调货申请</t>
-  </si>
-  <si>
-    <t>添加 签收时间 返回值</t>
-  </si>
-  <si>
-    <t>添加 部门 返回值</t>
   </si>
 </sst>
 </file>
@@ -601,10 +631,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -644,6 +674,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -651,8 +728,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -666,23 +775,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,70 +790,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -823,7 +853,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,25 +895,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,19 +919,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,19 +955,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,19 +979,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,37 +1003,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,6 +1032,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1013,6 +1073,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1040,56 +1120,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1098,10 +1128,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1110,137 +1140,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1287,6 +1317,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1640,7 +1673,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1673,7 +1706,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>43041</v>
+        <v>43042</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1691,49 +1724,197 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="8:12">
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="8:12">
+    <row r="6" spans="1:12">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="8:12">
+    <row r="7" spans="1:12">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="8:12">
+    <row r="8" spans="1:12">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="8:12">
+    <row r="9" spans="1:12">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="8:12">
+    <row r="10" spans="1:12">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="8:12">
+    <row r="11" spans="1:12">
+      <c r="A11" s="16"/>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
@@ -1749,7 +1930,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="6" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1778,7 +1959,8 @@
       <c r="E23" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="A2:A11"/>
     <mergeCell ref="H5:L12"/>
     <mergeCell ref="A20:E23"/>
   </mergeCells>
@@ -1791,10 +1973,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I202"/>
+  <dimension ref="A1:I204"/>
   <sheetViews>
     <sheetView topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="A199" sqref="A199:F202"/>
+      <selection activeCell="A204" sqref="A204:F204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1831,16 +2013,16 @@
         <v>42994</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>10</v>
@@ -1849,16 +2031,16 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>10</v>
@@ -1869,16 +2051,16 @@
         <v>42996</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>10</v>
@@ -1887,16 +2069,16 @@
     <row r="8" spans="1:6">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>10</v>
@@ -1905,16 +2087,16 @@
     <row r="9" spans="1:6">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>10</v>
@@ -1923,16 +2105,16 @@
     <row r="10" spans="1:6">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>10</v>
@@ -1943,22 +2125,22 @@
         <v>42998</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1966,16 +2148,16 @@
     <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>10</v>
@@ -1987,22 +2169,22 @@
     <row r="17" spans="1:9">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="11">
@@ -2012,22 +2194,22 @@
     <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="11">
@@ -2037,22 +2219,22 @@
     <row r="19" spans="1:9">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="11">
@@ -2062,16 +2244,16 @@
     <row r="20" spans="1:6">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>10</v>
@@ -2080,16 +2262,16 @@
     <row r="21" spans="1:6">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>10</v>
@@ -2098,16 +2280,16 @@
     <row r="22" spans="1:6">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>10</v>
@@ -2118,16 +2300,16 @@
         <v>42999</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>10</v>
@@ -2136,16 +2318,16 @@
     <row r="28" spans="1:6">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>10</v>
@@ -2154,16 +2336,16 @@
     <row r="29" spans="1:6">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>10</v>
@@ -2172,16 +2354,16 @@
     <row r="30" spans="1:6">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>10</v>
@@ -2190,16 +2372,16 @@
     <row r="31" spans="1:6">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>10</v>
@@ -2208,16 +2390,16 @@
     <row r="32" spans="1:6">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>10</v>
@@ -2226,16 +2408,16 @@
     <row r="33" spans="1:6">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>10</v>
@@ -2244,16 +2426,16 @@
     <row r="34" spans="1:6">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>10</v>
@@ -2264,16 +2446,16 @@
         <v>42999</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>10</v>
@@ -2282,16 +2464,16 @@
     <row r="39" spans="1:6">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>10</v>
@@ -2300,16 +2482,16 @@
     <row r="40" spans="1:6">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>10</v>
@@ -2318,16 +2500,16 @@
     <row r="41" spans="1:6">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>10</v>
@@ -2338,12 +2520,12 @@
         <v>43005</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>10</v>
@@ -2352,12 +2534,12 @@
     <row r="44" spans="1:6">
       <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>10</v>
@@ -2366,14 +2548,14 @@
     <row r="45" spans="1:6">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>10</v>
@@ -2382,14 +2564,14 @@
     <row r="46" spans="1:6">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>10</v>
@@ -2398,14 +2580,14 @@
     <row r="47" spans="1:6">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>10</v>
@@ -2414,16 +2596,16 @@
     <row r="48" spans="1:6">
       <c r="A48" s="2"/>
       <c r="B48" s="3" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>10</v>
@@ -2432,12 +2614,12 @@
     <row r="49" spans="1:6">
       <c r="A49" s="2"/>
       <c r="B49" s="3" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>10</v>
@@ -2446,16 +2628,16 @@
     <row r="50" spans="1:6">
       <c r="A50" s="2"/>
       <c r="B50" s="3" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>10</v>
@@ -2464,16 +2646,16 @@
     <row r="51" spans="1:6">
       <c r="A51" s="2"/>
       <c r="B51" s="3" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>10</v>
@@ -2482,16 +2664,16 @@
     <row r="52" spans="1:6">
       <c r="A52" s="2"/>
       <c r="B52" s="3" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>10</v>
@@ -2500,16 +2682,16 @@
     <row r="53" spans="1:6">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>10</v>
@@ -2518,16 +2700,16 @@
     <row r="54" spans="1:6">
       <c r="A54" s="2"/>
       <c r="B54" s="3" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>10</v>
@@ -2536,32 +2718,32 @@
     <row r="55" spans="1:6">
       <c r="A55" s="2"/>
       <c r="B55" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="4" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2"/>
       <c r="B56" s="3" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>10</v>
@@ -2572,16 +2754,16 @@
         <v>43008</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>10</v>
@@ -2590,16 +2772,16 @@
     <row r="59" spans="1:6">
       <c r="A59" s="2"/>
       <c r="B59" s="3" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>10</v>
@@ -2608,16 +2790,16 @@
     <row r="60" spans="1:6">
       <c r="A60" s="2"/>
       <c r="B60" s="3" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>10</v>
@@ -2626,14 +2808,14 @@
     <row r="61" spans="1:6">
       <c r="A61" s="2"/>
       <c r="B61" s="3" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>10</v>
@@ -2644,16 +2826,16 @@
         <v>43015</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>10</v>
@@ -2662,16 +2844,16 @@
     <row r="64" spans="1:6">
       <c r="A64" s="2"/>
       <c r="B64" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>10</v>
@@ -2680,16 +2862,16 @@
     <row r="65" spans="1:6">
       <c r="A65" s="2"/>
       <c r="B65" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>10</v>
@@ -2698,16 +2880,16 @@
     <row r="66" spans="1:6">
       <c r="A66" s="2"/>
       <c r="B66" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>10</v>
@@ -2716,14 +2898,14 @@
     <row r="67" spans="1:6">
       <c r="A67" s="2"/>
       <c r="B67" s="3" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>10</v>
@@ -2734,16 +2916,16 @@
         <v>43018</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>10</v>
@@ -2752,16 +2934,16 @@
     <row r="70" spans="1:6">
       <c r="A70" s="2"/>
       <c r="B70" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>10</v>
@@ -2772,16 +2954,16 @@
         <v>43018</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>10</v>
@@ -2790,16 +2972,16 @@
     <row r="73" spans="1:6">
       <c r="A73" s="2"/>
       <c r="B73" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>10</v>
@@ -2808,16 +2990,16 @@
     <row r="74" spans="1:6">
       <c r="A74" s="2"/>
       <c r="B74" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>10</v>
@@ -2826,16 +3008,16 @@
     <row r="75" spans="1:6">
       <c r="A75" s="2"/>
       <c r="B75" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>10</v>
@@ -2844,16 +3026,16 @@
     <row r="76" spans="1:6">
       <c r="A76" s="2"/>
       <c r="B76" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>10</v>
@@ -2862,16 +3044,16 @@
     <row r="77" spans="1:6">
       <c r="A77" s="2"/>
       <c r="B77" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>10</v>
@@ -2880,16 +3062,16 @@
     <row r="78" spans="1:6">
       <c r="A78" s="2"/>
       <c r="B78" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>10</v>
@@ -2898,16 +3080,16 @@
     <row r="79" spans="1:6">
       <c r="A79" s="2"/>
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>10</v>
@@ -2916,16 +3098,16 @@
     <row r="80" spans="1:6">
       <c r="A80" s="2"/>
       <c r="B80" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>10</v>
@@ -2934,16 +3116,16 @@
     <row r="81" spans="1:6">
       <c r="A81" s="2"/>
       <c r="B81" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>10</v>
@@ -2954,16 +3136,16 @@
         <v>43020</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>10</v>
@@ -2972,16 +3154,16 @@
     <row r="84" spans="1:6">
       <c r="A84" s="2"/>
       <c r="B84" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>10</v>
@@ -2990,16 +3172,16 @@
     <row r="85" spans="1:6">
       <c r="A85" s="2"/>
       <c r="B85" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>10</v>
@@ -3008,16 +3190,16 @@
     <row r="86" spans="1:6">
       <c r="A86" s="2"/>
       <c r="B86" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>10</v>
@@ -3026,16 +3208,16 @@
     <row r="87" spans="1:6">
       <c r="A87" s="2"/>
       <c r="B87" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>10</v>
@@ -3044,16 +3226,16 @@
     <row r="88" spans="1:6">
       <c r="A88" s="2"/>
       <c r="B88" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>10</v>
@@ -3062,16 +3244,16 @@
     <row r="89" spans="1:6">
       <c r="A89" s="2"/>
       <c r="B89" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>10</v>
@@ -3080,16 +3262,16 @@
     <row r="90" spans="1:6">
       <c r="A90" s="2"/>
       <c r="B90" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>10</v>
@@ -3098,16 +3280,16 @@
     <row r="91" spans="1:6">
       <c r="A91" s="2"/>
       <c r="B91" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>10</v>
@@ -3116,16 +3298,16 @@
     <row r="92" spans="1:6">
       <c r="A92" s="2"/>
       <c r="B92" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>10</v>
@@ -3134,16 +3316,16 @@
     <row r="93" spans="1:6">
       <c r="A93" s="2"/>
       <c r="B93" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>10</v>
@@ -3152,16 +3334,16 @@
     <row r="94" spans="1:6">
       <c r="A94" s="2"/>
       <c r="B94" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>10</v>
@@ -3170,16 +3352,16 @@
     <row r="95" spans="1:6">
       <c r="A95" s="2"/>
       <c r="B95" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>10</v>
@@ -3188,16 +3370,16 @@
     <row r="96" spans="1:6">
       <c r="A96" s="2"/>
       <c r="B96" s="3" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>10</v>
@@ -3206,16 +3388,16 @@
     <row r="97" spans="1:6">
       <c r="A97" s="2"/>
       <c r="B97" s="3" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>10</v>
@@ -3224,16 +3406,16 @@
     <row r="98" spans="1:6">
       <c r="A98" s="2"/>
       <c r="B98" s="3" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>10</v>
@@ -3242,16 +3424,16 @@
     <row r="99" spans="1:6">
       <c r="A99" s="2"/>
       <c r="B99" s="3" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>10</v>
@@ -3260,16 +3442,16 @@
     <row r="100" spans="1:6">
       <c r="A100" s="2"/>
       <c r="B100" s="3" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>10</v>
@@ -3278,16 +3460,16 @@
     <row r="101" spans="1:6">
       <c r="A101" s="2"/>
       <c r="B101" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>10</v>
@@ -3296,16 +3478,16 @@
     <row r="102" spans="1:6">
       <c r="A102" s="2"/>
       <c r="B102" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>10</v>
@@ -3314,16 +3496,16 @@
     <row r="103" spans="1:6">
       <c r="A103" s="2"/>
       <c r="B103" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>10</v>
@@ -3332,16 +3514,16 @@
     <row r="104" spans="1:6">
       <c r="A104" s="2"/>
       <c r="B104" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>10</v>
@@ -3350,16 +3532,16 @@
     <row r="105" spans="1:6">
       <c r="A105" s="2"/>
       <c r="B105" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>10</v>
@@ -3370,16 +3552,16 @@
         <v>43021</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>10</v>
@@ -3388,16 +3570,16 @@
     <row r="108" spans="1:6">
       <c r="A108" s="2"/>
       <c r="B108" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>10</v>
@@ -3406,16 +3588,16 @@
     <row r="109" spans="1:6">
       <c r="A109" s="2"/>
       <c r="B109" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>10</v>
@@ -3424,16 +3606,16 @@
     <row r="110" spans="1:6">
       <c r="A110" s="2"/>
       <c r="B110" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>10</v>
@@ -3442,16 +3624,16 @@
     <row r="111" spans="1:6">
       <c r="A111" s="2"/>
       <c r="B111" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>10</v>
@@ -3460,16 +3642,16 @@
     <row r="112" spans="1:6">
       <c r="A112" s="2"/>
       <c r="B112" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>10</v>
@@ -3478,16 +3660,16 @@
     <row r="113" spans="1:6">
       <c r="A113" s="2"/>
       <c r="B113" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>10</v>
@@ -3496,16 +3678,16 @@
     <row r="114" spans="1:6">
       <c r="A114" s="13"/>
       <c r="B114" s="3" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F114" s="5"/>
     </row>
@@ -3514,16 +3696,16 @@
         <v>43022</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>10</v>
@@ -3532,16 +3714,16 @@
     <row r="117" spans="1:6">
       <c r="A117" s="2"/>
       <c r="B117" s="3" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>10</v>
@@ -3550,16 +3732,16 @@
     <row r="118" spans="1:6">
       <c r="A118" s="2"/>
       <c r="B118" s="3" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>10</v>
@@ -3570,16 +3752,16 @@
         <v>43024</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>10</v>
@@ -3588,16 +3770,16 @@
     <row r="121" spans="1:6">
       <c r="A121" s="2"/>
       <c r="B121" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>10</v>
@@ -3606,16 +3788,16 @@
     <row r="122" spans="1:6">
       <c r="A122" s="2"/>
       <c r="B122" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>10</v>
@@ -3624,16 +3806,16 @@
     <row r="123" spans="1:6">
       <c r="A123" s="2"/>
       <c r="B123" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>10</v>
@@ -3642,16 +3824,16 @@
     <row r="124" spans="1:6">
       <c r="A124" s="2"/>
       <c r="B124" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>10</v>
@@ -3660,16 +3842,16 @@
     <row r="125" spans="1:6">
       <c r="A125" s="2"/>
       <c r="B125" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>10</v>
@@ -3678,16 +3860,16 @@
     <row r="126" spans="1:6">
       <c r="A126" s="2"/>
       <c r="B126" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>10</v>
@@ -3696,16 +3878,16 @@
     <row r="127" spans="1:6">
       <c r="A127" s="2"/>
       <c r="B127" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>10</v>
@@ -3716,16 +3898,16 @@
         <v>43025</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>10</v>
@@ -3734,16 +3916,16 @@
     <row r="130" spans="1:6">
       <c r="A130" s="2"/>
       <c r="B130" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>10</v>
@@ -3752,16 +3934,16 @@
     <row r="131" spans="1:6">
       <c r="A131" s="2"/>
       <c r="B131" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>10</v>
@@ -3770,16 +3952,16 @@
     <row r="132" spans="1:6">
       <c r="A132" s="2"/>
       <c r="B132" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>10</v>
@@ -3788,16 +3970,16 @@
     <row r="133" spans="1:6">
       <c r="A133" s="2"/>
       <c r="B133" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>10</v>
@@ -3806,16 +3988,16 @@
     <row r="134" spans="1:6">
       <c r="A134" s="2"/>
       <c r="B134" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>10</v>
@@ -3824,16 +4006,16 @@
     <row r="135" spans="1:6">
       <c r="A135" s="2"/>
       <c r="B135" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>10</v>
@@ -3842,16 +4024,16 @@
     <row r="136" spans="1:6">
       <c r="A136" s="2"/>
       <c r="B136" s="3" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>10</v>
@@ -3860,16 +4042,16 @@
     <row r="137" spans="1:6">
       <c r="A137" s="2"/>
       <c r="B137" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>10</v>
@@ -3878,16 +4060,16 @@
     <row r="138" spans="1:6">
       <c r="A138" s="2"/>
       <c r="B138" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>10</v>
@@ -3896,16 +4078,16 @@
     <row r="139" spans="1:6">
       <c r="A139" s="2"/>
       <c r="B139" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>10</v>
@@ -3914,16 +4096,16 @@
     <row r="140" spans="1:6">
       <c r="A140" s="2"/>
       <c r="B140" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>10</v>
@@ -3932,16 +4114,16 @@
     <row r="141" spans="1:6">
       <c r="A141" s="2"/>
       <c r="B141" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>10</v>
@@ -3950,16 +4132,16 @@
     <row r="142" spans="1:6">
       <c r="A142" s="2"/>
       <c r="B142" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>10</v>
@@ -3970,16 +4152,16 @@
         <v>43025</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>10</v>
@@ -3990,16 +4172,16 @@
         <v>43028</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F146" s="5" t="s">
         <v>10</v>
@@ -4008,16 +4190,16 @@
     <row r="147" spans="1:6">
       <c r="A147" s="2"/>
       <c r="B147" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>10</v>
@@ -4026,16 +4208,16 @@
     <row r="148" spans="1:6">
       <c r="A148" s="2"/>
       <c r="B148" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>10</v>
@@ -4046,16 +4228,16 @@
         <v>43032</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F150" s="5" t="s">
         <v>10</v>
@@ -4064,16 +4246,16 @@
     <row r="151" spans="1:6">
       <c r="A151" s="2"/>
       <c r="B151" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F151" s="5" t="s">
         <v>10</v>
@@ -4084,16 +4266,16 @@
         <v>43033</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F153" s="5" t="s">
         <v>10</v>
@@ -4102,16 +4284,16 @@
     <row r="154" spans="1:6">
       <c r="A154" s="2"/>
       <c r="B154" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F154" s="5" t="s">
         <v>10</v>
@@ -4120,16 +4302,16 @@
     <row r="155" spans="1:6">
       <c r="A155" s="2"/>
       <c r="B155" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>10</v>
@@ -4138,16 +4320,16 @@
     <row r="156" spans="1:6">
       <c r="A156" s="13"/>
       <c r="B156" s="3" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>10</v>
@@ -4156,16 +4338,16 @@
     <row r="157" spans="1:6">
       <c r="A157" s="13"/>
       <c r="B157" s="3" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>10</v>
@@ -4174,16 +4356,16 @@
     <row r="158" spans="1:6">
       <c r="A158" s="13"/>
       <c r="B158" s="3" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F158" s="5" t="s">
         <v>10</v>
@@ -4192,16 +4374,16 @@
     <row r="159" spans="1:6">
       <c r="A159" s="13"/>
       <c r="B159" s="3" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F159" s="5" t="s">
         <v>10</v>
@@ -4210,16 +4392,16 @@
     <row r="160" spans="1:6">
       <c r="A160" s="13"/>
       <c r="B160" s="3" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F160" s="5" t="s">
         <v>10</v>
@@ -4228,16 +4410,16 @@
     <row r="161" spans="1:6">
       <c r="A161" s="13"/>
       <c r="B161" s="3" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>10</v>
@@ -4246,16 +4428,16 @@
     <row r="162" spans="1:6">
       <c r="A162" s="2"/>
       <c r="B162" s="3" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>164</v>
+        <v>7</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="F162" s="5" t="s">
         <v>10</v>
@@ -4266,16 +4448,16 @@
         <v>43036</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F164" s="5" t="s">
         <v>10</v>
@@ -4284,16 +4466,16 @@
     <row r="165" spans="1:6">
       <c r="A165" s="2"/>
       <c r="B165" s="3" t="s">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F165" s="5" t="s">
         <v>10</v>
@@ -4302,16 +4484,16 @@
     <row r="166" spans="1:6">
       <c r="A166" s="2"/>
       <c r="B166" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="F166" s="5" t="s">
         <v>10</v>
@@ -4320,16 +4502,16 @@
     <row r="167" spans="1:6">
       <c r="A167" s="2"/>
       <c r="B167" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="F167" s="5" t="s">
         <v>10</v>
@@ -4338,16 +4520,16 @@
     <row r="168" spans="1:6">
       <c r="A168" s="2"/>
       <c r="B168" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F168" s="5" t="s">
         <v>10</v>
@@ -4356,16 +4538,16 @@
     <row r="169" spans="1:6">
       <c r="A169" s="2"/>
       <c r="B169" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="F169" s="5" t="s">
         <v>10</v>
@@ -4374,16 +4556,16 @@
     <row r="170" spans="1:6">
       <c r="A170" s="2"/>
       <c r="B170" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="F170" s="5" t="s">
         <v>10</v>
@@ -4392,16 +4574,16 @@
     <row r="171" spans="1:6">
       <c r="A171" s="2"/>
       <c r="B171" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F171" s="5" t="s">
         <v>10</v>
@@ -4410,16 +4592,16 @@
     <row r="172" spans="1:6">
       <c r="A172" s="2"/>
       <c r="B172" s="3" t="s">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="F172" s="5" t="s">
         <v>10</v>
@@ -4428,16 +4610,16 @@
     <row r="173" spans="1:6">
       <c r="A173" s="2"/>
       <c r="B173" s="3" t="s">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="F173" s="5" t="s">
         <v>10</v>
@@ -4446,16 +4628,16 @@
     <row r="174" spans="1:6">
       <c r="A174" s="2"/>
       <c r="B174" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="F174" s="5" t="s">
         <v>10</v>
@@ -4464,16 +4646,16 @@
     <row r="175" spans="1:6">
       <c r="A175" s="2"/>
       <c r="B175" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="F175" s="5" t="s">
         <v>10</v>
@@ -4482,16 +4664,16 @@
     <row r="176" spans="1:6">
       <c r="A176" s="2"/>
       <c r="B176" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="F176" s="5" t="s">
         <v>10</v>
@@ -4500,16 +4682,16 @@
     <row r="177" spans="1:6">
       <c r="A177" s="2"/>
       <c r="B177" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="F177" s="5" t="s">
         <v>10</v>
@@ -4518,16 +4700,16 @@
     <row r="178" spans="1:6">
       <c r="A178" s="2"/>
       <c r="B178" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="F178" s="5" t="s">
         <v>10</v>
@@ -4536,16 +4718,16 @@
     <row r="179" spans="1:6">
       <c r="A179" s="2"/>
       <c r="B179" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="F179" s="5" t="s">
         <v>10</v>
@@ -4554,16 +4736,16 @@
     <row r="180" spans="1:6">
       <c r="A180" s="2"/>
       <c r="B180" s="3" t="s">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="F180" s="5" t="s">
         <v>10</v>
@@ -4572,16 +4754,16 @@
     <row r="181" spans="1:6">
       <c r="A181" s="2"/>
       <c r="B181" s="3" t="s">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="F181" s="5" t="s">
         <v>10</v>
@@ -4592,16 +4774,16 @@
         <v>43038</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F183" s="5" t="s">
         <v>10</v>
@@ -4610,16 +4792,16 @@
     <row r="184" spans="1:6">
       <c r="A184" s="2"/>
       <c r="B184" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F184" s="5" t="s">
         <v>10</v>
@@ -4628,16 +4810,16 @@
     <row r="185" spans="1:6">
       <c r="A185" s="2"/>
       <c r="B185" s="3" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F185" s="5" t="s">
         <v>10</v>
@@ -4646,16 +4828,16 @@
     <row r="186" spans="1:6">
       <c r="A186" s="2"/>
       <c r="B186" s="3" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F186" s="5" t="s">
         <v>10</v>
@@ -4664,16 +4846,16 @@
     <row r="187" spans="1:6">
       <c r="A187" s="2"/>
       <c r="B187" s="3" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F187" s="5" t="s">
         <v>10</v>
@@ -4682,16 +4864,16 @@
     <row r="188" spans="1:6">
       <c r="A188" s="2"/>
       <c r="B188" s="3" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="F188" s="5" t="s">
         <v>10</v>
@@ -4700,16 +4882,16 @@
     <row r="189" spans="1:6">
       <c r="A189" s="2"/>
       <c r="B189" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="F189" s="5" t="s">
         <v>10</v>
@@ -4718,16 +4900,16 @@
     <row r="190" spans="1:6">
       <c r="A190" s="2"/>
       <c r="B190" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="F190" s="5" t="s">
         <v>10</v>
@@ -4736,16 +4918,16 @@
     <row r="191" spans="1:6">
       <c r="A191" s="2"/>
       <c r="B191" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="F191" s="5" t="s">
         <v>10</v>
@@ -4754,16 +4936,16 @@
     <row r="192" spans="1:6">
       <c r="A192" s="2"/>
       <c r="B192" s="3" t="s">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F192" s="5" t="s">
         <v>10</v>
@@ -4772,16 +4954,16 @@
     <row r="193" spans="1:6">
       <c r="A193" s="2"/>
       <c r="B193" s="3" t="s">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F193" s="5" t="s">
         <v>10</v>
@@ -4790,16 +4972,16 @@
     <row r="194" spans="1:6">
       <c r="A194" s="2"/>
       <c r="B194" s="3" t="s">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F194" s="5" t="s">
         <v>10</v>
@@ -4810,16 +4992,16 @@
         <v>43039</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="F196" s="5" t="s">
         <v>10</v>
@@ -4828,16 +5010,16 @@
     <row r="197" spans="1:6">
       <c r="A197" s="2"/>
       <c r="B197" s="3" t="s">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="F197" s="5" t="s">
         <v>10</v>
@@ -4848,16 +5030,16 @@
         <v>43040</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="F199" s="5" t="s">
         <v>10</v>
@@ -4866,16 +5048,16 @@
     <row r="200" spans="1:6">
       <c r="A200" s="2"/>
       <c r="B200" s="3" t="s">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="F200" s="5" t="s">
         <v>10</v>
@@ -4884,16 +5066,16 @@
     <row r="201" spans="1:6">
       <c r="A201" s="2"/>
       <c r="B201" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="F201" s="5" t="s">
         <v>10</v>
@@ -4902,18 +5084,38 @@
     <row r="202" spans="1:6">
       <c r="A202" s="2"/>
       <c r="B202" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="F202" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="2">
+        <v>43041</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F204" s="5" t="s">
         <v>10</v>
       </c>
     </row>

--- a/需求分析/接口文档/客户/更新说明.xlsx
+++ b/需求分析/接口文档/客户/更新说明.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205">
   <si>
     <t>更新时间</t>
   </si>
@@ -35,595 +35,601 @@
     <t>状态</t>
   </si>
   <si>
+    <t>客户接口</t>
+  </si>
+  <si>
+    <t>客户建账</t>
+  </si>
+  <si>
+    <t>获取审批人列表</t>
+  </si>
+  <si>
+    <t>新增 departmentId(部门) 筛选</t>
+  </si>
+  <si>
+    <t>已验证</t>
+  </si>
+  <si>
+    <t>申请人获取建账申请列表</t>
+  </si>
+  <si>
+    <t>新增 总页数 返回</t>
+  </si>
+  <si>
+    <t>审批员获取建账申请列表</t>
+  </si>
+  <si>
     <t>订单接口</t>
   </si>
   <si>
+    <t>客户订单</t>
+  </si>
+  <si>
+    <t>获取运费模板列表(客户)</t>
+  </si>
+  <si>
+    <t>通用申请接口</t>
+  </si>
+  <si>
+    <t>通用申请</t>
+  </si>
+  <si>
+    <t>发起人获取申请列表</t>
+  </si>
+  <si>
+    <t>审批人获取申请列表</t>
+  </si>
+  <si>
+    <t>接口测试数据登陆:http://112.74.32.113/backend/pages/index/index.html</t>
+  </si>
+  <si>
+    <t>个人信息</t>
+  </si>
+  <si>
+    <t>获取默认收货地址</t>
+  </si>
+  <si>
+    <t>新添加的接口</t>
+  </si>
+  <si>
+    <t>个人信息接口</t>
+  </si>
+  <si>
+    <t>经营单位</t>
+  </si>
+  <si>
+    <t>获取经营单位详情</t>
+  </si>
+  <si>
+    <t>新增接口</t>
+  </si>
+  <si>
+    <t>客户信息</t>
+  </si>
+  <si>
+    <t>获取客户列表</t>
+  </si>
+  <si>
+    <t>添加返回客户头像</t>
+  </si>
+  <si>
+    <t>移交客户</t>
+  </si>
+  <si>
+    <t>业务员移交客户</t>
+  </si>
+  <si>
+    <t>跟单员移交客户</t>
+  </si>
+  <si>
+    <t>养殖信息(新)</t>
+  </si>
+  <si>
+    <t>所有的接口</t>
+  </si>
+  <si>
+    <t>hadAccount(账号状态)</t>
+  </si>
+  <si>
+    <t>商城接口</t>
+  </si>
+  <si>
+    <t>订单</t>
+  </si>
+  <si>
+    <t>添加商家地址返回</t>
+  </si>
+  <si>
+    <t>暂停使用</t>
+  </si>
+  <si>
+    <t>未建账</t>
+  </si>
+  <si>
+    <t>添加融云id返回</t>
+  </si>
+  <si>
+    <t>已建账</t>
+  </si>
+  <si>
+    <t>申请客户建账</t>
+  </si>
+  <si>
+    <t>添加 申请原因 参数</t>
+  </si>
+  <si>
+    <t>账号被冻结</t>
+  </si>
+  <si>
+    <t>冻结客户</t>
+  </si>
+  <si>
+    <t>解冻客户</t>
+  </si>
+  <si>
+    <t>获取客户详情</t>
+  </si>
+  <si>
+    <t>添加 账号冻结 状态</t>
+  </si>
+  <si>
+    <t>商品浏览</t>
+  </si>
+  <si>
+    <t>查看商品详情</t>
+  </si>
+  <si>
+    <t>添加 规格重量 返回</t>
+  </si>
+  <si>
+    <t>购物车</t>
+  </si>
+  <si>
+    <t>获取购物车商品列表</t>
+  </si>
+  <si>
+    <t>获取订单列表</t>
+  </si>
+  <si>
+    <t>添加 订单号 返回</t>
+  </si>
+  <si>
+    <t>获取订单详情</t>
+  </si>
+  <si>
+    <t>筛选订单</t>
+  </si>
+  <si>
+    <t>根据订单号获取订单列表</t>
+  </si>
+  <si>
+    <t>业务订单</t>
+  </si>
+  <si>
+    <t>财务订单</t>
+  </si>
+  <si>
+    <t>权限角色接口</t>
+  </si>
+  <si>
+    <t>权限角色</t>
+  </si>
+  <si>
+    <t>获取用户角色</t>
+  </si>
+  <si>
+    <t>获取跟单员列表</t>
+  </si>
+  <si>
+    <t>开放使用</t>
+  </si>
+  <si>
+    <t>库存接口</t>
+  </si>
+  <si>
+    <t>申请库存</t>
+  </si>
+  <si>
+    <t>更名为 客户商城接口</t>
+  </si>
+  <si>
+    <t>商家商城接口</t>
+  </si>
+  <si>
+    <t>原 商城接口 的拆分</t>
+  </si>
+  <si>
+    <t>运费模板</t>
+  </si>
+  <si>
+    <t>销售点</t>
+  </si>
+  <si>
+    <t>商品编辑</t>
+  </si>
+  <si>
+    <t>所有接口</t>
+  </si>
+  <si>
+    <t>业务订单(业务)</t>
+  </si>
+  <si>
+    <t>业务订单(业务管理)</t>
+  </si>
+  <si>
+    <t>财务订单(财务)</t>
+  </si>
+  <si>
+    <t>财务订单(财务管理)</t>
+  </si>
+  <si>
+    <t>后勤订单(跟单)</t>
+  </si>
+  <si>
+    <t>已废弃</t>
+  </si>
+  <si>
+    <t>需求接口</t>
+  </si>
+  <si>
+    <t>激活登陆</t>
+  </si>
+  <si>
+    <t>用户登录</t>
+  </si>
+  <si>
+    <t>添加 企业名称 返回</t>
+  </si>
+  <si>
+    <t>查找分类下的商品</t>
+  </si>
+  <si>
+    <t>搜索商品</t>
+  </si>
+  <si>
+    <t>所有 筛选订单 接口</t>
+  </si>
+  <si>
+    <t>新增 订单总价 返回</t>
+  </si>
+  <si>
+    <t>生成订单</t>
+  </si>
+  <si>
+    <t>添加 商品不存在 返回值</t>
+  </si>
+  <si>
+    <t>养殖信息（新）</t>
+  </si>
+  <si>
+    <t>获取养殖信息详情（新）</t>
+  </si>
+  <si>
+    <t>客户资源</t>
+  </si>
+  <si>
+    <t>获取养殖信息列表</t>
+  </si>
+  <si>
+    <t>添加 json 返回</t>
+  </si>
+  <si>
+    <t>获取养殖信息详情</t>
+  </si>
+  <si>
+    <t>所有订单筛选接口</t>
+  </si>
+  <si>
+    <t>更新 订单状态</t>
+  </si>
+  <si>
+    <t>添加 角色代码 返回值</t>
+  </si>
+  <si>
+    <t>客户跟进</t>
+  </si>
+  <si>
+    <t>添加 跟进标题 参数</t>
+  </si>
+  <si>
+    <t>查看库存</t>
+  </si>
+  <si>
+    <t>查看销售点库存</t>
+  </si>
+  <si>
+    <t>添加 返回参数</t>
+  </si>
+  <si>
+    <t>查看当前销售点库存</t>
+  </si>
+  <si>
+    <t>查看总部销售点库存</t>
+  </si>
+  <si>
+    <t>盘点库存</t>
+  </si>
+  <si>
+    <t>获取库存盘点记录</t>
+  </si>
+  <si>
+    <t>库存进仓</t>
+  </si>
+  <si>
+    <t>新建进仓单</t>
+  </si>
+  <si>
+    <t>获取进仓单列表</t>
+  </si>
+  <si>
+    <t>获取进仓单详情</t>
+  </si>
+  <si>
+    <t>申请人获取库存申请列表</t>
+  </si>
+  <si>
+    <t>审批人获取库存审批列表</t>
+  </si>
+  <si>
+    <t>添加 商品图片 返回</t>
+  </si>
+  <si>
+    <t>库存盘点</t>
+  </si>
+  <si>
+    <t>添加 时间段筛选 条件</t>
+  </si>
+  <si>
+    <t>获取库存盘点记录详情</t>
+  </si>
+  <si>
+    <t>添加 筛选 条件</t>
+  </si>
+  <si>
+    <t>搜索库存商品</t>
+  </si>
+  <si>
+    <t>添加 付款状态 返回</t>
+  </si>
+  <si>
+    <t>跟单订单(跟单)</t>
+  </si>
+  <si>
+    <t>获取成员的客户列表</t>
+  </si>
+  <si>
+    <t>添加 用户头像 返回</t>
+  </si>
+  <si>
+    <t>筛选客户列表</t>
+  </si>
+  <si>
+    <t>此接口与(获取成员的客户列表)合并</t>
+  </si>
+  <si>
+    <t>获取总部销售点Id</t>
+  </si>
+  <si>
+    <t>添加 商品编码 返回</t>
+  </si>
+  <si>
+    <t>添加 商品编码、申请单号 返回</t>
+  </si>
+  <si>
+    <t>组织管理接口</t>
+  </si>
+  <si>
+    <t>组织管理</t>
+  </si>
+  <si>
+    <t>获取可分配的角色列表</t>
+  </si>
+  <si>
+    <t>获取商品列表</t>
+  </si>
+  <si>
+    <t>添加 商品规格Id 返回</t>
+  </si>
+  <si>
+    <t>参数 recordList 替换为 incomeList</t>
+  </si>
+  <si>
+    <t>添加 总部当前库存 返回</t>
+  </si>
+  <si>
+    <t>添加 该账号已存在 状态码</t>
+  </si>
+  <si>
+    <t>添加 商品分类 返回</t>
+  </si>
+  <si>
+    <t>登陆激活</t>
+  </si>
+  <si>
+    <t>用户登录(浏览器)</t>
+  </si>
+  <si>
+    <t>获取当前销售点进仓单列表</t>
+  </si>
+  <si>
+    <t>获取当销售点前库存盘点记录</t>
+  </si>
+  <si>
+    <t>更新 branchId(销售点Id) 为选填</t>
+  </si>
+  <si>
+    <t>添加 头像 返回</t>
+  </si>
+  <si>
+    <t>团队接口</t>
+  </si>
+  <si>
+    <t>团队</t>
+  </si>
+  <si>
+    <t>获取团队内所有成员</t>
+  </si>
+  <si>
+    <t>获取库存审批详情</t>
+  </si>
+  <si>
+    <t>获取当前部门下的成员列表</t>
+  </si>
+  <si>
+    <t>获取当前部门下的客户列表</t>
+  </si>
+  <si>
+    <t>申请协助</t>
+  </si>
+  <si>
+    <t>协助者获取协助列表</t>
+  </si>
+  <si>
+    <t>新增 status(审批状态) 筛选</t>
+  </si>
+  <si>
+    <t>获取申请详情</t>
+  </si>
+  <si>
+    <t>新增 status(审批状态) 返回</t>
+  </si>
+  <si>
+    <t>获取库存等级</t>
+  </si>
+  <si>
+    <t>获取头像图片</t>
+  </si>
+  <si>
+    <t>新增 是否建账 筛选</t>
+  </si>
+  <si>
+    <t>财务A审批通过</t>
+  </si>
+  <si>
+    <t>删除接口</t>
+  </si>
+  <si>
+    <t>财务A审批拒绝</t>
+  </si>
+  <si>
+    <t>财务B审批通过</t>
+  </si>
+  <si>
+    <t>财务B审批拒绝</t>
+  </si>
+  <si>
+    <t>财务审核通过</t>
+  </si>
+  <si>
+    <t>财务审核不通过</t>
+  </si>
+  <si>
     <t>所有标签</t>
   </si>
   <si>
-    <t>所有接口</t>
+    <t>更新订单状态</t>
+  </si>
+  <si>
+    <t>新增 applyResult(申请状态) 筛选</t>
+  </si>
+  <si>
+    <t>新增 requestStatus(申请状态)、userImage(头像) 返回</t>
+  </si>
+  <si>
+    <t>新增 分页 参数</t>
+  </si>
+  <si>
+    <t>新增 requestStatus(申请状态) 筛选</t>
+  </si>
+  <si>
+    <t>新增 userImage(头像) 返回</t>
+  </si>
+  <si>
+    <t>新增 已审批 筛选状态</t>
+  </si>
+  <si>
+    <t>申请者获取协助列表</t>
+  </si>
+  <si>
+    <t>新增 createDate(申请时间) 返回</t>
+  </si>
+  <si>
+    <t>搜索客户</t>
+  </si>
+  <si>
+    <t>搜索当前部门下的客户</t>
+  </si>
+  <si>
+    <t>冻结成员</t>
+  </si>
+  <si>
+    <t>解冻成员</t>
+  </si>
+  <si>
+    <t>搜索部门成员</t>
+  </si>
+  <si>
+    <t>获取部门成员列表</t>
+  </si>
+  <si>
+    <t>获取建账申请详情</t>
+  </si>
+  <si>
+    <t>新增 头像 返回</t>
+  </si>
+  <si>
+    <t>新增 协助者头像 返回</t>
+  </si>
+  <si>
+    <t>新增 审批人头像 返回</t>
+  </si>
+  <si>
+    <t>新增 申请状态 返回</t>
+  </si>
+  <si>
+    <t>新增 部门名称 返回</t>
+  </si>
+  <si>
+    <t>调货申请</t>
+  </si>
+  <si>
+    <t>添加 签收时间 返回值</t>
+  </si>
+  <si>
+    <t>添加 部门 返回值</t>
+  </si>
+  <si>
+    <t>新增 能否审批 返回</t>
   </si>
   <si>
     <t>新增 退货时间 返回</t>
   </si>
   <si>
-    <t>已验证</t>
-  </si>
-  <si>
-    <t>客户订单</t>
-  </si>
-  <si>
-    <t>生成订单</t>
-  </si>
-  <si>
     <t>新增 收货地址 规则</t>
   </si>
   <si>
     <t>跟单订单</t>
   </si>
   <si>
-    <t>筛选订单</t>
-  </si>
-  <si>
-    <t>新增接口</t>
-  </si>
-  <si>
-    <t>获取订单详情</t>
-  </si>
-  <si>
-    <t>财务订单</t>
-  </si>
-  <si>
     <t>搜索订单(财务主管通用)</t>
   </si>
   <si>
     <t>获取订单详情(财务主管通用)</t>
   </si>
   <si>
-    <t>业务订单</t>
-  </si>
-  <si>
     <t>搜索订单(业务主管通用)</t>
   </si>
   <si>
     <t>获取订单详情(业务主管通用)</t>
   </si>
   <si>
-    <t>需求接口</t>
-  </si>
-  <si>
     <t>找回密码</t>
   </si>
   <si>
     <t>验证密码</t>
   </si>
   <si>
-    <t>激活登陆</t>
-  </si>
-  <si>
     <t>用户登出(浏览器)</t>
-  </si>
-  <si>
-    <t>接口测试数据登陆:http://112.74.32.113/backend/pages/index/index.html</t>
-  </si>
-  <si>
-    <t>客户接口</t>
-  </si>
-  <si>
-    <t>个人信息</t>
-  </si>
-  <si>
-    <t>获取默认收货地址</t>
-  </si>
-  <si>
-    <t>新添加的接口</t>
-  </si>
-  <si>
-    <t>个人信息接口</t>
-  </si>
-  <si>
-    <t>经营单位</t>
-  </si>
-  <si>
-    <t>获取经营单位详情</t>
-  </si>
-  <si>
-    <t>客户信息</t>
-  </si>
-  <si>
-    <t>获取客户列表</t>
-  </si>
-  <si>
-    <t>添加返回客户头像</t>
-  </si>
-  <si>
-    <t>移交客户</t>
-  </si>
-  <si>
-    <t>业务员移交客户</t>
-  </si>
-  <si>
-    <t>跟单员移交客户</t>
-  </si>
-  <si>
-    <t>养殖信息(新)</t>
-  </si>
-  <si>
-    <t>所有的接口</t>
-  </si>
-  <si>
-    <t>hadAccount(账号状态)</t>
-  </si>
-  <si>
-    <t>商城接口</t>
-  </si>
-  <si>
-    <t>订单</t>
-  </si>
-  <si>
-    <t>获取运费模板列表(客户)</t>
-  </si>
-  <si>
-    <t>添加商家地址返回</t>
-  </si>
-  <si>
-    <t>客户建账</t>
-  </si>
-  <si>
-    <t>获取审批人列表</t>
-  </si>
-  <si>
-    <t>暂停使用</t>
-  </si>
-  <si>
-    <t>未建账</t>
-  </si>
-  <si>
-    <t>添加融云id返回</t>
-  </si>
-  <si>
-    <t>已建账</t>
-  </si>
-  <si>
-    <t>申请客户建账</t>
-  </si>
-  <si>
-    <t>添加 申请原因 参数</t>
-  </si>
-  <si>
-    <t>账号被冻结</t>
-  </si>
-  <si>
-    <t>冻结客户</t>
-  </si>
-  <si>
-    <t>解冻客户</t>
-  </si>
-  <si>
-    <t>获取客户详情</t>
-  </si>
-  <si>
-    <t>添加 账号冻结 状态</t>
-  </si>
-  <si>
-    <t>商品浏览</t>
-  </si>
-  <si>
-    <t>查看商品详情</t>
-  </si>
-  <si>
-    <t>添加 规格重量 返回</t>
-  </si>
-  <si>
-    <t>购物车</t>
-  </si>
-  <si>
-    <t>获取购物车商品列表</t>
-  </si>
-  <si>
-    <t>获取订单列表</t>
-  </si>
-  <si>
-    <t>添加 订单号 返回</t>
-  </si>
-  <si>
-    <t>根据订单号获取订单列表</t>
-  </si>
-  <si>
-    <t>权限角色接口</t>
-  </si>
-  <si>
-    <t>权限角色</t>
-  </si>
-  <si>
-    <t>获取用户角色</t>
-  </si>
-  <si>
-    <t>获取跟单员列表</t>
-  </si>
-  <si>
-    <t>开放使用</t>
-  </si>
-  <si>
-    <t>库存接口</t>
-  </si>
-  <si>
-    <t>申请库存</t>
-  </si>
-  <si>
-    <t>更名为 客户商城接口</t>
-  </si>
-  <si>
-    <t>商家商城接口</t>
-  </si>
-  <si>
-    <t>原 商城接口 的拆分</t>
-  </si>
-  <si>
-    <t>运费模板</t>
-  </si>
-  <si>
-    <t>销售点</t>
-  </si>
-  <si>
-    <t>商品编辑</t>
-  </si>
-  <si>
-    <t>业务订单(业务)</t>
-  </si>
-  <si>
-    <t>业务订单(业务管理)</t>
-  </si>
-  <si>
-    <t>财务订单(财务)</t>
-  </si>
-  <si>
-    <t>财务订单(财务管理)</t>
-  </si>
-  <si>
-    <t>后勤订单(跟单)</t>
-  </si>
-  <si>
-    <t>已废弃</t>
-  </si>
-  <si>
-    <t>用户登录</t>
-  </si>
-  <si>
-    <t>添加 企业名称 返回</t>
-  </si>
-  <si>
-    <t>查找分类下的商品</t>
-  </si>
-  <si>
-    <t>搜索商品</t>
-  </si>
-  <si>
-    <t>所有 筛选订单 接口</t>
-  </si>
-  <si>
-    <t>新增 订单总价 返回</t>
-  </si>
-  <si>
-    <t>添加 商品不存在 返回值</t>
-  </si>
-  <si>
-    <t>养殖信息（新）</t>
-  </si>
-  <si>
-    <t>获取养殖信息详情（新）</t>
-  </si>
-  <si>
-    <t>客户资源</t>
-  </si>
-  <si>
-    <t>获取养殖信息列表</t>
-  </si>
-  <si>
-    <t>添加 json 返回</t>
-  </si>
-  <si>
-    <t>获取养殖信息详情</t>
-  </si>
-  <si>
-    <t>所有订单筛选接口</t>
-  </si>
-  <si>
-    <t>更新 订单状态</t>
-  </si>
-  <si>
-    <t>添加 角色代码 返回值</t>
-  </si>
-  <si>
-    <t>客户跟进</t>
-  </si>
-  <si>
-    <t>添加 跟进标题 参数</t>
-  </si>
-  <si>
-    <t>查看库存</t>
-  </si>
-  <si>
-    <t>查看销售点库存</t>
-  </si>
-  <si>
-    <t>添加 返回参数</t>
-  </si>
-  <si>
-    <t>查看当前销售点库存</t>
-  </si>
-  <si>
-    <t>查看总部销售点库存</t>
-  </si>
-  <si>
-    <t>盘点库存</t>
-  </si>
-  <si>
-    <t>获取库存盘点记录</t>
-  </si>
-  <si>
-    <t>库存进仓</t>
-  </si>
-  <si>
-    <t>新建进仓单</t>
-  </si>
-  <si>
-    <t>获取进仓单列表</t>
-  </si>
-  <si>
-    <t>获取进仓单详情</t>
-  </si>
-  <si>
-    <t>申请人获取库存申请列表</t>
-  </si>
-  <si>
-    <t>审批人获取库存审批列表</t>
-  </si>
-  <si>
-    <t>添加 商品图片 返回</t>
-  </si>
-  <si>
-    <t>库存盘点</t>
-  </si>
-  <si>
-    <t>添加 时间段筛选 条件</t>
-  </si>
-  <si>
-    <t>获取库存盘点记录详情</t>
-  </si>
-  <si>
-    <t>添加 筛选 条件</t>
-  </si>
-  <si>
-    <t>搜索库存商品</t>
-  </si>
-  <si>
-    <t>添加 付款状态 返回</t>
-  </si>
-  <si>
-    <t>跟单订单(跟单)</t>
-  </si>
-  <si>
-    <t>获取成员的客户列表</t>
-  </si>
-  <si>
-    <t>添加 用户头像 返回</t>
-  </si>
-  <si>
-    <t>筛选客户列表</t>
-  </si>
-  <si>
-    <t>此接口与(获取成员的客户列表)合并</t>
-  </si>
-  <si>
-    <t>获取总部销售点Id</t>
-  </si>
-  <si>
-    <t>添加 商品编码 返回</t>
-  </si>
-  <si>
-    <t>添加 商品编码、申请单号 返回</t>
-  </si>
-  <si>
-    <t>组织管理接口</t>
-  </si>
-  <si>
-    <t>组织管理</t>
-  </si>
-  <si>
-    <t>获取可分配的角色列表</t>
-  </si>
-  <si>
-    <t>获取商品列表</t>
-  </si>
-  <si>
-    <t>添加 商品规格Id 返回</t>
-  </si>
-  <si>
-    <t>参数 recordList 替换为 incomeList</t>
-  </si>
-  <si>
-    <t>添加 总部当前库存 返回</t>
-  </si>
-  <si>
-    <t>添加 该账号已存在 状态码</t>
-  </si>
-  <si>
-    <t>添加 商品分类 返回</t>
-  </si>
-  <si>
-    <t>登陆激活</t>
-  </si>
-  <si>
-    <t>用户登录(浏览器)</t>
-  </si>
-  <si>
-    <t>获取当前销售点进仓单列表</t>
-  </si>
-  <si>
-    <t>获取当销售点前库存盘点记录</t>
-  </si>
-  <si>
-    <t>更新 branchId(销售点Id) 为选填</t>
-  </si>
-  <si>
-    <t>添加 头像 返回</t>
-  </si>
-  <si>
-    <t>团队接口</t>
-  </si>
-  <si>
-    <t>团队</t>
-  </si>
-  <si>
-    <t>获取团队内所有成员</t>
-  </si>
-  <si>
-    <t>获取库存审批详情</t>
-  </si>
-  <si>
-    <t>获取当前部门下的成员列表</t>
-  </si>
-  <si>
-    <t>获取当前部门下的客户列表</t>
-  </si>
-  <si>
-    <t>申请协助</t>
-  </si>
-  <si>
-    <t>协助者获取协助列表</t>
-  </si>
-  <si>
-    <t>新增 status(审批状态) 筛选</t>
-  </si>
-  <si>
-    <t>获取申请详情</t>
-  </si>
-  <si>
-    <t>新增 status(审批状态) 返回</t>
-  </si>
-  <si>
-    <t>获取库存等级</t>
-  </si>
-  <si>
-    <t>获取头像图片</t>
-  </si>
-  <si>
-    <t>新增 是否建账 筛选</t>
-  </si>
-  <si>
-    <t>财务A审批通过</t>
-  </si>
-  <si>
-    <t>删除接口</t>
-  </si>
-  <si>
-    <t>财务A审批拒绝</t>
-  </si>
-  <si>
-    <t>财务B审批通过</t>
-  </si>
-  <si>
-    <t>财务B审批拒绝</t>
-  </si>
-  <si>
-    <t>财务审核通过</t>
-  </si>
-  <si>
-    <t>财务审核不通过</t>
-  </si>
-  <si>
-    <t>更新订单状态</t>
-  </si>
-  <si>
-    <t>通用申请接口</t>
-  </si>
-  <si>
-    <t>通用申请</t>
-  </si>
-  <si>
-    <t>发起人获取申请列表</t>
-  </si>
-  <si>
-    <t>新增 applyResult(申请状态) 筛选</t>
-  </si>
-  <si>
-    <t>审批人获取申请列表</t>
-  </si>
-  <si>
-    <t>审批员获取建账申请列表</t>
-  </si>
-  <si>
-    <t>新增 requestStatus(申请状态)、userImage(头像) 返回</t>
-  </si>
-  <si>
-    <t>新增 分页 参数</t>
-  </si>
-  <si>
-    <t>新增 requestStatus(申请状态) 筛选</t>
-  </si>
-  <si>
-    <t>申请人获取建账申请列表</t>
-  </si>
-  <si>
-    <t>新增 userImage(头像) 返回</t>
-  </si>
-  <si>
-    <t>新增 已审批 筛选状态</t>
-  </si>
-  <si>
-    <t>申请者获取协助列表</t>
-  </si>
-  <si>
-    <t>新增 createDate(申请时间) 返回</t>
-  </si>
-  <si>
-    <t>搜索客户</t>
-  </si>
-  <si>
-    <t>搜索当前部门下的客户</t>
-  </si>
-  <si>
-    <t>冻结成员</t>
-  </si>
-  <si>
-    <t>解冻成员</t>
-  </si>
-  <si>
-    <t>搜索部门成员</t>
-  </si>
-  <si>
-    <t>获取部门成员列表</t>
-  </si>
-  <si>
-    <t>获取建账申请详情</t>
-  </si>
-  <si>
-    <t>新增 头像 返回</t>
-  </si>
-  <si>
-    <t>新增 协助者头像 返回</t>
-  </si>
-  <si>
-    <t>新增 审批人头像 返回</t>
-  </si>
-  <si>
-    <t>新增 申请状态 返回</t>
-  </si>
-  <si>
-    <t>新增 部门名称 返回</t>
-  </si>
-  <si>
-    <t>调货申请</t>
-  </si>
-  <si>
-    <t>添加 签收时间 返回值</t>
-  </si>
-  <si>
-    <t>添加 部门 返回值</t>
-  </si>
-  <si>
-    <t>新增 能否审批 返回</t>
   </si>
 </sst>
 </file>
@@ -631,10 +637,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -674,42 +680,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -730,31 +704,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -781,6 +731,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -789,6 +788,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -847,6 +853,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -859,25 +907,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,73 +931,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,19 +949,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,7 +967,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,7 +979,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,32 +1038,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1073,26 +1060,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1115,6 +1082,45 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1128,10 +1134,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1140,137 +1146,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1316,7 +1322,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="19" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1673,7 +1685,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1706,7 +1718,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>43042</v>
+        <v>43045</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1730,13 +1742,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>10</v>
@@ -1748,45 +1760,45 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="15"/>
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="17"/>
+      <c r="B6" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -1795,21 +1807,21 @@
         <v>19</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="2"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
@@ -1818,119 +1830,55 @@
         <v>20</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="16"/>
-      <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="8:12">
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+    </row>
+    <row r="9" spans="8:12">
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+    </row>
+    <row r="10" spans="8:12">
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="8:12">
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
     </row>
     <row r="12" spans="8:12">
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1960,7 +1908,7 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A2:A7"/>
     <mergeCell ref="H5:L12"/>
     <mergeCell ref="A20:E23"/>
   </mergeCells>
@@ -1973,10 +1921,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I204"/>
+  <dimension ref="A1:I215"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="A204" sqref="A204:F204"/>
+    <sheetView topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="E194" sqref="E194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2013,16 +1961,16 @@
         <v>42994</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>10</v>
@@ -2031,16 +1979,16 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>10</v>
@@ -2051,16 +1999,16 @@
         <v>42996</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>10</v>
@@ -2069,16 +2017,16 @@
     <row r="8" spans="1:6">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>10</v>
@@ -2087,16 +2035,16 @@
     <row r="9" spans="1:6">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>10</v>
@@ -2105,16 +2053,16 @@
     <row r="10" spans="1:6">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>10</v>
@@ -2125,22 +2073,22 @@
         <v>42998</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -2148,16 +2096,16 @@
     <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>10</v>
@@ -2169,22 +2117,22 @@
     <row r="17" spans="1:9">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="11">
@@ -2194,22 +2142,22 @@
     <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="11">
@@ -2219,22 +2167,22 @@
     <row r="19" spans="1:9">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="11">
@@ -2244,16 +2192,16 @@
     <row r="20" spans="1:6">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>10</v>
@@ -2262,16 +2210,16 @@
     <row r="21" spans="1:6">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>10</v>
@@ -2280,16 +2228,16 @@
     <row r="22" spans="1:6">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>10</v>
@@ -2300,16 +2248,16 @@
         <v>42999</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>10</v>
@@ -2318,16 +2266,16 @@
     <row r="28" spans="1:6">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>10</v>
@@ -2336,16 +2284,16 @@
     <row r="29" spans="1:6">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>10</v>
@@ -2354,16 +2302,16 @@
     <row r="30" spans="1:6">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>10</v>
@@ -2372,16 +2320,16 @@
     <row r="31" spans="1:6">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>10</v>
@@ -2390,16 +2338,16 @@
     <row r="32" spans="1:6">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>10</v>
@@ -2408,16 +2356,16 @@
     <row r="33" spans="1:6">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>10</v>
@@ -2426,16 +2374,16 @@
     <row r="34" spans="1:6">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>10</v>
@@ -2446,16 +2394,16 @@
         <v>42999</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>10</v>
@@ -2464,16 +2412,16 @@
     <row r="39" spans="1:6">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>10</v>
@@ -2482,16 +2430,16 @@
     <row r="40" spans="1:6">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>10</v>
@@ -2500,16 +2448,16 @@
     <row r="41" spans="1:6">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>10</v>
@@ -2520,12 +2468,12 @@
         <v>43005</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>10</v>
@@ -2534,12 +2482,12 @@
     <row r="44" spans="1:6">
       <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>10</v>
@@ -2548,14 +2496,14 @@
     <row r="45" spans="1:6">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>10</v>
@@ -2564,14 +2512,14 @@
     <row r="46" spans="1:6">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>10</v>
@@ -2580,14 +2528,14 @@
     <row r="47" spans="1:6">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>10</v>
@@ -2596,16 +2544,16 @@
     <row r="48" spans="1:6">
       <c r="A48" s="2"/>
       <c r="B48" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>10</v>
@@ -2614,12 +2562,12 @@
     <row r="49" spans="1:6">
       <c r="A49" s="2"/>
       <c r="B49" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>10</v>
@@ -2628,16 +2576,16 @@
     <row r="50" spans="1:6">
       <c r="A50" s="2"/>
       <c r="B50" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>10</v>
@@ -2646,16 +2594,16 @@
     <row r="51" spans="1:6">
       <c r="A51" s="2"/>
       <c r="B51" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>10</v>
@@ -2664,16 +2612,16 @@
     <row r="52" spans="1:6">
       <c r="A52" s="2"/>
       <c r="B52" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>10</v>
@@ -2682,16 +2630,16 @@
     <row r="53" spans="1:6">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>10</v>
@@ -2700,16 +2648,16 @@
     <row r="54" spans="1:6">
       <c r="A54" s="2"/>
       <c r="B54" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>10</v>
@@ -2718,32 +2666,32 @@
     <row r="55" spans="1:6">
       <c r="A55" s="2"/>
       <c r="B55" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="4" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2"/>
       <c r="B56" s="3" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>10</v>
@@ -2754,16 +2702,16 @@
         <v>43008</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>10</v>
@@ -2772,16 +2720,16 @@
     <row r="59" spans="1:6">
       <c r="A59" s="2"/>
       <c r="B59" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>10</v>
@@ -2790,16 +2738,16 @@
     <row r="60" spans="1:6">
       <c r="A60" s="2"/>
       <c r="B60" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>10</v>
@@ -2808,14 +2756,14 @@
     <row r="61" spans="1:6">
       <c r="A61" s="2"/>
       <c r="B61" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>10</v>
@@ -2826,16 +2774,16 @@
         <v>43015</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>10</v>
@@ -2844,16 +2792,16 @@
     <row r="64" spans="1:6">
       <c r="A64" s="2"/>
       <c r="B64" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>10</v>
@@ -2862,16 +2810,16 @@
     <row r="65" spans="1:6">
       <c r="A65" s="2"/>
       <c r="B65" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>10</v>
@@ -2880,16 +2828,16 @@
     <row r="66" spans="1:6">
       <c r="A66" s="2"/>
       <c r="B66" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="E66" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>10</v>
@@ -2898,14 +2846,14 @@
     <row r="67" spans="1:6">
       <c r="A67" s="2"/>
       <c r="B67" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>10</v>
@@ -2916,16 +2864,16 @@
         <v>43018</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>10</v>
@@ -2934,16 +2882,16 @@
     <row r="70" spans="1:6">
       <c r="A70" s="2"/>
       <c r="B70" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>10</v>
@@ -2954,16 +2902,16 @@
         <v>43018</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>10</v>
@@ -2972,16 +2920,16 @@
     <row r="73" spans="1:6">
       <c r="A73" s="2"/>
       <c r="B73" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C73" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D73" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="E73" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>10</v>
@@ -2990,16 +2938,16 @@
     <row r="74" spans="1:6">
       <c r="A74" s="2"/>
       <c r="B74" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>10</v>
@@ -3008,16 +2956,16 @@
     <row r="75" spans="1:6">
       <c r="A75" s="2"/>
       <c r="B75" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>10</v>
@@ -3026,16 +2974,16 @@
     <row r="76" spans="1:6">
       <c r="A76" s="2"/>
       <c r="B76" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>10</v>
@@ -3044,16 +2992,16 @@
     <row r="77" spans="1:6">
       <c r="A77" s="2"/>
       <c r="B77" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>10</v>
@@ -3062,16 +3010,16 @@
     <row r="78" spans="1:6">
       <c r="A78" s="2"/>
       <c r="B78" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>10</v>
@@ -3080,16 +3028,16 @@
     <row r="79" spans="1:6">
       <c r="A79" s="2"/>
       <c r="B79" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C79" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="E79" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>10</v>
@@ -3098,16 +3046,16 @@
     <row r="80" spans="1:6">
       <c r="A80" s="2"/>
       <c r="B80" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>10</v>
@@ -3116,16 +3064,16 @@
     <row r="81" spans="1:6">
       <c r="A81" s="2"/>
       <c r="B81" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>10</v>
@@ -3136,16 +3084,16 @@
         <v>43020</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>10</v>
@@ -3154,16 +3102,16 @@
     <row r="84" spans="1:6">
       <c r="A84" s="2"/>
       <c r="B84" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C84" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="E84" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>10</v>
@@ -3172,16 +3120,16 @@
     <row r="85" spans="1:6">
       <c r="A85" s="2"/>
       <c r="B85" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>10</v>
@@ -3190,16 +3138,16 @@
     <row r="86" spans="1:6">
       <c r="A86" s="2"/>
       <c r="B86" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>10</v>
@@ -3208,16 +3156,16 @@
     <row r="87" spans="1:6">
       <c r="A87" s="2"/>
       <c r="B87" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>10</v>
@@ -3226,16 +3174,16 @@
     <row r="88" spans="1:6">
       <c r="A88" s="2"/>
       <c r="B88" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>10</v>
@@ -3244,16 +3192,16 @@
     <row r="89" spans="1:6">
       <c r="A89" s="2"/>
       <c r="B89" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>10</v>
@@ -3262,16 +3210,16 @@
     <row r="90" spans="1:6">
       <c r="A90" s="2"/>
       <c r="B90" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>10</v>
@@ -3280,16 +3228,16 @@
     <row r="91" spans="1:6">
       <c r="A91" s="2"/>
       <c r="B91" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>10</v>
@@ -3298,16 +3246,16 @@
     <row r="92" spans="1:6">
       <c r="A92" s="2"/>
       <c r="B92" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>10</v>
@@ -3316,16 +3264,16 @@
     <row r="93" spans="1:6">
       <c r="A93" s="2"/>
       <c r="B93" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>10</v>
@@ -3334,16 +3282,16 @@
     <row r="94" spans="1:6">
       <c r="A94" s="2"/>
       <c r="B94" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C94" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D94" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="E94" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>10</v>
@@ -3352,16 +3300,16 @@
     <row r="95" spans="1:6">
       <c r="A95" s="2"/>
       <c r="B95" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>10</v>
@@ -3370,16 +3318,16 @@
     <row r="96" spans="1:6">
       <c r="A96" s="2"/>
       <c r="B96" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>10</v>
@@ -3388,16 +3336,16 @@
     <row r="97" spans="1:6">
       <c r="A97" s="2"/>
       <c r="B97" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>10</v>
@@ -3406,16 +3354,16 @@
     <row r="98" spans="1:6">
       <c r="A98" s="2"/>
       <c r="B98" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>10</v>
@@ -3424,16 +3372,16 @@
     <row r="99" spans="1:6">
       <c r="A99" s="2"/>
       <c r="B99" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>10</v>
@@ -3442,16 +3390,16 @@
     <row r="100" spans="1:6">
       <c r="A100" s="2"/>
       <c r="B100" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>10</v>
@@ -3460,16 +3408,16 @@
     <row r="101" spans="1:6">
       <c r="A101" s="2"/>
       <c r="B101" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>10</v>
@@ -3478,16 +3426,16 @@
     <row r="102" spans="1:6">
       <c r="A102" s="2"/>
       <c r="B102" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>10</v>
@@ -3496,16 +3444,16 @@
     <row r="103" spans="1:6">
       <c r="A103" s="2"/>
       <c r="B103" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>10</v>
@@ -3514,16 +3462,16 @@
     <row r="104" spans="1:6">
       <c r="A104" s="2"/>
       <c r="B104" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>10</v>
@@ -3532,16 +3480,16 @@
     <row r="105" spans="1:6">
       <c r="A105" s="2"/>
       <c r="B105" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>10</v>
@@ -3552,16 +3500,16 @@
         <v>43021</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>10</v>
@@ -3570,16 +3518,16 @@
     <row r="108" spans="1:6">
       <c r="A108" s="2"/>
       <c r="B108" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>10</v>
@@ -3588,16 +3536,16 @@
     <row r="109" spans="1:6">
       <c r="A109" s="2"/>
       <c r="B109" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>10</v>
@@ -3606,16 +3554,16 @@
     <row r="110" spans="1:6">
       <c r="A110" s="2"/>
       <c r="B110" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>10</v>
@@ -3624,16 +3572,16 @@
     <row r="111" spans="1:6">
       <c r="A111" s="2"/>
       <c r="B111" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>10</v>
@@ -3642,16 +3590,16 @@
     <row r="112" spans="1:6">
       <c r="A112" s="2"/>
       <c r="B112" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>10</v>
@@ -3660,16 +3608,16 @@
     <row r="113" spans="1:6">
       <c r="A113" s="2"/>
       <c r="B113" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C113" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D113" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D113" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="E113" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>10</v>
@@ -3678,16 +3626,16 @@
     <row r="114" spans="1:6">
       <c r="A114" s="13"/>
       <c r="B114" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F114" s="5"/>
     </row>
@@ -3696,16 +3644,16 @@
         <v>43022</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>10</v>
@@ -3714,16 +3662,16 @@
     <row r="117" spans="1:6">
       <c r="A117" s="2"/>
       <c r="B117" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>10</v>
@@ -3732,16 +3680,16 @@
     <row r="118" spans="1:6">
       <c r="A118" s="2"/>
       <c r="B118" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>10</v>
@@ -3752,16 +3700,16 @@
         <v>43024</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>10</v>
@@ -3770,16 +3718,16 @@
     <row r="121" spans="1:6">
       <c r="A121" s="2"/>
       <c r="B121" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C121" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D121" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D121" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="E121" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>10</v>
@@ -3788,16 +3736,16 @@
     <row r="122" spans="1:6">
       <c r="A122" s="2"/>
       <c r="B122" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>10</v>
@@ -3806,16 +3754,16 @@
     <row r="123" spans="1:6">
       <c r="A123" s="2"/>
       <c r="B123" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>10</v>
@@ -3824,16 +3772,16 @@
     <row r="124" spans="1:6">
       <c r="A124" s="2"/>
       <c r="B124" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>10</v>
@@ -3842,16 +3790,16 @@
     <row r="125" spans="1:6">
       <c r="A125" s="2"/>
       <c r="B125" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>10</v>
@@ -3860,16 +3808,16 @@
     <row r="126" spans="1:6">
       <c r="A126" s="2"/>
       <c r="B126" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C126" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D126" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D126" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="E126" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>10</v>
@@ -3878,16 +3826,16 @@
     <row r="127" spans="1:6">
       <c r="A127" s="2"/>
       <c r="B127" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>10</v>
@@ -3898,16 +3846,16 @@
         <v>43025</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>10</v>
@@ -3916,16 +3864,16 @@
     <row r="130" spans="1:6">
       <c r="A130" s="2"/>
       <c r="B130" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>10</v>
@@ -3934,16 +3882,16 @@
     <row r="131" spans="1:6">
       <c r="A131" s="2"/>
       <c r="B131" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>10</v>
@@ -3952,16 +3900,16 @@
     <row r="132" spans="1:6">
       <c r="A132" s="2"/>
       <c r="B132" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>10</v>
@@ -3970,16 +3918,16 @@
     <row r="133" spans="1:6">
       <c r="A133" s="2"/>
       <c r="B133" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>10</v>
@@ -3988,16 +3936,16 @@
     <row r="134" spans="1:6">
       <c r="A134" s="2"/>
       <c r="B134" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C134" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D134" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D134" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="E134" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>10</v>
@@ -4006,16 +3954,16 @@
     <row r="135" spans="1:6">
       <c r="A135" s="2"/>
       <c r="B135" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>10</v>
@@ -4024,16 +3972,16 @@
     <row r="136" spans="1:6">
       <c r="A136" s="2"/>
       <c r="B136" s="3" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>10</v>
@@ -4042,16 +3990,16 @@
     <row r="137" spans="1:6">
       <c r="A137" s="2"/>
       <c r="B137" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>10</v>
@@ -4060,16 +4008,16 @@
     <row r="138" spans="1:6">
       <c r="A138" s="2"/>
       <c r="B138" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>10</v>
@@ -4078,16 +4026,16 @@
     <row r="139" spans="1:6">
       <c r="A139" s="2"/>
       <c r="B139" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>10</v>
@@ -4096,16 +4044,16 @@
     <row r="140" spans="1:6">
       <c r="A140" s="2"/>
       <c r="B140" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>10</v>
@@ -4114,16 +4062,16 @@
     <row r="141" spans="1:6">
       <c r="A141" s="2"/>
       <c r="B141" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>10</v>
@@ -4132,16 +4080,16 @@
     <row r="142" spans="1:6">
       <c r="A142" s="2"/>
       <c r="B142" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>10</v>
@@ -4152,16 +4100,16 @@
         <v>43025</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>10</v>
@@ -4172,16 +4120,16 @@
         <v>43028</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F146" s="5" t="s">
         <v>10</v>
@@ -4190,16 +4138,16 @@
     <row r="147" spans="1:6">
       <c r="A147" s="2"/>
       <c r="B147" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>10</v>
@@ -4208,16 +4156,16 @@
     <row r="148" spans="1:6">
       <c r="A148" s="2"/>
       <c r="B148" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>10</v>
@@ -4228,16 +4176,16 @@
         <v>43032</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F150" s="5" t="s">
         <v>10</v>
@@ -4246,16 +4194,16 @@
     <row r="151" spans="1:6">
       <c r="A151" s="2"/>
       <c r="B151" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C151" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D151" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D151" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="E151" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F151" s="5" t="s">
         <v>10</v>
@@ -4266,16 +4214,16 @@
         <v>43033</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F153" s="5" t="s">
         <v>10</v>
@@ -4284,16 +4232,16 @@
     <row r="154" spans="1:6">
       <c r="A154" s="2"/>
       <c r="B154" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F154" s="5" t="s">
         <v>10</v>
@@ -4302,16 +4250,16 @@
     <row r="155" spans="1:6">
       <c r="A155" s="2"/>
       <c r="B155" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D155" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C155" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="E155" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>10</v>
@@ -4320,16 +4268,16 @@
     <row r="156" spans="1:6">
       <c r="A156" s="13"/>
       <c r="B156" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>10</v>
@@ -4338,16 +4286,16 @@
     <row r="157" spans="1:6">
       <c r="A157" s="13"/>
       <c r="B157" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>10</v>
@@ -4356,16 +4304,16 @@
     <row r="158" spans="1:6">
       <c r="A158" s="13"/>
       <c r="B158" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F158" s="5" t="s">
         <v>10</v>
@@ -4374,16 +4322,16 @@
     <row r="159" spans="1:6">
       <c r="A159" s="13"/>
       <c r="B159" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F159" s="5" t="s">
         <v>10</v>
@@ -4392,16 +4340,16 @@
     <row r="160" spans="1:6">
       <c r="A160" s="13"/>
       <c r="B160" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F160" s="5" t="s">
         <v>10</v>
@@ -4410,16 +4358,16 @@
     <row r="161" spans="1:6">
       <c r="A161" s="13"/>
       <c r="B161" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>10</v>
@@ -4428,16 +4376,16 @@
     <row r="162" spans="1:6">
       <c r="A162" s="2"/>
       <c r="B162" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>7</v>
+        <v>169</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F162" s="5" t="s">
         <v>10</v>
@@ -4448,16 +4396,16 @@
         <v>43036</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F164" s="5" t="s">
         <v>10</v>
@@ -4466,16 +4414,16 @@
     <row r="165" spans="1:6">
       <c r="A165" s="2"/>
       <c r="B165" s="3" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>177</v>
+        <v>20</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F165" s="5" t="s">
         <v>10</v>
@@ -4484,16 +4432,16 @@
     <row r="166" spans="1:6">
       <c r="A166" s="2"/>
       <c r="B166" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>178</v>
+        <v>13</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F166" s="5" t="s">
         <v>10</v>
@@ -4502,16 +4450,16 @@
     <row r="167" spans="1:6">
       <c r="A167" s="2"/>
       <c r="B167" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>178</v>
+        <v>13</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F167" s="5" t="s">
         <v>10</v>
@@ -4520,16 +4468,16 @@
     <row r="168" spans="1:6">
       <c r="A168" s="2"/>
       <c r="B168" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>178</v>
+        <v>13</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F168" s="5" t="s">
         <v>10</v>
@@ -4538,16 +4486,16 @@
     <row r="169" spans="1:6">
       <c r="A169" s="2"/>
       <c r="B169" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F169" s="5" t="s">
         <v>10</v>
@@ -4556,16 +4504,16 @@
     <row r="170" spans="1:6">
       <c r="A170" s="2"/>
       <c r="B170" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F170" s="5" t="s">
         <v>10</v>
@@ -4574,16 +4522,16 @@
     <row r="171" spans="1:6">
       <c r="A171" s="2"/>
       <c r="B171" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F171" s="5" t="s">
         <v>10</v>
@@ -4592,16 +4540,16 @@
     <row r="172" spans="1:6">
       <c r="A172" s="2"/>
       <c r="B172" s="3" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="D172" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E172" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="E172" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="F172" s="5" t="s">
         <v>10</v>
@@ -4610,16 +4558,16 @@
     <row r="173" spans="1:6">
       <c r="A173" s="2"/>
       <c r="B173" s="3" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>177</v>
+        <v>20</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F173" s="5" t="s">
         <v>10</v>
@@ -4628,16 +4576,16 @@
     <row r="174" spans="1:6">
       <c r="A174" s="2"/>
       <c r="B174" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F174" s="5" t="s">
         <v>10</v>
@@ -4646,16 +4594,16 @@
     <row r="175" spans="1:6">
       <c r="A175" s="2"/>
       <c r="B175" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>178</v>
+        <v>13</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F175" s="5" t="s">
         <v>10</v>
@@ -4664,16 +4612,16 @@
     <row r="176" spans="1:6">
       <c r="A176" s="2"/>
       <c r="B176" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F176" s="5" t="s">
         <v>10</v>
@@ -4682,16 +4630,16 @@
     <row r="177" spans="1:6">
       <c r="A177" s="2"/>
       <c r="B177" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F177" s="5" t="s">
         <v>10</v>
@@ -4700,16 +4648,16 @@
     <row r="178" spans="1:6">
       <c r="A178" s="2"/>
       <c r="B178" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D178" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E178" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="E178" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="F178" s="5" t="s">
         <v>10</v>
@@ -4718,16 +4666,16 @@
     <row r="179" spans="1:6">
       <c r="A179" s="2"/>
       <c r="B179" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F179" s="5" t="s">
         <v>10</v>
@@ -4736,16 +4684,16 @@
     <row r="180" spans="1:6">
       <c r="A180" s="2"/>
       <c r="B180" s="3" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F180" s="5" t="s">
         <v>10</v>
@@ -4754,16 +4702,16 @@
     <row r="181" spans="1:6">
       <c r="A181" s="2"/>
       <c r="B181" s="3" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>177</v>
+        <v>20</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F181" s="5" t="s">
         <v>10</v>
@@ -4774,16 +4722,16 @@
         <v>43038</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F183" s="5" t="s">
         <v>10</v>
@@ -4792,16 +4740,16 @@
     <row r="184" spans="1:6">
       <c r="A184" s="2"/>
       <c r="B184" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F184" s="5" t="s">
         <v>10</v>
@@ -4810,16 +4758,16 @@
     <row r="185" spans="1:6">
       <c r="A185" s="2"/>
       <c r="B185" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F185" s="5" t="s">
         <v>10</v>
@@ -4828,16 +4776,16 @@
     <row r="186" spans="1:6">
       <c r="A186" s="2"/>
       <c r="B186" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F186" s="5" t="s">
         <v>10</v>
@@ -4846,16 +4794,16 @@
     <row r="187" spans="1:6">
       <c r="A187" s="2"/>
       <c r="B187" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F187" s="5" t="s">
         <v>10</v>
@@ -4864,16 +4812,16 @@
     <row r="188" spans="1:6">
       <c r="A188" s="2"/>
       <c r="B188" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F188" s="5" t="s">
         <v>10</v>
@@ -4882,16 +4830,16 @@
     <row r="189" spans="1:6">
       <c r="A189" s="2"/>
       <c r="B189" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F189" s="5" t="s">
         <v>10</v>
@@ -4900,16 +4848,16 @@
     <row r="190" spans="1:6">
       <c r="A190" s="2"/>
       <c r="B190" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C190" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D190" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D190" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="E190" s="4" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F190" s="5" t="s">
         <v>10</v>
@@ -4918,16 +4866,16 @@
     <row r="191" spans="1:6">
       <c r="A191" s="2"/>
       <c r="B191" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C191" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D191" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D191" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="E191" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F191" s="5" t="s">
         <v>10</v>
@@ -4936,16 +4884,16 @@
     <row r="192" spans="1:6">
       <c r="A192" s="2"/>
       <c r="B192" s="3" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F192" s="5" t="s">
         <v>10</v>
@@ -4954,16 +4902,16 @@
     <row r="193" spans="1:6">
       <c r="A193" s="2"/>
       <c r="B193" s="3" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>177</v>
+        <v>20</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F193" s="5" t="s">
         <v>10</v>
@@ -4972,16 +4920,16 @@
     <row r="194" spans="1:6">
       <c r="A194" s="2"/>
       <c r="B194" s="3" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F194" s="5" t="s">
         <v>10</v>
@@ -4992,16 +4940,16 @@
         <v>43039</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F196" s="5" t="s">
         <v>10</v>
@@ -5010,16 +4958,16 @@
     <row r="197" spans="1:6">
       <c r="A197" s="2"/>
       <c r="B197" s="3" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F197" s="5" t="s">
         <v>10</v>
@@ -5030,16 +4978,16 @@
         <v>43040</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F199" s="5" t="s">
         <v>10</v>
@@ -5048,16 +4996,16 @@
     <row r="200" spans="1:6">
       <c r="A200" s="2"/>
       <c r="B200" s="3" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>177</v>
+        <v>20</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F200" s="5" t="s">
         <v>10</v>
@@ -5066,16 +5014,16 @@
     <row r="201" spans="1:6">
       <c r="A201" s="2"/>
       <c r="B201" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F201" s="5" t="s">
         <v>10</v>
@@ -5084,16 +5032,16 @@
     <row r="202" spans="1:6">
       <c r="A202" s="2"/>
       <c r="B202" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D202" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E202" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="E202" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="F202" s="5" t="s">
         <v>10</v>
@@ -5104,23 +5052,205 @@
         <v>43041</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E204" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="2">
+        <v>43042</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="2"/>
+      <c r="B207" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="2"/>
+      <c r="B208" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="2"/>
+      <c r="B209" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="2"/>
+      <c r="B210" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="2"/>
+      <c r="B211" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="2"/>
+      <c r="B212" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F212" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="2"/>
+      <c r="B213" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F213" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="2"/>
+      <c r="B214" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C214" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="F204" s="5" t="s">
+      <c r="D214" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="2"/>
+      <c r="B215" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F215" s="5" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
@@ -5148,6 +5278,7 @@
     <mergeCell ref="A183:A194"/>
     <mergeCell ref="A196:A197"/>
     <mergeCell ref="A199:A202"/>
+    <mergeCell ref="A206:A215"/>
     <mergeCell ref="G15:I16"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求分析/接口文档/客户/更新说明.xlsx
+++ b/需求分析/接口文档/客户/更新说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21435" windowHeight="9525"/>
+    <workbookView windowWidth="27120" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="当前更新" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210">
   <si>
     <t>更新时间</t>
   </si>
@@ -35,601 +35,616 @@
     <t>状态</t>
   </si>
   <si>
+    <t>订单接口</t>
+  </si>
+  <si>
+    <t>跟单订单</t>
+  </si>
+  <si>
+    <t>跟单审核通过</t>
+  </si>
+  <si>
+    <t>添加 商家留言 参数</t>
+  </si>
+  <si>
+    <t>已验证</t>
+  </si>
+  <si>
+    <t>客户资源</t>
+  </si>
+  <si>
+    <t>获取跟进详情</t>
+  </si>
+  <si>
+    <t>新增 跟进人 返回</t>
+  </si>
+  <si>
+    <t>接口测试数据登陆:http://112.74.32.113/backend/pages/index/index.html</t>
+  </si>
+  <si>
     <t>客户接口</t>
   </si>
   <si>
+    <t>个人信息</t>
+  </si>
+  <si>
+    <t>获取默认收货地址</t>
+  </si>
+  <si>
+    <t>新添加的接口</t>
+  </si>
+  <si>
+    <t>个人信息接口</t>
+  </si>
+  <si>
+    <t>经营单位</t>
+  </si>
+  <si>
+    <t>获取经营单位详情</t>
+  </si>
+  <si>
+    <t>新增接口</t>
+  </si>
+  <si>
+    <t>客户信息</t>
+  </si>
+  <si>
+    <t>获取客户列表</t>
+  </si>
+  <si>
+    <t>添加返回客户头像</t>
+  </si>
+  <si>
+    <t>移交客户</t>
+  </si>
+  <si>
+    <t>业务员移交客户</t>
+  </si>
+  <si>
+    <t>跟单员移交客户</t>
+  </si>
+  <si>
+    <t>养殖信息(新)</t>
+  </si>
+  <si>
+    <t>所有的接口</t>
+  </si>
+  <si>
+    <t>hadAccount(账号状态)</t>
+  </si>
+  <si>
+    <t>商城接口</t>
+  </si>
+  <si>
+    <t>订单</t>
+  </si>
+  <si>
+    <t>获取运费模板列表(客户)</t>
+  </si>
+  <si>
+    <t>添加商家地址返回</t>
+  </si>
+  <si>
     <t>客户建账</t>
   </si>
   <si>
     <t>获取审批人列表</t>
   </si>
   <si>
+    <t>暂停使用</t>
+  </si>
+  <si>
+    <t>未建账</t>
+  </si>
+  <si>
+    <t>添加融云id返回</t>
+  </si>
+  <si>
+    <t>已建账</t>
+  </si>
+  <si>
+    <t>申请客户建账</t>
+  </si>
+  <si>
+    <t>添加 申请原因 参数</t>
+  </si>
+  <si>
+    <t>账号被冻结</t>
+  </si>
+  <si>
+    <t>冻结客户</t>
+  </si>
+  <si>
+    <t>解冻客户</t>
+  </si>
+  <si>
+    <t>获取客户详情</t>
+  </si>
+  <si>
+    <t>添加 账号冻结 状态</t>
+  </si>
+  <si>
+    <t>商品浏览</t>
+  </si>
+  <si>
+    <t>查看商品详情</t>
+  </si>
+  <si>
+    <t>添加 规格重量 返回</t>
+  </si>
+  <si>
+    <t>购物车</t>
+  </si>
+  <si>
+    <t>获取购物车商品列表</t>
+  </si>
+  <si>
+    <t>获取订单列表</t>
+  </si>
+  <si>
+    <t>添加 订单号 返回</t>
+  </si>
+  <si>
+    <t>获取订单详情</t>
+  </si>
+  <si>
+    <t>筛选订单</t>
+  </si>
+  <si>
+    <t>根据订单号获取订单列表</t>
+  </si>
+  <si>
+    <t>业务订单</t>
+  </si>
+  <si>
+    <t>财务订单</t>
+  </si>
+  <si>
+    <t>权限角色接口</t>
+  </si>
+  <si>
+    <t>权限角色</t>
+  </si>
+  <si>
+    <t>获取用户角色</t>
+  </si>
+  <si>
+    <t>获取跟单员列表</t>
+  </si>
+  <si>
+    <t>开放使用</t>
+  </si>
+  <si>
+    <t>库存接口</t>
+  </si>
+  <si>
+    <t>申请库存</t>
+  </si>
+  <si>
+    <t>更名为 客户商城接口</t>
+  </si>
+  <si>
+    <t>商家商城接口</t>
+  </si>
+  <si>
+    <t>原 商城接口 的拆分</t>
+  </si>
+  <si>
+    <t>运费模板</t>
+  </si>
+  <si>
+    <t>销售点</t>
+  </si>
+  <si>
+    <t>商品编辑</t>
+  </si>
+  <si>
+    <t>所有接口</t>
+  </si>
+  <si>
+    <t>业务订单(业务)</t>
+  </si>
+  <si>
+    <t>业务订单(业务管理)</t>
+  </si>
+  <si>
+    <t>财务订单(财务)</t>
+  </si>
+  <si>
+    <t>财务订单(财务管理)</t>
+  </si>
+  <si>
+    <t>后勤订单(跟单)</t>
+  </si>
+  <si>
+    <t>已废弃</t>
+  </si>
+  <si>
+    <t>需求接口</t>
+  </si>
+  <si>
+    <t>激活登陆</t>
+  </si>
+  <si>
+    <t>用户登录</t>
+  </si>
+  <si>
+    <t>添加 企业名称 返回</t>
+  </si>
+  <si>
+    <t>查找分类下的商品</t>
+  </si>
+  <si>
+    <t>搜索商品</t>
+  </si>
+  <si>
+    <t>所有 筛选订单 接口</t>
+  </si>
+  <si>
+    <t>新增 订单总价 返回</t>
+  </si>
+  <si>
+    <t>客户订单</t>
+  </si>
+  <si>
+    <t>生成订单</t>
+  </si>
+  <si>
+    <t>添加 商品不存在 返回值</t>
+  </si>
+  <si>
+    <t>养殖信息（新）</t>
+  </si>
+  <si>
+    <t>获取养殖信息详情（新）</t>
+  </si>
+  <si>
+    <t>获取养殖信息列表</t>
+  </si>
+  <si>
+    <t>添加 json 返回</t>
+  </si>
+  <si>
+    <t>获取养殖信息详情</t>
+  </si>
+  <si>
+    <t>所有订单筛选接口</t>
+  </si>
+  <si>
+    <t>更新 订单状态</t>
+  </si>
+  <si>
+    <t>添加 角色代码 返回值</t>
+  </si>
+  <si>
+    <t>客户跟进</t>
+  </si>
+  <si>
+    <t>添加 跟进标题 参数</t>
+  </si>
+  <si>
+    <t>查看库存</t>
+  </si>
+  <si>
+    <t>查看销售点库存</t>
+  </si>
+  <si>
+    <t>添加 返回参数</t>
+  </si>
+  <si>
+    <t>查看当前销售点库存</t>
+  </si>
+  <si>
+    <t>查看总部销售点库存</t>
+  </si>
+  <si>
+    <t>盘点库存</t>
+  </si>
+  <si>
+    <t>获取库存盘点记录</t>
+  </si>
+  <si>
+    <t>库存进仓</t>
+  </si>
+  <si>
+    <t>新建进仓单</t>
+  </si>
+  <si>
+    <t>获取进仓单列表</t>
+  </si>
+  <si>
+    <t>获取进仓单详情</t>
+  </si>
+  <si>
+    <t>申请人获取库存申请列表</t>
+  </si>
+  <si>
+    <t>审批人获取库存审批列表</t>
+  </si>
+  <si>
+    <t>添加 商品图片 返回</t>
+  </si>
+  <si>
+    <t>库存盘点</t>
+  </si>
+  <si>
+    <t>添加 时间段筛选 条件</t>
+  </si>
+  <si>
+    <t>获取库存盘点记录详情</t>
+  </si>
+  <si>
+    <t>添加 筛选 条件</t>
+  </si>
+  <si>
+    <t>搜索库存商品</t>
+  </si>
+  <si>
+    <t>添加 付款状态 返回</t>
+  </si>
+  <si>
+    <t>跟单订单(跟单)</t>
+  </si>
+  <si>
+    <t>获取成员的客户列表</t>
+  </si>
+  <si>
+    <t>添加 用户头像 返回</t>
+  </si>
+  <si>
+    <t>筛选客户列表</t>
+  </si>
+  <si>
+    <t>此接口与(获取成员的客户列表)合并</t>
+  </si>
+  <si>
+    <t>获取总部销售点Id</t>
+  </si>
+  <si>
+    <t>添加 商品编码 返回</t>
+  </si>
+  <si>
+    <t>添加 商品编码、申请单号 返回</t>
+  </si>
+  <si>
+    <t>组织管理接口</t>
+  </si>
+  <si>
+    <t>组织管理</t>
+  </si>
+  <si>
+    <t>获取可分配的角色列表</t>
+  </si>
+  <si>
+    <t>获取商品列表</t>
+  </si>
+  <si>
+    <t>添加 商品规格Id 返回</t>
+  </si>
+  <si>
+    <t>参数 recordList 替换为 incomeList</t>
+  </si>
+  <si>
+    <t>添加 总部当前库存 返回</t>
+  </si>
+  <si>
+    <t>添加 该账号已存在 状态码</t>
+  </si>
+  <si>
+    <t>添加 商品分类 返回</t>
+  </si>
+  <si>
+    <t>登陆激活</t>
+  </si>
+  <si>
+    <t>用户登录(浏览器)</t>
+  </si>
+  <si>
+    <t>获取当前销售点进仓单列表</t>
+  </si>
+  <si>
+    <t>获取当销售点前库存盘点记录</t>
+  </si>
+  <si>
+    <t>更新 branchId(销售点Id) 为选填</t>
+  </si>
+  <si>
+    <t>添加 头像 返回</t>
+  </si>
+  <si>
+    <t>团队接口</t>
+  </si>
+  <si>
+    <t>团队</t>
+  </si>
+  <si>
+    <t>获取团队内所有成员</t>
+  </si>
+  <si>
+    <t>获取库存审批详情</t>
+  </si>
+  <si>
+    <t>获取当前部门下的成员列表</t>
+  </si>
+  <si>
+    <t>获取当前部门下的客户列表</t>
+  </si>
+  <si>
+    <t>申请协助</t>
+  </si>
+  <si>
+    <t>协助者获取协助列表</t>
+  </si>
+  <si>
+    <t>新增 status(审批状态) 筛选</t>
+  </si>
+  <si>
+    <t>获取申请详情</t>
+  </si>
+  <si>
+    <t>新增 status(审批状态) 返回</t>
+  </si>
+  <si>
+    <t>获取库存等级</t>
+  </si>
+  <si>
+    <t>获取头像图片</t>
+  </si>
+  <si>
+    <t>新增 是否建账 筛选</t>
+  </si>
+  <si>
+    <t>财务A审批通过</t>
+  </si>
+  <si>
+    <t>删除接口</t>
+  </si>
+  <si>
+    <t>财务A审批拒绝</t>
+  </si>
+  <si>
+    <t>财务B审批通过</t>
+  </si>
+  <si>
+    <t>财务B审批拒绝</t>
+  </si>
+  <si>
+    <t>财务审核通过</t>
+  </si>
+  <si>
+    <t>财务审核不通过</t>
+  </si>
+  <si>
+    <t>所有标签</t>
+  </si>
+  <si>
+    <t>更新订单状态</t>
+  </si>
+  <si>
+    <t>通用申请接口</t>
+  </si>
+  <si>
+    <t>通用申请</t>
+  </si>
+  <si>
+    <t>发起人获取申请列表</t>
+  </si>
+  <si>
+    <t>新增 applyResult(申请状态) 筛选</t>
+  </si>
+  <si>
+    <t>审批人获取申请列表</t>
+  </si>
+  <si>
+    <t>审批员获取建账申请列表</t>
+  </si>
+  <si>
+    <t>新增 requestStatus(申请状态)、userImage(头像) 返回</t>
+  </si>
+  <si>
+    <t>新增 分页 参数</t>
+  </si>
+  <si>
+    <t>新增 requestStatus(申请状态) 筛选</t>
+  </si>
+  <si>
+    <t>申请人获取建账申请列表</t>
+  </si>
+  <si>
+    <t>新增 userImage(头像) 返回</t>
+  </si>
+  <si>
+    <t>新增 已审批 筛选状态</t>
+  </si>
+  <si>
+    <t>申请者获取协助列表</t>
+  </si>
+  <si>
+    <t>新增 createDate(申请时间) 返回</t>
+  </si>
+  <si>
+    <t>搜索客户</t>
+  </si>
+  <si>
+    <t>搜索当前部门下的客户</t>
+  </si>
+  <si>
+    <t>冻结成员</t>
+  </si>
+  <si>
+    <t>解冻成员</t>
+  </si>
+  <si>
+    <t>搜索部门成员</t>
+  </si>
+  <si>
+    <t>获取部门成员列表</t>
+  </si>
+  <si>
+    <t>获取建账申请详情</t>
+  </si>
+  <si>
+    <t>新增 头像 返回</t>
+  </si>
+  <si>
+    <t>新增 协助者头像 返回</t>
+  </si>
+  <si>
+    <t>新增 审批人头像 返回</t>
+  </si>
+  <si>
+    <t>新增 申请状态 返回</t>
+  </si>
+  <si>
+    <t>新增 部门名称 返回</t>
+  </si>
+  <si>
+    <t>调货申请</t>
+  </si>
+  <si>
+    <t>添加 签收时间 返回值</t>
+  </si>
+  <si>
+    <t>添加 部门 返回值</t>
+  </si>
+  <si>
+    <t>新增 能否审批 返回</t>
+  </si>
+  <si>
+    <t>新增 退货时间 返回</t>
+  </si>
+  <si>
+    <t>新增 收货地址 规则</t>
+  </si>
+  <si>
+    <t>搜索订单(财务主管通用)</t>
+  </si>
+  <si>
+    <t>获取订单详情(财务主管通用)</t>
+  </si>
+  <si>
+    <t>搜索订单(业务主管通用)</t>
+  </si>
+  <si>
+    <t>获取订单详情(业务主管通用)</t>
+  </si>
+  <si>
+    <t>找回密码</t>
+  </si>
+  <si>
+    <t>验证密码</t>
+  </si>
+  <si>
+    <t>用户登出(浏览器)</t>
+  </si>
+  <si>
     <t>新增 departmentId(部门) 筛选</t>
   </si>
   <si>
-    <t>已验证</t>
-  </si>
-  <si>
-    <t>申请人获取建账申请列表</t>
-  </si>
-  <si>
     <t>新增 总页数 返回</t>
   </si>
   <si>
-    <t>审批员获取建账申请列表</t>
-  </si>
-  <si>
-    <t>订单接口</t>
-  </si>
-  <si>
-    <t>客户订单</t>
-  </si>
-  <si>
-    <t>获取运费模板列表(客户)</t>
-  </si>
-  <si>
-    <t>通用申请接口</t>
-  </si>
-  <si>
-    <t>通用申请</t>
-  </si>
-  <si>
-    <t>发起人获取申请列表</t>
-  </si>
-  <si>
-    <t>审批人获取申请列表</t>
-  </si>
-  <si>
-    <t>接口测试数据登陆:http://112.74.32.113/backend/pages/index/index.html</t>
-  </si>
-  <si>
-    <t>个人信息</t>
-  </si>
-  <si>
-    <t>获取默认收货地址</t>
-  </si>
-  <si>
-    <t>新添加的接口</t>
-  </si>
-  <si>
-    <t>个人信息接口</t>
-  </si>
-  <si>
-    <t>经营单位</t>
-  </si>
-  <si>
-    <t>获取经营单位详情</t>
-  </si>
-  <si>
-    <t>新增接口</t>
-  </si>
-  <si>
-    <t>客户信息</t>
-  </si>
-  <si>
-    <t>获取客户列表</t>
-  </si>
-  <si>
-    <t>添加返回客户头像</t>
-  </si>
-  <si>
-    <t>移交客户</t>
-  </si>
-  <si>
-    <t>业务员移交客户</t>
-  </si>
-  <si>
-    <t>跟单员移交客户</t>
-  </si>
-  <si>
-    <t>养殖信息(新)</t>
-  </si>
-  <si>
-    <t>所有的接口</t>
-  </si>
-  <si>
-    <t>hadAccount(账号状态)</t>
-  </si>
-  <si>
-    <t>商城接口</t>
-  </si>
-  <si>
-    <t>订单</t>
-  </si>
-  <si>
-    <t>添加商家地址返回</t>
-  </si>
-  <si>
-    <t>暂停使用</t>
-  </si>
-  <si>
-    <t>未建账</t>
-  </si>
-  <si>
-    <t>添加融云id返回</t>
-  </si>
-  <si>
-    <t>已建账</t>
-  </si>
-  <si>
-    <t>申请客户建账</t>
-  </si>
-  <si>
-    <t>添加 申请原因 参数</t>
-  </si>
-  <si>
-    <t>账号被冻结</t>
-  </si>
-  <si>
-    <t>冻结客户</t>
-  </si>
-  <si>
-    <t>解冻客户</t>
-  </si>
-  <si>
-    <t>获取客户详情</t>
-  </si>
-  <si>
-    <t>添加 账号冻结 状态</t>
-  </si>
-  <si>
-    <t>商品浏览</t>
-  </si>
-  <si>
-    <t>查看商品详情</t>
-  </si>
-  <si>
-    <t>添加 规格重量 返回</t>
-  </si>
-  <si>
-    <t>购物车</t>
-  </si>
-  <si>
-    <t>获取购物车商品列表</t>
-  </si>
-  <si>
-    <t>获取订单列表</t>
-  </si>
-  <si>
-    <t>添加 订单号 返回</t>
-  </si>
-  <si>
-    <t>获取订单详情</t>
-  </si>
-  <si>
-    <t>筛选订单</t>
-  </si>
-  <si>
-    <t>根据订单号获取订单列表</t>
-  </si>
-  <si>
-    <t>业务订单</t>
-  </si>
-  <si>
-    <t>财务订单</t>
-  </si>
-  <si>
-    <t>权限角色接口</t>
-  </si>
-  <si>
-    <t>权限角色</t>
-  </si>
-  <si>
-    <t>获取用户角色</t>
-  </si>
-  <si>
-    <t>获取跟单员列表</t>
-  </si>
-  <si>
-    <t>开放使用</t>
-  </si>
-  <si>
-    <t>库存接口</t>
-  </si>
-  <si>
-    <t>申请库存</t>
-  </si>
-  <si>
-    <t>更名为 客户商城接口</t>
-  </si>
-  <si>
-    <t>商家商城接口</t>
-  </si>
-  <si>
-    <t>原 商城接口 的拆分</t>
-  </si>
-  <si>
-    <t>运费模板</t>
-  </si>
-  <si>
-    <t>销售点</t>
-  </si>
-  <si>
-    <t>商品编辑</t>
-  </si>
-  <si>
-    <t>所有接口</t>
-  </si>
-  <si>
-    <t>业务订单(业务)</t>
-  </si>
-  <si>
-    <t>业务订单(业务管理)</t>
-  </si>
-  <si>
-    <t>财务订单(财务)</t>
-  </si>
-  <si>
-    <t>财务订单(财务管理)</t>
-  </si>
-  <si>
-    <t>后勤订单(跟单)</t>
-  </si>
-  <si>
-    <t>已废弃</t>
-  </si>
-  <si>
-    <t>需求接口</t>
-  </si>
-  <si>
-    <t>激活登陆</t>
-  </si>
-  <si>
-    <t>用户登录</t>
-  </si>
-  <si>
-    <t>添加 企业名称 返回</t>
-  </si>
-  <si>
-    <t>查找分类下的商品</t>
-  </si>
-  <si>
-    <t>搜索商品</t>
-  </si>
-  <si>
-    <t>所有 筛选订单 接口</t>
-  </si>
-  <si>
-    <t>新增 订单总价 返回</t>
-  </si>
-  <si>
-    <t>生成订单</t>
-  </si>
-  <si>
-    <t>添加 商品不存在 返回值</t>
-  </si>
-  <si>
-    <t>养殖信息（新）</t>
-  </si>
-  <si>
-    <t>获取养殖信息详情（新）</t>
-  </si>
-  <si>
-    <t>客户资源</t>
-  </si>
-  <si>
-    <t>获取养殖信息列表</t>
-  </si>
-  <si>
-    <t>添加 json 返回</t>
-  </si>
-  <si>
-    <t>获取养殖信息详情</t>
-  </si>
-  <si>
-    <t>所有订单筛选接口</t>
-  </si>
-  <si>
-    <t>更新 订单状态</t>
-  </si>
-  <si>
-    <t>添加 角色代码 返回值</t>
-  </si>
-  <si>
-    <t>客户跟进</t>
-  </si>
-  <si>
-    <t>添加 跟进标题 参数</t>
-  </si>
-  <si>
-    <t>查看库存</t>
-  </si>
-  <si>
-    <t>查看销售点库存</t>
-  </si>
-  <si>
-    <t>添加 返回参数</t>
-  </si>
-  <si>
-    <t>查看当前销售点库存</t>
-  </si>
-  <si>
-    <t>查看总部销售点库存</t>
-  </si>
-  <si>
-    <t>盘点库存</t>
-  </si>
-  <si>
-    <t>获取库存盘点记录</t>
-  </si>
-  <si>
-    <t>库存进仓</t>
-  </si>
-  <si>
-    <t>新建进仓单</t>
-  </si>
-  <si>
-    <t>获取进仓单列表</t>
-  </si>
-  <si>
-    <t>获取进仓单详情</t>
-  </si>
-  <si>
-    <t>申请人获取库存申请列表</t>
-  </si>
-  <si>
-    <t>审批人获取库存审批列表</t>
-  </si>
-  <si>
-    <t>添加 商品图片 返回</t>
-  </si>
-  <si>
-    <t>库存盘点</t>
-  </si>
-  <si>
-    <t>添加 时间段筛选 条件</t>
-  </si>
-  <si>
-    <t>获取库存盘点记录详情</t>
-  </si>
-  <si>
-    <t>添加 筛选 条件</t>
-  </si>
-  <si>
-    <t>搜索库存商品</t>
-  </si>
-  <si>
-    <t>添加 付款状态 返回</t>
-  </si>
-  <si>
-    <t>跟单订单(跟单)</t>
-  </si>
-  <si>
-    <t>获取成员的客户列表</t>
-  </si>
-  <si>
-    <t>添加 用户头像 返回</t>
-  </si>
-  <si>
-    <t>筛选客户列表</t>
-  </si>
-  <si>
-    <t>此接口与(获取成员的客户列表)合并</t>
-  </si>
-  <si>
-    <t>获取总部销售点Id</t>
-  </si>
-  <si>
-    <t>添加 商品编码 返回</t>
-  </si>
-  <si>
-    <t>添加 商品编码、申请单号 返回</t>
-  </si>
-  <si>
-    <t>组织管理接口</t>
-  </si>
-  <si>
-    <t>组织管理</t>
-  </si>
-  <si>
-    <t>获取可分配的角色列表</t>
-  </si>
-  <si>
-    <t>获取商品列表</t>
-  </si>
-  <si>
-    <t>添加 商品规格Id 返回</t>
-  </si>
-  <si>
-    <t>参数 recordList 替换为 incomeList</t>
-  </si>
-  <si>
-    <t>添加 总部当前库存 返回</t>
-  </si>
-  <si>
-    <t>添加 该账号已存在 状态码</t>
-  </si>
-  <si>
-    <t>添加 商品分类 返回</t>
-  </si>
-  <si>
-    <t>登陆激活</t>
-  </si>
-  <si>
-    <t>用户登录(浏览器)</t>
-  </si>
-  <si>
-    <t>获取当前销售点进仓单列表</t>
-  </si>
-  <si>
-    <t>获取当销售点前库存盘点记录</t>
-  </si>
-  <si>
-    <t>更新 branchId(销售点Id) 为选填</t>
-  </si>
-  <si>
-    <t>添加 头像 返回</t>
-  </si>
-  <si>
-    <t>团队接口</t>
-  </si>
-  <si>
-    <t>团队</t>
-  </si>
-  <si>
-    <t>获取团队内所有成员</t>
-  </si>
-  <si>
-    <t>获取库存审批详情</t>
-  </si>
-  <si>
-    <t>获取当前部门下的成员列表</t>
-  </si>
-  <si>
-    <t>获取当前部门下的客户列表</t>
-  </si>
-  <si>
-    <t>申请协助</t>
-  </si>
-  <si>
-    <t>协助者获取协助列表</t>
-  </si>
-  <si>
-    <t>新增 status(审批状态) 筛选</t>
-  </si>
-  <si>
-    <t>获取申请详情</t>
-  </si>
-  <si>
-    <t>新增 status(审批状态) 返回</t>
-  </si>
-  <si>
-    <t>获取库存等级</t>
-  </si>
-  <si>
-    <t>获取头像图片</t>
-  </si>
-  <si>
-    <t>新增 是否建账 筛选</t>
-  </si>
-  <si>
-    <t>财务A审批通过</t>
-  </si>
-  <si>
-    <t>删除接口</t>
-  </si>
-  <si>
-    <t>财务A审批拒绝</t>
-  </si>
-  <si>
-    <t>财务B审批通过</t>
-  </si>
-  <si>
-    <t>财务B审批拒绝</t>
-  </si>
-  <si>
-    <t>财务审核通过</t>
-  </si>
-  <si>
-    <t>财务审核不通过</t>
-  </si>
-  <si>
-    <t>所有标签</t>
-  </si>
-  <si>
-    <t>更新订单状态</t>
-  </si>
-  <si>
-    <t>新增 applyResult(申请状态) 筛选</t>
-  </si>
-  <si>
-    <t>新增 requestStatus(申请状态)、userImage(头像) 返回</t>
-  </si>
-  <si>
-    <t>新增 分页 参数</t>
-  </si>
-  <si>
-    <t>新增 requestStatus(申请状态) 筛选</t>
-  </si>
-  <si>
-    <t>新增 userImage(头像) 返回</t>
-  </si>
-  <si>
-    <t>新增 已审批 筛选状态</t>
-  </si>
-  <si>
-    <t>申请者获取协助列表</t>
-  </si>
-  <si>
-    <t>新增 createDate(申请时间) 返回</t>
-  </si>
-  <si>
-    <t>搜索客户</t>
-  </si>
-  <si>
-    <t>搜索当前部门下的客户</t>
-  </si>
-  <si>
-    <t>冻结成员</t>
-  </si>
-  <si>
-    <t>解冻成员</t>
-  </si>
-  <si>
-    <t>搜索部门成员</t>
-  </si>
-  <si>
-    <t>获取部门成员列表</t>
-  </si>
-  <si>
-    <t>获取建账申请详情</t>
-  </si>
-  <si>
-    <t>新增 头像 返回</t>
-  </si>
-  <si>
-    <t>新增 协助者头像 返回</t>
-  </si>
-  <si>
-    <t>新增 审批人头像 返回</t>
-  </si>
-  <si>
-    <t>新增 申请状态 返回</t>
-  </si>
-  <si>
-    <t>新增 部门名称 返回</t>
-  </si>
-  <si>
-    <t>调货申请</t>
-  </si>
-  <si>
-    <t>添加 签收时间 返回值</t>
-  </si>
-  <si>
-    <t>添加 部门 返回值</t>
-  </si>
-  <si>
-    <t>新增 能否审批 返回</t>
-  </si>
-  <si>
-    <t>新增 退货时间 返回</t>
-  </si>
-  <si>
-    <t>新增 收货地址 规则</t>
-  </si>
-  <si>
-    <t>跟单订单</t>
-  </si>
-  <si>
-    <t>搜索订单(财务主管通用)</t>
-  </si>
-  <si>
-    <t>获取订单详情(财务主管通用)</t>
-  </si>
-  <si>
-    <t>搜索订单(业务主管通用)</t>
-  </si>
-  <si>
-    <t>获取订单详情(业务主管通用)</t>
-  </si>
-  <si>
-    <t>找回密码</t>
-  </si>
-  <si>
-    <t>验证密码</t>
-  </si>
-  <si>
-    <t>用户登出(浏览器)</t>
+    <t>更新 跟单员 返回</t>
   </si>
 </sst>
 </file>
@@ -638,9 +653,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -687,14 +702,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -702,30 +709,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,6 +725,29 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -748,16 +756,31 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,6 +794,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -780,21 +810,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -853,7 +868,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,7 +970,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,25 +988,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,109 +1030,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,17 +1048,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1079,6 +1083,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1102,30 +1141,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1134,10 +1149,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1146,100 +1161,127 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1248,35 +1290,8 @@
     <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1326,12 +1341,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1682,10 +1691,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1718,7 +1727,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>43045</v>
+        <v>43046</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1737,104 +1746,43 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="15"/>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="8:12">
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="8:12">
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="17"/>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>10</v>
-      </c>
+    <row r="6" spans="8:12">
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="18"/>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>10</v>
-      </c>
+    <row r="7" spans="8:12">
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
@@ -1848,69 +1796,41 @@
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
     </row>
-    <row r="9" spans="8:12">
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-    </row>
-    <row r="10" spans="8:12">
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-    </row>
-    <row r="11" spans="8:12">
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-    </row>
-    <row r="12" spans="8:12">
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H5:L12"/>
-    <mergeCell ref="A20:E23"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="H4:L8"/>
+    <mergeCell ref="A16:E19"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1921,10 +1841,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I215"/>
+  <dimension ref="A1:I224"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="E194" sqref="E194"/>
+    <sheetView topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="E206" sqref="E206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1961,16 +1881,16 @@
         <v>42994</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>10</v>
@@ -1979,16 +1899,16 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>10</v>
@@ -1999,16 +1919,16 @@
         <v>42996</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>10</v>
@@ -2017,16 +1937,16 @@
     <row r="8" spans="1:6">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>10</v>
@@ -2035,16 +1955,16 @@
     <row r="9" spans="1:6">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>10</v>
@@ -2053,16 +1973,16 @@
     <row r="10" spans="1:6">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>10</v>
@@ -2073,22 +1993,22 @@
         <v>42998</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -2096,16 +2016,16 @@
     <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>10</v>
@@ -2117,22 +2037,22 @@
     <row r="17" spans="1:9">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="11">
@@ -2142,22 +2062,22 @@
     <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="11">
@@ -2167,22 +2087,22 @@
     <row r="19" spans="1:9">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="11">
@@ -2192,16 +2112,16 @@
     <row r="20" spans="1:6">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>10</v>
@@ -2210,16 +2130,16 @@
     <row r="21" spans="1:6">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>10</v>
@@ -2228,16 +2148,16 @@
     <row r="22" spans="1:6">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>10</v>
@@ -2248,16 +2168,16 @@
         <v>42999</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>10</v>
@@ -2266,16 +2186,16 @@
     <row r="28" spans="1:6">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>10</v>
@@ -2284,16 +2204,16 @@
     <row r="29" spans="1:6">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>10</v>
@@ -2302,16 +2222,16 @@
     <row r="30" spans="1:6">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>10</v>
@@ -2320,16 +2240,16 @@
     <row r="31" spans="1:6">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>10</v>
@@ -2338,16 +2258,16 @@
     <row r="32" spans="1:6">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>10</v>
@@ -2356,16 +2276,16 @@
     <row r="33" spans="1:6">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>10</v>
@@ -2374,16 +2294,16 @@
     <row r="34" spans="1:6">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>10</v>
@@ -2394,16 +2314,16 @@
         <v>42999</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>10</v>
@@ -2412,16 +2332,16 @@
     <row r="39" spans="1:6">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>10</v>
@@ -2430,16 +2350,16 @@
     <row r="40" spans="1:6">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>10</v>
@@ -2448,16 +2368,16 @@
     <row r="41" spans="1:6">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>10</v>
@@ -2468,12 +2388,12 @@
         <v>43005</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>10</v>
@@ -2482,12 +2402,12 @@
     <row r="44" spans="1:6">
       <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>10</v>
@@ -2496,14 +2416,14 @@
     <row r="45" spans="1:6">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>10</v>
@@ -2512,14 +2432,14 @@
     <row r="46" spans="1:6">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>10</v>
@@ -2528,14 +2448,14 @@
     <row r="47" spans="1:6">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>10</v>
@@ -2544,16 +2464,16 @@
     <row r="48" spans="1:6">
       <c r="A48" s="2"/>
       <c r="B48" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>10</v>
@@ -2562,12 +2482,12 @@
     <row r="49" spans="1:6">
       <c r="A49" s="2"/>
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>10</v>
@@ -2576,16 +2496,16 @@
     <row r="50" spans="1:6">
       <c r="A50" s="2"/>
       <c r="B50" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>10</v>
@@ -2594,16 +2514,16 @@
     <row r="51" spans="1:6">
       <c r="A51" s="2"/>
       <c r="B51" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>10</v>
@@ -2612,16 +2532,16 @@
     <row r="52" spans="1:6">
       <c r="A52" s="2"/>
       <c r="B52" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>10</v>
@@ -2630,16 +2550,16 @@
     <row r="53" spans="1:6">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>10</v>
@@ -2648,16 +2568,16 @@
     <row r="54" spans="1:6">
       <c r="A54" s="2"/>
       <c r="B54" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>10</v>
@@ -2666,32 +2586,32 @@
     <row r="55" spans="1:6">
       <c r="A55" s="2"/>
       <c r="B55" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2"/>
       <c r="B56" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>10</v>
@@ -2702,16 +2622,16 @@
         <v>43008</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>10</v>
@@ -2720,16 +2640,16 @@
     <row r="59" spans="1:6">
       <c r="A59" s="2"/>
       <c r="B59" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>10</v>
@@ -2738,16 +2658,16 @@
     <row r="60" spans="1:6">
       <c r="A60" s="2"/>
       <c r="B60" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>10</v>
@@ -2756,14 +2676,14 @@
     <row r="61" spans="1:6">
       <c r="A61" s="2"/>
       <c r="B61" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>10</v>
@@ -2774,16 +2694,16 @@
         <v>43015</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>10</v>
@@ -2792,16 +2712,16 @@
     <row r="64" spans="1:6">
       <c r="A64" s="2"/>
       <c r="B64" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>10</v>
@@ -2810,16 +2730,16 @@
     <row r="65" spans="1:6">
       <c r="A65" s="2"/>
       <c r="B65" s="3" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>10</v>
@@ -2828,16 +2748,16 @@
     <row r="66" spans="1:6">
       <c r="A66" s="2"/>
       <c r="B66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="E66" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>10</v>
@@ -2846,14 +2766,14 @@
     <row r="67" spans="1:6">
       <c r="A67" s="2"/>
       <c r="B67" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>10</v>
@@ -2864,16 +2784,16 @@
         <v>43018</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>10</v>
@@ -2882,16 +2802,16 @@
     <row r="70" spans="1:6">
       <c r="A70" s="2"/>
       <c r="B70" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>10</v>
@@ -2902,16 +2822,16 @@
         <v>43018</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>10</v>
@@ -2920,16 +2840,16 @@
     <row r="73" spans="1:6">
       <c r="A73" s="2"/>
       <c r="B73" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C73" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D73" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="E73" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>10</v>
@@ -2938,16 +2858,16 @@
     <row r="74" spans="1:6">
       <c r="A74" s="2"/>
       <c r="B74" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>10</v>
@@ -2956,16 +2876,16 @@
     <row r="75" spans="1:6">
       <c r="A75" s="2"/>
       <c r="B75" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>10</v>
@@ -2974,16 +2894,16 @@
     <row r="76" spans="1:6">
       <c r="A76" s="2"/>
       <c r="B76" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>10</v>
@@ -2992,16 +2912,16 @@
     <row r="77" spans="1:6">
       <c r="A77" s="2"/>
       <c r="B77" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>10</v>
@@ -3010,16 +2930,16 @@
     <row r="78" spans="1:6">
       <c r="A78" s="2"/>
       <c r="B78" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>10</v>
@@ -3028,16 +2948,16 @@
     <row r="79" spans="1:6">
       <c r="A79" s="2"/>
       <c r="B79" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C79" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="E79" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>10</v>
@@ -3046,16 +2966,16 @@
     <row r="80" spans="1:6">
       <c r="A80" s="2"/>
       <c r="B80" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>10</v>
@@ -3064,16 +2984,16 @@
     <row r="81" spans="1:6">
       <c r="A81" s="2"/>
       <c r="B81" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>10</v>
@@ -3084,16 +3004,16 @@
         <v>43020</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>10</v>
@@ -3102,16 +3022,16 @@
     <row r="84" spans="1:6">
       <c r="A84" s="2"/>
       <c r="B84" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C84" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="E84" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>10</v>
@@ -3120,16 +3040,16 @@
     <row r="85" spans="1:6">
       <c r="A85" s="2"/>
       <c r="B85" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>10</v>
@@ -3138,16 +3058,16 @@
     <row r="86" spans="1:6">
       <c r="A86" s="2"/>
       <c r="B86" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>10</v>
@@ -3156,16 +3076,16 @@
     <row r="87" spans="1:6">
       <c r="A87" s="2"/>
       <c r="B87" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>10</v>
@@ -3174,16 +3094,16 @@
     <row r="88" spans="1:6">
       <c r="A88" s="2"/>
       <c r="B88" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>10</v>
@@ -3192,16 +3112,16 @@
     <row r="89" spans="1:6">
       <c r="A89" s="2"/>
       <c r="B89" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>10</v>
@@ -3210,16 +3130,16 @@
     <row r="90" spans="1:6">
       <c r="A90" s="2"/>
       <c r="B90" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>10</v>
@@ -3228,16 +3148,16 @@
     <row r="91" spans="1:6">
       <c r="A91" s="2"/>
       <c r="B91" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>10</v>
@@ -3246,16 +3166,16 @@
     <row r="92" spans="1:6">
       <c r="A92" s="2"/>
       <c r="B92" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>10</v>
@@ -3264,16 +3184,16 @@
     <row r="93" spans="1:6">
       <c r="A93" s="2"/>
       <c r="B93" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>10</v>
@@ -3282,16 +3202,16 @@
     <row r="94" spans="1:6">
       <c r="A94" s="2"/>
       <c r="B94" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C94" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D94" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="E94" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>10</v>
@@ -3300,16 +3220,16 @@
     <row r="95" spans="1:6">
       <c r="A95" s="2"/>
       <c r="B95" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>10</v>
@@ -3318,16 +3238,16 @@
     <row r="96" spans="1:6">
       <c r="A96" s="2"/>
       <c r="B96" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>10</v>
@@ -3336,16 +3256,16 @@
     <row r="97" spans="1:6">
       <c r="A97" s="2"/>
       <c r="B97" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>10</v>
@@ -3354,16 +3274,16 @@
     <row r="98" spans="1:6">
       <c r="A98" s="2"/>
       <c r="B98" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>10</v>
@@ -3372,16 +3292,16 @@
     <row r="99" spans="1:6">
       <c r="A99" s="2"/>
       <c r="B99" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>10</v>
@@ -3390,16 +3310,16 @@
     <row r="100" spans="1:6">
       <c r="A100" s="2"/>
       <c r="B100" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>10</v>
@@ -3408,16 +3328,16 @@
     <row r="101" spans="1:6">
       <c r="A101" s="2"/>
       <c r="B101" s="3" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>10</v>
@@ -3426,16 +3346,16 @@
     <row r="102" spans="1:6">
       <c r="A102" s="2"/>
       <c r="B102" s="3" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>10</v>
@@ -3444,16 +3364,16 @@
     <row r="103" spans="1:6">
       <c r="A103" s="2"/>
       <c r="B103" s="3" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>10</v>
@@ -3462,16 +3382,16 @@
     <row r="104" spans="1:6">
       <c r="A104" s="2"/>
       <c r="B104" s="3" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>10</v>
@@ -3480,16 +3400,16 @@
     <row r="105" spans="1:6">
       <c r="A105" s="2"/>
       <c r="B105" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>10</v>
@@ -3500,16 +3420,16 @@
         <v>43021</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>10</v>
@@ -3518,16 +3438,16 @@
     <row r="108" spans="1:6">
       <c r="A108" s="2"/>
       <c r="B108" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>10</v>
@@ -3536,16 +3456,16 @@
     <row r="109" spans="1:6">
       <c r="A109" s="2"/>
       <c r="B109" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>10</v>
@@ -3554,16 +3474,16 @@
     <row r="110" spans="1:6">
       <c r="A110" s="2"/>
       <c r="B110" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>10</v>
@@ -3572,16 +3492,16 @@
     <row r="111" spans="1:6">
       <c r="A111" s="2"/>
       <c r="B111" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>10</v>
@@ -3590,16 +3510,16 @@
     <row r="112" spans="1:6">
       <c r="A112" s="2"/>
       <c r="B112" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>10</v>
@@ -3608,16 +3528,16 @@
     <row r="113" spans="1:6">
       <c r="A113" s="2"/>
       <c r="B113" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C113" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D113" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D113" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="E113" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>10</v>
@@ -3626,16 +3546,16 @@
     <row r="114" spans="1:6">
       <c r="A114" s="13"/>
       <c r="B114" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F114" s="5"/>
     </row>
@@ -3644,16 +3564,16 @@
         <v>43022</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>10</v>
@@ -3662,16 +3582,16 @@
     <row r="117" spans="1:6">
       <c r="A117" s="2"/>
       <c r="B117" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>10</v>
@@ -3680,16 +3600,16 @@
     <row r="118" spans="1:6">
       <c r="A118" s="2"/>
       <c r="B118" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>10</v>
@@ -3700,16 +3620,16 @@
         <v>43024</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>10</v>
@@ -3718,16 +3638,16 @@
     <row r="121" spans="1:6">
       <c r="A121" s="2"/>
       <c r="B121" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C121" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D121" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D121" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="E121" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>10</v>
@@ -3736,16 +3656,16 @@
     <row r="122" spans="1:6">
       <c r="A122" s="2"/>
       <c r="B122" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>10</v>
@@ -3754,16 +3674,16 @@
     <row r="123" spans="1:6">
       <c r="A123" s="2"/>
       <c r="B123" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>10</v>
@@ -3772,16 +3692,16 @@
     <row r="124" spans="1:6">
       <c r="A124" s="2"/>
       <c r="B124" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>10</v>
@@ -3790,16 +3710,16 @@
     <row r="125" spans="1:6">
       <c r="A125" s="2"/>
       <c r="B125" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>10</v>
@@ -3808,16 +3728,16 @@
     <row r="126" spans="1:6">
       <c r="A126" s="2"/>
       <c r="B126" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C126" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D126" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D126" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="E126" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>10</v>
@@ -3826,16 +3746,16 @@
     <row r="127" spans="1:6">
       <c r="A127" s="2"/>
       <c r="B127" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>10</v>
@@ -3846,16 +3766,16 @@
         <v>43025</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>10</v>
@@ -3864,16 +3784,16 @@
     <row r="130" spans="1:6">
       <c r="A130" s="2"/>
       <c r="B130" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>10</v>
@@ -3882,16 +3802,16 @@
     <row r="131" spans="1:6">
       <c r="A131" s="2"/>
       <c r="B131" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>10</v>
@@ -3900,16 +3820,16 @@
     <row r="132" spans="1:6">
       <c r="A132" s="2"/>
       <c r="B132" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>10</v>
@@ -3918,16 +3838,16 @@
     <row r="133" spans="1:6">
       <c r="A133" s="2"/>
       <c r="B133" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>10</v>
@@ -3936,16 +3856,16 @@
     <row r="134" spans="1:6">
       <c r="A134" s="2"/>
       <c r="B134" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C134" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D134" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D134" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="E134" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>10</v>
@@ -3954,16 +3874,16 @@
     <row r="135" spans="1:6">
       <c r="A135" s="2"/>
       <c r="B135" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>10</v>
@@ -3972,16 +3892,16 @@
     <row r="136" spans="1:6">
       <c r="A136" s="2"/>
       <c r="B136" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>10</v>
@@ -3990,16 +3910,16 @@
     <row r="137" spans="1:6">
       <c r="A137" s="2"/>
       <c r="B137" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>10</v>
@@ -4008,16 +3928,16 @@
     <row r="138" spans="1:6">
       <c r="A138" s="2"/>
       <c r="B138" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>10</v>
@@ -4026,16 +3946,16 @@
     <row r="139" spans="1:6">
       <c r="A139" s="2"/>
       <c r="B139" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>10</v>
@@ -4044,16 +3964,16 @@
     <row r="140" spans="1:6">
       <c r="A140" s="2"/>
       <c r="B140" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>10</v>
@@ -4062,16 +3982,16 @@
     <row r="141" spans="1:6">
       <c r="A141" s="2"/>
       <c r="B141" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>10</v>
@@ -4080,16 +4000,16 @@
     <row r="142" spans="1:6">
       <c r="A142" s="2"/>
       <c r="B142" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>10</v>
@@ -4100,16 +4020,16 @@
         <v>43025</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>10</v>
@@ -4120,16 +4040,16 @@
         <v>43028</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F146" s="5" t="s">
         <v>10</v>
@@ -4138,16 +4058,16 @@
     <row r="147" spans="1:6">
       <c r="A147" s="2"/>
       <c r="B147" s="3" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>10</v>
@@ -4156,16 +4076,16 @@
     <row r="148" spans="1:6">
       <c r="A148" s="2"/>
       <c r="B148" s="3" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>10</v>
@@ -4176,16 +4096,16 @@
         <v>43032</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F150" s="5" t="s">
         <v>10</v>
@@ -4194,16 +4114,16 @@
     <row r="151" spans="1:6">
       <c r="A151" s="2"/>
       <c r="B151" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C151" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D151" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D151" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="E151" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F151" s="5" t="s">
         <v>10</v>
@@ -4214,16 +4134,16 @@
         <v>43033</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F153" s="5" t="s">
         <v>10</v>
@@ -4232,16 +4152,16 @@
     <row r="154" spans="1:6">
       <c r="A154" s="2"/>
       <c r="B154" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F154" s="5" t="s">
         <v>10</v>
@@ -4250,16 +4170,16 @@
     <row r="155" spans="1:6">
       <c r="A155" s="2"/>
       <c r="B155" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>10</v>
@@ -4268,16 +4188,16 @@
     <row r="156" spans="1:6">
       <c r="A156" s="13"/>
       <c r="B156" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>10</v>
@@ -4286,16 +4206,16 @@
     <row r="157" spans="1:6">
       <c r="A157" s="13"/>
       <c r="B157" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>10</v>
@@ -4304,16 +4224,16 @@
     <row r="158" spans="1:6">
       <c r="A158" s="13"/>
       <c r="B158" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F158" s="5" t="s">
         <v>10</v>
@@ -4322,16 +4242,16 @@
     <row r="159" spans="1:6">
       <c r="A159" s="13"/>
       <c r="B159" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F159" s="5" t="s">
         <v>10</v>
@@ -4340,16 +4260,16 @@
     <row r="160" spans="1:6">
       <c r="A160" s="13"/>
       <c r="B160" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F160" s="5" t="s">
         <v>10</v>
@@ -4358,16 +4278,16 @@
     <row r="161" spans="1:6">
       <c r="A161" s="13"/>
       <c r="B161" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>10</v>
@@ -4376,16 +4296,16 @@
     <row r="162" spans="1:6">
       <c r="A162" s="2"/>
       <c r="B162" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F162" s="5" t="s">
         <v>10</v>
@@ -4396,13 +4316,13 @@
         <v>43036</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="E164" s="4" t="s">
         <v>171</v>
@@ -4414,13 +4334,13 @@
     <row r="165" spans="1:6">
       <c r="A165" s="2"/>
       <c r="B165" s="3" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="E165" s="4" t="s">
         <v>171</v>
@@ -4432,16 +4352,16 @@
     <row r="166" spans="1:6">
       <c r="A166" s="2"/>
       <c r="B166" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F166" s="5" t="s">
         <v>10</v>
@@ -4450,16 +4370,16 @@
     <row r="167" spans="1:6">
       <c r="A167" s="2"/>
       <c r="B167" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F167" s="5" t="s">
         <v>10</v>
@@ -4468,16 +4388,16 @@
     <row r="168" spans="1:6">
       <c r="A168" s="2"/>
       <c r="B168" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F168" s="5" t="s">
         <v>10</v>
@@ -4486,16 +4406,16 @@
     <row r="169" spans="1:6">
       <c r="A169" s="2"/>
       <c r="B169" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F169" s="5" t="s">
         <v>10</v>
@@ -4504,16 +4424,16 @@
     <row r="170" spans="1:6">
       <c r="A170" s="2"/>
       <c r="B170" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F170" s="5" t="s">
         <v>10</v>
@@ -4522,16 +4442,16 @@
     <row r="171" spans="1:6">
       <c r="A171" s="2"/>
       <c r="B171" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F171" s="5" t="s">
         <v>10</v>
@@ -4540,16 +4460,16 @@
     <row r="172" spans="1:6">
       <c r="A172" s="2"/>
       <c r="B172" s="3" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F172" s="5" t="s">
         <v>10</v>
@@ -4558,16 +4478,16 @@
     <row r="173" spans="1:6">
       <c r="A173" s="2"/>
       <c r="B173" s="3" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F173" s="5" t="s">
         <v>10</v>
@@ -4576,16 +4496,16 @@
     <row r="174" spans="1:6">
       <c r="A174" s="2"/>
       <c r="B174" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F174" s="5" t="s">
         <v>10</v>
@@ -4594,16 +4514,16 @@
     <row r="175" spans="1:6">
       <c r="A175" s="2"/>
       <c r="B175" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F175" s="5" t="s">
         <v>10</v>
@@ -4612,16 +4532,16 @@
     <row r="176" spans="1:6">
       <c r="A176" s="2"/>
       <c r="B176" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F176" s="5" t="s">
         <v>10</v>
@@ -4630,16 +4550,16 @@
     <row r="177" spans="1:6">
       <c r="A177" s="2"/>
       <c r="B177" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F177" s="5" t="s">
         <v>10</v>
@@ -4648,16 +4568,16 @@
     <row r="178" spans="1:6">
       <c r="A178" s="2"/>
       <c r="B178" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F178" s="5" t="s">
         <v>10</v>
@@ -4666,16 +4586,16 @@
     <row r="179" spans="1:6">
       <c r="A179" s="2"/>
       <c r="B179" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F179" s="5" t="s">
         <v>10</v>
@@ -4684,16 +4604,16 @@
     <row r="180" spans="1:6">
       <c r="A180" s="2"/>
       <c r="B180" s="3" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F180" s="5" t="s">
         <v>10</v>
@@ -4702,16 +4622,16 @@
     <row r="181" spans="1:6">
       <c r="A181" s="2"/>
       <c r="B181" s="3" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F181" s="5" t="s">
         <v>10</v>
@@ -4722,16 +4642,16 @@
         <v>43038</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F183" s="5" t="s">
         <v>10</v>
@@ -4740,16 +4660,16 @@
     <row r="184" spans="1:6">
       <c r="A184" s="2"/>
       <c r="B184" s="3" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F184" s="5" t="s">
         <v>10</v>
@@ -4758,16 +4678,16 @@
     <row r="185" spans="1:6">
       <c r="A185" s="2"/>
       <c r="B185" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F185" s="5" t="s">
         <v>10</v>
@@ -4776,16 +4696,16 @@
     <row r="186" spans="1:6">
       <c r="A186" s="2"/>
       <c r="B186" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F186" s="5" t="s">
         <v>10</v>
@@ -4794,16 +4714,16 @@
     <row r="187" spans="1:6">
       <c r="A187" s="2"/>
       <c r="B187" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F187" s="5" t="s">
         <v>10</v>
@@ -4812,16 +4732,16 @@
     <row r="188" spans="1:6">
       <c r="A188" s="2"/>
       <c r="B188" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F188" s="5" t="s">
         <v>10</v>
@@ -4830,16 +4750,16 @@
     <row r="189" spans="1:6">
       <c r="A189" s="2"/>
       <c r="B189" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F189" s="5" t="s">
         <v>10</v>
@@ -4848,16 +4768,16 @@
     <row r="190" spans="1:6">
       <c r="A190" s="2"/>
       <c r="B190" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C190" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D190" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D190" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="E190" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F190" s="5" t="s">
         <v>10</v>
@@ -4866,16 +4786,16 @@
     <row r="191" spans="1:6">
       <c r="A191" s="2"/>
       <c r="B191" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C191" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D191" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D191" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="E191" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F191" s="5" t="s">
         <v>10</v>
@@ -4884,16 +4804,16 @@
     <row r="192" spans="1:6">
       <c r="A192" s="2"/>
       <c r="B192" s="3" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F192" s="5" t="s">
         <v>10</v>
@@ -4902,16 +4822,16 @@
     <row r="193" spans="1:6">
       <c r="A193" s="2"/>
       <c r="B193" s="3" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F193" s="5" t="s">
         <v>10</v>
@@ -4920,16 +4840,16 @@
     <row r="194" spans="1:6">
       <c r="A194" s="2"/>
       <c r="B194" s="3" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F194" s="5" t="s">
         <v>10</v>
@@ -4940,16 +4860,16 @@
         <v>43039</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F196" s="5" t="s">
         <v>10</v>
@@ -4958,16 +4878,16 @@
     <row r="197" spans="1:6">
       <c r="A197" s="2"/>
       <c r="B197" s="3" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F197" s="5" t="s">
         <v>10</v>
@@ -4978,16 +4898,16 @@
         <v>43040</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F199" s="5" t="s">
         <v>10</v>
@@ -4996,16 +4916,16 @@
     <row r="200" spans="1:6">
       <c r="A200" s="2"/>
       <c r="B200" s="3" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F200" s="5" t="s">
         <v>10</v>
@@ -5014,16 +4934,16 @@
     <row r="201" spans="1:6">
       <c r="A201" s="2"/>
       <c r="B201" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F201" s="5" t="s">
         <v>10</v>
@@ -5032,16 +4952,16 @@
     <row r="202" spans="1:6">
       <c r="A202" s="2"/>
       <c r="B202" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F202" s="5" t="s">
         <v>10</v>
@@ -5052,16 +4972,16 @@
         <v>43041</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F204" s="5" t="s">
         <v>10</v>
@@ -5072,16 +4992,16 @@
         <v>43042</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F206" s="5" t="s">
         <v>10</v>
@@ -5090,16 +5010,16 @@
     <row r="207" spans="1:6">
       <c r="A207" s="2"/>
       <c r="B207" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F207" s="5" t="s">
         <v>10</v>
@@ -5108,16 +5028,16 @@
     <row r="208" spans="1:6">
       <c r="A208" s="2"/>
       <c r="B208" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>197</v>
+        <v>7</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F208" s="5" t="s">
         <v>10</v>
@@ -5126,16 +5046,16 @@
     <row r="209" spans="1:6">
       <c r="A209" s="2"/>
       <c r="B209" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>197</v>
+        <v>7</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F209" s="5" t="s">
         <v>10</v>
@@ -5144,16 +5064,16 @@
     <row r="210" spans="1:6">
       <c r="A210" s="2"/>
       <c r="B210" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F210" s="5" t="s">
         <v>10</v>
@@ -5162,16 +5082,16 @@
     <row r="211" spans="1:6">
       <c r="A211" s="2"/>
       <c r="B211" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F211" s="5" t="s">
         <v>10</v>
@@ -5180,16 +5100,16 @@
     <row r="212" spans="1:6">
       <c r="A212" s="2"/>
       <c r="B212" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F212" s="5" t="s">
         <v>10</v>
@@ -5198,16 +5118,16 @@
     <row r="213" spans="1:6">
       <c r="A213" s="2"/>
       <c r="B213" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F213" s="5" t="s">
         <v>10</v>
@@ -5216,16 +5136,16 @@
     <row r="214" spans="1:6">
       <c r="A214" s="2"/>
       <c r="B214" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F214" s="5" t="s">
         <v>10</v>
@@ -5234,23 +5154,153 @@
     <row r="215" spans="1:6">
       <c r="A215" s="2"/>
       <c r="B215" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F215" s="5" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="2">
+        <v>43045</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F217" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="2"/>
+      <c r="B218" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="2"/>
+      <c r="B219" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F219" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="2"/>
+      <c r="B220" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F220" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="2"/>
+      <c r="B221" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F221" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="2"/>
+      <c r="B222" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="2">
+        <v>43045</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F224" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="30">
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
@@ -5279,6 +5329,7 @@
     <mergeCell ref="A196:A197"/>
     <mergeCell ref="A199:A202"/>
     <mergeCell ref="A206:A215"/>
+    <mergeCell ref="A217:A222"/>
     <mergeCell ref="G15:I16"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求分析/接口文档/客户/更新说明.xlsx
+++ b/需求分析/接口文档/客户/更新说明.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213">
   <si>
     <t>更新时间</t>
   </si>
@@ -38,613 +38,622 @@
     <t>订单接口</t>
   </si>
   <si>
+    <t>订单凭证</t>
+  </si>
+  <si>
+    <t>上传订单凭证</t>
+  </si>
+  <si>
+    <t>新增 凭证Id 返回</t>
+  </si>
+  <si>
+    <t>已验证</t>
+  </si>
+  <si>
+    <t>接口测试数据登陆:http://112.74.32.113/backend/pages/index/index.html</t>
+  </si>
+  <si>
+    <t>客户接口</t>
+  </si>
+  <si>
+    <t>个人信息</t>
+  </si>
+  <si>
+    <t>获取默认收货地址</t>
+  </si>
+  <si>
+    <t>新添加的接口</t>
+  </si>
+  <si>
+    <t>个人信息接口</t>
+  </si>
+  <si>
+    <t>经营单位</t>
+  </si>
+  <si>
+    <t>获取经营单位详情</t>
+  </si>
+  <si>
+    <t>新增接口</t>
+  </si>
+  <si>
+    <t>客户信息</t>
+  </si>
+  <si>
+    <t>获取客户列表</t>
+  </si>
+  <si>
+    <t>添加返回客户头像</t>
+  </si>
+  <si>
+    <t>移交客户</t>
+  </si>
+  <si>
+    <t>业务员移交客户</t>
+  </si>
+  <si>
+    <t>跟单员移交客户</t>
+  </si>
+  <si>
+    <t>养殖信息(新)</t>
+  </si>
+  <si>
+    <t>所有的接口</t>
+  </si>
+  <si>
+    <t>hadAccount(账号状态)</t>
+  </si>
+  <si>
+    <t>商城接口</t>
+  </si>
+  <si>
+    <t>订单</t>
+  </si>
+  <si>
+    <t>获取运费模板列表(客户)</t>
+  </si>
+  <si>
+    <t>添加商家地址返回</t>
+  </si>
+  <si>
+    <t>客户建账</t>
+  </si>
+  <si>
+    <t>获取审批人列表</t>
+  </si>
+  <si>
+    <t>暂停使用</t>
+  </si>
+  <si>
+    <t>未建账</t>
+  </si>
+  <si>
+    <t>添加融云id返回</t>
+  </si>
+  <si>
+    <t>已建账</t>
+  </si>
+  <si>
+    <t>申请客户建账</t>
+  </si>
+  <si>
+    <t>添加 申请原因 参数</t>
+  </si>
+  <si>
+    <t>账号被冻结</t>
+  </si>
+  <si>
+    <t>冻结客户</t>
+  </si>
+  <si>
+    <t>解冻客户</t>
+  </si>
+  <si>
+    <t>获取客户详情</t>
+  </si>
+  <si>
+    <t>添加 账号冻结 状态</t>
+  </si>
+  <si>
+    <t>商品浏览</t>
+  </si>
+  <si>
+    <t>查看商品详情</t>
+  </si>
+  <si>
+    <t>添加 规格重量 返回</t>
+  </si>
+  <si>
+    <t>购物车</t>
+  </si>
+  <si>
+    <t>获取购物车商品列表</t>
+  </si>
+  <si>
+    <t>获取订单列表</t>
+  </si>
+  <si>
+    <t>添加 订单号 返回</t>
+  </si>
+  <si>
+    <t>获取订单详情</t>
+  </si>
+  <si>
+    <t>筛选订单</t>
+  </si>
+  <si>
+    <t>根据订单号获取订单列表</t>
+  </si>
+  <si>
+    <t>业务订单</t>
+  </si>
+  <si>
+    <t>财务订单</t>
+  </si>
+  <si>
+    <t>权限角色接口</t>
+  </si>
+  <si>
+    <t>权限角色</t>
+  </si>
+  <si>
+    <t>获取用户角色</t>
+  </si>
+  <si>
+    <t>获取跟单员列表</t>
+  </si>
+  <si>
+    <t>开放使用</t>
+  </si>
+  <si>
+    <t>库存接口</t>
+  </si>
+  <si>
+    <t>申请库存</t>
+  </si>
+  <si>
+    <t>更名为 客户商城接口</t>
+  </si>
+  <si>
+    <t>商家商城接口</t>
+  </si>
+  <si>
+    <t>原 商城接口 的拆分</t>
+  </si>
+  <si>
+    <t>运费模板</t>
+  </si>
+  <si>
+    <t>销售点</t>
+  </si>
+  <si>
+    <t>商品编辑</t>
+  </si>
+  <si>
+    <t>所有接口</t>
+  </si>
+  <si>
+    <t>业务订单(业务)</t>
+  </si>
+  <si>
+    <t>业务订单(业务管理)</t>
+  </si>
+  <si>
+    <t>财务订单(财务)</t>
+  </si>
+  <si>
+    <t>财务订单(财务管理)</t>
+  </si>
+  <si>
+    <t>后勤订单(跟单)</t>
+  </si>
+  <si>
+    <t>已废弃</t>
+  </si>
+  <si>
+    <t>需求接口</t>
+  </si>
+  <si>
+    <t>激活登陆</t>
+  </si>
+  <si>
+    <t>用户登录</t>
+  </si>
+  <si>
+    <t>添加 企业名称 返回</t>
+  </si>
+  <si>
+    <t>查找分类下的商品</t>
+  </si>
+  <si>
+    <t>搜索商品</t>
+  </si>
+  <si>
+    <t>所有 筛选订单 接口</t>
+  </si>
+  <si>
+    <t>新增 订单总价 返回</t>
+  </si>
+  <si>
+    <t>客户订单</t>
+  </si>
+  <si>
+    <t>生成订单</t>
+  </si>
+  <si>
+    <t>添加 商品不存在 返回值</t>
+  </si>
+  <si>
+    <t>养殖信息（新）</t>
+  </si>
+  <si>
+    <t>获取养殖信息详情（新）</t>
+  </si>
+  <si>
+    <t>客户资源</t>
+  </si>
+  <si>
+    <t>获取养殖信息列表</t>
+  </si>
+  <si>
+    <t>添加 json 返回</t>
+  </si>
+  <si>
+    <t>获取养殖信息详情</t>
+  </si>
+  <si>
+    <t>所有订单筛选接口</t>
+  </si>
+  <si>
+    <t>更新 订单状态</t>
+  </si>
+  <si>
+    <t>添加 角色代码 返回值</t>
+  </si>
+  <si>
+    <t>客户跟进</t>
+  </si>
+  <si>
+    <t>添加 跟进标题 参数</t>
+  </si>
+  <si>
+    <t>查看库存</t>
+  </si>
+  <si>
+    <t>查看销售点库存</t>
+  </si>
+  <si>
+    <t>添加 返回参数</t>
+  </si>
+  <si>
+    <t>查看当前销售点库存</t>
+  </si>
+  <si>
+    <t>查看总部销售点库存</t>
+  </si>
+  <si>
+    <t>盘点库存</t>
+  </si>
+  <si>
+    <t>获取库存盘点记录</t>
+  </si>
+  <si>
+    <t>库存进仓</t>
+  </si>
+  <si>
+    <t>新建进仓单</t>
+  </si>
+  <si>
+    <t>获取进仓单列表</t>
+  </si>
+  <si>
+    <t>获取进仓单详情</t>
+  </si>
+  <si>
+    <t>申请人获取库存申请列表</t>
+  </si>
+  <si>
+    <t>审批人获取库存审批列表</t>
+  </si>
+  <si>
+    <t>添加 商品图片 返回</t>
+  </si>
+  <si>
+    <t>库存盘点</t>
+  </si>
+  <si>
+    <t>添加 时间段筛选 条件</t>
+  </si>
+  <si>
+    <t>获取库存盘点记录详情</t>
+  </si>
+  <si>
+    <t>添加 筛选 条件</t>
+  </si>
+  <si>
+    <t>搜索库存商品</t>
+  </si>
+  <si>
+    <t>添加 付款状态 返回</t>
+  </si>
+  <si>
+    <t>跟单订单(跟单)</t>
+  </si>
+  <si>
+    <t>获取成员的客户列表</t>
+  </si>
+  <si>
+    <t>添加 用户头像 返回</t>
+  </si>
+  <si>
+    <t>筛选客户列表</t>
+  </si>
+  <si>
+    <t>此接口与(获取成员的客户列表)合并</t>
+  </si>
+  <si>
+    <t>获取总部销售点Id</t>
+  </si>
+  <si>
+    <t>添加 商品编码 返回</t>
+  </si>
+  <si>
+    <t>添加 商品编码、申请单号 返回</t>
+  </si>
+  <si>
+    <t>组织管理接口</t>
+  </si>
+  <si>
+    <t>组织管理</t>
+  </si>
+  <si>
+    <t>获取可分配的角色列表</t>
+  </si>
+  <si>
+    <t>获取商品列表</t>
+  </si>
+  <si>
+    <t>添加 商品规格Id 返回</t>
+  </si>
+  <si>
+    <t>参数 recordList 替换为 incomeList</t>
+  </si>
+  <si>
+    <t>添加 总部当前库存 返回</t>
+  </si>
+  <si>
+    <t>添加 该账号已存在 状态码</t>
+  </si>
+  <si>
+    <t>添加 商品分类 返回</t>
+  </si>
+  <si>
+    <t>登陆激活</t>
+  </si>
+  <si>
+    <t>用户登录(浏览器)</t>
+  </si>
+  <si>
+    <t>获取当前销售点进仓单列表</t>
+  </si>
+  <si>
+    <t>获取当销售点前库存盘点记录</t>
+  </si>
+  <si>
+    <t>更新 branchId(销售点Id) 为选填</t>
+  </si>
+  <si>
+    <t>添加 头像 返回</t>
+  </si>
+  <si>
+    <t>团队接口</t>
+  </si>
+  <si>
+    <t>团队</t>
+  </si>
+  <si>
+    <t>获取团队内所有成员</t>
+  </si>
+  <si>
+    <t>获取库存审批详情</t>
+  </si>
+  <si>
+    <t>获取当前部门下的成员列表</t>
+  </si>
+  <si>
+    <t>获取当前部门下的客户列表</t>
+  </si>
+  <si>
+    <t>申请协助</t>
+  </si>
+  <si>
+    <t>协助者获取协助列表</t>
+  </si>
+  <si>
+    <t>新增 status(审批状态) 筛选</t>
+  </si>
+  <si>
+    <t>获取申请详情</t>
+  </si>
+  <si>
+    <t>新增 status(审批状态) 返回</t>
+  </si>
+  <si>
+    <t>获取库存等级</t>
+  </si>
+  <si>
+    <t>获取头像图片</t>
+  </si>
+  <si>
+    <t>新增 是否建账 筛选</t>
+  </si>
+  <si>
+    <t>财务A审批通过</t>
+  </si>
+  <si>
+    <t>删除接口</t>
+  </si>
+  <si>
+    <t>财务A审批拒绝</t>
+  </si>
+  <si>
+    <t>财务B审批通过</t>
+  </si>
+  <si>
+    <t>财务B审批拒绝</t>
+  </si>
+  <si>
+    <t>财务审核通过</t>
+  </si>
+  <si>
+    <t>财务审核不通过</t>
+  </si>
+  <si>
+    <t>所有标签</t>
+  </si>
+  <si>
+    <t>更新订单状态</t>
+  </si>
+  <si>
+    <t>通用申请接口</t>
+  </si>
+  <si>
+    <t>通用申请</t>
+  </si>
+  <si>
+    <t>发起人获取申请列表</t>
+  </si>
+  <si>
+    <t>新增 applyResult(申请状态) 筛选</t>
+  </si>
+  <si>
+    <t>审批人获取申请列表</t>
+  </si>
+  <si>
+    <t>审批员获取建账申请列表</t>
+  </si>
+  <si>
+    <t>新增 requestStatus(申请状态)、userImage(头像) 返回</t>
+  </si>
+  <si>
+    <t>新增 分页 参数</t>
+  </si>
+  <si>
+    <t>新增 requestStatus(申请状态) 筛选</t>
+  </si>
+  <si>
+    <t>申请人获取建账申请列表</t>
+  </si>
+  <si>
+    <t>新增 userImage(头像) 返回</t>
+  </si>
+  <si>
+    <t>新增 已审批 筛选状态</t>
+  </si>
+  <si>
+    <t>申请者获取协助列表</t>
+  </si>
+  <si>
+    <t>新增 createDate(申请时间) 返回</t>
+  </si>
+  <si>
+    <t>搜索客户</t>
+  </si>
+  <si>
+    <t>搜索当前部门下的客户</t>
+  </si>
+  <si>
+    <t>冻结成员</t>
+  </si>
+  <si>
+    <t>解冻成员</t>
+  </si>
+  <si>
+    <t>搜索部门成员</t>
+  </si>
+  <si>
+    <t>获取部门成员列表</t>
+  </si>
+  <si>
+    <t>获取建账申请详情</t>
+  </si>
+  <si>
+    <t>新增 头像 返回</t>
+  </si>
+  <si>
+    <t>新增 协助者头像 返回</t>
+  </si>
+  <si>
+    <t>新增 审批人头像 返回</t>
+  </si>
+  <si>
+    <t>新增 申请状态 返回</t>
+  </si>
+  <si>
+    <t>新增 部门名称 返回</t>
+  </si>
+  <si>
+    <t>调货申请</t>
+  </si>
+  <si>
+    <t>添加 签收时间 返回值</t>
+  </si>
+  <si>
+    <t>添加 部门 返回值</t>
+  </si>
+  <si>
+    <t>新增 能否审批 返回</t>
+  </si>
+  <si>
+    <t>新增 退货时间 返回</t>
+  </si>
+  <si>
+    <t>新增 收货地址 规则</t>
+  </si>
+  <si>
     <t>跟单订单</t>
   </si>
   <si>
+    <t>搜索订单(财务主管通用)</t>
+  </si>
+  <si>
+    <t>获取订单详情(财务主管通用)</t>
+  </si>
+  <si>
+    <t>搜索订单(业务主管通用)</t>
+  </si>
+  <si>
+    <t>获取订单详情(业务主管通用)</t>
+  </si>
+  <si>
+    <t>找回密码</t>
+  </si>
+  <si>
+    <t>验证密码</t>
+  </si>
+  <si>
+    <t>用户登出(浏览器)</t>
+  </si>
+  <si>
+    <t>新增 departmentId(部门) 筛选</t>
+  </si>
+  <si>
+    <t>新增 总页数 返回</t>
+  </si>
+  <si>
+    <t>更新 跟单员 返回</t>
+  </si>
+  <si>
     <t>跟单审核通过</t>
   </si>
   <si>
     <t>添加 商家留言 参数</t>
   </si>
   <si>
-    <t>已验证</t>
-  </si>
-  <si>
-    <t>客户资源</t>
-  </si>
-  <si>
     <t>获取跟进详情</t>
   </si>
   <si>
     <t>新增 跟进人 返回</t>
-  </si>
-  <si>
-    <t>接口测试数据登陆:http://112.74.32.113/backend/pages/index/index.html</t>
-  </si>
-  <si>
-    <t>客户接口</t>
-  </si>
-  <si>
-    <t>个人信息</t>
-  </si>
-  <si>
-    <t>获取默认收货地址</t>
-  </si>
-  <si>
-    <t>新添加的接口</t>
-  </si>
-  <si>
-    <t>个人信息接口</t>
-  </si>
-  <si>
-    <t>经营单位</t>
-  </si>
-  <si>
-    <t>获取经营单位详情</t>
-  </si>
-  <si>
-    <t>新增接口</t>
-  </si>
-  <si>
-    <t>客户信息</t>
-  </si>
-  <si>
-    <t>获取客户列表</t>
-  </si>
-  <si>
-    <t>添加返回客户头像</t>
-  </si>
-  <si>
-    <t>移交客户</t>
-  </si>
-  <si>
-    <t>业务员移交客户</t>
-  </si>
-  <si>
-    <t>跟单员移交客户</t>
-  </si>
-  <si>
-    <t>养殖信息(新)</t>
-  </si>
-  <si>
-    <t>所有的接口</t>
-  </si>
-  <si>
-    <t>hadAccount(账号状态)</t>
-  </si>
-  <si>
-    <t>商城接口</t>
-  </si>
-  <si>
-    <t>订单</t>
-  </si>
-  <si>
-    <t>获取运费模板列表(客户)</t>
-  </si>
-  <si>
-    <t>添加商家地址返回</t>
-  </si>
-  <si>
-    <t>客户建账</t>
-  </si>
-  <si>
-    <t>获取审批人列表</t>
-  </si>
-  <si>
-    <t>暂停使用</t>
-  </si>
-  <si>
-    <t>未建账</t>
-  </si>
-  <si>
-    <t>添加融云id返回</t>
-  </si>
-  <si>
-    <t>已建账</t>
-  </si>
-  <si>
-    <t>申请客户建账</t>
-  </si>
-  <si>
-    <t>添加 申请原因 参数</t>
-  </si>
-  <si>
-    <t>账号被冻结</t>
-  </si>
-  <si>
-    <t>冻结客户</t>
-  </si>
-  <si>
-    <t>解冻客户</t>
-  </si>
-  <si>
-    <t>获取客户详情</t>
-  </si>
-  <si>
-    <t>添加 账号冻结 状态</t>
-  </si>
-  <si>
-    <t>商品浏览</t>
-  </si>
-  <si>
-    <t>查看商品详情</t>
-  </si>
-  <si>
-    <t>添加 规格重量 返回</t>
-  </si>
-  <si>
-    <t>购物车</t>
-  </si>
-  <si>
-    <t>获取购物车商品列表</t>
-  </si>
-  <si>
-    <t>获取订单列表</t>
-  </si>
-  <si>
-    <t>添加 订单号 返回</t>
-  </si>
-  <si>
-    <t>获取订单详情</t>
-  </si>
-  <si>
-    <t>筛选订单</t>
-  </si>
-  <si>
-    <t>根据订单号获取订单列表</t>
-  </si>
-  <si>
-    <t>业务订单</t>
-  </si>
-  <si>
-    <t>财务订单</t>
-  </si>
-  <si>
-    <t>权限角色接口</t>
-  </si>
-  <si>
-    <t>权限角色</t>
-  </si>
-  <si>
-    <t>获取用户角色</t>
-  </si>
-  <si>
-    <t>获取跟单员列表</t>
-  </si>
-  <si>
-    <t>开放使用</t>
-  </si>
-  <si>
-    <t>库存接口</t>
-  </si>
-  <si>
-    <t>申请库存</t>
-  </si>
-  <si>
-    <t>更名为 客户商城接口</t>
-  </si>
-  <si>
-    <t>商家商城接口</t>
-  </si>
-  <si>
-    <t>原 商城接口 的拆分</t>
-  </si>
-  <si>
-    <t>运费模板</t>
-  </si>
-  <si>
-    <t>销售点</t>
-  </si>
-  <si>
-    <t>商品编辑</t>
-  </si>
-  <si>
-    <t>所有接口</t>
-  </si>
-  <si>
-    <t>业务订单(业务)</t>
-  </si>
-  <si>
-    <t>业务订单(业务管理)</t>
-  </si>
-  <si>
-    <t>财务订单(财务)</t>
-  </si>
-  <si>
-    <t>财务订单(财务管理)</t>
-  </si>
-  <si>
-    <t>后勤订单(跟单)</t>
-  </si>
-  <si>
-    <t>已废弃</t>
-  </si>
-  <si>
-    <t>需求接口</t>
-  </si>
-  <si>
-    <t>激活登陆</t>
-  </si>
-  <si>
-    <t>用户登录</t>
-  </si>
-  <si>
-    <t>添加 企业名称 返回</t>
-  </si>
-  <si>
-    <t>查找分类下的商品</t>
-  </si>
-  <si>
-    <t>搜索商品</t>
-  </si>
-  <si>
-    <t>所有 筛选订单 接口</t>
-  </si>
-  <si>
-    <t>新增 订单总价 返回</t>
-  </si>
-  <si>
-    <t>客户订单</t>
-  </si>
-  <si>
-    <t>生成订单</t>
-  </si>
-  <si>
-    <t>添加 商品不存在 返回值</t>
-  </si>
-  <si>
-    <t>养殖信息（新）</t>
-  </si>
-  <si>
-    <t>获取养殖信息详情（新）</t>
-  </si>
-  <si>
-    <t>获取养殖信息列表</t>
-  </si>
-  <si>
-    <t>添加 json 返回</t>
-  </si>
-  <si>
-    <t>获取养殖信息详情</t>
-  </si>
-  <si>
-    <t>所有订单筛选接口</t>
-  </si>
-  <si>
-    <t>更新 订单状态</t>
-  </si>
-  <si>
-    <t>添加 角色代码 返回值</t>
-  </si>
-  <si>
-    <t>客户跟进</t>
-  </si>
-  <si>
-    <t>添加 跟进标题 参数</t>
-  </si>
-  <si>
-    <t>查看库存</t>
-  </si>
-  <si>
-    <t>查看销售点库存</t>
-  </si>
-  <si>
-    <t>添加 返回参数</t>
-  </si>
-  <si>
-    <t>查看当前销售点库存</t>
-  </si>
-  <si>
-    <t>查看总部销售点库存</t>
-  </si>
-  <si>
-    <t>盘点库存</t>
-  </si>
-  <si>
-    <t>获取库存盘点记录</t>
-  </si>
-  <si>
-    <t>库存进仓</t>
-  </si>
-  <si>
-    <t>新建进仓单</t>
-  </si>
-  <si>
-    <t>获取进仓单列表</t>
-  </si>
-  <si>
-    <t>获取进仓单详情</t>
-  </si>
-  <si>
-    <t>申请人获取库存申请列表</t>
-  </si>
-  <si>
-    <t>审批人获取库存审批列表</t>
-  </si>
-  <si>
-    <t>添加 商品图片 返回</t>
-  </si>
-  <si>
-    <t>库存盘点</t>
-  </si>
-  <si>
-    <t>添加 时间段筛选 条件</t>
-  </si>
-  <si>
-    <t>获取库存盘点记录详情</t>
-  </si>
-  <si>
-    <t>添加 筛选 条件</t>
-  </si>
-  <si>
-    <t>搜索库存商品</t>
-  </si>
-  <si>
-    <t>添加 付款状态 返回</t>
-  </si>
-  <si>
-    <t>跟单订单(跟单)</t>
-  </si>
-  <si>
-    <t>获取成员的客户列表</t>
-  </si>
-  <si>
-    <t>添加 用户头像 返回</t>
-  </si>
-  <si>
-    <t>筛选客户列表</t>
-  </si>
-  <si>
-    <t>此接口与(获取成员的客户列表)合并</t>
-  </si>
-  <si>
-    <t>获取总部销售点Id</t>
-  </si>
-  <si>
-    <t>添加 商品编码 返回</t>
-  </si>
-  <si>
-    <t>添加 商品编码、申请单号 返回</t>
-  </si>
-  <si>
-    <t>组织管理接口</t>
-  </si>
-  <si>
-    <t>组织管理</t>
-  </si>
-  <si>
-    <t>获取可分配的角色列表</t>
-  </si>
-  <si>
-    <t>获取商品列表</t>
-  </si>
-  <si>
-    <t>添加 商品规格Id 返回</t>
-  </si>
-  <si>
-    <t>参数 recordList 替换为 incomeList</t>
-  </si>
-  <si>
-    <t>添加 总部当前库存 返回</t>
-  </si>
-  <si>
-    <t>添加 该账号已存在 状态码</t>
-  </si>
-  <si>
-    <t>添加 商品分类 返回</t>
-  </si>
-  <si>
-    <t>登陆激活</t>
-  </si>
-  <si>
-    <t>用户登录(浏览器)</t>
-  </si>
-  <si>
-    <t>获取当前销售点进仓单列表</t>
-  </si>
-  <si>
-    <t>获取当销售点前库存盘点记录</t>
-  </si>
-  <si>
-    <t>更新 branchId(销售点Id) 为选填</t>
-  </si>
-  <si>
-    <t>添加 头像 返回</t>
-  </si>
-  <si>
-    <t>团队接口</t>
-  </si>
-  <si>
-    <t>团队</t>
-  </si>
-  <si>
-    <t>获取团队内所有成员</t>
-  </si>
-  <si>
-    <t>获取库存审批详情</t>
-  </si>
-  <si>
-    <t>获取当前部门下的成员列表</t>
-  </si>
-  <si>
-    <t>获取当前部门下的客户列表</t>
-  </si>
-  <si>
-    <t>申请协助</t>
-  </si>
-  <si>
-    <t>协助者获取协助列表</t>
-  </si>
-  <si>
-    <t>新增 status(审批状态) 筛选</t>
-  </si>
-  <si>
-    <t>获取申请详情</t>
-  </si>
-  <si>
-    <t>新增 status(审批状态) 返回</t>
-  </si>
-  <si>
-    <t>获取库存等级</t>
-  </si>
-  <si>
-    <t>获取头像图片</t>
-  </si>
-  <si>
-    <t>新增 是否建账 筛选</t>
-  </si>
-  <si>
-    <t>财务A审批通过</t>
-  </si>
-  <si>
-    <t>删除接口</t>
-  </si>
-  <si>
-    <t>财务A审批拒绝</t>
-  </si>
-  <si>
-    <t>财务B审批通过</t>
-  </si>
-  <si>
-    <t>财务B审批拒绝</t>
-  </si>
-  <si>
-    <t>财务审核通过</t>
-  </si>
-  <si>
-    <t>财务审核不通过</t>
-  </si>
-  <si>
-    <t>所有标签</t>
-  </si>
-  <si>
-    <t>更新订单状态</t>
-  </si>
-  <si>
-    <t>通用申请接口</t>
-  </si>
-  <si>
-    <t>通用申请</t>
-  </si>
-  <si>
-    <t>发起人获取申请列表</t>
-  </si>
-  <si>
-    <t>新增 applyResult(申请状态) 筛选</t>
-  </si>
-  <si>
-    <t>审批人获取申请列表</t>
-  </si>
-  <si>
-    <t>审批员获取建账申请列表</t>
-  </si>
-  <si>
-    <t>新增 requestStatus(申请状态)、userImage(头像) 返回</t>
-  </si>
-  <si>
-    <t>新增 分页 参数</t>
-  </si>
-  <si>
-    <t>新增 requestStatus(申请状态) 筛选</t>
-  </si>
-  <si>
-    <t>申请人获取建账申请列表</t>
-  </si>
-  <si>
-    <t>新增 userImage(头像) 返回</t>
-  </si>
-  <si>
-    <t>新增 已审批 筛选状态</t>
-  </si>
-  <si>
-    <t>申请者获取协助列表</t>
-  </si>
-  <si>
-    <t>新增 createDate(申请时间) 返回</t>
-  </si>
-  <si>
-    <t>搜索客户</t>
-  </si>
-  <si>
-    <t>搜索当前部门下的客户</t>
-  </si>
-  <si>
-    <t>冻结成员</t>
-  </si>
-  <si>
-    <t>解冻成员</t>
-  </si>
-  <si>
-    <t>搜索部门成员</t>
-  </si>
-  <si>
-    <t>获取部门成员列表</t>
-  </si>
-  <si>
-    <t>获取建账申请详情</t>
-  </si>
-  <si>
-    <t>新增 头像 返回</t>
-  </si>
-  <si>
-    <t>新增 协助者头像 返回</t>
-  </si>
-  <si>
-    <t>新增 审批人头像 返回</t>
-  </si>
-  <si>
-    <t>新增 申请状态 返回</t>
-  </si>
-  <si>
-    <t>新增 部门名称 返回</t>
-  </si>
-  <si>
-    <t>调货申请</t>
-  </si>
-  <si>
-    <t>添加 签收时间 返回值</t>
-  </si>
-  <si>
-    <t>添加 部门 返回值</t>
-  </si>
-  <si>
-    <t>新增 能否审批 返回</t>
-  </si>
-  <si>
-    <t>新增 退货时间 返回</t>
-  </si>
-  <si>
-    <t>新增 收货地址 规则</t>
-  </si>
-  <si>
-    <t>搜索订单(财务主管通用)</t>
-  </si>
-  <si>
-    <t>获取订单详情(财务主管通用)</t>
-  </si>
-  <si>
-    <t>搜索订单(业务主管通用)</t>
-  </si>
-  <si>
-    <t>获取订单详情(业务主管通用)</t>
-  </si>
-  <si>
-    <t>找回密码</t>
-  </si>
-  <si>
-    <t>验证密码</t>
-  </si>
-  <si>
-    <t>用户登出(浏览器)</t>
-  </si>
-  <si>
-    <t>新增 departmentId(部门) 筛选</t>
-  </si>
-  <si>
-    <t>新增 总页数 返回</t>
-  </si>
-  <si>
-    <t>更新 跟单员 返回</t>
   </si>
 </sst>
 </file>
@@ -653,8 +662,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -696,13 +705,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -724,14 +726,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -749,6 +743,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -779,14 +804,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -803,15 +820,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -868,7 +877,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,6 +901,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -898,19 +937,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,7 +955,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,13 +985,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,37 +1015,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,42 +1040,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,6 +1063,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1069,16 +1093,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1109,6 +1133,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1117,30 +1150,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1149,10 +1158,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1164,134 +1173,134 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1335,9 +1344,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="19" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1694,7 +1700,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1727,7 +1733,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>43046</v>
+        <v>43047</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1745,60 +1751,44 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="15"/>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5"/>
-    </row>
     <row r="4" spans="8:12">
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
     </row>
     <row r="5" spans="8:12">
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
     </row>
     <row r="6" spans="8:12">
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="8:12">
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="8:12">
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1827,8 +1817,7 @@
       <c r="E19" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A3"/>
+  <mergeCells count="2">
     <mergeCell ref="H4:L8"/>
     <mergeCell ref="A16:E19"/>
   </mergeCells>
@@ -1841,9 +1830,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I224"/>
+  <dimension ref="A1:I227"/>
   <sheetViews>
-    <sheetView topLeftCell="A199" workbookViewId="0">
+    <sheetView topLeftCell="A193" workbookViewId="0">
       <selection activeCell="E206" sqref="E206"/>
     </sheetView>
   </sheetViews>
@@ -1881,16 +1870,16 @@
         <v>42994</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>10</v>
@@ -1899,16 +1888,16 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>10</v>
@@ -1919,16 +1908,16 @@
         <v>42996</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>10</v>
@@ -1937,16 +1926,16 @@
     <row r="8" spans="1:6">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>10</v>
@@ -1955,16 +1944,16 @@
     <row r="9" spans="1:6">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>10</v>
@@ -1973,16 +1962,16 @@
     <row r="10" spans="1:6">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>10</v>
@@ -1993,22 +1982,22 @@
         <v>42998</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -2016,16 +2005,16 @@
     <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>10</v>
@@ -2037,22 +2026,22 @@
     <row r="17" spans="1:9">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="11">
@@ -2062,22 +2051,22 @@
     <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="11">
@@ -2087,22 +2076,22 @@
     <row r="19" spans="1:9">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="11">
@@ -2112,16 +2101,16 @@
     <row r="20" spans="1:6">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>10</v>
@@ -2130,16 +2119,16 @@
     <row r="21" spans="1:6">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>10</v>
@@ -2148,16 +2137,16 @@
     <row r="22" spans="1:6">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>10</v>
@@ -2168,16 +2157,16 @@
         <v>42999</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>10</v>
@@ -2186,16 +2175,16 @@
     <row r="28" spans="1:6">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>10</v>
@@ -2204,16 +2193,16 @@
     <row r="29" spans="1:6">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>10</v>
@@ -2222,16 +2211,16 @@
     <row r="30" spans="1:6">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>10</v>
@@ -2240,16 +2229,16 @@
     <row r="31" spans="1:6">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>10</v>
@@ -2258,16 +2247,16 @@
     <row r="32" spans="1:6">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>10</v>
@@ -2276,16 +2265,16 @@
     <row r="33" spans="1:6">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>10</v>
@@ -2294,16 +2283,16 @@
     <row r="34" spans="1:6">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>10</v>
@@ -2314,16 +2303,16 @@
         <v>42999</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>10</v>
@@ -2332,16 +2321,16 @@
     <row r="39" spans="1:6">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>10</v>
@@ -2350,16 +2339,16 @@
     <row r="40" spans="1:6">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>10</v>
@@ -2368,16 +2357,16 @@
     <row r="41" spans="1:6">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>10</v>
@@ -2388,12 +2377,12 @@
         <v>43005</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>10</v>
@@ -2402,12 +2391,12 @@
     <row r="44" spans="1:6">
       <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>10</v>
@@ -2416,14 +2405,14 @@
     <row r="45" spans="1:6">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>10</v>
@@ -2432,14 +2421,14 @@
     <row r="46" spans="1:6">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>10</v>
@@ -2448,14 +2437,14 @@
     <row r="47" spans="1:6">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>10</v>
@@ -2464,16 +2453,16 @@
     <row r="48" spans="1:6">
       <c r="A48" s="2"/>
       <c r="B48" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>10</v>
@@ -2487,7 +2476,7 @@
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>10</v>
@@ -2499,13 +2488,13 @@
         <v>6</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>10</v>
@@ -2517,13 +2506,13 @@
         <v>6</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>10</v>
@@ -2535,13 +2524,13 @@
         <v>6</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>10</v>
@@ -2553,13 +2542,13 @@
         <v>6</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>10</v>
@@ -2571,13 +2560,13 @@
         <v>6</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>10</v>
@@ -2586,32 +2575,32 @@
     <row r="55" spans="1:6">
       <c r="A55" s="2"/>
       <c r="B55" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2"/>
       <c r="B56" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>10</v>
@@ -2622,16 +2611,16 @@
         <v>43008</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>10</v>
@@ -2640,16 +2629,16 @@
     <row r="59" spans="1:6">
       <c r="A59" s="2"/>
       <c r="B59" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>10</v>
@@ -2658,16 +2647,16 @@
     <row r="60" spans="1:6">
       <c r="A60" s="2"/>
       <c r="B60" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>10</v>
@@ -2679,11 +2668,11 @@
         <v>6</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>10</v>
@@ -2697,13 +2686,13 @@
         <v>6</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>10</v>
@@ -2712,16 +2701,16 @@
     <row r="64" spans="1:6">
       <c r="A64" s="2"/>
       <c r="B64" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>10</v>
@@ -2730,16 +2719,16 @@
     <row r="65" spans="1:6">
       <c r="A65" s="2"/>
       <c r="B65" s="3" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>10</v>
@@ -2748,16 +2737,16 @@
     <row r="66" spans="1:6">
       <c r="A66" s="2"/>
       <c r="B66" s="3" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>10</v>
@@ -2769,11 +2758,11 @@
         <v>6</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>10</v>
@@ -2784,16 +2773,16 @@
         <v>43018</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>10</v>
@@ -2802,16 +2791,16 @@
     <row r="70" spans="1:6">
       <c r="A70" s="2"/>
       <c r="B70" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>10</v>
@@ -2822,16 +2811,16 @@
         <v>43018</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C72" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E72" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>10</v>
@@ -2840,16 +2829,16 @@
     <row r="73" spans="1:6">
       <c r="A73" s="2"/>
       <c r="B73" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C73" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>10</v>
@@ -2858,16 +2847,16 @@
     <row r="74" spans="1:6">
       <c r="A74" s="2"/>
       <c r="B74" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>10</v>
@@ -2876,16 +2865,16 @@
     <row r="75" spans="1:6">
       <c r="A75" s="2"/>
       <c r="B75" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>10</v>
@@ -2894,16 +2883,16 @@
     <row r="76" spans="1:6">
       <c r="A76" s="2"/>
       <c r="B76" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>10</v>
@@ -2912,16 +2901,16 @@
     <row r="77" spans="1:6">
       <c r="A77" s="2"/>
       <c r="B77" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>10</v>
@@ -2930,16 +2919,16 @@
     <row r="78" spans="1:6">
       <c r="A78" s="2"/>
       <c r="B78" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C78" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="E78" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>10</v>
@@ -2948,16 +2937,16 @@
     <row r="79" spans="1:6">
       <c r="A79" s="2"/>
       <c r="B79" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>10</v>
@@ -2966,16 +2955,16 @@
     <row r="80" spans="1:6">
       <c r="A80" s="2"/>
       <c r="B80" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>10</v>
@@ -2984,16 +2973,16 @@
     <row r="81" spans="1:6">
       <c r="A81" s="2"/>
       <c r="B81" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>10</v>
@@ -3004,16 +2993,16 @@
         <v>43020</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>10</v>
@@ -3022,16 +3011,16 @@
     <row r="84" spans="1:6">
       <c r="A84" s="2"/>
       <c r="B84" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>10</v>
@@ -3040,16 +3029,16 @@
     <row r="85" spans="1:6">
       <c r="A85" s="2"/>
       <c r="B85" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>10</v>
@@ -3058,16 +3047,16 @@
     <row r="86" spans="1:6">
       <c r="A86" s="2"/>
       <c r="B86" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>10</v>
@@ -3076,16 +3065,16 @@
     <row r="87" spans="1:6">
       <c r="A87" s="2"/>
       <c r="B87" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>10</v>
@@ -3094,16 +3083,16 @@
     <row r="88" spans="1:6">
       <c r="A88" s="2"/>
       <c r="B88" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C88" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="E88" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>10</v>
@@ -3112,16 +3101,16 @@
     <row r="89" spans="1:6">
       <c r="A89" s="2"/>
       <c r="B89" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>10</v>
@@ -3130,16 +3119,16 @@
     <row r="90" spans="1:6">
       <c r="A90" s="2"/>
       <c r="B90" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>10</v>
@@ -3148,16 +3137,16 @@
     <row r="91" spans="1:6">
       <c r="A91" s="2"/>
       <c r="B91" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D91" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E91" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>10</v>
@@ -3166,16 +3155,16 @@
     <row r="92" spans="1:6">
       <c r="A92" s="2"/>
       <c r="B92" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C92" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D92" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="E92" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>10</v>
@@ -3184,16 +3173,16 @@
     <row r="93" spans="1:6">
       <c r="A93" s="2"/>
       <c r="B93" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C93" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="E93" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>10</v>
@@ -3202,16 +3191,16 @@
     <row r="94" spans="1:6">
       <c r="A94" s="2"/>
       <c r="B94" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>10</v>
@@ -3220,16 +3209,16 @@
     <row r="95" spans="1:6">
       <c r="A95" s="2"/>
       <c r="B95" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>10</v>
@@ -3241,13 +3230,13 @@
         <v>6</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>10</v>
@@ -3259,13 +3248,13 @@
         <v>6</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>10</v>
@@ -3277,13 +3266,13 @@
         <v>6</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>10</v>
@@ -3295,13 +3284,13 @@
         <v>6</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>10</v>
@@ -3313,13 +3302,13 @@
         <v>6</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>10</v>
@@ -3328,16 +3317,16 @@
     <row r="101" spans="1:6">
       <c r="A101" s="2"/>
       <c r="B101" s="3" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>10</v>
@@ -3346,16 +3335,16 @@
     <row r="102" spans="1:6">
       <c r="A102" s="2"/>
       <c r="B102" s="3" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>10</v>
@@ -3364,16 +3353,16 @@
     <row r="103" spans="1:6">
       <c r="A103" s="2"/>
       <c r="B103" s="3" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>10</v>
@@ -3382,16 +3371,16 @@
     <row r="104" spans="1:6">
       <c r="A104" s="2"/>
       <c r="B104" s="3" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>10</v>
@@ -3400,16 +3389,16 @@
     <row r="105" spans="1:6">
       <c r="A105" s="2"/>
       <c r="B105" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>10</v>
@@ -3420,16 +3409,16 @@
         <v>43021</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>10</v>
@@ -3438,16 +3427,16 @@
     <row r="108" spans="1:6">
       <c r="A108" s="2"/>
       <c r="B108" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>10</v>
@@ -3456,16 +3445,16 @@
     <row r="109" spans="1:6">
       <c r="A109" s="2"/>
       <c r="B109" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C109" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D109" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D109" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="E109" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>10</v>
@@ -3474,16 +3463,16 @@
     <row r="110" spans="1:6">
       <c r="A110" s="2"/>
       <c r="B110" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>10</v>
@@ -3492,16 +3481,16 @@
     <row r="111" spans="1:6">
       <c r="A111" s="2"/>
       <c r="B111" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>10</v>
@@ -3510,16 +3499,16 @@
     <row r="112" spans="1:6">
       <c r="A112" s="2"/>
       <c r="B112" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C112" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D112" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D112" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="E112" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>10</v>
@@ -3528,16 +3517,16 @@
     <row r="113" spans="1:6">
       <c r="A113" s="2"/>
       <c r="B113" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>10</v>
@@ -3546,16 +3535,16 @@
     <row r="114" spans="1:6">
       <c r="A114" s="13"/>
       <c r="B114" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D114" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C114" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="E114" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F114" s="5"/>
     </row>
@@ -3564,16 +3553,16 @@
         <v>43022</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>10</v>
@@ -3582,16 +3571,16 @@
     <row r="117" spans="1:6">
       <c r="A117" s="2"/>
       <c r="B117" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>10</v>
@@ -3600,16 +3589,16 @@
     <row r="118" spans="1:6">
       <c r="A118" s="2"/>
       <c r="B118" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>10</v>
@@ -3620,16 +3609,16 @@
         <v>43024</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C120" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D120" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D120" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="E120" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>10</v>
@@ -3638,16 +3627,16 @@
     <row r="121" spans="1:6">
       <c r="A121" s="2"/>
       <c r="B121" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>10</v>
@@ -3656,16 +3645,16 @@
     <row r="122" spans="1:6">
       <c r="A122" s="2"/>
       <c r="B122" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C122" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D122" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D122" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="E122" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>10</v>
@@ -3674,16 +3663,16 @@
     <row r="123" spans="1:6">
       <c r="A123" s="2"/>
       <c r="B123" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>10</v>
@@ -3692,16 +3681,16 @@
     <row r="124" spans="1:6">
       <c r="A124" s="2"/>
       <c r="B124" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>10</v>
@@ -3710,16 +3699,16 @@
     <row r="125" spans="1:6">
       <c r="A125" s="2"/>
       <c r="B125" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>10</v>
@@ -3728,16 +3717,16 @@
     <row r="126" spans="1:6">
       <c r="A126" s="2"/>
       <c r="B126" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>10</v>
@@ -3746,16 +3735,16 @@
     <row r="127" spans="1:6">
       <c r="A127" s="2"/>
       <c r="B127" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C127" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D127" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D127" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="E127" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>10</v>
@@ -3766,16 +3755,16 @@
         <v>43025</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>10</v>
@@ -3784,16 +3773,16 @@
     <row r="130" spans="1:6">
       <c r="A130" s="2"/>
       <c r="B130" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C130" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D130" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D130" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="E130" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>10</v>
@@ -3802,16 +3791,16 @@
     <row r="131" spans="1:6">
       <c r="A131" s="2"/>
       <c r="B131" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>10</v>
@@ -3820,16 +3809,16 @@
     <row r="132" spans="1:6">
       <c r="A132" s="2"/>
       <c r="B132" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>10</v>
@@ -3838,16 +3827,16 @@
     <row r="133" spans="1:6">
       <c r="A133" s="2"/>
       <c r="B133" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>10</v>
@@ -3856,16 +3845,16 @@
     <row r="134" spans="1:6">
       <c r="A134" s="2"/>
       <c r="B134" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>10</v>
@@ -3874,16 +3863,16 @@
     <row r="135" spans="1:6">
       <c r="A135" s="2"/>
       <c r="B135" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C135" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D135" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D135" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="E135" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>10</v>
@@ -3892,16 +3881,16 @@
     <row r="136" spans="1:6">
       <c r="A136" s="2"/>
       <c r="B136" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>10</v>
@@ -3910,16 +3899,16 @@
     <row r="137" spans="1:6">
       <c r="A137" s="2"/>
       <c r="B137" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>10</v>
@@ -3928,16 +3917,16 @@
     <row r="138" spans="1:6">
       <c r="A138" s="2"/>
       <c r="B138" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>10</v>
@@ -3946,16 +3935,16 @@
     <row r="139" spans="1:6">
       <c r="A139" s="2"/>
       <c r="B139" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>10</v>
@@ -3964,16 +3953,16 @@
     <row r="140" spans="1:6">
       <c r="A140" s="2"/>
       <c r="B140" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>10</v>
@@ -3982,16 +3971,16 @@
     <row r="141" spans="1:6">
       <c r="A141" s="2"/>
       <c r="B141" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>10</v>
@@ -4000,16 +3989,16 @@
     <row r="142" spans="1:6">
       <c r="A142" s="2"/>
       <c r="B142" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>10</v>
@@ -4020,16 +4009,16 @@
         <v>43025</v>
       </c>
       <c r="B144" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D144" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C144" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="E144" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>10</v>
@@ -4040,16 +4029,16 @@
         <v>43028</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F146" s="5" t="s">
         <v>10</v>
@@ -4058,16 +4047,16 @@
     <row r="147" spans="1:6">
       <c r="A147" s="2"/>
       <c r="B147" s="3" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>10</v>
@@ -4076,16 +4065,16 @@
     <row r="148" spans="1:6">
       <c r="A148" s="2"/>
       <c r="B148" s="3" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>10</v>
@@ -4096,16 +4085,16 @@
         <v>43032</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C150" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E150" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="F150" s="5" t="s">
         <v>10</v>
@@ -4114,16 +4103,16 @@
     <row r="151" spans="1:6">
       <c r="A151" s="2"/>
       <c r="B151" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F151" s="5" t="s">
         <v>10</v>
@@ -4134,16 +4123,16 @@
         <v>43033</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F153" s="5" t="s">
         <v>10</v>
@@ -4152,16 +4141,16 @@
     <row r="154" spans="1:6">
       <c r="A154" s="2"/>
       <c r="B154" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F154" s="5" t="s">
         <v>10</v>
@@ -4170,16 +4159,16 @@
     <row r="155" spans="1:6">
       <c r="A155" s="2"/>
       <c r="B155" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>10</v>
@@ -4191,13 +4180,13 @@
         <v>6</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>10</v>
@@ -4209,13 +4198,13 @@
         <v>6</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>10</v>
@@ -4227,13 +4216,13 @@
         <v>6</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F158" s="5" t="s">
         <v>10</v>
@@ -4245,13 +4234,13 @@
         <v>6</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F159" s="5" t="s">
         <v>10</v>
@@ -4263,13 +4252,13 @@
         <v>6</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F160" s="5" t="s">
         <v>10</v>
@@ -4281,13 +4270,13 @@
         <v>6</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>10</v>
@@ -4299,13 +4288,13 @@
         <v>6</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F162" s="5" t="s">
         <v>10</v>
@@ -4316,16 +4305,16 @@
         <v>43036</v>
       </c>
       <c r="B164" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D164" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C164" s="4" t="s">
+      <c r="E164" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="F164" s="5" t="s">
         <v>10</v>
@@ -4334,16 +4323,16 @@
     <row r="165" spans="1:6">
       <c r="A165" s="2"/>
       <c r="B165" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C165" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E165" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E165" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="F165" s="5" t="s">
         <v>10</v>
@@ -4352,16 +4341,16 @@
     <row r="166" spans="1:6">
       <c r="A166" s="2"/>
       <c r="B166" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F166" s="5" t="s">
         <v>10</v>
@@ -4370,16 +4359,16 @@
     <row r="167" spans="1:6">
       <c r="A167" s="2"/>
       <c r="B167" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D167" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E167" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="E167" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="F167" s="5" t="s">
         <v>10</v>
@@ -4388,16 +4377,16 @@
     <row r="168" spans="1:6">
       <c r="A168" s="2"/>
       <c r="B168" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F168" s="5" t="s">
         <v>10</v>
@@ -4406,16 +4395,16 @@
     <row r="169" spans="1:6">
       <c r="A169" s="2"/>
       <c r="B169" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F169" s="5" t="s">
         <v>10</v>
@@ -4424,16 +4413,16 @@
     <row r="170" spans="1:6">
       <c r="A170" s="2"/>
       <c r="B170" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F170" s="5" t="s">
         <v>10</v>
@@ -4442,16 +4431,16 @@
     <row r="171" spans="1:6">
       <c r="A171" s="2"/>
       <c r="B171" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F171" s="5" t="s">
         <v>10</v>
@@ -4460,16 +4449,16 @@
     <row r="172" spans="1:6">
       <c r="A172" s="2"/>
       <c r="B172" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D172" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C172" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D172" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="E172" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F172" s="5" t="s">
         <v>10</v>
@@ -4478,16 +4467,16 @@
     <row r="173" spans="1:6">
       <c r="A173" s="2"/>
       <c r="B173" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F173" s="5" t="s">
         <v>10</v>
@@ -4496,16 +4485,16 @@
     <row r="174" spans="1:6">
       <c r="A174" s="2"/>
       <c r="B174" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D174" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E174" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="E174" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="F174" s="5" t="s">
         <v>10</v>
@@ -4514,16 +4503,16 @@
     <row r="175" spans="1:6">
       <c r="A175" s="2"/>
       <c r="B175" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F175" s="5" t="s">
         <v>10</v>
@@ -4532,16 +4521,16 @@
     <row r="176" spans="1:6">
       <c r="A176" s="2"/>
       <c r="B176" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F176" s="5" t="s">
         <v>10</v>
@@ -4550,16 +4539,16 @@
     <row r="177" spans="1:6">
       <c r="A177" s="2"/>
       <c r="B177" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F177" s="5" t="s">
         <v>10</v>
@@ -4568,16 +4557,16 @@
     <row r="178" spans="1:6">
       <c r="A178" s="2"/>
       <c r="B178" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F178" s="5" t="s">
         <v>10</v>
@@ -4586,16 +4575,16 @@
     <row r="179" spans="1:6">
       <c r="A179" s="2"/>
       <c r="B179" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F179" s="5" t="s">
         <v>10</v>
@@ -4604,16 +4593,16 @@
     <row r="180" spans="1:6">
       <c r="A180" s="2"/>
       <c r="B180" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D180" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C180" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D180" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="E180" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F180" s="5" t="s">
         <v>10</v>
@@ -4622,16 +4611,16 @@
     <row r="181" spans="1:6">
       <c r="A181" s="2"/>
       <c r="B181" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F181" s="5" t="s">
         <v>10</v>
@@ -4642,16 +4631,16 @@
         <v>43038</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F183" s="5" t="s">
         <v>10</v>
@@ -4660,16 +4649,16 @@
     <row r="184" spans="1:6">
       <c r="A184" s="2"/>
       <c r="B184" s="3" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F184" s="5" t="s">
         <v>10</v>
@@ -4678,16 +4667,16 @@
     <row r="185" spans="1:6">
       <c r="A185" s="2"/>
       <c r="B185" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F185" s="5" t="s">
         <v>10</v>
@@ -4696,16 +4685,16 @@
     <row r="186" spans="1:6">
       <c r="A186" s="2"/>
       <c r="B186" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F186" s="5" t="s">
         <v>10</v>
@@ -4714,16 +4703,16 @@
     <row r="187" spans="1:6">
       <c r="A187" s="2"/>
       <c r="B187" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F187" s="5" t="s">
         <v>10</v>
@@ -4732,16 +4721,16 @@
     <row r="188" spans="1:6">
       <c r="A188" s="2"/>
       <c r="B188" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F188" s="5" t="s">
         <v>10</v>
@@ -4750,16 +4739,16 @@
     <row r="189" spans="1:6">
       <c r="A189" s="2"/>
       <c r="B189" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F189" s="5" t="s">
         <v>10</v>
@@ -4768,16 +4757,16 @@
     <row r="190" spans="1:6">
       <c r="A190" s="2"/>
       <c r="B190" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F190" s="5" t="s">
         <v>10</v>
@@ -4786,16 +4775,16 @@
     <row r="191" spans="1:6">
       <c r="A191" s="2"/>
       <c r="B191" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F191" s="5" t="s">
         <v>10</v>
@@ -4804,16 +4793,16 @@
     <row r="192" spans="1:6">
       <c r="A192" s="2"/>
       <c r="B192" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F192" s="5" t="s">
         <v>10</v>
@@ -4822,16 +4811,16 @@
     <row r="193" spans="1:6">
       <c r="A193" s="2"/>
       <c r="B193" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F193" s="5" t="s">
         <v>10</v>
@@ -4840,16 +4829,16 @@
     <row r="194" spans="1:6">
       <c r="A194" s="2"/>
       <c r="B194" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D194" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C194" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D194" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="E194" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F194" s="5" t="s">
         <v>10</v>
@@ -4860,16 +4849,16 @@
         <v>43039</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F196" s="5" t="s">
         <v>10</v>
@@ -4878,16 +4867,16 @@
     <row r="197" spans="1:6">
       <c r="A197" s="2"/>
       <c r="B197" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F197" s="5" t="s">
         <v>10</v>
@@ -4898,16 +4887,16 @@
         <v>43040</v>
       </c>
       <c r="B199" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D199" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C199" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D199" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="E199" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F199" s="5" t="s">
         <v>10</v>
@@ -4916,16 +4905,16 @@
     <row r="200" spans="1:6">
       <c r="A200" s="2"/>
       <c r="B200" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F200" s="5" t="s">
         <v>10</v>
@@ -4934,16 +4923,16 @@
     <row r="201" spans="1:6">
       <c r="A201" s="2"/>
       <c r="B201" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F201" s="5" t="s">
         <v>10</v>
@@ -4952,16 +4941,16 @@
     <row r="202" spans="1:6">
       <c r="A202" s="2"/>
       <c r="B202" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F202" s="5" t="s">
         <v>10</v>
@@ -4972,16 +4961,16 @@
         <v>43041</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F204" s="5" t="s">
         <v>10</v>
@@ -4995,13 +4984,13 @@
         <v>6</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F206" s="5" t="s">
         <v>10</v>
@@ -5013,13 +5002,13 @@
         <v>6</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F207" s="5" t="s">
         <v>10</v>
@@ -5031,13 +5020,13 @@
         <v>6</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>7</v>
+        <v>198</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F208" s="5" t="s">
         <v>10</v>
@@ -5049,13 +5038,13 @@
         <v>6</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>7</v>
+        <v>198</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F209" s="5" t="s">
         <v>10</v>
@@ -5067,13 +5056,13 @@
         <v>6</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F210" s="5" t="s">
         <v>10</v>
@@ -5085,13 +5074,13 @@
         <v>6</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F211" s="5" t="s">
         <v>10</v>
@@ -5103,13 +5092,13 @@
         <v>6</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F212" s="5" t="s">
         <v>10</v>
@@ -5121,13 +5110,13 @@
         <v>6</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F213" s="5" t="s">
         <v>10</v>
@@ -5136,16 +5125,16 @@
     <row r="214" spans="1:6">
       <c r="A214" s="2"/>
       <c r="B214" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C214" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D214" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D214" s="4" t="s">
-        <v>205</v>
-      </c>
       <c r="E214" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F214" s="5" t="s">
         <v>10</v>
@@ -5154,16 +5143,16 @@
     <row r="215" spans="1:6">
       <c r="A215" s="2"/>
       <c r="B215" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F215" s="5" t="s">
         <v>10</v>
@@ -5174,16 +5163,16 @@
         <v>43045</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F217" s="5" t="s">
         <v>10</v>
@@ -5192,16 +5181,16 @@
     <row r="218" spans="1:6">
       <c r="A218" s="2"/>
       <c r="B218" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F218" s="5" t="s">
         <v>10</v>
@@ -5210,16 +5199,16 @@
     <row r="219" spans="1:6">
       <c r="A219" s="2"/>
       <c r="B219" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F219" s="5" t="s">
         <v>10</v>
@@ -5231,13 +5220,13 @@
         <v>6</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F220" s="5" t="s">
         <v>10</v>
@@ -5246,16 +5235,16 @@
     <row r="221" spans="1:6">
       <c r="A221" s="2"/>
       <c r="B221" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D221" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C221" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D221" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="E221" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F221" s="5" t="s">
         <v>10</v>
@@ -5264,16 +5253,16 @@
     <row r="222" spans="1:6">
       <c r="A222" s="2"/>
       <c r="B222" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F222" s="5" t="s">
         <v>10</v>
@@ -5287,20 +5276,58 @@
         <v>6</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E224" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F224" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="2">
+        <v>43046</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D226" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F224" s="5" t="s">
+      <c r="E226" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F226" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="2"/>
+      <c r="B227" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F227" s="5" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="31">
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
@@ -5330,6 +5357,7 @@
     <mergeCell ref="A199:A202"/>
     <mergeCell ref="A206:A215"/>
     <mergeCell ref="A217:A222"/>
+    <mergeCell ref="A226:A227"/>
     <mergeCell ref="G15:I16"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求分析/接口文档/客户/更新说明.xlsx
+++ b/需求分析/接口文档/客户/更新说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27120" windowHeight="10350"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="当前更新" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216">
   <si>
     <t>更新时间</t>
   </si>
@@ -35,9 +35,627 @@
     <t>状态</t>
   </si>
   <si>
+    <t>库存接口</t>
+  </si>
+  <si>
+    <t>查看库存</t>
+  </si>
+  <si>
+    <t>获取总部销售点Id</t>
+  </si>
+  <si>
+    <t>新增 销售点名称 返回</t>
+  </si>
+  <si>
+    <t>已验证</t>
+  </si>
+  <si>
+    <t>客户信息</t>
+  </si>
+  <si>
+    <t>跟单员获取客户列表</t>
+  </si>
+  <si>
+    <t>新增接口</t>
+  </si>
+  <si>
+    <t>跟单员搜索客户</t>
+  </si>
+  <si>
+    <t>接口测试数据登陆:http://112.74.32.113/backend/pages/index/index.html</t>
+  </si>
+  <si>
+    <t>客户接口</t>
+  </si>
+  <si>
+    <t>个人信息</t>
+  </si>
+  <si>
+    <t>获取默认收货地址</t>
+  </si>
+  <si>
+    <t>新添加的接口</t>
+  </si>
+  <si>
+    <t>个人信息接口</t>
+  </si>
+  <si>
+    <t>经营单位</t>
+  </si>
+  <si>
+    <t>获取经营单位详情</t>
+  </si>
+  <si>
+    <t>获取客户列表</t>
+  </si>
+  <si>
+    <t>添加返回客户头像</t>
+  </si>
+  <si>
+    <t>移交客户</t>
+  </si>
+  <si>
+    <t>业务员移交客户</t>
+  </si>
+  <si>
+    <t>跟单员移交客户</t>
+  </si>
+  <si>
+    <t>养殖信息(新)</t>
+  </si>
+  <si>
+    <t>所有的接口</t>
+  </si>
+  <si>
+    <t>hadAccount(账号状态)</t>
+  </si>
+  <si>
+    <t>商城接口</t>
+  </si>
+  <si>
+    <t>订单</t>
+  </si>
+  <si>
+    <t>获取运费模板列表(客户)</t>
+  </si>
+  <si>
+    <t>添加商家地址返回</t>
+  </si>
+  <si>
+    <t>客户建账</t>
+  </si>
+  <si>
+    <t>获取审批人列表</t>
+  </si>
+  <si>
+    <t>暂停使用</t>
+  </si>
+  <si>
+    <t>未建账</t>
+  </si>
+  <si>
+    <t>添加融云id返回</t>
+  </si>
+  <si>
+    <t>已建账</t>
+  </si>
+  <si>
+    <t>申请客户建账</t>
+  </si>
+  <si>
+    <t>添加 申请原因 参数</t>
+  </si>
+  <si>
+    <t>账号被冻结</t>
+  </si>
+  <si>
+    <t>冻结客户</t>
+  </si>
+  <si>
+    <t>解冻客户</t>
+  </si>
+  <si>
+    <t>获取客户详情</t>
+  </si>
+  <si>
+    <t>添加 账号冻结 状态</t>
+  </si>
+  <si>
+    <t>商品浏览</t>
+  </si>
+  <si>
+    <t>查看商品详情</t>
+  </si>
+  <si>
+    <t>添加 规格重量 返回</t>
+  </si>
+  <si>
+    <t>购物车</t>
+  </si>
+  <si>
+    <t>获取购物车商品列表</t>
+  </si>
+  <si>
+    <t>获取订单列表</t>
+  </si>
+  <si>
+    <t>添加 订单号 返回</t>
+  </si>
+  <si>
+    <t>获取订单详情</t>
+  </si>
+  <si>
+    <t>筛选订单</t>
+  </si>
+  <si>
+    <t>根据订单号获取订单列表</t>
+  </si>
+  <si>
+    <t>业务订单</t>
+  </si>
+  <si>
+    <t>财务订单</t>
+  </si>
+  <si>
+    <t>权限角色接口</t>
+  </si>
+  <si>
+    <t>权限角色</t>
+  </si>
+  <si>
+    <t>获取用户角色</t>
+  </si>
+  <si>
+    <t>获取跟单员列表</t>
+  </si>
+  <si>
+    <t>开放使用</t>
+  </si>
+  <si>
+    <t>申请库存</t>
+  </si>
+  <si>
+    <t>更名为 客户商城接口</t>
+  </si>
+  <si>
+    <t>商家商城接口</t>
+  </si>
+  <si>
+    <t>原 商城接口 的拆分</t>
+  </si>
+  <si>
+    <t>运费模板</t>
+  </si>
+  <si>
+    <t>销售点</t>
+  </si>
+  <si>
+    <t>商品编辑</t>
+  </si>
+  <si>
+    <t>所有接口</t>
+  </si>
+  <si>
     <t>订单接口</t>
   </si>
   <si>
+    <t>业务订单(业务)</t>
+  </si>
+  <si>
+    <t>业务订单(业务管理)</t>
+  </si>
+  <si>
+    <t>财务订单(财务)</t>
+  </si>
+  <si>
+    <t>财务订单(财务管理)</t>
+  </si>
+  <si>
+    <t>后勤订单(跟单)</t>
+  </si>
+  <si>
+    <t>已废弃</t>
+  </si>
+  <si>
+    <t>需求接口</t>
+  </si>
+  <si>
+    <t>激活登陆</t>
+  </si>
+  <si>
+    <t>用户登录</t>
+  </si>
+  <si>
+    <t>添加 企业名称 返回</t>
+  </si>
+  <si>
+    <t>查找分类下的商品</t>
+  </si>
+  <si>
+    <t>搜索商品</t>
+  </si>
+  <si>
+    <t>所有 筛选订单 接口</t>
+  </si>
+  <si>
+    <t>新增 订单总价 返回</t>
+  </si>
+  <si>
+    <t>客户订单</t>
+  </si>
+  <si>
+    <t>生成订单</t>
+  </si>
+  <si>
+    <t>添加 商品不存在 返回值</t>
+  </si>
+  <si>
+    <t>养殖信息（新）</t>
+  </si>
+  <si>
+    <t>获取养殖信息详情（新）</t>
+  </si>
+  <si>
+    <t>客户资源</t>
+  </si>
+  <si>
+    <t>获取养殖信息列表</t>
+  </si>
+  <si>
+    <t>添加 json 返回</t>
+  </si>
+  <si>
+    <t>获取养殖信息详情</t>
+  </si>
+  <si>
+    <t>所有订单筛选接口</t>
+  </si>
+  <si>
+    <t>更新 订单状态</t>
+  </si>
+  <si>
+    <t>添加 角色代码 返回值</t>
+  </si>
+  <si>
+    <t>客户跟进</t>
+  </si>
+  <si>
+    <t>添加 跟进标题 参数</t>
+  </si>
+  <si>
+    <t>查看销售点库存</t>
+  </si>
+  <si>
+    <t>添加 返回参数</t>
+  </si>
+  <si>
+    <t>查看当前销售点库存</t>
+  </si>
+  <si>
+    <t>查看总部销售点库存</t>
+  </si>
+  <si>
+    <t>盘点库存</t>
+  </si>
+  <si>
+    <t>获取库存盘点记录</t>
+  </si>
+  <si>
+    <t>库存进仓</t>
+  </si>
+  <si>
+    <t>新建进仓单</t>
+  </si>
+  <si>
+    <t>获取进仓单列表</t>
+  </si>
+  <si>
+    <t>获取进仓单详情</t>
+  </si>
+  <si>
+    <t>申请人获取库存申请列表</t>
+  </si>
+  <si>
+    <t>审批人获取库存审批列表</t>
+  </si>
+  <si>
+    <t>添加 商品图片 返回</t>
+  </si>
+  <si>
+    <t>库存盘点</t>
+  </si>
+  <si>
+    <t>添加 时间段筛选 条件</t>
+  </si>
+  <si>
+    <t>获取库存盘点记录详情</t>
+  </si>
+  <si>
+    <t>添加 筛选 条件</t>
+  </si>
+  <si>
+    <t>搜索库存商品</t>
+  </si>
+  <si>
+    <t>添加 付款状态 返回</t>
+  </si>
+  <si>
+    <t>跟单订单(跟单)</t>
+  </si>
+  <si>
+    <t>获取成员的客户列表</t>
+  </si>
+  <si>
+    <t>添加 用户头像 返回</t>
+  </si>
+  <si>
+    <t>筛选客户列表</t>
+  </si>
+  <si>
+    <t>此接口与(获取成员的客户列表)合并</t>
+  </si>
+  <si>
+    <t>添加 商品编码 返回</t>
+  </si>
+  <si>
+    <t>添加 商品编码、申请单号 返回</t>
+  </si>
+  <si>
+    <t>组织管理接口</t>
+  </si>
+  <si>
+    <t>组织管理</t>
+  </si>
+  <si>
+    <t>获取可分配的角色列表</t>
+  </si>
+  <si>
+    <t>获取商品列表</t>
+  </si>
+  <si>
+    <t>添加 商品规格Id 返回</t>
+  </si>
+  <si>
+    <t>参数 recordList 替换为 incomeList</t>
+  </si>
+  <si>
+    <t>添加 总部当前库存 返回</t>
+  </si>
+  <si>
+    <t>添加 该账号已存在 状态码</t>
+  </si>
+  <si>
+    <t>添加 商品分类 返回</t>
+  </si>
+  <si>
+    <t>登陆激活</t>
+  </si>
+  <si>
+    <t>用户登录(浏览器)</t>
+  </si>
+  <si>
+    <t>获取当前销售点进仓单列表</t>
+  </si>
+  <si>
+    <t>获取当销售点前库存盘点记录</t>
+  </si>
+  <si>
+    <t>更新 branchId(销售点Id) 为选填</t>
+  </si>
+  <si>
+    <t>添加 头像 返回</t>
+  </si>
+  <si>
+    <t>团队接口</t>
+  </si>
+  <si>
+    <t>团队</t>
+  </si>
+  <si>
+    <t>获取团队内所有成员</t>
+  </si>
+  <si>
+    <t>获取库存审批详情</t>
+  </si>
+  <si>
+    <t>获取当前部门下的成员列表</t>
+  </si>
+  <si>
+    <t>获取当前部门下的客户列表</t>
+  </si>
+  <si>
+    <t>申请协助</t>
+  </si>
+  <si>
+    <t>协助者获取协助列表</t>
+  </si>
+  <si>
+    <t>新增 status(审批状态) 筛选</t>
+  </si>
+  <si>
+    <t>获取申请详情</t>
+  </si>
+  <si>
+    <t>新增 status(审批状态) 返回</t>
+  </si>
+  <si>
+    <t>获取库存等级</t>
+  </si>
+  <si>
+    <t>获取头像图片</t>
+  </si>
+  <si>
+    <t>新增 是否建账 筛选</t>
+  </si>
+  <si>
+    <t>财务A审批通过</t>
+  </si>
+  <si>
+    <t>删除接口</t>
+  </si>
+  <si>
+    <t>财务A审批拒绝</t>
+  </si>
+  <si>
+    <t>财务B审批通过</t>
+  </si>
+  <si>
+    <t>财务B审批拒绝</t>
+  </si>
+  <si>
+    <t>财务审核通过</t>
+  </si>
+  <si>
+    <t>财务审核不通过</t>
+  </si>
+  <si>
+    <t>所有标签</t>
+  </si>
+  <si>
+    <t>更新订单状态</t>
+  </si>
+  <si>
+    <t>通用申请接口</t>
+  </si>
+  <si>
+    <t>通用申请</t>
+  </si>
+  <si>
+    <t>发起人获取申请列表</t>
+  </si>
+  <si>
+    <t>新增 applyResult(申请状态) 筛选</t>
+  </si>
+  <si>
+    <t>审批人获取申请列表</t>
+  </si>
+  <si>
+    <t>审批员获取建账申请列表</t>
+  </si>
+  <si>
+    <t>新增 requestStatus(申请状态)、userImage(头像) 返回</t>
+  </si>
+  <si>
+    <t>新增 分页 参数</t>
+  </si>
+  <si>
+    <t>新增 requestStatus(申请状态) 筛选</t>
+  </si>
+  <si>
+    <t>申请人获取建账申请列表</t>
+  </si>
+  <si>
+    <t>新增 userImage(头像) 返回</t>
+  </si>
+  <si>
+    <t>新增 已审批 筛选状态</t>
+  </si>
+  <si>
+    <t>申请者获取协助列表</t>
+  </si>
+  <si>
+    <t>新增 createDate(申请时间) 返回</t>
+  </si>
+  <si>
+    <t>搜索客户</t>
+  </si>
+  <si>
+    <t>搜索当前部门下的客户</t>
+  </si>
+  <si>
+    <t>冻结成员</t>
+  </si>
+  <si>
+    <t>解冻成员</t>
+  </si>
+  <si>
+    <t>搜索部门成员</t>
+  </si>
+  <si>
+    <t>获取部门成员列表</t>
+  </si>
+  <si>
+    <t>获取建账申请详情</t>
+  </si>
+  <si>
+    <t>新增 头像 返回</t>
+  </si>
+  <si>
+    <t>新增 协助者头像 返回</t>
+  </si>
+  <si>
+    <t>新增 审批人头像 返回</t>
+  </si>
+  <si>
+    <t>新增 申请状态 返回</t>
+  </si>
+  <si>
+    <t>新增 部门名称 返回</t>
+  </si>
+  <si>
+    <t>调货申请</t>
+  </si>
+  <si>
+    <t>添加 签收时间 返回值</t>
+  </si>
+  <si>
+    <t>添加 部门 返回值</t>
+  </si>
+  <si>
+    <t>新增 能否审批 返回</t>
+  </si>
+  <si>
+    <t>新增 退货时间 返回</t>
+  </si>
+  <si>
+    <t>新增 收货地址 规则</t>
+  </si>
+  <si>
+    <t>跟单订单</t>
+  </si>
+  <si>
+    <t>搜索订单(财务主管通用)</t>
+  </si>
+  <si>
+    <t>获取订单详情(财务主管通用)</t>
+  </si>
+  <si>
+    <t>搜索订单(业务主管通用)</t>
+  </si>
+  <si>
+    <t>获取订单详情(业务主管通用)</t>
+  </si>
+  <si>
+    <t>找回密码</t>
+  </si>
+  <si>
+    <t>验证密码</t>
+  </si>
+  <si>
+    <t>用户登出(浏览器)</t>
+  </si>
+  <si>
+    <t>新增 departmentId(部门) 筛选</t>
+  </si>
+  <si>
+    <t>新增 总页数 返回</t>
+  </si>
+  <si>
+    <t>更新 跟单员 返回</t>
+  </si>
+  <si>
+    <t>跟单审核通过</t>
+  </si>
+  <si>
+    <t>添加 商家留言 参数</t>
+  </si>
+  <si>
+    <t>获取跟进详情</t>
+  </si>
+  <si>
+    <t>新增 跟进人 返回</t>
+  </si>
+  <si>
     <t>订单凭证</t>
   </si>
   <si>
@@ -45,615 +663,6 @@
   </si>
   <si>
     <t>新增 凭证Id 返回</t>
-  </si>
-  <si>
-    <t>已验证</t>
-  </si>
-  <si>
-    <t>接口测试数据登陆:http://112.74.32.113/backend/pages/index/index.html</t>
-  </si>
-  <si>
-    <t>客户接口</t>
-  </si>
-  <si>
-    <t>个人信息</t>
-  </si>
-  <si>
-    <t>获取默认收货地址</t>
-  </si>
-  <si>
-    <t>新添加的接口</t>
-  </si>
-  <si>
-    <t>个人信息接口</t>
-  </si>
-  <si>
-    <t>经营单位</t>
-  </si>
-  <si>
-    <t>获取经营单位详情</t>
-  </si>
-  <si>
-    <t>新增接口</t>
-  </si>
-  <si>
-    <t>客户信息</t>
-  </si>
-  <si>
-    <t>获取客户列表</t>
-  </si>
-  <si>
-    <t>添加返回客户头像</t>
-  </si>
-  <si>
-    <t>移交客户</t>
-  </si>
-  <si>
-    <t>业务员移交客户</t>
-  </si>
-  <si>
-    <t>跟单员移交客户</t>
-  </si>
-  <si>
-    <t>养殖信息(新)</t>
-  </si>
-  <si>
-    <t>所有的接口</t>
-  </si>
-  <si>
-    <t>hadAccount(账号状态)</t>
-  </si>
-  <si>
-    <t>商城接口</t>
-  </si>
-  <si>
-    <t>订单</t>
-  </si>
-  <si>
-    <t>获取运费模板列表(客户)</t>
-  </si>
-  <si>
-    <t>添加商家地址返回</t>
-  </si>
-  <si>
-    <t>客户建账</t>
-  </si>
-  <si>
-    <t>获取审批人列表</t>
-  </si>
-  <si>
-    <t>暂停使用</t>
-  </si>
-  <si>
-    <t>未建账</t>
-  </si>
-  <si>
-    <t>添加融云id返回</t>
-  </si>
-  <si>
-    <t>已建账</t>
-  </si>
-  <si>
-    <t>申请客户建账</t>
-  </si>
-  <si>
-    <t>添加 申请原因 参数</t>
-  </si>
-  <si>
-    <t>账号被冻结</t>
-  </si>
-  <si>
-    <t>冻结客户</t>
-  </si>
-  <si>
-    <t>解冻客户</t>
-  </si>
-  <si>
-    <t>获取客户详情</t>
-  </si>
-  <si>
-    <t>添加 账号冻结 状态</t>
-  </si>
-  <si>
-    <t>商品浏览</t>
-  </si>
-  <si>
-    <t>查看商品详情</t>
-  </si>
-  <si>
-    <t>添加 规格重量 返回</t>
-  </si>
-  <si>
-    <t>购物车</t>
-  </si>
-  <si>
-    <t>获取购物车商品列表</t>
-  </si>
-  <si>
-    <t>获取订单列表</t>
-  </si>
-  <si>
-    <t>添加 订单号 返回</t>
-  </si>
-  <si>
-    <t>获取订单详情</t>
-  </si>
-  <si>
-    <t>筛选订单</t>
-  </si>
-  <si>
-    <t>根据订单号获取订单列表</t>
-  </si>
-  <si>
-    <t>业务订单</t>
-  </si>
-  <si>
-    <t>财务订单</t>
-  </si>
-  <si>
-    <t>权限角色接口</t>
-  </si>
-  <si>
-    <t>权限角色</t>
-  </si>
-  <si>
-    <t>获取用户角色</t>
-  </si>
-  <si>
-    <t>获取跟单员列表</t>
-  </si>
-  <si>
-    <t>开放使用</t>
-  </si>
-  <si>
-    <t>库存接口</t>
-  </si>
-  <si>
-    <t>申请库存</t>
-  </si>
-  <si>
-    <t>更名为 客户商城接口</t>
-  </si>
-  <si>
-    <t>商家商城接口</t>
-  </si>
-  <si>
-    <t>原 商城接口 的拆分</t>
-  </si>
-  <si>
-    <t>运费模板</t>
-  </si>
-  <si>
-    <t>销售点</t>
-  </si>
-  <si>
-    <t>商品编辑</t>
-  </si>
-  <si>
-    <t>所有接口</t>
-  </si>
-  <si>
-    <t>业务订单(业务)</t>
-  </si>
-  <si>
-    <t>业务订单(业务管理)</t>
-  </si>
-  <si>
-    <t>财务订单(财务)</t>
-  </si>
-  <si>
-    <t>财务订单(财务管理)</t>
-  </si>
-  <si>
-    <t>后勤订单(跟单)</t>
-  </si>
-  <si>
-    <t>已废弃</t>
-  </si>
-  <si>
-    <t>需求接口</t>
-  </si>
-  <si>
-    <t>激活登陆</t>
-  </si>
-  <si>
-    <t>用户登录</t>
-  </si>
-  <si>
-    <t>添加 企业名称 返回</t>
-  </si>
-  <si>
-    <t>查找分类下的商品</t>
-  </si>
-  <si>
-    <t>搜索商品</t>
-  </si>
-  <si>
-    <t>所有 筛选订单 接口</t>
-  </si>
-  <si>
-    <t>新增 订单总价 返回</t>
-  </si>
-  <si>
-    <t>客户订单</t>
-  </si>
-  <si>
-    <t>生成订单</t>
-  </si>
-  <si>
-    <t>添加 商品不存在 返回值</t>
-  </si>
-  <si>
-    <t>养殖信息（新）</t>
-  </si>
-  <si>
-    <t>获取养殖信息详情（新）</t>
-  </si>
-  <si>
-    <t>客户资源</t>
-  </si>
-  <si>
-    <t>获取养殖信息列表</t>
-  </si>
-  <si>
-    <t>添加 json 返回</t>
-  </si>
-  <si>
-    <t>获取养殖信息详情</t>
-  </si>
-  <si>
-    <t>所有订单筛选接口</t>
-  </si>
-  <si>
-    <t>更新 订单状态</t>
-  </si>
-  <si>
-    <t>添加 角色代码 返回值</t>
-  </si>
-  <si>
-    <t>客户跟进</t>
-  </si>
-  <si>
-    <t>添加 跟进标题 参数</t>
-  </si>
-  <si>
-    <t>查看库存</t>
-  </si>
-  <si>
-    <t>查看销售点库存</t>
-  </si>
-  <si>
-    <t>添加 返回参数</t>
-  </si>
-  <si>
-    <t>查看当前销售点库存</t>
-  </si>
-  <si>
-    <t>查看总部销售点库存</t>
-  </si>
-  <si>
-    <t>盘点库存</t>
-  </si>
-  <si>
-    <t>获取库存盘点记录</t>
-  </si>
-  <si>
-    <t>库存进仓</t>
-  </si>
-  <si>
-    <t>新建进仓单</t>
-  </si>
-  <si>
-    <t>获取进仓单列表</t>
-  </si>
-  <si>
-    <t>获取进仓单详情</t>
-  </si>
-  <si>
-    <t>申请人获取库存申请列表</t>
-  </si>
-  <si>
-    <t>审批人获取库存审批列表</t>
-  </si>
-  <si>
-    <t>添加 商品图片 返回</t>
-  </si>
-  <si>
-    <t>库存盘点</t>
-  </si>
-  <si>
-    <t>添加 时间段筛选 条件</t>
-  </si>
-  <si>
-    <t>获取库存盘点记录详情</t>
-  </si>
-  <si>
-    <t>添加 筛选 条件</t>
-  </si>
-  <si>
-    <t>搜索库存商品</t>
-  </si>
-  <si>
-    <t>添加 付款状态 返回</t>
-  </si>
-  <si>
-    <t>跟单订单(跟单)</t>
-  </si>
-  <si>
-    <t>获取成员的客户列表</t>
-  </si>
-  <si>
-    <t>添加 用户头像 返回</t>
-  </si>
-  <si>
-    <t>筛选客户列表</t>
-  </si>
-  <si>
-    <t>此接口与(获取成员的客户列表)合并</t>
-  </si>
-  <si>
-    <t>获取总部销售点Id</t>
-  </si>
-  <si>
-    <t>添加 商品编码 返回</t>
-  </si>
-  <si>
-    <t>添加 商品编码、申请单号 返回</t>
-  </si>
-  <si>
-    <t>组织管理接口</t>
-  </si>
-  <si>
-    <t>组织管理</t>
-  </si>
-  <si>
-    <t>获取可分配的角色列表</t>
-  </si>
-  <si>
-    <t>获取商品列表</t>
-  </si>
-  <si>
-    <t>添加 商品规格Id 返回</t>
-  </si>
-  <si>
-    <t>参数 recordList 替换为 incomeList</t>
-  </si>
-  <si>
-    <t>添加 总部当前库存 返回</t>
-  </si>
-  <si>
-    <t>添加 该账号已存在 状态码</t>
-  </si>
-  <si>
-    <t>添加 商品分类 返回</t>
-  </si>
-  <si>
-    <t>登陆激活</t>
-  </si>
-  <si>
-    <t>用户登录(浏览器)</t>
-  </si>
-  <si>
-    <t>获取当前销售点进仓单列表</t>
-  </si>
-  <si>
-    <t>获取当销售点前库存盘点记录</t>
-  </si>
-  <si>
-    <t>更新 branchId(销售点Id) 为选填</t>
-  </si>
-  <si>
-    <t>添加 头像 返回</t>
-  </si>
-  <si>
-    <t>团队接口</t>
-  </si>
-  <si>
-    <t>团队</t>
-  </si>
-  <si>
-    <t>获取团队内所有成员</t>
-  </si>
-  <si>
-    <t>获取库存审批详情</t>
-  </si>
-  <si>
-    <t>获取当前部门下的成员列表</t>
-  </si>
-  <si>
-    <t>获取当前部门下的客户列表</t>
-  </si>
-  <si>
-    <t>申请协助</t>
-  </si>
-  <si>
-    <t>协助者获取协助列表</t>
-  </si>
-  <si>
-    <t>新增 status(审批状态) 筛选</t>
-  </si>
-  <si>
-    <t>获取申请详情</t>
-  </si>
-  <si>
-    <t>新增 status(审批状态) 返回</t>
-  </si>
-  <si>
-    <t>获取库存等级</t>
-  </si>
-  <si>
-    <t>获取头像图片</t>
-  </si>
-  <si>
-    <t>新增 是否建账 筛选</t>
-  </si>
-  <si>
-    <t>财务A审批通过</t>
-  </si>
-  <si>
-    <t>删除接口</t>
-  </si>
-  <si>
-    <t>财务A审批拒绝</t>
-  </si>
-  <si>
-    <t>财务B审批通过</t>
-  </si>
-  <si>
-    <t>财务B审批拒绝</t>
-  </si>
-  <si>
-    <t>财务审核通过</t>
-  </si>
-  <si>
-    <t>财务审核不通过</t>
-  </si>
-  <si>
-    <t>所有标签</t>
-  </si>
-  <si>
-    <t>更新订单状态</t>
-  </si>
-  <si>
-    <t>通用申请接口</t>
-  </si>
-  <si>
-    <t>通用申请</t>
-  </si>
-  <si>
-    <t>发起人获取申请列表</t>
-  </si>
-  <si>
-    <t>新增 applyResult(申请状态) 筛选</t>
-  </si>
-  <si>
-    <t>审批人获取申请列表</t>
-  </si>
-  <si>
-    <t>审批员获取建账申请列表</t>
-  </si>
-  <si>
-    <t>新增 requestStatus(申请状态)、userImage(头像) 返回</t>
-  </si>
-  <si>
-    <t>新增 分页 参数</t>
-  </si>
-  <si>
-    <t>新增 requestStatus(申请状态) 筛选</t>
-  </si>
-  <si>
-    <t>申请人获取建账申请列表</t>
-  </si>
-  <si>
-    <t>新增 userImage(头像) 返回</t>
-  </si>
-  <si>
-    <t>新增 已审批 筛选状态</t>
-  </si>
-  <si>
-    <t>申请者获取协助列表</t>
-  </si>
-  <si>
-    <t>新增 createDate(申请时间) 返回</t>
-  </si>
-  <si>
-    <t>搜索客户</t>
-  </si>
-  <si>
-    <t>搜索当前部门下的客户</t>
-  </si>
-  <si>
-    <t>冻结成员</t>
-  </si>
-  <si>
-    <t>解冻成员</t>
-  </si>
-  <si>
-    <t>搜索部门成员</t>
-  </si>
-  <si>
-    <t>获取部门成员列表</t>
-  </si>
-  <si>
-    <t>获取建账申请详情</t>
-  </si>
-  <si>
-    <t>新增 头像 返回</t>
-  </si>
-  <si>
-    <t>新增 协助者头像 返回</t>
-  </si>
-  <si>
-    <t>新增 审批人头像 返回</t>
-  </si>
-  <si>
-    <t>新增 申请状态 返回</t>
-  </si>
-  <si>
-    <t>新增 部门名称 返回</t>
-  </si>
-  <si>
-    <t>调货申请</t>
-  </si>
-  <si>
-    <t>添加 签收时间 返回值</t>
-  </si>
-  <si>
-    <t>添加 部门 返回值</t>
-  </si>
-  <si>
-    <t>新增 能否审批 返回</t>
-  </si>
-  <si>
-    <t>新增 退货时间 返回</t>
-  </si>
-  <si>
-    <t>新增 收货地址 规则</t>
-  </si>
-  <si>
-    <t>跟单订单</t>
-  </si>
-  <si>
-    <t>搜索订单(财务主管通用)</t>
-  </si>
-  <si>
-    <t>获取订单详情(财务主管通用)</t>
-  </si>
-  <si>
-    <t>搜索订单(业务主管通用)</t>
-  </si>
-  <si>
-    <t>获取订单详情(业务主管通用)</t>
-  </si>
-  <si>
-    <t>找回密码</t>
-  </si>
-  <si>
-    <t>验证密码</t>
-  </si>
-  <si>
-    <t>用户登出(浏览器)</t>
-  </si>
-  <si>
-    <t>新增 departmentId(部门) 筛选</t>
-  </si>
-  <si>
-    <t>新增 总页数 返回</t>
-  </si>
-  <si>
-    <t>更新 跟单员 返回</t>
-  </si>
-  <si>
-    <t>跟单审核通过</t>
-  </si>
-  <si>
-    <t>添加 商家留言 参数</t>
-  </si>
-  <si>
-    <t>获取跟进详情</t>
-  </si>
-  <si>
-    <t>新增 跟进人 返回</t>
   </si>
 </sst>
 </file>
@@ -663,8 +672,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -704,6 +713,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -712,7 +729,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,13 +788,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -757,26 +804,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -788,31 +820,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -877,6 +886,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -889,55 +982,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,31 +1000,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,54 +1049,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,6 +1101,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1133,15 +1151,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1158,10 +1167,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1170,137 +1179,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1344,6 +1353,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1700,7 +1715,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1733,7 +1748,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>43047</v>
+        <v>43048</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1751,44 +1766,78 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="8:12">
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+    <row r="3" spans="1:6">
+      <c r="A3" s="15"/>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="16"/>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="8:12">
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
     </row>
     <row r="6" spans="8:12">
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="8:12">
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="8:12">
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1817,7 +1866,8 @@
       <c r="E19" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="A2:A4"/>
     <mergeCell ref="H4:L8"/>
     <mergeCell ref="A16:E19"/>
   </mergeCells>
@@ -1830,10 +1880,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I227"/>
+  <dimension ref="A1:I229"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="E206" sqref="E206"/>
+    <sheetView topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="A229" sqref="$A229:$XFD229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1870,16 +1920,16 @@
         <v>42994</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>10</v>
@@ -1888,16 +1938,16 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>10</v>
@@ -1908,16 +1958,16 @@
         <v>42996</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>10</v>
@@ -1926,16 +1976,16 @@
     <row r="8" spans="1:6">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>10</v>
@@ -1944,16 +1994,16 @@
     <row r="9" spans="1:6">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>10</v>
@@ -1962,16 +2012,16 @@
     <row r="10" spans="1:6">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>10</v>
@@ -1982,22 +2032,22 @@
         <v>42998</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -2005,16 +2055,16 @@
     <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>10</v>
@@ -2026,22 +2076,22 @@
     <row r="17" spans="1:9">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="11">
@@ -2051,22 +2101,22 @@
     <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="11">
@@ -2076,22 +2126,22 @@
     <row r="19" spans="1:9">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="11">
@@ -2101,16 +2151,16 @@
     <row r="20" spans="1:6">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>10</v>
@@ -2119,16 +2169,16 @@
     <row r="21" spans="1:6">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>10</v>
@@ -2137,16 +2187,16 @@
     <row r="22" spans="1:6">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>10</v>
@@ -2157,16 +2207,16 @@
         <v>42999</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>10</v>
@@ -2175,16 +2225,16 @@
     <row r="28" spans="1:6">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>10</v>
@@ -2193,16 +2243,16 @@
     <row r="29" spans="1:6">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>10</v>
@@ -2211,16 +2261,16 @@
     <row r="30" spans="1:6">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>10</v>
@@ -2229,16 +2279,16 @@
     <row r="31" spans="1:6">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>10</v>
@@ -2247,16 +2297,16 @@
     <row r="32" spans="1:6">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>10</v>
@@ -2265,16 +2315,16 @@
     <row r="33" spans="1:6">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>10</v>
@@ -2283,16 +2333,16 @@
     <row r="34" spans="1:6">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="E34" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>10</v>
@@ -2303,16 +2353,16 @@
         <v>42999</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>10</v>
@@ -2321,16 +2371,16 @@
     <row r="39" spans="1:6">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>10</v>
@@ -2339,16 +2389,16 @@
     <row r="40" spans="1:6">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>10</v>
@@ -2357,16 +2407,16 @@
     <row r="41" spans="1:6">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>10</v>
@@ -2377,12 +2427,12 @@
         <v>43005</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>10</v>
@@ -2391,12 +2441,12 @@
     <row r="44" spans="1:6">
       <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>10</v>
@@ -2405,14 +2455,14 @@
     <row r="45" spans="1:6">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>10</v>
@@ -2421,14 +2471,14 @@
     <row r="46" spans="1:6">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>10</v>
@@ -2437,14 +2487,14 @@
     <row r="47" spans="1:6">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>10</v>
@@ -2453,16 +2503,16 @@
     <row r="48" spans="1:6">
       <c r="A48" s="2"/>
       <c r="B48" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>10</v>
@@ -2471,12 +2521,12 @@
     <row r="49" spans="1:6">
       <c r="A49" s="2"/>
       <c r="B49" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>10</v>
@@ -2485,16 +2535,16 @@
     <row r="50" spans="1:6">
       <c r="A50" s="2"/>
       <c r="B50" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="E50" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>10</v>
@@ -2503,16 +2553,16 @@
     <row r="51" spans="1:6">
       <c r="A51" s="2"/>
       <c r="B51" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>10</v>
@@ -2521,16 +2571,16 @@
     <row r="52" spans="1:6">
       <c r="A52" s="2"/>
       <c r="B52" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>10</v>
@@ -2539,16 +2589,16 @@
     <row r="53" spans="1:6">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>10</v>
@@ -2557,16 +2607,16 @@
     <row r="54" spans="1:6">
       <c r="A54" s="2"/>
       <c r="B54" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>10</v>
@@ -2575,32 +2625,32 @@
     <row r="55" spans="1:6">
       <c r="A55" s="2"/>
       <c r="B55" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2"/>
       <c r="B56" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>10</v>
@@ -2611,16 +2661,16 @@
         <v>43008</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>10</v>
@@ -2629,16 +2679,16 @@
     <row r="59" spans="1:6">
       <c r="A59" s="2"/>
       <c r="B59" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>10</v>
@@ -2647,16 +2697,16 @@
     <row r="60" spans="1:6">
       <c r="A60" s="2"/>
       <c r="B60" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>10</v>
@@ -2665,14 +2715,14 @@
     <row r="61" spans="1:6">
       <c r="A61" s="2"/>
       <c r="B61" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>10</v>
@@ -2683,16 +2733,16 @@
         <v>43015</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>10</v>
@@ -2701,16 +2751,16 @@
     <row r="64" spans="1:6">
       <c r="A64" s="2"/>
       <c r="B64" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>10</v>
@@ -2719,16 +2769,16 @@
     <row r="65" spans="1:6">
       <c r="A65" s="2"/>
       <c r="B65" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>10</v>
@@ -2737,16 +2787,16 @@
     <row r="66" spans="1:6">
       <c r="A66" s="2"/>
       <c r="B66" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>10</v>
@@ -2755,14 +2805,14 @@
     <row r="67" spans="1:6">
       <c r="A67" s="2"/>
       <c r="B67" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>10</v>
@@ -2773,16 +2823,16 @@
         <v>43018</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>10</v>
@@ -2791,16 +2841,16 @@
     <row r="70" spans="1:6">
       <c r="A70" s="2"/>
       <c r="B70" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>10</v>
@@ -2811,16 +2861,16 @@
         <v>43018</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>10</v>
@@ -2829,16 +2879,16 @@
     <row r="73" spans="1:6">
       <c r="A73" s="2"/>
       <c r="B73" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="D73" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>10</v>
@@ -2847,16 +2897,16 @@
     <row r="74" spans="1:6">
       <c r="A74" s="2"/>
       <c r="B74" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>10</v>
@@ -2865,16 +2915,16 @@
     <row r="75" spans="1:6">
       <c r="A75" s="2"/>
       <c r="B75" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>10</v>
@@ -2883,16 +2933,16 @@
     <row r="76" spans="1:6">
       <c r="A76" s="2"/>
       <c r="B76" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>10</v>
@@ -2901,16 +2951,16 @@
     <row r="77" spans="1:6">
       <c r="A77" s="2"/>
       <c r="B77" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>10</v>
@@ -2919,16 +2969,16 @@
     <row r="78" spans="1:6">
       <c r="A78" s="2"/>
       <c r="B78" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>10</v>
@@ -2937,16 +2987,16 @@
     <row r="79" spans="1:6">
       <c r="A79" s="2"/>
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>10</v>
@@ -2955,16 +3005,16 @@
     <row r="80" spans="1:6">
       <c r="A80" s="2"/>
       <c r="B80" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>10</v>
@@ -2973,16 +3023,16 @@
     <row r="81" spans="1:6">
       <c r="A81" s="2"/>
       <c r="B81" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>10</v>
@@ -2993,16 +3043,16 @@
         <v>43020</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>10</v>
@@ -3011,16 +3061,16 @@
     <row r="84" spans="1:6">
       <c r="A84" s="2"/>
       <c r="B84" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>10</v>
@@ -3029,16 +3079,16 @@
     <row r="85" spans="1:6">
       <c r="A85" s="2"/>
       <c r="B85" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>10</v>
@@ -3047,16 +3097,16 @@
     <row r="86" spans="1:6">
       <c r="A86" s="2"/>
       <c r="B86" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C86" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E86" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>10</v>
@@ -3065,16 +3115,16 @@
     <row r="87" spans="1:6">
       <c r="A87" s="2"/>
       <c r="B87" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>10</v>
@@ -3083,16 +3133,16 @@
     <row r="88" spans="1:6">
       <c r="A88" s="2"/>
       <c r="B88" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>10</v>
@@ -3101,16 +3151,16 @@
     <row r="89" spans="1:6">
       <c r="A89" s="2"/>
       <c r="B89" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>10</v>
@@ -3119,16 +3169,16 @@
     <row r="90" spans="1:6">
       <c r="A90" s="2"/>
       <c r="B90" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>10</v>
@@ -3137,16 +3187,16 @@
     <row r="91" spans="1:6">
       <c r="A91" s="2"/>
       <c r="B91" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>10</v>
@@ -3155,16 +3205,16 @@
     <row r="92" spans="1:6">
       <c r="A92" s="2"/>
       <c r="B92" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>10</v>
@@ -3173,16 +3223,16 @@
     <row r="93" spans="1:6">
       <c r="A93" s="2"/>
       <c r="B93" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>10</v>
@@ -3191,16 +3241,16 @@
     <row r="94" spans="1:6">
       <c r="A94" s="2"/>
       <c r="B94" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>10</v>
@@ -3209,16 +3259,16 @@
     <row r="95" spans="1:6">
       <c r="A95" s="2"/>
       <c r="B95" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>10</v>
@@ -3227,16 +3277,16 @@
     <row r="96" spans="1:6">
       <c r="A96" s="2"/>
       <c r="B96" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>10</v>
@@ -3245,16 +3295,16 @@
     <row r="97" spans="1:6">
       <c r="A97" s="2"/>
       <c r="B97" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>10</v>
@@ -3263,16 +3313,16 @@
     <row r="98" spans="1:6">
       <c r="A98" s="2"/>
       <c r="B98" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>10</v>
@@ -3281,16 +3331,16 @@
     <row r="99" spans="1:6">
       <c r="A99" s="2"/>
       <c r="B99" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>10</v>
@@ -3299,16 +3349,16 @@
     <row r="100" spans="1:6">
       <c r="A100" s="2"/>
       <c r="B100" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C100" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E100" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>10</v>
@@ -3317,16 +3367,16 @@
     <row r="101" spans="1:6">
       <c r="A101" s="2"/>
       <c r="B101" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>10</v>
@@ -3335,16 +3385,16 @@
     <row r="102" spans="1:6">
       <c r="A102" s="2"/>
       <c r="B102" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>10</v>
@@ -3353,16 +3403,16 @@
     <row r="103" spans="1:6">
       <c r="A103" s="2"/>
       <c r="B103" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>10</v>
@@ -3371,16 +3421,16 @@
     <row r="104" spans="1:6">
       <c r="A104" s="2"/>
       <c r="B104" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>10</v>
@@ -3389,16 +3439,16 @@
     <row r="105" spans="1:6">
       <c r="A105" s="2"/>
       <c r="B105" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>10</v>
@@ -3409,16 +3459,16 @@
         <v>43021</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>10</v>
@@ -3427,13 +3477,13 @@
     <row r="108" spans="1:6">
       <c r="A108" s="2"/>
       <c r="B108" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>126</v>
@@ -3445,13 +3495,13 @@
     <row r="109" spans="1:6">
       <c r="A109" s="2"/>
       <c r="B109" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>126</v>
@@ -3463,13 +3513,13 @@
     <row r="110" spans="1:6">
       <c r="A110" s="2"/>
       <c r="B110" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>127</v>
@@ -3481,13 +3531,13 @@
     <row r="111" spans="1:6">
       <c r="A111" s="2"/>
       <c r="B111" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>127</v>
@@ -3499,13 +3549,13 @@
     <row r="112" spans="1:6">
       <c r="A112" s="2"/>
       <c r="B112" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>126</v>
@@ -3517,13 +3567,13 @@
     <row r="113" spans="1:6">
       <c r="A113" s="2"/>
       <c r="B113" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>126</v>
@@ -3544,7 +3594,7 @@
         <v>130</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F114" s="5"/>
     </row>
@@ -3553,13 +3603,13 @@
         <v>43022</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>126</v>
@@ -3571,10 +3621,10 @@
     <row r="117" spans="1:6">
       <c r="A117" s="2"/>
       <c r="B117" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>131</v>
@@ -3589,10 +3639,10 @@
     <row r="118" spans="1:6">
       <c r="A118" s="2"/>
       <c r="B118" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>131</v>
@@ -3609,13 +3659,13 @@
         <v>43024</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>133</v>
@@ -3627,13 +3677,13 @@
     <row r="121" spans="1:6">
       <c r="A121" s="2"/>
       <c r="B121" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>133</v>
@@ -3645,13 +3695,13 @@
     <row r="122" spans="1:6">
       <c r="A122" s="2"/>
       <c r="B122" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>134</v>
@@ -3663,13 +3713,13 @@
     <row r="123" spans="1:6">
       <c r="A123" s="2"/>
       <c r="B123" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>134</v>
@@ -3681,13 +3731,13 @@
     <row r="124" spans="1:6">
       <c r="A124" s="2"/>
       <c r="B124" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>134</v>
@@ -3699,13 +3749,13 @@
     <row r="125" spans="1:6">
       <c r="A125" s="2"/>
       <c r="B125" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>134</v>
@@ -3717,13 +3767,13 @@
     <row r="126" spans="1:6">
       <c r="A126" s="2"/>
       <c r="B126" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>134</v>
@@ -3735,13 +3785,13 @@
     <row r="127" spans="1:6">
       <c r="A127" s="2"/>
       <c r="B127" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>134</v>
@@ -3755,13 +3805,13 @@
         <v>43025</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>135</v>
@@ -3773,13 +3823,13 @@
     <row r="130" spans="1:6">
       <c r="A130" s="2"/>
       <c r="B130" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>136</v>
@@ -3791,13 +3841,13 @@
     <row r="131" spans="1:6">
       <c r="A131" s="2"/>
       <c r="B131" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>136</v>
@@ -3809,13 +3859,13 @@
     <row r="132" spans="1:6">
       <c r="A132" s="2"/>
       <c r="B132" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>136</v>
@@ -3827,13 +3877,13 @@
     <row r="133" spans="1:6">
       <c r="A133" s="2"/>
       <c r="B133" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>136</v>
@@ -3845,13 +3895,13 @@
     <row r="134" spans="1:6">
       <c r="A134" s="2"/>
       <c r="B134" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>136</v>
@@ -3863,13 +3913,13 @@
     <row r="135" spans="1:6">
       <c r="A135" s="2"/>
       <c r="B135" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>136</v>
@@ -3881,7 +3931,7 @@
     <row r="136" spans="1:6">
       <c r="A136" s="2"/>
       <c r="B136" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>137</v>
@@ -3890,7 +3940,7 @@
         <v>138</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>10</v>
@@ -3899,16 +3949,16 @@
     <row r="137" spans="1:6">
       <c r="A137" s="2"/>
       <c r="B137" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>139</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>10</v>
@@ -3917,16 +3967,16 @@
     <row r="138" spans="1:6">
       <c r="A138" s="2"/>
       <c r="B138" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>140</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>10</v>
@@ -3935,13 +3985,13 @@
     <row r="139" spans="1:6">
       <c r="A139" s="2"/>
       <c r="B139" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>141</v>
@@ -3953,13 +4003,13 @@
     <row r="140" spans="1:6">
       <c r="A140" s="2"/>
       <c r="B140" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>141</v>
@@ -3971,13 +4021,13 @@
     <row r="141" spans="1:6">
       <c r="A141" s="2"/>
       <c r="B141" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>142</v>
@@ -3989,13 +4039,13 @@
     <row r="142" spans="1:6">
       <c r="A142" s="2"/>
       <c r="B142" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>142</v>
@@ -4018,7 +4068,7 @@
         <v>145</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>10</v>
@@ -4029,16 +4079,16 @@
         <v>43028</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>146</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F146" s="5" t="s">
         <v>10</v>
@@ -4047,16 +4097,16 @@
     <row r="147" spans="1:6">
       <c r="A147" s="2"/>
       <c r="B147" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>147</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>10</v>
@@ -4065,16 +4115,16 @@
     <row r="148" spans="1:6">
       <c r="A148" s="2"/>
       <c r="B148" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>148</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>10</v>
@@ -4085,7 +4135,7 @@
         <v>43032</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>149</v>
@@ -4103,7 +4153,7 @@
     <row r="151" spans="1:6">
       <c r="A151" s="2"/>
       <c r="B151" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>149</v>
@@ -4123,16 +4173,16 @@
         <v>43033</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>154</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F153" s="5" t="s">
         <v>10</v>
@@ -4141,16 +4191,16 @@
     <row r="154" spans="1:6">
       <c r="A154" s="2"/>
       <c r="B154" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F154" s="5" t="s">
         <v>10</v>
@@ -4159,13 +4209,13 @@
     <row r="155" spans="1:6">
       <c r="A155" s="2"/>
       <c r="B155" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>156</v>
@@ -4177,10 +4227,10 @@
     <row r="156" spans="1:6">
       <c r="A156" s="13"/>
       <c r="B156" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>157</v>
@@ -4195,10 +4245,10 @@
     <row r="157" spans="1:6">
       <c r="A157" s="13"/>
       <c r="B157" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>159</v>
@@ -4213,10 +4263,10 @@
     <row r="158" spans="1:6">
       <c r="A158" s="13"/>
       <c r="B158" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>160</v>
@@ -4231,10 +4281,10 @@
     <row r="159" spans="1:6">
       <c r="A159" s="13"/>
       <c r="B159" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>161</v>
@@ -4249,16 +4299,16 @@
     <row r="160" spans="1:6">
       <c r="A160" s="13"/>
       <c r="B160" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>162</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F160" s="5" t="s">
         <v>10</v>
@@ -4267,16 +4317,16 @@
     <row r="161" spans="1:6">
       <c r="A161" s="13"/>
       <c r="B161" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>163</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>10</v>
@@ -4285,13 +4335,13 @@
     <row r="162" spans="1:6">
       <c r="A162" s="2"/>
       <c r="B162" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>164</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E162" s="4" t="s">
         <v>165</v>
@@ -4341,10 +4391,10 @@
     <row r="166" spans="1:6">
       <c r="A166" s="2"/>
       <c r="B166" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>171</v>
@@ -4359,10 +4409,10 @@
     <row r="167" spans="1:6">
       <c r="A167" s="2"/>
       <c r="B167" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>171</v>
@@ -4377,10 +4427,10 @@
     <row r="168" spans="1:6">
       <c r="A168" s="2"/>
       <c r="B168" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>171</v>
@@ -4395,10 +4445,10 @@
     <row r="169" spans="1:6">
       <c r="A169" s="2"/>
       <c r="B169" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>175</v>
@@ -4413,10 +4463,10 @@
     <row r="170" spans="1:6">
       <c r="A170" s="2"/>
       <c r="B170" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>175</v>
@@ -4431,10 +4481,10 @@
     <row r="171" spans="1:6">
       <c r="A171" s="2"/>
       <c r="B171" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>175</v>
@@ -4485,10 +4535,10 @@
     <row r="174" spans="1:6">
       <c r="A174" s="2"/>
       <c r="B174" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>175</v>
@@ -4503,10 +4553,10 @@
     <row r="175" spans="1:6">
       <c r="A175" s="2"/>
       <c r="B175" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>171</v>
@@ -4521,7 +4571,7 @@
     <row r="176" spans="1:6">
       <c r="A176" s="2"/>
       <c r="B176" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>149</v>
@@ -4539,7 +4589,7 @@
     <row r="177" spans="1:6">
       <c r="A177" s="2"/>
       <c r="B177" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>149</v>
@@ -4557,10 +4607,10 @@
     <row r="178" spans="1:6">
       <c r="A178" s="2"/>
       <c r="B178" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>171</v>
@@ -4575,10 +4625,10 @@
     <row r="179" spans="1:6">
       <c r="A179" s="2"/>
       <c r="B179" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>175</v>
@@ -4631,16 +4681,16 @@
         <v>43038</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>180</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F183" s="5" t="s">
         <v>10</v>
@@ -4649,16 +4699,16 @@
     <row r="184" spans="1:6">
       <c r="A184" s="2"/>
       <c r="B184" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>181</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F184" s="5" t="s">
         <v>10</v>
@@ -4676,7 +4726,7 @@
         <v>182</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F185" s="5" t="s">
         <v>10</v>
@@ -4694,7 +4744,7 @@
         <v>183</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F186" s="5" t="s">
         <v>10</v>
@@ -4712,7 +4762,7 @@
         <v>184</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F187" s="5" t="s">
         <v>10</v>
@@ -4739,10 +4789,10 @@
     <row r="189" spans="1:6">
       <c r="A189" s="2"/>
       <c r="B189" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>186</v>
@@ -4757,7 +4807,7 @@
     <row r="190" spans="1:6">
       <c r="A190" s="2"/>
       <c r="B190" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>149</v>
@@ -4775,7 +4825,7 @@
     <row r="191" spans="1:6">
       <c r="A191" s="2"/>
       <c r="B191" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>149</v>
@@ -4849,10 +4899,10 @@
         <v>43039</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>186</v>
@@ -4923,13 +4973,13 @@
     <row r="201" spans="1:6">
       <c r="A201" s="2"/>
       <c r="B201" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>192</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E201" s="4" t="s">
         <v>193</v>
@@ -4941,10 +4991,10 @@
     <row r="202" spans="1:6">
       <c r="A202" s="2"/>
       <c r="B202" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>186</v>
@@ -4981,13 +5031,13 @@
         <v>43042</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>164</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E206" s="4" t="s">
         <v>196</v>
@@ -4999,13 +5049,13 @@
     <row r="207" spans="1:6">
       <c r="A207" s="2"/>
       <c r="B207" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E207" s="4" t="s">
         <v>197</v>
@@ -5017,16 +5067,16 @@
     <row r="208" spans="1:6">
       <c r="A208" s="2"/>
       <c r="B208" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>198</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F208" s="5" t="s">
         <v>10</v>
@@ -5035,16 +5085,16 @@
     <row r="209" spans="1:6">
       <c r="A209" s="2"/>
       <c r="B209" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>198</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F209" s="5" t="s">
         <v>10</v>
@@ -5053,16 +5103,16 @@
     <row r="210" spans="1:6">
       <c r="A210" s="2"/>
       <c r="B210" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>199</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F210" s="5" t="s">
         <v>10</v>
@@ -5071,16 +5121,16 @@
     <row r="211" spans="1:6">
       <c r="A211" s="2"/>
       <c r="B211" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>200</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F211" s="5" t="s">
         <v>10</v>
@@ -5089,16 +5139,16 @@
     <row r="212" spans="1:6">
       <c r="A212" s="2"/>
       <c r="B212" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>201</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F212" s="5" t="s">
         <v>10</v>
@@ -5107,16 +5157,16 @@
     <row r="213" spans="1:6">
       <c r="A213" s="2"/>
       <c r="B213" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>202</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F213" s="5" t="s">
         <v>10</v>
@@ -5125,7 +5175,7 @@
     <row r="214" spans="1:6">
       <c r="A214" s="2"/>
       <c r="B214" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>203</v>
@@ -5134,7 +5184,7 @@
         <v>204</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F214" s="5" t="s">
         <v>10</v>
@@ -5143,16 +5193,16 @@
     <row r="215" spans="1:6">
       <c r="A215" s="2"/>
       <c r="B215" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>205</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F215" s="5" t="s">
         <v>10</v>
@@ -5163,13 +5213,13 @@
         <v>43045</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E217" s="4" t="s">
         <v>206</v>
@@ -5181,10 +5231,10 @@
     <row r="218" spans="1:6">
       <c r="A218" s="2"/>
       <c r="B218" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>175</v>
@@ -5199,10 +5249,10 @@
     <row r="219" spans="1:6">
       <c r="A219" s="2"/>
       <c r="B219" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>171</v>
@@ -5217,13 +5267,13 @@
     <row r="220" spans="1:6">
       <c r="A220" s="2"/>
       <c r="B220" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E220" s="4" t="s">
         <v>207</v>
@@ -5273,13 +5323,13 @@
         <v>43045</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E224" s="4" t="s">
         <v>208</v>
@@ -5293,7 +5343,7 @@
         <v>43046</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>198</v>
@@ -5311,10 +5361,10 @@
     <row r="227" spans="1:6">
       <c r="A227" s="2"/>
       <c r="B227" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D227" s="4" t="s">
         <v>211</v>
@@ -5323,6 +5373,26 @@
         <v>212</v>
       </c>
       <c r="F227" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="2">
+        <v>43047</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F229" s="5" t="s">
         <v>10</v>
       </c>
     </row>

--- a/需求分析/接口文档/客户/更新说明.xlsx
+++ b/需求分析/接口文档/客户/更新说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView windowWidth="27120" windowHeight="10350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="当前更新" sheetId="1" r:id="rId1"/>
@@ -35,634 +35,634 @@
     <t>状态</t>
   </si>
   <si>
+    <t>接口测试数据登陆:http://112.74.32.113/backend/pages/index/index.html</t>
+  </si>
+  <si>
+    <t>客户接口</t>
+  </si>
+  <si>
+    <t>个人信息</t>
+  </si>
+  <si>
+    <t>获取默认收货地址</t>
+  </si>
+  <si>
+    <t>新添加的接口</t>
+  </si>
+  <si>
+    <t>已验证</t>
+  </si>
+  <si>
+    <t>个人信息接口</t>
+  </si>
+  <si>
+    <t>经营单位</t>
+  </si>
+  <si>
+    <t>获取经营单位详情</t>
+  </si>
+  <si>
+    <t>新增接口</t>
+  </si>
+  <si>
+    <t>客户信息</t>
+  </si>
+  <si>
+    <t>获取客户列表</t>
+  </si>
+  <si>
+    <t>添加返回客户头像</t>
+  </si>
+  <si>
+    <t>移交客户</t>
+  </si>
+  <si>
+    <t>业务员移交客户</t>
+  </si>
+  <si>
+    <t>跟单员移交客户</t>
+  </si>
+  <si>
+    <t>养殖信息(新)</t>
+  </si>
+  <si>
+    <t>所有的接口</t>
+  </si>
+  <si>
+    <t>hadAccount(账号状态)</t>
+  </si>
+  <si>
+    <t>商城接口</t>
+  </si>
+  <si>
+    <t>订单</t>
+  </si>
+  <si>
+    <t>获取运费模板列表(客户)</t>
+  </si>
+  <si>
+    <t>添加商家地址返回</t>
+  </si>
+  <si>
+    <t>客户建账</t>
+  </si>
+  <si>
+    <t>获取审批人列表</t>
+  </si>
+  <si>
+    <t>暂停使用</t>
+  </si>
+  <si>
+    <t>未建账</t>
+  </si>
+  <si>
+    <t>添加融云id返回</t>
+  </si>
+  <si>
+    <t>已建账</t>
+  </si>
+  <si>
+    <t>申请客户建账</t>
+  </si>
+  <si>
+    <t>添加 申请原因 参数</t>
+  </si>
+  <si>
+    <t>账号被冻结</t>
+  </si>
+  <si>
+    <t>冻结客户</t>
+  </si>
+  <si>
+    <t>解冻客户</t>
+  </si>
+  <si>
+    <t>获取客户详情</t>
+  </si>
+  <si>
+    <t>添加 账号冻结 状态</t>
+  </si>
+  <si>
+    <t>商品浏览</t>
+  </si>
+  <si>
+    <t>查看商品详情</t>
+  </si>
+  <si>
+    <t>添加 规格重量 返回</t>
+  </si>
+  <si>
+    <t>购物车</t>
+  </si>
+  <si>
+    <t>获取购物车商品列表</t>
+  </si>
+  <si>
+    <t>获取订单列表</t>
+  </si>
+  <si>
+    <t>添加 订单号 返回</t>
+  </si>
+  <si>
+    <t>获取订单详情</t>
+  </si>
+  <si>
+    <t>筛选订单</t>
+  </si>
+  <si>
+    <t>根据订单号获取订单列表</t>
+  </si>
+  <si>
+    <t>业务订单</t>
+  </si>
+  <si>
+    <t>财务订单</t>
+  </si>
+  <si>
+    <t>权限角色接口</t>
+  </si>
+  <si>
+    <t>权限角色</t>
+  </si>
+  <si>
+    <t>获取用户角色</t>
+  </si>
+  <si>
+    <t>获取跟单员列表</t>
+  </si>
+  <si>
+    <t>开放使用</t>
+  </si>
+  <si>
     <t>库存接口</t>
   </si>
   <si>
+    <t>申请库存</t>
+  </si>
+  <si>
+    <t>更名为 客户商城接口</t>
+  </si>
+  <si>
+    <t>商家商城接口</t>
+  </si>
+  <si>
+    <t>原 商城接口 的拆分</t>
+  </si>
+  <si>
+    <t>运费模板</t>
+  </si>
+  <si>
+    <t>销售点</t>
+  </si>
+  <si>
+    <t>商品编辑</t>
+  </si>
+  <si>
+    <t>所有接口</t>
+  </si>
+  <si>
+    <t>订单接口</t>
+  </si>
+  <si>
+    <t>业务订单(业务)</t>
+  </si>
+  <si>
+    <t>业务订单(业务管理)</t>
+  </si>
+  <si>
+    <t>财务订单(财务)</t>
+  </si>
+  <si>
+    <t>财务订单(财务管理)</t>
+  </si>
+  <si>
+    <t>后勤订单(跟单)</t>
+  </si>
+  <si>
+    <t>已废弃</t>
+  </si>
+  <si>
+    <t>需求接口</t>
+  </si>
+  <si>
+    <t>激活登陆</t>
+  </si>
+  <si>
+    <t>用户登录</t>
+  </si>
+  <si>
+    <t>添加 企业名称 返回</t>
+  </si>
+  <si>
+    <t>查找分类下的商品</t>
+  </si>
+  <si>
+    <t>搜索商品</t>
+  </si>
+  <si>
+    <t>所有 筛选订单 接口</t>
+  </si>
+  <si>
+    <t>新增 订单总价 返回</t>
+  </si>
+  <si>
+    <t>客户订单</t>
+  </si>
+  <si>
+    <t>生成订单</t>
+  </si>
+  <si>
+    <t>添加 商品不存在 返回值</t>
+  </si>
+  <si>
+    <t>养殖信息（新）</t>
+  </si>
+  <si>
+    <t>获取养殖信息详情（新）</t>
+  </si>
+  <si>
+    <t>客户资源</t>
+  </si>
+  <si>
+    <t>获取养殖信息列表</t>
+  </si>
+  <si>
+    <t>添加 json 返回</t>
+  </si>
+  <si>
+    <t>获取养殖信息详情</t>
+  </si>
+  <si>
+    <t>所有订单筛选接口</t>
+  </si>
+  <si>
+    <t>更新 订单状态</t>
+  </si>
+  <si>
+    <t>添加 角色代码 返回值</t>
+  </si>
+  <si>
+    <t>客户跟进</t>
+  </si>
+  <si>
+    <t>添加 跟进标题 参数</t>
+  </si>
+  <si>
     <t>查看库存</t>
   </si>
   <si>
+    <t>查看销售点库存</t>
+  </si>
+  <si>
+    <t>添加 返回参数</t>
+  </si>
+  <si>
+    <t>查看当前销售点库存</t>
+  </si>
+  <si>
+    <t>查看总部销售点库存</t>
+  </si>
+  <si>
+    <t>盘点库存</t>
+  </si>
+  <si>
+    <t>获取库存盘点记录</t>
+  </si>
+  <si>
+    <t>库存进仓</t>
+  </si>
+  <si>
+    <t>新建进仓单</t>
+  </si>
+  <si>
+    <t>获取进仓单列表</t>
+  </si>
+  <si>
+    <t>获取进仓单详情</t>
+  </si>
+  <si>
+    <t>申请人获取库存申请列表</t>
+  </si>
+  <si>
+    <t>审批人获取库存审批列表</t>
+  </si>
+  <si>
+    <t>添加 商品图片 返回</t>
+  </si>
+  <si>
+    <t>库存盘点</t>
+  </si>
+  <si>
+    <t>添加 时间段筛选 条件</t>
+  </si>
+  <si>
+    <t>获取库存盘点记录详情</t>
+  </si>
+  <si>
+    <t>添加 筛选 条件</t>
+  </si>
+  <si>
+    <t>搜索库存商品</t>
+  </si>
+  <si>
+    <t>添加 付款状态 返回</t>
+  </si>
+  <si>
+    <t>跟单订单(跟单)</t>
+  </si>
+  <si>
+    <t>获取成员的客户列表</t>
+  </si>
+  <si>
+    <t>添加 用户头像 返回</t>
+  </si>
+  <si>
+    <t>筛选客户列表</t>
+  </si>
+  <si>
+    <t>此接口与(获取成员的客户列表)合并</t>
+  </si>
+  <si>
     <t>获取总部销售点Id</t>
   </si>
   <si>
+    <t>添加 商品编码 返回</t>
+  </si>
+  <si>
+    <t>添加 商品编码、申请单号 返回</t>
+  </si>
+  <si>
+    <t>组织管理接口</t>
+  </si>
+  <si>
+    <t>组织管理</t>
+  </si>
+  <si>
+    <t>获取可分配的角色列表</t>
+  </si>
+  <si>
+    <t>获取商品列表</t>
+  </si>
+  <si>
+    <t>添加 商品规格Id 返回</t>
+  </si>
+  <si>
+    <t>参数 recordList 替换为 incomeList</t>
+  </si>
+  <si>
+    <t>添加 总部当前库存 返回</t>
+  </si>
+  <si>
+    <t>添加 该账号已存在 状态码</t>
+  </si>
+  <si>
+    <t>添加 商品分类 返回</t>
+  </si>
+  <si>
+    <t>登陆激活</t>
+  </si>
+  <si>
+    <t>用户登录(浏览器)</t>
+  </si>
+  <si>
+    <t>获取当前销售点进仓单列表</t>
+  </si>
+  <si>
+    <t>获取当销售点前库存盘点记录</t>
+  </si>
+  <si>
+    <t>更新 branchId(销售点Id) 为选填</t>
+  </si>
+  <si>
+    <t>添加 头像 返回</t>
+  </si>
+  <si>
+    <t>团队接口</t>
+  </si>
+  <si>
+    <t>团队</t>
+  </si>
+  <si>
+    <t>获取团队内所有成员</t>
+  </si>
+  <si>
+    <t>获取库存审批详情</t>
+  </si>
+  <si>
+    <t>获取当前部门下的成员列表</t>
+  </si>
+  <si>
+    <t>获取当前部门下的客户列表</t>
+  </si>
+  <si>
+    <t>申请协助</t>
+  </si>
+  <si>
+    <t>协助者获取协助列表</t>
+  </si>
+  <si>
+    <t>新增 status(审批状态) 筛选</t>
+  </si>
+  <si>
+    <t>获取申请详情</t>
+  </si>
+  <si>
+    <t>新增 status(审批状态) 返回</t>
+  </si>
+  <si>
+    <t>获取库存等级</t>
+  </si>
+  <si>
+    <t>获取头像图片</t>
+  </si>
+  <si>
+    <t>新增 是否建账 筛选</t>
+  </si>
+  <si>
+    <t>财务A审批通过</t>
+  </si>
+  <si>
+    <t>删除接口</t>
+  </si>
+  <si>
+    <t>财务A审批拒绝</t>
+  </si>
+  <si>
+    <t>财务B审批通过</t>
+  </si>
+  <si>
+    <t>财务B审批拒绝</t>
+  </si>
+  <si>
+    <t>财务审核通过</t>
+  </si>
+  <si>
+    <t>财务审核不通过</t>
+  </si>
+  <si>
+    <t>所有标签</t>
+  </si>
+  <si>
+    <t>更新订单状态</t>
+  </si>
+  <si>
+    <t>通用申请接口</t>
+  </si>
+  <si>
+    <t>通用申请</t>
+  </si>
+  <si>
+    <t>发起人获取申请列表</t>
+  </si>
+  <si>
+    <t>新增 applyResult(申请状态) 筛选</t>
+  </si>
+  <si>
+    <t>审批人获取申请列表</t>
+  </si>
+  <si>
+    <t>审批员获取建账申请列表</t>
+  </si>
+  <si>
+    <t>新增 requestStatus(申请状态)、userImage(头像) 返回</t>
+  </si>
+  <si>
+    <t>新增 分页 参数</t>
+  </si>
+  <si>
+    <t>新增 requestStatus(申请状态) 筛选</t>
+  </si>
+  <si>
+    <t>申请人获取建账申请列表</t>
+  </si>
+  <si>
+    <t>新增 userImage(头像) 返回</t>
+  </si>
+  <si>
+    <t>新增 已审批 筛选状态</t>
+  </si>
+  <si>
+    <t>申请者获取协助列表</t>
+  </si>
+  <si>
+    <t>新增 createDate(申请时间) 返回</t>
+  </si>
+  <si>
+    <t>搜索客户</t>
+  </si>
+  <si>
+    <t>搜索当前部门下的客户</t>
+  </si>
+  <si>
+    <t>冻结成员</t>
+  </si>
+  <si>
+    <t>解冻成员</t>
+  </si>
+  <si>
+    <t>搜索部门成员</t>
+  </si>
+  <si>
+    <t>获取部门成员列表</t>
+  </si>
+  <si>
+    <t>获取建账申请详情</t>
+  </si>
+  <si>
+    <t>新增 头像 返回</t>
+  </si>
+  <si>
+    <t>新增 协助者头像 返回</t>
+  </si>
+  <si>
+    <t>新增 审批人头像 返回</t>
+  </si>
+  <si>
+    <t>新增 申请状态 返回</t>
+  </si>
+  <si>
+    <t>新增 部门名称 返回</t>
+  </si>
+  <si>
+    <t>调货申请</t>
+  </si>
+  <si>
+    <t>添加 签收时间 返回值</t>
+  </si>
+  <si>
+    <t>添加 部门 返回值</t>
+  </si>
+  <si>
+    <t>新增 能否审批 返回</t>
+  </si>
+  <si>
+    <t>新增 退货时间 返回</t>
+  </si>
+  <si>
+    <t>新增 收货地址 规则</t>
+  </si>
+  <si>
+    <t>跟单订单</t>
+  </si>
+  <si>
+    <t>搜索订单(财务主管通用)</t>
+  </si>
+  <si>
+    <t>获取订单详情(财务主管通用)</t>
+  </si>
+  <si>
+    <t>搜索订单(业务主管通用)</t>
+  </si>
+  <si>
+    <t>获取订单详情(业务主管通用)</t>
+  </si>
+  <si>
+    <t>找回密码</t>
+  </si>
+  <si>
+    <t>验证密码</t>
+  </si>
+  <si>
+    <t>用户登出(浏览器)</t>
+  </si>
+  <si>
+    <t>新增 departmentId(部门) 筛选</t>
+  </si>
+  <si>
+    <t>新增 总页数 返回</t>
+  </si>
+  <si>
+    <t>更新 跟单员 返回</t>
+  </si>
+  <si>
+    <t>跟单审核通过</t>
+  </si>
+  <si>
+    <t>添加 商家留言 参数</t>
+  </si>
+  <si>
+    <t>获取跟进详情</t>
+  </si>
+  <si>
+    <t>新增 跟进人 返回</t>
+  </si>
+  <si>
+    <t>订单凭证</t>
+  </si>
+  <si>
+    <t>上传订单凭证</t>
+  </si>
+  <si>
+    <t>新增 凭证Id 返回</t>
+  </si>
+  <si>
     <t>新增 销售点名称 返回</t>
   </si>
   <si>
-    <t>已验证</t>
-  </si>
-  <si>
-    <t>客户信息</t>
-  </si>
-  <si>
     <t>跟单员获取客户列表</t>
   </si>
   <si>
-    <t>新增接口</t>
-  </si>
-  <si>
     <t>跟单员搜索客户</t>
-  </si>
-  <si>
-    <t>接口测试数据登陆:http://112.74.32.113/backend/pages/index/index.html</t>
-  </si>
-  <si>
-    <t>客户接口</t>
-  </si>
-  <si>
-    <t>个人信息</t>
-  </si>
-  <si>
-    <t>获取默认收货地址</t>
-  </si>
-  <si>
-    <t>新添加的接口</t>
-  </si>
-  <si>
-    <t>个人信息接口</t>
-  </si>
-  <si>
-    <t>经营单位</t>
-  </si>
-  <si>
-    <t>获取经营单位详情</t>
-  </si>
-  <si>
-    <t>获取客户列表</t>
-  </si>
-  <si>
-    <t>添加返回客户头像</t>
-  </si>
-  <si>
-    <t>移交客户</t>
-  </si>
-  <si>
-    <t>业务员移交客户</t>
-  </si>
-  <si>
-    <t>跟单员移交客户</t>
-  </si>
-  <si>
-    <t>养殖信息(新)</t>
-  </si>
-  <si>
-    <t>所有的接口</t>
-  </si>
-  <si>
-    <t>hadAccount(账号状态)</t>
-  </si>
-  <si>
-    <t>商城接口</t>
-  </si>
-  <si>
-    <t>订单</t>
-  </si>
-  <si>
-    <t>获取运费模板列表(客户)</t>
-  </si>
-  <si>
-    <t>添加商家地址返回</t>
-  </si>
-  <si>
-    <t>客户建账</t>
-  </si>
-  <si>
-    <t>获取审批人列表</t>
-  </si>
-  <si>
-    <t>暂停使用</t>
-  </si>
-  <si>
-    <t>未建账</t>
-  </si>
-  <si>
-    <t>添加融云id返回</t>
-  </si>
-  <si>
-    <t>已建账</t>
-  </si>
-  <si>
-    <t>申请客户建账</t>
-  </si>
-  <si>
-    <t>添加 申请原因 参数</t>
-  </si>
-  <si>
-    <t>账号被冻结</t>
-  </si>
-  <si>
-    <t>冻结客户</t>
-  </si>
-  <si>
-    <t>解冻客户</t>
-  </si>
-  <si>
-    <t>获取客户详情</t>
-  </si>
-  <si>
-    <t>添加 账号冻结 状态</t>
-  </si>
-  <si>
-    <t>商品浏览</t>
-  </si>
-  <si>
-    <t>查看商品详情</t>
-  </si>
-  <si>
-    <t>添加 规格重量 返回</t>
-  </si>
-  <si>
-    <t>购物车</t>
-  </si>
-  <si>
-    <t>获取购物车商品列表</t>
-  </si>
-  <si>
-    <t>获取订单列表</t>
-  </si>
-  <si>
-    <t>添加 订单号 返回</t>
-  </si>
-  <si>
-    <t>获取订单详情</t>
-  </si>
-  <si>
-    <t>筛选订单</t>
-  </si>
-  <si>
-    <t>根据订单号获取订单列表</t>
-  </si>
-  <si>
-    <t>业务订单</t>
-  </si>
-  <si>
-    <t>财务订单</t>
-  </si>
-  <si>
-    <t>权限角色接口</t>
-  </si>
-  <si>
-    <t>权限角色</t>
-  </si>
-  <si>
-    <t>获取用户角色</t>
-  </si>
-  <si>
-    <t>获取跟单员列表</t>
-  </si>
-  <si>
-    <t>开放使用</t>
-  </si>
-  <si>
-    <t>申请库存</t>
-  </si>
-  <si>
-    <t>更名为 客户商城接口</t>
-  </si>
-  <si>
-    <t>商家商城接口</t>
-  </si>
-  <si>
-    <t>原 商城接口 的拆分</t>
-  </si>
-  <si>
-    <t>运费模板</t>
-  </si>
-  <si>
-    <t>销售点</t>
-  </si>
-  <si>
-    <t>商品编辑</t>
-  </si>
-  <si>
-    <t>所有接口</t>
-  </si>
-  <si>
-    <t>订单接口</t>
-  </si>
-  <si>
-    <t>业务订单(业务)</t>
-  </si>
-  <si>
-    <t>业务订单(业务管理)</t>
-  </si>
-  <si>
-    <t>财务订单(财务)</t>
-  </si>
-  <si>
-    <t>财务订单(财务管理)</t>
-  </si>
-  <si>
-    <t>后勤订单(跟单)</t>
-  </si>
-  <si>
-    <t>已废弃</t>
-  </si>
-  <si>
-    <t>需求接口</t>
-  </si>
-  <si>
-    <t>激活登陆</t>
-  </si>
-  <si>
-    <t>用户登录</t>
-  </si>
-  <si>
-    <t>添加 企业名称 返回</t>
-  </si>
-  <si>
-    <t>查找分类下的商品</t>
-  </si>
-  <si>
-    <t>搜索商品</t>
-  </si>
-  <si>
-    <t>所有 筛选订单 接口</t>
-  </si>
-  <si>
-    <t>新增 订单总价 返回</t>
-  </si>
-  <si>
-    <t>客户订单</t>
-  </si>
-  <si>
-    <t>生成订单</t>
-  </si>
-  <si>
-    <t>添加 商品不存在 返回值</t>
-  </si>
-  <si>
-    <t>养殖信息（新）</t>
-  </si>
-  <si>
-    <t>获取养殖信息详情（新）</t>
-  </si>
-  <si>
-    <t>客户资源</t>
-  </si>
-  <si>
-    <t>获取养殖信息列表</t>
-  </si>
-  <si>
-    <t>添加 json 返回</t>
-  </si>
-  <si>
-    <t>获取养殖信息详情</t>
-  </si>
-  <si>
-    <t>所有订单筛选接口</t>
-  </si>
-  <si>
-    <t>更新 订单状态</t>
-  </si>
-  <si>
-    <t>添加 角色代码 返回值</t>
-  </si>
-  <si>
-    <t>客户跟进</t>
-  </si>
-  <si>
-    <t>添加 跟进标题 参数</t>
-  </si>
-  <si>
-    <t>查看销售点库存</t>
-  </si>
-  <si>
-    <t>添加 返回参数</t>
-  </si>
-  <si>
-    <t>查看当前销售点库存</t>
-  </si>
-  <si>
-    <t>查看总部销售点库存</t>
-  </si>
-  <si>
-    <t>盘点库存</t>
-  </si>
-  <si>
-    <t>获取库存盘点记录</t>
-  </si>
-  <si>
-    <t>库存进仓</t>
-  </si>
-  <si>
-    <t>新建进仓单</t>
-  </si>
-  <si>
-    <t>获取进仓单列表</t>
-  </si>
-  <si>
-    <t>获取进仓单详情</t>
-  </si>
-  <si>
-    <t>申请人获取库存申请列表</t>
-  </si>
-  <si>
-    <t>审批人获取库存审批列表</t>
-  </si>
-  <si>
-    <t>添加 商品图片 返回</t>
-  </si>
-  <si>
-    <t>库存盘点</t>
-  </si>
-  <si>
-    <t>添加 时间段筛选 条件</t>
-  </si>
-  <si>
-    <t>获取库存盘点记录详情</t>
-  </si>
-  <si>
-    <t>添加 筛选 条件</t>
-  </si>
-  <si>
-    <t>搜索库存商品</t>
-  </si>
-  <si>
-    <t>添加 付款状态 返回</t>
-  </si>
-  <si>
-    <t>跟单订单(跟单)</t>
-  </si>
-  <si>
-    <t>获取成员的客户列表</t>
-  </si>
-  <si>
-    <t>添加 用户头像 返回</t>
-  </si>
-  <si>
-    <t>筛选客户列表</t>
-  </si>
-  <si>
-    <t>此接口与(获取成员的客户列表)合并</t>
-  </si>
-  <si>
-    <t>添加 商品编码 返回</t>
-  </si>
-  <si>
-    <t>添加 商品编码、申请单号 返回</t>
-  </si>
-  <si>
-    <t>组织管理接口</t>
-  </si>
-  <si>
-    <t>组织管理</t>
-  </si>
-  <si>
-    <t>获取可分配的角色列表</t>
-  </si>
-  <si>
-    <t>获取商品列表</t>
-  </si>
-  <si>
-    <t>添加 商品规格Id 返回</t>
-  </si>
-  <si>
-    <t>参数 recordList 替换为 incomeList</t>
-  </si>
-  <si>
-    <t>添加 总部当前库存 返回</t>
-  </si>
-  <si>
-    <t>添加 该账号已存在 状态码</t>
-  </si>
-  <si>
-    <t>添加 商品分类 返回</t>
-  </si>
-  <si>
-    <t>登陆激活</t>
-  </si>
-  <si>
-    <t>用户登录(浏览器)</t>
-  </si>
-  <si>
-    <t>获取当前销售点进仓单列表</t>
-  </si>
-  <si>
-    <t>获取当销售点前库存盘点记录</t>
-  </si>
-  <si>
-    <t>更新 branchId(销售点Id) 为选填</t>
-  </si>
-  <si>
-    <t>添加 头像 返回</t>
-  </si>
-  <si>
-    <t>团队接口</t>
-  </si>
-  <si>
-    <t>团队</t>
-  </si>
-  <si>
-    <t>获取团队内所有成员</t>
-  </si>
-  <si>
-    <t>获取库存审批详情</t>
-  </si>
-  <si>
-    <t>获取当前部门下的成员列表</t>
-  </si>
-  <si>
-    <t>获取当前部门下的客户列表</t>
-  </si>
-  <si>
-    <t>申请协助</t>
-  </si>
-  <si>
-    <t>协助者获取协助列表</t>
-  </si>
-  <si>
-    <t>新增 status(审批状态) 筛选</t>
-  </si>
-  <si>
-    <t>获取申请详情</t>
-  </si>
-  <si>
-    <t>新增 status(审批状态) 返回</t>
-  </si>
-  <si>
-    <t>获取库存等级</t>
-  </si>
-  <si>
-    <t>获取头像图片</t>
-  </si>
-  <si>
-    <t>新增 是否建账 筛选</t>
-  </si>
-  <si>
-    <t>财务A审批通过</t>
-  </si>
-  <si>
-    <t>删除接口</t>
-  </si>
-  <si>
-    <t>财务A审批拒绝</t>
-  </si>
-  <si>
-    <t>财务B审批通过</t>
-  </si>
-  <si>
-    <t>财务B审批拒绝</t>
-  </si>
-  <si>
-    <t>财务审核通过</t>
-  </si>
-  <si>
-    <t>财务审核不通过</t>
-  </si>
-  <si>
-    <t>所有标签</t>
-  </si>
-  <si>
-    <t>更新订单状态</t>
-  </si>
-  <si>
-    <t>通用申请接口</t>
-  </si>
-  <si>
-    <t>通用申请</t>
-  </si>
-  <si>
-    <t>发起人获取申请列表</t>
-  </si>
-  <si>
-    <t>新增 applyResult(申请状态) 筛选</t>
-  </si>
-  <si>
-    <t>审批人获取申请列表</t>
-  </si>
-  <si>
-    <t>审批员获取建账申请列表</t>
-  </si>
-  <si>
-    <t>新增 requestStatus(申请状态)、userImage(头像) 返回</t>
-  </si>
-  <si>
-    <t>新增 分页 参数</t>
-  </si>
-  <si>
-    <t>新增 requestStatus(申请状态) 筛选</t>
-  </si>
-  <si>
-    <t>申请人获取建账申请列表</t>
-  </si>
-  <si>
-    <t>新增 userImage(头像) 返回</t>
-  </si>
-  <si>
-    <t>新增 已审批 筛选状态</t>
-  </si>
-  <si>
-    <t>申请者获取协助列表</t>
-  </si>
-  <si>
-    <t>新增 createDate(申请时间) 返回</t>
-  </si>
-  <si>
-    <t>搜索客户</t>
-  </si>
-  <si>
-    <t>搜索当前部门下的客户</t>
-  </si>
-  <si>
-    <t>冻结成员</t>
-  </si>
-  <si>
-    <t>解冻成员</t>
-  </si>
-  <si>
-    <t>搜索部门成员</t>
-  </si>
-  <si>
-    <t>获取部门成员列表</t>
-  </si>
-  <si>
-    <t>获取建账申请详情</t>
-  </si>
-  <si>
-    <t>新增 头像 返回</t>
-  </si>
-  <si>
-    <t>新增 协助者头像 返回</t>
-  </si>
-  <si>
-    <t>新增 审批人头像 返回</t>
-  </si>
-  <si>
-    <t>新增 申请状态 返回</t>
-  </si>
-  <si>
-    <t>新增 部门名称 返回</t>
-  </si>
-  <si>
-    <t>调货申请</t>
-  </si>
-  <si>
-    <t>添加 签收时间 返回值</t>
-  </si>
-  <si>
-    <t>添加 部门 返回值</t>
-  </si>
-  <si>
-    <t>新增 能否审批 返回</t>
-  </si>
-  <si>
-    <t>新增 退货时间 返回</t>
-  </si>
-  <si>
-    <t>新增 收货地址 规则</t>
-  </si>
-  <si>
-    <t>跟单订单</t>
-  </si>
-  <si>
-    <t>搜索订单(财务主管通用)</t>
-  </si>
-  <si>
-    <t>获取订单详情(财务主管通用)</t>
-  </si>
-  <si>
-    <t>搜索订单(业务主管通用)</t>
-  </si>
-  <si>
-    <t>获取订单详情(业务主管通用)</t>
-  </si>
-  <si>
-    <t>找回密码</t>
-  </si>
-  <si>
-    <t>验证密码</t>
-  </si>
-  <si>
-    <t>用户登出(浏览器)</t>
-  </si>
-  <si>
-    <t>新增 departmentId(部门) 筛选</t>
-  </si>
-  <si>
-    <t>新增 总页数 返回</t>
-  </si>
-  <si>
-    <t>更新 跟单员 返回</t>
-  </si>
-  <si>
-    <t>跟单审核通过</t>
-  </si>
-  <si>
-    <t>添加 商家留言 参数</t>
-  </si>
-  <si>
-    <t>获取跟进详情</t>
-  </si>
-  <si>
-    <t>新增 跟进人 返回</t>
-  </si>
-  <si>
-    <t>订单凭证</t>
-  </si>
-  <si>
-    <t>上传订单凭证</t>
-  </si>
-  <si>
-    <t>新增 凭证Id 返回</t>
   </si>
 </sst>
 </file>
@@ -714,7 +714,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -729,24 +737,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -757,8 +750,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,22 +768,21 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -830,6 +823,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -886,13 +886,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,19 +964,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,13 +976,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,25 +1030,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,73 +1048,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,6 +1086,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1097,15 +1106,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1167,10 +1167,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1179,137 +1179,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1353,12 +1353,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="19" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1714,8 +1708,8 @@
   <sheetPr/>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1746,98 +1740,44 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2">
-        <v>43048</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="15"/>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="16"/>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+    <row r="4" spans="8:12">
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
     </row>
     <row r="5" spans="8:12">
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
     </row>
     <row r="6" spans="8:12">
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="8:12">
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="8:12">
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1866,8 +1806,7 @@
       <c r="E19" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A4"/>
+  <mergeCells count="2">
     <mergeCell ref="H4:L8"/>
     <mergeCell ref="A16:E19"/>
   </mergeCells>
@@ -1880,10 +1819,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I229"/>
+  <dimension ref="A1:I233"/>
   <sheetViews>
-    <sheetView topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="A229" sqref="$A229:$XFD229"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="A231" sqref="A231:F233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1920,37 +1859,37 @@
         <v>42994</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1958,73 +1897,73 @@
         <v>42996</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2032,22 +1971,22 @@
         <v>42998</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -2055,19 +1994,19 @@
     <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -2076,22 +2015,22 @@
     <row r="17" spans="1:9">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="11">
@@ -2101,22 +2040,22 @@
     <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="E18" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="11">
@@ -2126,22 +2065,22 @@
     <row r="19" spans="1:9">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="E19" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="11">
@@ -2151,55 +2090,55 @@
     <row r="20" spans="1:6">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2207,145 +2146,145 @@
         <v>42999</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2353,73 +2292,73 @@
         <v>42999</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2427,233 +2366,233 @@
         <v>43005</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2"/>
       <c r="B48" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="E48" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2"/>
       <c r="B49" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2"/>
       <c r="B50" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2"/>
       <c r="B51" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2"/>
       <c r="B52" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2"/>
       <c r="B54" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="D54" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2"/>
       <c r="B55" s="3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2"/>
       <c r="B56" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2661,71 +2600,71 @@
         <v>43008</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2"/>
       <c r="B59" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2"/>
       <c r="B60" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2"/>
       <c r="B61" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2733,89 +2672,89 @@
         <v>43015</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2"/>
       <c r="B64" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2"/>
       <c r="B65" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2"/>
       <c r="B66" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2"/>
       <c r="B67" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2823,37 +2762,37 @@
         <v>43018</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2"/>
       <c r="B70" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2861,181 +2800,181 @@
         <v>43018</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2"/>
       <c r="B73" s="3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2"/>
       <c r="B74" s="3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2"/>
       <c r="B75" s="3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2"/>
       <c r="B76" s="3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2"/>
       <c r="B77" s="3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2"/>
       <c r="B78" s="3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2"/>
       <c r="B79" s="3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2"/>
       <c r="B80" s="3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2"/>
       <c r="B81" s="3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3043,415 +2982,415 @@
         <v>43020</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2"/>
       <c r="B84" s="3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="2"/>
       <c r="B85" s="3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="2"/>
       <c r="B86" s="3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2"/>
       <c r="B87" s="3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="2"/>
       <c r="B88" s="3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="2"/>
       <c r="B89" s="3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2"/>
       <c r="B90" s="3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2"/>
       <c r="B91" s="3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2"/>
       <c r="B92" s="3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2"/>
       <c r="B93" s="3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D93" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E93" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E93" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="F93" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="2"/>
       <c r="B94" s="3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="2"/>
       <c r="B95" s="3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2"/>
       <c r="B96" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="2"/>
       <c r="B97" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2"/>
       <c r="B98" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2"/>
       <c r="B99" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="2"/>
       <c r="B100" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="2"/>
       <c r="B101" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2"/>
       <c r="B102" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="2"/>
       <c r="B103" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="2"/>
       <c r="B104" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="2"/>
       <c r="B105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="D105" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3459,142 +3398,142 @@
         <v>43021</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="2"/>
       <c r="B108" s="3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="2"/>
       <c r="B109" s="3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2"/>
       <c r="B110" s="3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="2"/>
       <c r="B111" s="3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="2"/>
       <c r="B112" s="3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="2"/>
       <c r="B113" s="3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="13"/>
       <c r="B114" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F114" s="5"/>
     </row>
@@ -3603,55 +3542,55 @@
         <v>43022</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="2"/>
       <c r="B117" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="2"/>
       <c r="B118" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3659,145 +3598,145 @@
         <v>43024</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121